--- a/Covid_19_Dataset_and_References/References/11.xlsx
+++ b/Covid_19_Dataset_and_References/References/11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="225">
   <si>
     <t>Doi</t>
   </si>
@@ -976,6 +976,200 @@
   </si>
   <si>
     <t>PMC7440861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autopsies of deceased with a confirmed severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection can provide important insights into the novel disease and its course.
+ Furthermore, autopsies are essential for the correct statistical recording of the coronavirus disease 2019 (COVID-19) deaths.
+ In the northern German Federal State of Hamburg, all deaths of Hamburg citizens with ante- or postmortem PCR-confirmed SARS-CoV-2 infection have been autopsied since the outbreak of the pandemic in Germany.
+ Our evaluation provides a systematic overview of the first 80 consecutive full autopsies.
+ A proposal for the categorisation of deaths with SARS-CoV-2 infection is presented (category 1: definite COVID-19 death; category 2: probable COVID-19 death; category 3: possible COVID-19 death with an equal alternative cause of death; category 4: SARS-CoV-2 detection with cause of death not associated to COVID-19).
+ In six cases, SARS-CoV-2 infection was diagnosed postmortem by a positive PCR test in a nasopharyngeal or lung tissue swab.
+ In the other 74 cases, SARS-CoV-2 infection had already been known antemortem.
+ The deceased were aged between 52 and 96 years (average 79.2 years, median 82.4 years).
+ In the study cohort, 34 deceased were female (38%) and 46 male (62%).
+ Overall, 38% of the deceased were overweight or obese.
+ All deceased, except for two women, in whom no significant pre-existing conditions were found autoptically, had relevant comorbidities (in descending order of frequency): (1) diseases of the cardiovascular system, (2) lung diseases, (3) central nervous system diseases, (4) kidney diseases, and (5) diabetes mellitus.
+ A total of 76 cases (95%) were classified as COVID-19 deaths, corresponding to categories 1–3. Four deaths (5%) were defined as non-COVID-19 deaths with virus-independent causes of death.
+ In eight cases, pneumonia was combined with a fulminant pulmonary artery embolism.
+ Peripheral pulmonary artery embolisms were found in nine other cases.
+ Overall, deep vein thrombosis has been found in 40% of the cases.
+ This study provides the largest overview of autopsies of SARS-CoV-2-infected patients presented so far.
+</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,  Ann Sophie%Schröder%NULL%0,  Martin%Aepfelbacher%NULL%0,  Antonia%Fitzek%NULL%1,  Axel%Heinemann%NULL%0,  Fabian%Heinrich%NULL%0,  Anke%Klein%NULL%1,  Felicia%Langenwalder%NULL%1,  Marc%Lütgehetmann%NULL%0,  Kira%Meißner%NULL%1,  Klaus%Püschel%NULL%0,  Julia%Schädler%NULL%1,  Stefan%Steurer%NULL%0,  Herbert%Mushumba%NULL%0,  Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forensic investigations generally contain extensive morphological examinations to accurately diagnose the cause of death.
+ Thus, the appearance of a new disease often creates emerging challenges in morphological examinations due to the lack of available data from autopsy- or biopsy-based research.
+ Since late December 2019, an outbreak of a novel seventh coronavirus disease has been reported in China caused by “severe acute respiratory syndrome coronavirus 2” (SARS-CoV-2).
+ On March 11, 2020, the new clinical condition COVID-19 (Corona-Virus-Disease-19) was declared a pandemic by the World Health Organization (WHO).
+ Patients with COVID-19 mainly have a mild disease course, but severe disease onset might result in death due to proceeded lung injury with massive alveolar damage and progressive respiratory failure.
+ However, the detailed mechanisms that cause organ injury still remain unclear.
+ We investigated the morphological findings of a COVID-19 patient who died during self-isolation.
+ Pathologic examination revealed massive bilateral alveolar damage, indicating early-phase “acute respiratory distress syndrome” (ARDS).
+ This case emphasizes the possibility of a rapid severe disease onset in previously mild clinical condition and highlights the necessity of a complete autopsy to gain a better understanding of the pathophysiological changes in SARS-CoV-2 infections.
+</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,  Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the setting of the coronavirus disease 2019 (COVID-19) pandemic, only few data regarding lung pathology induced by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) is available, especially without medical intervention interfering with the natural evolution of the disease.
+ We present here the first case of forensic autopsy of a COVID-19 fatality occurring in a young woman, in the community.
+ Diagnosis was made at necropsy and lung histology showed diffuse alveolar damage, edema, and interstitial pneumonia with a geographically heterogeneous pattern, mostly affecting the central part of the lungs.
+ This death related to COVID-19 pathology highlights the heterogeneity and severity of central lung lesions after natural evolution of the disease.
+</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,  Johannes Alexander%Lobrinus%NULL%2,  Johannes Alexander%Lobrinus%NULL%0,  Manuel%Schibler%NULL%1,  Tony%Fracasso%NULL%1,  Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 75-year-old man presented to a French hospital with a 4-day fever after returning from a coronavirus disease-19 (COVID-19) cluster region.
+ A reverse-transcription polymerase chain reaction test was positive for severe acute respiratory syndrome coronavirus-2 (SARS CoV-2) using a nasopharyngeal swab sample.
+ After he returned home and a telephone follow-up, he was found deceased 9 days after first showing symptoms.
+ Whole-body, non-enhanced, post-mortem computed tomography (PMCT) and a forensic autopsy were performed approximately 48 h after death, with sanitary precautions.
+ The PMCT showed bilateral and diffuse crazy-paving lung opacities, with bilateral pleural effusions.
+ Post-mortem virology studies detected the presence of SARS-CoV-2 (B.
+1 lineage) in the nasopharynx, plasma, lung biopsies, pleural effusion and faeces confirming the persistence of viral ribonucleic acid 48 h after death.
+ Microscopic examination showed that severe lung damage was responsible for his death.
+ The main abnormality was diffuse alveolar damage, associated with different stages of inflammation and fibrosis.
+ This case is one of the first to describe complete post-mortem data for a COVID-19 death and highlights the ability of PMCT to detect severe involvement of the lungs before autopsy in an apparently natural death.
+ The present pathology results are concordant with previously reported findings and reinforce the disease pathogenesis hypothesis of combined viral replication with an inappropriate immune response.
+</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,  Benjamin%Gaborit%NULL%2,  Benjamin%Gaborit%NULL%0,  Claire%Toquet%NULL%1,  Louise%Castain%NULL%1,  Antonin%Bal%NULL%1,  Pierre Paul%Arrigoni%NULL%1,  Raphaël%Lecomte%NULL%1,  Renaud%Clement%NULL%1,  Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Post-mortem studies can provide important information for understanding new diseases and small autopsy case series have already reported different findings in COVID-19 patients.
+Methods
+id="Par2"&gt;We evaluated whether some specific post-mortem features are observed in these patients and if these changes are related to the presence of the virus in different organs.
+ Complete macroscopic and microscopic autopsies were performed on different organs in 17 COVID-19 non-survivors.
+ Presence of SARS-CoV-2 was evaluated with immunohistochemistry (IHC) in lung samples and with real-time reverse-transcription polymerase chain reaction (RT-PCR) test in the lung and other organs.
+Results
+id="Par3"&gt;Pulmonary findings revealed early-stage diffuse alveolar damage (DAD) in 15 out of 17 patients and microthrombi in small lung arteries in 11 patients.
+ Late-stage DAD, atypical pneumocytes, and/or acute pneumonia were also observed.
+ Four lung infarcts, two acute myocardial infarctions, and one ischemic enteritis were observed.
+ There was no evidence of myocarditis, hepatitis, or encephalitis.
+ Kidney evaluation revealed the presence of hemosiderin in tubules or pigmented casts in most patients.
+ Spongiosis and vascular congestion were the most frequently encountered brain lesions.
+ No specific SARS-CoV-2 lesions were observed in any organ.
+ IHC revealed positive cells with a heterogeneous distribution in the lungs of 11 of the 17 (65%) patients; RT-PCR yielded a wide distribution of SARS-CoV-2 in different tissues, with 8 patients showing viral presence in all tested organs (i.
+e.
+, lung, heart, spleen, liver, colon, kidney, and brain).
+Conclusions
+id="Par4"&gt;In conclusion, autopsies revealed a great heterogeneity of COVID-19-associated organ injury and the remarkable absence of any specific viral lesions, even when RT-PCR identified the presence of the virus in many organs.
+</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,  Ricardo%De Mendonça%NULL%1,  Nicky%D’Haene%NULL%1,  Sarah%De Clercq%NULL%1,  Camille%Verocq%NULL%1,  Laetitia%Lebrun%NULL%1,  Philomène%Lavis%NULL%1,  Marie-Lucie%Racu%NULL%1,  Anne-Laure%Trépant%NULL%1,  Calliope%Maris%NULL%1,  Sandrine%Rorive%NULL%1,  Jean-Christophe%Goffard%NULL%1,  Olivier%De Witte%NULL%1,  Lorenzo%Peluso%NULL%1,  Jean-Louis%Vincent%NULL%1,  Christine%Decaestecker%NULL%1,  Fabio Silvio%Taccone%NULL%1,  Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We document the neuropathologic findings of a 73-year old man who died from acute cerebellar hemorrhage in the context of relatively mild SARS-CoV2 infection.
+ The patient developed sudden onset of headache, nausea, and vomiting, immediately followed by loss of consciousness on the day of admission.
+ Emergency medical services found him severely hypoxemic at home, and the patient suffered a cardiac arrest during transport to the emergency department.
+ The emergency team achieved return of spontaneous circulation after over 17 min of resuscitation.
+ A chest radiograph revealed hazy bilateral opacities; and real-time-PCR for SARS-CoV-2 on the nasopharyngeal swab was positive.
+ Computed tomography of the head showed a large right cerebellar hemorrhage, with tonsillar herniation and intraventricular hemorrhage.
+ One day after presentation, he was transitioned to comfort care and died shortly after palliative extubation.
+ Autopsy performed 3 h after death showed cerebellar hemorrhage and acute infarcts in the dorsal pons and medulla.
+ Remarkably, there were microglial nodules and neuronophagia bilaterally in the inferior olives and multifocally in the cerebellar dentate nuclei.
+ This constellation of findings has not been reported thus far in the context of SARS-CoV-2 infection.
+</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,  Kiran T.%Thakur%NULL%2,  Kiran T.%Thakur%NULL%0,  Anna S.%Nordvig%NULL%1,  Morgan L.%Prust%NULL%1,  William%Roth%NULL%1,  Angela%Lignelli%NULL%1,  Anne-Catrin%Uhlemann%NULL%1,  Emily Happy%Miller%NULL%1,  Shajo%Kunnath-Velayudhan%NULL%1,  Armando%Del Portillo%NULL%1,  Yang%Liu%NULL%1,  Gunnar%Hargus%NULL%1,  Andrew F.%Teich%NULL%1,  Richard A.%Hickman%NULL%1,  Kurenai%Tanji%NULL%1,  James E.%Goldman%NULL%1,  Phyllis L.%Faust%NULL%1,  Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper describes three autopsy cases with postmortem diagnosis of SARS-CoV-2 infection, with detailed macroscopic examination as well as advanced microscopic studies of organ tissues collected using hematoxylin-eosin stains and immunohistochemical markers.
+ Two of the cases were admitted briefly in the County Clinical Emergency Hospital of Sibiu, and one was found deceased at his home address.
+ All three autopsies were completed at the County morgue, in the COVID-19 restricted area, using complete protective equipment.
+ The lungs of the patients seemed to be the center organ of invasion and pathogenesis of the novel coronavirus with diffuse areas of condensation, subpleural retraction zones but with different aspect of the classic bacterial bronchopneumonia.
+ Microscopic evaluation revealed viral cytopathic effect of type II pneumocytes with a couple of cells that presented cytoplasmic and nuclear inclusions and who tend to form clusters mimicking multinucleated giant cells.
+ Hyaline membranes and destruction of the alveolar wall as well as microthrombi formation within the small blood vessels were constantly found in almost all our three cases.
+ The spleen had sustained white pulp atrophy with absence of lymphoid follicles.
+ There were no microscopic signs of viral infection on the myocardium or the other organs.
+</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,  Lilioara-Alexandra%Muja%NULL%2,  Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Post-mortem studies can provide important information for understanding new diseases and small autopsy case series have already reported different findings in COVID-19 patients.
+Methods
+We evaluated whether some specific post-mortem features are observed in these patients and if these changes are related to the presence of the virus in different organs.
+ Complete macroscopic and microscopic autopsies were performed on different organs in 17 COVID-19 non-survivors.
+ Presence of SARS-CoV-2 was evaluated with immunohistochemistry (IHC) in lung samples and with real-time reverse-transcription polymerase chain reaction (RT-PCR) test in the lung and other organs.
+Results
+id="Par3"&gt;Pulmonary findings revealed early-stage diffuse alveolar damage (DAD) in 15 out of 17 patients and microthrombi in small lung arteries in 11 patients.
+ Late-stage DAD, atypical pneumocytes, and/or acute pneumonia were also observed.
+ Four lung infarcts, two acute myocardial infarctions, and one ischemic enteritis were observed.
+ There was no evidence of myocarditis, hepatitis, or encephalitis.
+ Kidney evaluation revealed the presence of hemosiderin in tubules or pigmented casts in most patients.
+ Spongiosis and vascular congestion were the most frequently encountered brain lesions.
+ No specific SARS-CoV-2 lesions were observed in any organ.
+ IHC revealed positive cells with a heterogeneous distribution in the lungs of 11 of the 17 (65%) patients; RT-PCR yielded a wide distribution of SARS-CoV-2 in different tissues, with 8 patients showing viral presence in all tested organs (i.
+e.
+, lung, heart, spleen, liver, colon, kidney, and brain).
+Conclusions
+id="Par4"&gt;In conclusion, autopsies revealed a great heterogeneity of COVID-19-associated organ injury and the remarkable absence of any specific viral lesions, even when RT-PCR identified the presence of the virus in many organs.
+</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,   Ricardo%De Mendonça%NULL%1,   Nicky%D’Haene%NULL%1,   Sarah%De Clercq%NULL%1,   Camille%Verocq%NULL%1,   Laetitia%Lebrun%NULL%1,   Philomène%Lavis%NULL%1,   Marie-Lucie%Racu%NULL%1,   Anne-Laure%Trépant%NULL%1,   Calliope%Maris%NULL%1,   Sandrine%Rorive%NULL%1,   Jean-Christophe%Goffard%NULL%1,   Olivier%De Witte%NULL%1,   Lorenzo%Peluso%NULL%1,   Jean-Louis%Vincent%NULL%1,   Christine%Decaestecker%NULL%1,   Fabio Silvio%Taccone%NULL%1,   Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Post-mortem studies can provide important information for understanding new diseases and small autopsy case series have already reported different findings in COVID-19 patients.
+Methods
+We evaluated whether some specific post-mortem features are observed in these patients and if these changes are related to the presence of the virus in different organs.
+ Complete macroscopic and microscopic autopsies were performed on different organs in 17 COVID-19 non-survivors.
+ Presence of SARS-CoV-2 was evaluated with immunohistochemistry (IHC) in lung samples and with real-time reverse-transcription polymerase chain reaction (RT-PCR) test in the lung and other organs.
+Results
+Pulmonary findings revealed early-stage diffuse alveolar damage (DAD) in 15 out of 17 patients and microthrombi in small lung arteries in 11 patients.
+ Late-stage DAD, atypical pneumocytes, and/or acute pneumonia were also observed.
+ Four lung infarcts, two acute myocardial infarctions, and one ischemic enteritis were observed.
+ There was no evidence of myocarditis, hepatitis, or encephalitis.
+ Kidney evaluation revealed the presence of hemosiderin in tubules or pigmented casts in most patients.
+ Spongiosis and vascular congestion were the most frequently encountered brain lesions.
+ No specific SARS-CoV-2 lesions were observed in any organ.
+ IHC revealed positive cells with a heterogeneous distribution in the lungs of 11 of the 17 (65%) patients; RT-PCR yielded a wide distribution of SARS-CoV-2 in different tissues, with 8 patients showing viral presence in all tested organs (i.
+e.
+, lung, heart, spleen, liver, colon, kidney, and brain).
+Conclusions
+id="Par4"&gt;In conclusion, autopsies revealed a great heterogeneity of COVID-19-associated organ injury and the remarkable absence of any specific viral lesions, even when RT-PCR identified the presence of the virus in many organs.
+</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,    Ricardo%De Mendonça%NULL%1,    Nicky%D’Haene%NULL%1,    Sarah%De Clercq%NULL%1,    Camille%Verocq%NULL%1,    Laetitia%Lebrun%NULL%1,    Philomène%Lavis%NULL%1,    Marie-Lucie%Racu%NULL%1,    Anne-Laure%Trépant%NULL%1,    Calliope%Maris%NULL%1,    Sandrine%Rorive%NULL%1,    Jean-Christophe%Goffard%NULL%1,    Olivier%De Witte%NULL%1,    Lorenzo%Peluso%NULL%1,    Jean-Louis%Vincent%NULL%1,    Christine%Decaestecker%NULL%1,    Fabio Silvio%Taccone%NULL%1,    Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Post-mortem studies can provide important information for understanding new diseases and small autopsy case series have already reported different findings in COVID-19 patients.
+Methods
+We evaluated whether some specific post-mortem features are observed in these patients and if these changes are related to the presence of the virus in different organs.
+ Complete macroscopic and microscopic autopsies were performed on different organs in 17 COVID-19 non-survivors.
+ Presence of SARS-CoV-2 was evaluated with immunohistochemistry (IHC) in lung samples and with real-time reverse-transcription polymerase chain reaction (RT-PCR) test in the lung and other organs.
+Results
+Pulmonary findings revealed early-stage diffuse alveolar damage (DAD) in 15 out of 17 patients and microthrombi in small lung arteries in 11 patients.
+ Late-stage DAD, atypical pneumocytes, and/or acute pneumonia were also observed.
+ Four lung infarcts, two acute myocardial infarctions, and one ischemic enteritis were observed.
+ There was no evidence of myocarditis, hepatitis, or encephalitis.
+ Kidney evaluation revealed the presence of hemosiderin in tubules or pigmented casts in most patients.
+ Spongiosis and vascular congestion were the most frequently encountered brain lesions.
+ No specific SARS-CoV-2 lesions were observed in any organ.
+ IHC revealed positive cells with a heterogeneous distribution in the lungs of 11 of the 17 (65%) patients; RT-PCR yielded a wide distribution of SARS-CoV-2 in different tissues, with 8 patients showing viral presence in all tested organs (i.
+e.
+, lung, heart, spleen, liver, colon, kidney, and brain).
+Conclusions
+In conclusion, autopsies revealed a great heterogeneity of COVID-19-associated organ injury and the remarkable absence of any specific viral lesions, even when RT-PCR identified the presence of the virus in many organs.
+</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,     Ricardo%De Mendonça%NULL%1,     Nicky%D’Haene%NULL%1,     Sarah%De Clercq%NULL%1,     Camille%Verocq%NULL%1,     Laetitia%Lebrun%NULL%1,     Philomène%Lavis%NULL%1,     Marie-Lucie%Racu%NULL%1,     Anne-Laure%Trépant%NULL%1,     Calliope%Maris%NULL%1,     Sandrine%Rorive%NULL%1,     Jean-Christophe%Goffard%NULL%1,     Olivier%De Witte%NULL%1,     Lorenzo%Peluso%NULL%1,     Jean-Louis%Vincent%NULL%1,     Christine%Decaestecker%NULL%1,     Fabio Silvio%Taccone%NULL%1,     Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
   </si>
 </sst>
 </file>
@@ -1677,10 +1871,10 @@
         <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>205</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>206</v>
       </c>
       <c r="F14" t="s">
         <v>101</v>
@@ -1755,10 +1949,10 @@
         <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>208</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -1781,10 +1975,10 @@
         <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>209</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>210</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -1989,10 +2183,10 @@
         <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>211</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>212</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
@@ -2119,10 +2313,10 @@
         <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
       <c r="E31" t="s">
-        <v>164</v>
+        <v>224</v>
       </c>
       <c r="F31" t="s">
         <v>165</v>
@@ -2223,10 +2417,10 @@
         <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>215</v>
       </c>
       <c r="E35" t="s">
-        <v>183</v>
+        <v>216</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -2249,10 +2443,10 @@
         <v>186</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="E36" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="F36" t="s">
         <v>189</v>

--- a/Covid_19_Dataset_and_References/References/11.xlsx
+++ b/Covid_19_Dataset_and_References/References/11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="664" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="205">
   <si>
     <t>Doi</t>
   </si>
@@ -976,200 +976,6 @@
   </si>
   <si>
     <t>PMC7440861</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Autopsies of deceased with a confirmed severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection can provide important insights into the novel disease and its course.
- Furthermore, autopsies are essential for the correct statistical recording of the coronavirus disease 2019 (COVID-19) deaths.
- In the northern German Federal State of Hamburg, all deaths of Hamburg citizens with ante- or postmortem PCR-confirmed SARS-CoV-2 infection have been autopsied since the outbreak of the pandemic in Germany.
- Our evaluation provides a systematic overview of the first 80 consecutive full autopsies.
- A proposal for the categorisation of deaths with SARS-CoV-2 infection is presented (category 1: definite COVID-19 death; category 2: probable COVID-19 death; category 3: possible COVID-19 death with an equal alternative cause of death; category 4: SARS-CoV-2 detection with cause of death not associated to COVID-19).
- In six cases, SARS-CoV-2 infection was diagnosed postmortem by a positive PCR test in a nasopharyngeal or lung tissue swab.
- In the other 74 cases, SARS-CoV-2 infection had already been known antemortem.
- The deceased were aged between 52 and 96 years (average 79.2 years, median 82.4 years).
- In the study cohort, 34 deceased were female (38%) and 46 male (62%).
- Overall, 38% of the deceased were overweight or obese.
- All deceased, except for two women, in whom no significant pre-existing conditions were found autoptically, had relevant comorbidities (in descending order of frequency): (1) diseases of the cardiovascular system, (2) lung diseases, (3) central nervous system diseases, (4) kidney diseases, and (5) diabetes mellitus.
- A total of 76 cases (95%) were classified as COVID-19 deaths, corresponding to categories 1–3. Four deaths (5%) were defined as non-COVID-19 deaths with virus-independent causes of death.
- In eight cases, pneumonia was combined with a fulminant pulmonary artery embolism.
- Peripheral pulmonary artery embolisms were found in nine other cases.
- Overall, deep vein thrombosis has been found in 40% of the cases.
- This study provides the largest overview of autopsies of SARS-CoV-2-infected patients presented so far.
-</t>
-  </si>
-  <si>
-    <t>[Carolin%Edler%NULL%1,  Ann Sophie%Schröder%NULL%0,  Martin%Aepfelbacher%NULL%0,  Antonia%Fitzek%NULL%1,  Axel%Heinemann%NULL%0,  Fabian%Heinrich%NULL%0,  Anke%Klein%NULL%1,  Felicia%Langenwalder%NULL%1,  Marc%Lütgehetmann%NULL%0,  Kira%Meißner%NULL%1,  Klaus%Püschel%NULL%0,  Julia%Schädler%NULL%1,  Stefan%Steurer%NULL%0,  Herbert%Mushumba%NULL%0,  Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Forensic investigations generally contain extensive morphological examinations to accurately diagnose the cause of death.
- Thus, the appearance of a new disease often creates emerging challenges in morphological examinations due to the lack of available data from autopsy- or biopsy-based research.
- Since late December 2019, an outbreak of a novel seventh coronavirus disease has been reported in China caused by “severe acute respiratory syndrome coronavirus 2” (SARS-CoV-2).
- On March 11, 2020, the new clinical condition COVID-19 (Corona-Virus-Disease-19) was declared a pandemic by the World Health Organization (WHO).
- Patients with COVID-19 mainly have a mild disease course, but severe disease onset might result in death due to proceeded lung injury with massive alveolar damage and progressive respiratory failure.
- However, the detailed mechanisms that cause organ injury still remain unclear.
- We investigated the morphological findings of a COVID-19 patient who died during self-isolation.
- Pathologic examination revealed massive bilateral alveolar damage, indicating early-phase “acute respiratory distress syndrome” (ARDS).
- This case emphasizes the possibility of a rapid severe disease onset in previously mild clinical condition and highlights the necessity of a complete autopsy to gain a better understanding of the pathophysiological changes in SARS-CoV-2 infections.
-</t>
-  </si>
-  <si>
-    <t>[Christine%Suess%NULL%1,  Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">In the setting of the coronavirus disease 2019 (COVID-19) pandemic, only few data regarding lung pathology induced by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) is available, especially without medical intervention interfering with the natural evolution of the disease.
- We present here the first case of forensic autopsy of a COVID-19 fatality occurring in a young woman, in the community.
- Diagnosis was made at necropsy and lung histology showed diffuse alveolar damage, edema, and interstitial pneumonia with a geographically heterogeneous pattern, mostly affecting the central part of the lungs.
- This death related to COVID-19 pathology highlights the heterogeneity and severity of central lung lesions after natural evolution of the disease.
-</t>
-  </si>
-  <si>
-    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,  Johannes Alexander%Lobrinus%NULL%2,  Johannes Alexander%Lobrinus%NULL%0,  Manuel%Schibler%NULL%1,  Tony%Fracasso%NULL%1,  Christelle%Lardi%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">A 75-year-old man presented to a French hospital with a 4-day fever after returning from a coronavirus disease-19 (COVID-19) cluster region.
- A reverse-transcription polymerase chain reaction test was positive for severe acute respiratory syndrome coronavirus-2 (SARS CoV-2) using a nasopharyngeal swab sample.
- After he returned home and a telephone follow-up, he was found deceased 9 days after first showing symptoms.
- Whole-body, non-enhanced, post-mortem computed tomography (PMCT) and a forensic autopsy were performed approximately 48 h after death, with sanitary precautions.
- The PMCT showed bilateral and diffuse crazy-paving lung opacities, with bilateral pleural effusions.
- Post-mortem virology studies detected the presence of SARS-CoV-2 (B.
-1 lineage) in the nasopharynx, plasma, lung biopsies, pleural effusion and faeces confirming the persistence of viral ribonucleic acid 48 h after death.
- Microscopic examination showed that severe lung damage was responsible for his death.
- The main abnormality was diffuse alveolar damage, associated with different stages of inflammation and fibrosis.
- This case is one of the first to describe complete post-mortem data for a COVID-19 death and highlights the ability of PMCT to detect severe involvement of the lungs before autopsy in an apparently natural death.
- The present pathology results are concordant with previously reported findings and reinforce the disease pathogenesis hypothesis of combined viral replication with an inappropriate immune response.
-</t>
-  </si>
-  <si>
-    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,  Benjamin%Gaborit%NULL%2,  Benjamin%Gaborit%NULL%0,  Claire%Toquet%NULL%1,  Louise%Castain%NULL%1,  Antonin%Bal%NULL%1,  Pierre Paul%Arrigoni%NULL%1,  Raphaël%Lecomte%NULL%1,  Renaud%Clement%NULL%1,  Christine%Sagan%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Post-mortem studies can provide important information for understanding new diseases and small autopsy case series have already reported different findings in COVID-19 patients.
-Methods
-id="Par2"&gt;We evaluated whether some specific post-mortem features are observed in these patients and if these changes are related to the presence of the virus in different organs.
- Complete macroscopic and microscopic autopsies were performed on different organs in 17 COVID-19 non-survivors.
- Presence of SARS-CoV-2 was evaluated with immunohistochemistry (IHC) in lung samples and with real-time reverse-transcription polymerase chain reaction (RT-PCR) test in the lung and other organs.
-Results
-id="Par3"&gt;Pulmonary findings revealed early-stage diffuse alveolar damage (DAD) in 15 out of 17 patients and microthrombi in small lung arteries in 11 patients.
- Late-stage DAD, atypical pneumocytes, and/or acute pneumonia were also observed.
- Four lung infarcts, two acute myocardial infarctions, and one ischemic enteritis were observed.
- There was no evidence of myocarditis, hepatitis, or encephalitis.
- Kidney evaluation revealed the presence of hemosiderin in tubules or pigmented casts in most patients.
- Spongiosis and vascular congestion were the most frequently encountered brain lesions.
- No specific SARS-CoV-2 lesions were observed in any organ.
- IHC revealed positive cells with a heterogeneous distribution in the lungs of 11 of the 17 (65%) patients; RT-PCR yielded a wide distribution of SARS-CoV-2 in different tissues, with 8 patients showing viral presence in all tested organs (i.
-e.
-, lung, heart, spleen, liver, colon, kidney, and brain).
-Conclusions
-id="Par4"&gt;In conclusion, autopsies revealed a great heterogeneity of COVID-19-associated organ injury and the remarkable absence of any specific viral lesions, even when RT-PCR identified the presence of the virus in many organs.
-</t>
-  </si>
-  <si>
-    <t>[Myriam%Remmelink%NULL%1,  Ricardo%De Mendonça%NULL%1,  Nicky%D’Haene%NULL%1,  Sarah%De Clercq%NULL%1,  Camille%Verocq%NULL%1,  Laetitia%Lebrun%NULL%1,  Philomène%Lavis%NULL%1,  Marie-Lucie%Racu%NULL%1,  Anne-Laure%Trépant%NULL%1,  Calliope%Maris%NULL%1,  Sandrine%Rorive%NULL%1,  Jean-Christophe%Goffard%NULL%1,  Olivier%De Witte%NULL%1,  Lorenzo%Peluso%NULL%1,  Jean-Louis%Vincent%NULL%1,  Christine%Decaestecker%NULL%1,  Fabio Silvio%Taccone%NULL%1,  Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">We document the neuropathologic findings of a 73-year old man who died from acute cerebellar hemorrhage in the context of relatively mild SARS-CoV2 infection.
- The patient developed sudden onset of headache, nausea, and vomiting, immediately followed by loss of consciousness on the day of admission.
- Emergency medical services found him severely hypoxemic at home, and the patient suffered a cardiac arrest during transport to the emergency department.
- The emergency team achieved return of spontaneous circulation after over 17 min of resuscitation.
- A chest radiograph revealed hazy bilateral opacities; and real-time-PCR for SARS-CoV-2 on the nasopharyngeal swab was positive.
- Computed tomography of the head showed a large right cerebellar hemorrhage, with tonsillar herniation and intraventricular hemorrhage.
- One day after presentation, he was transitioned to comfort care and died shortly after palliative extubation.
- Autopsy performed 3 h after death showed cerebellar hemorrhage and acute infarcts in the dorsal pons and medulla.
- Remarkably, there were microglial nodules and neuronophagia bilaterally in the inferior olives and multifocally in the cerebellar dentate nuclei.
- This constellation of findings has not been reported thus far in the context of SARS-CoV-2 infection.
-</t>
-  </si>
-  <si>
-    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,  Kiran T.%Thakur%NULL%2,  Kiran T.%Thakur%NULL%0,  Anna S.%Nordvig%NULL%1,  Morgan L.%Prust%NULL%1,  William%Roth%NULL%1,  Angela%Lignelli%NULL%1,  Anne-Catrin%Uhlemann%NULL%1,  Emily Happy%Miller%NULL%1,  Shajo%Kunnath-Velayudhan%NULL%1,  Armando%Del Portillo%NULL%1,  Yang%Liu%NULL%1,  Gunnar%Hargus%NULL%1,  Andrew F.%Teich%NULL%1,  Richard A.%Hickman%NULL%1,  Kurenai%Tanji%NULL%1,  James E.%Goldman%NULL%1,  Phyllis L.%Faust%NULL%1,  Peter%Canoll%NULL%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This paper describes three autopsy cases with postmortem diagnosis of SARS-CoV-2 infection, with detailed macroscopic examination as well as advanced microscopic studies of organ tissues collected using hematoxylin-eosin stains and immunohistochemical markers.
- Two of the cases were admitted briefly in the County Clinical Emergency Hospital of Sibiu, and one was found deceased at his home address.
- All three autopsies were completed at the County morgue, in the COVID-19 restricted area, using complete protective equipment.
- The lungs of the patients seemed to be the center organ of invasion and pathogenesis of the novel coronavirus with diffuse areas of condensation, subpleural retraction zones but with different aspect of the classic bacterial bronchopneumonia.
- Microscopic evaluation revealed viral cytopathic effect of type II pneumocytes with a couple of cells that presented cytoplasmic and nuclear inclusions and who tend to form clusters mimicking multinucleated giant cells.
- Hyaline membranes and destruction of the alveolar wall as well as microthrombi formation within the small blood vessels were constantly found in almost all our three cases.
- The spleen had sustained white pulp atrophy with absence of lymphoid follicles.
- There were no microscopic signs of viral infection on the myocardium or the other organs.
-</t>
-  </si>
-  <si>
-    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,  Lilioara-Alexandra%Muja%NULL%2,  Lilioara-Alexandra%Muja%NULL%0]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Post-mortem studies can provide important information for understanding new diseases and small autopsy case series have already reported different findings in COVID-19 patients.
-Methods
-We evaluated whether some specific post-mortem features are observed in these patients and if these changes are related to the presence of the virus in different organs.
- Complete macroscopic and microscopic autopsies were performed on different organs in 17 COVID-19 non-survivors.
- Presence of SARS-CoV-2 was evaluated with immunohistochemistry (IHC) in lung samples and with real-time reverse-transcription polymerase chain reaction (RT-PCR) test in the lung and other organs.
-Results
-id="Par3"&gt;Pulmonary findings revealed early-stage diffuse alveolar damage (DAD) in 15 out of 17 patients and microthrombi in small lung arteries in 11 patients.
- Late-stage DAD, atypical pneumocytes, and/or acute pneumonia were also observed.
- Four lung infarcts, two acute myocardial infarctions, and one ischemic enteritis were observed.
- There was no evidence of myocarditis, hepatitis, or encephalitis.
- Kidney evaluation revealed the presence of hemosiderin in tubules or pigmented casts in most patients.
- Spongiosis and vascular congestion were the most frequently encountered brain lesions.
- No specific SARS-CoV-2 lesions were observed in any organ.
- IHC revealed positive cells with a heterogeneous distribution in the lungs of 11 of the 17 (65%) patients; RT-PCR yielded a wide distribution of SARS-CoV-2 in different tissues, with 8 patients showing viral presence in all tested organs (i.
-e.
-, lung, heart, spleen, liver, colon, kidney, and brain).
-Conclusions
-id="Par4"&gt;In conclusion, autopsies revealed a great heterogeneity of COVID-19-associated organ injury and the remarkable absence of any specific viral lesions, even when RT-PCR identified the presence of the virus in many organs.
-</t>
-  </si>
-  <si>
-    <t>[Myriam%Remmelink%NULL%1,   Ricardo%De Mendonça%NULL%1,   Nicky%D’Haene%NULL%1,   Sarah%De Clercq%NULL%1,   Camille%Verocq%NULL%1,   Laetitia%Lebrun%NULL%1,   Philomène%Lavis%NULL%1,   Marie-Lucie%Racu%NULL%1,   Anne-Laure%Trépant%NULL%1,   Calliope%Maris%NULL%1,   Sandrine%Rorive%NULL%1,   Jean-Christophe%Goffard%NULL%1,   Olivier%De Witte%NULL%1,   Lorenzo%Peluso%NULL%1,   Jean-Louis%Vincent%NULL%1,   Christine%Decaestecker%NULL%1,   Fabio Silvio%Taccone%NULL%1,   Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Post-mortem studies can provide important information for understanding new diseases and small autopsy case series have already reported different findings in COVID-19 patients.
-Methods
-We evaluated whether some specific post-mortem features are observed in these patients and if these changes are related to the presence of the virus in different organs.
- Complete macroscopic and microscopic autopsies were performed on different organs in 17 COVID-19 non-survivors.
- Presence of SARS-CoV-2 was evaluated with immunohistochemistry (IHC) in lung samples and with real-time reverse-transcription polymerase chain reaction (RT-PCR) test in the lung and other organs.
-Results
-Pulmonary findings revealed early-stage diffuse alveolar damage (DAD) in 15 out of 17 patients and microthrombi in small lung arteries in 11 patients.
- Late-stage DAD, atypical pneumocytes, and/or acute pneumonia were also observed.
- Four lung infarcts, two acute myocardial infarctions, and one ischemic enteritis were observed.
- There was no evidence of myocarditis, hepatitis, or encephalitis.
- Kidney evaluation revealed the presence of hemosiderin in tubules or pigmented casts in most patients.
- Spongiosis and vascular congestion were the most frequently encountered brain lesions.
- No specific SARS-CoV-2 lesions were observed in any organ.
- IHC revealed positive cells with a heterogeneous distribution in the lungs of 11 of the 17 (65%) patients; RT-PCR yielded a wide distribution of SARS-CoV-2 in different tissues, with 8 patients showing viral presence in all tested organs (i.
-e.
-, lung, heart, spleen, liver, colon, kidney, and brain).
-Conclusions
-id="Par4"&gt;In conclusion, autopsies revealed a great heterogeneity of COVID-19-associated organ injury and the remarkable absence of any specific viral lesions, even when RT-PCR identified the presence of the virus in many organs.
-</t>
-  </si>
-  <si>
-    <t>[Myriam%Remmelink%NULL%1,    Ricardo%De Mendonça%NULL%1,    Nicky%D’Haene%NULL%1,    Sarah%De Clercq%NULL%1,    Camille%Verocq%NULL%1,    Laetitia%Lebrun%NULL%1,    Philomène%Lavis%NULL%1,    Marie-Lucie%Racu%NULL%1,    Anne-Laure%Trépant%NULL%1,    Calliope%Maris%NULL%1,    Sandrine%Rorive%NULL%1,    Jean-Christophe%Goffard%NULL%1,    Olivier%De Witte%NULL%1,    Lorenzo%Peluso%NULL%1,    Jean-Louis%Vincent%NULL%1,    Christine%Decaestecker%NULL%1,    Fabio Silvio%Taccone%NULL%1,    Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Background
-Post-mortem studies can provide important information for understanding new diseases and small autopsy case series have already reported different findings in COVID-19 patients.
-Methods
-We evaluated whether some specific post-mortem features are observed in these patients and if these changes are related to the presence of the virus in different organs.
- Complete macroscopic and microscopic autopsies were performed on different organs in 17 COVID-19 non-survivors.
- Presence of SARS-CoV-2 was evaluated with immunohistochemistry (IHC) in lung samples and with real-time reverse-transcription polymerase chain reaction (RT-PCR) test in the lung and other organs.
-Results
-Pulmonary findings revealed early-stage diffuse alveolar damage (DAD) in 15 out of 17 patients and microthrombi in small lung arteries in 11 patients.
- Late-stage DAD, atypical pneumocytes, and/or acute pneumonia were also observed.
- Four lung infarcts, two acute myocardial infarctions, and one ischemic enteritis were observed.
- There was no evidence of myocarditis, hepatitis, or encephalitis.
- Kidney evaluation revealed the presence of hemosiderin in tubules or pigmented casts in most patients.
- Spongiosis and vascular congestion were the most frequently encountered brain lesions.
- No specific SARS-CoV-2 lesions were observed in any organ.
- IHC revealed positive cells with a heterogeneous distribution in the lungs of 11 of the 17 (65%) patients; RT-PCR yielded a wide distribution of SARS-CoV-2 in different tissues, with 8 patients showing viral presence in all tested organs (i.
-e.
-, lung, heart, spleen, liver, colon, kidney, and brain).
-Conclusions
-In conclusion, autopsies revealed a great heterogeneity of COVID-19-associated organ injury and the remarkable absence of any specific viral lesions, even when RT-PCR identified the presence of the virus in many organs.
-</t>
-  </si>
-  <si>
-    <t>[Myriam%Remmelink%NULL%1,     Ricardo%De Mendonça%NULL%1,     Nicky%D’Haene%NULL%1,     Sarah%De Clercq%NULL%1,     Camille%Verocq%NULL%1,     Laetitia%Lebrun%NULL%1,     Philomène%Lavis%NULL%1,     Marie-Lucie%Racu%NULL%1,     Anne-Laure%Trépant%NULL%1,     Calliope%Maris%NULL%1,     Sandrine%Rorive%NULL%1,     Jean-Christophe%Goffard%NULL%1,     Olivier%De Witte%NULL%1,     Lorenzo%Peluso%NULL%1,     Jean-Louis%Vincent%NULL%1,     Christine%Decaestecker%NULL%1,     Fabio Silvio%Taccone%NULL%1,     Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
   </si>
 </sst>
 </file>
@@ -1871,10 +1677,10 @@
         <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>205</v>
+        <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>206</v>
+        <v>100</v>
       </c>
       <c r="F14" t="s">
         <v>101</v>
@@ -1949,10 +1755,10 @@
         <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>207</v>
+        <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>208</v>
+        <v>109</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -1975,10 +1781,10 @@
         <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>209</v>
+        <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>210</v>
+        <v>114</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -2183,10 +1989,10 @@
         <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>211</v>
+        <v>143</v>
       </c>
       <c r="E26" t="s">
-        <v>212</v>
+        <v>144</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
@@ -2313,10 +2119,10 @@
         <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>223</v>
+        <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>224</v>
+        <v>164</v>
       </c>
       <c r="F31" t="s">
         <v>165</v>
@@ -2417,10 +2223,10 @@
         <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>215</v>
+        <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>216</v>
+        <v>183</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -2443,10 +2249,10 @@
         <v>186</v>
       </c>
       <c r="D36" t="s">
-        <v>217</v>
+        <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>218</v>
+        <v>188</v>
       </c>
       <c r="F36" t="s">
         <v>189</v>

--- a/Covid_19_Dataset_and_References/References/11.xlsx
+++ b/Covid_19_Dataset_and_References/References/11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="604" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="243">
   <si>
     <t>Doi</t>
   </si>
@@ -976,6 +976,120 @@
   </si>
   <si>
     <t>PMC7440861</t>
+  </si>
+  <si>
+    <t>Other found locations</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,  Renata A A%Monteiro%NULL%2,  Renata A A%Monteiro%NULL%0,  Luiz F F%da Silva%NULL%1,  Denise M A C%Malheiros%NULL%1,  Ellen P%de Oliveira%NULL%1,  Jair%Theodoro‐Filho%NULL%1,  João R R%Pinho%NULL%1,  Michele S%Gomes‐Gouvêa%NULL%1,  Ana P M%Salles%NULL%1,  Ilka R S%de Oliveira%NULL%1,  Thais%Mauad%NULL%1,  Paulo H N%Saldiva%NULL%1,  Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>_PMC</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,  Dwayne A.%Wolf%NULL%1,  Bihong%Zhao%NULL%1,  Bindu%Akkanti%NULL%1,  Michelle%McDonald%NULL%1,  Laura%Lelenwa%NULL%1,  Noah%Reilly%NULL%1,  Giulia%Ottaviani%NULL%1,  M. Tarek%Elghetany%NULL%1,  Daniel Ocazionez%Trujillo%NULL%1,  Gabriel M.%Aisenberg%NULL%1,  Mohammad%Madjid%NULL%1,  Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,  Erin G.%Brooks%NULL%1,  Joshua%Akers%NULL%1,  Danielle%Armstrong%NULL%1,  Lauren%Decker%NULL%1,  Adam%Gonzalez%NULL%1,  William%Humphrey%NULL%1,  Romana%Mayer%NULL%1,  Matthew%Miller%NULL%1,  Catherine%Perez%NULL%1,  Jose Antonio Ruiz%Arango%NULL%1,  Lakshmanan%Sathyavagiswaran%NULL%1,  Wendy%Stroh%NULL%1,  Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,  Jan-Peter%Sperhake%NULL%2,  Marc%Lütgehetmann%NULL%2,  Stefan%Steurer%NULL%2,  Carolin%Edler%NULL%1,  Axel%Heinemann%NULL%2,  Fabian%Heinrich%NULL%2,  Herbert%Mushumba%NULL%2,  Inga%Kniep%NULL%1,  Ann Sophie%Schröder%NULL%2,  Christoph%Burdelski%NULL%2,  Geraldine%de Heer%NULL%2,  Axel%Nierhaus%NULL%2,  Daniel%Frings%NULL%2,  Susanne%Pfefferle%NULL%1,  Heinrich%Becker%NULL%1,  Hanns%Bredereke-Wiedling%NULL%1,  Andreas%de Weerth%NULL%2,  Hans-Richard%Paschen%NULL%1,  Sara%Sheikhzadeh-Eggers%NULL%1,  Axel%Stang%NULL%1,  Stefan%Schmiedel%NULL%1,  Carsten%Bokemeyer%NULL%1,  Marylyn M.%Addo%NULL%1,  Martin%Aepfelbacher%NULL%2,  Klaus%Püschel%NULL%2,  Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,  Jasmin D%Haslbauer%NULL%4,  Jasmin D%Haslbauer%NULL%0,  Ronny%Nienhold%NULL%2,  Spasenija%Savic%NULL%2,  Helmut%Hopfer%NULL%2,  Nikolaus%Deigendesch%NULL%2,  Stephan%Frank%NULL%2,  Daniel%Turek%NULL%2,  Niels%Willi%NULL%2,  Hans%Pargger%NULL%2,  Stefano%Bassetti%NULL%2,  Joerg D%Leuppi%NULL%2,  Gieri%Cathomas%NULL%2,  Markus%Tolnay%NULL%2,  Kirsten D%Mertz%NULL%2,  Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,  Jasmin D%Haslbauer%NULL%0,  Jasmin D%Haslbauer%NULL%0,  Ronny%Nienhold%NULL%0,  Spasenija%Savic%NULL%0,  Helmut%Hopfer%NULL%0,  Nikolaus%Deigendesch%NULL%0,  Stephan%Frank%NULL%0,  Daniel%Turek%NULL%0,  Niels%Willi%NULL%0,  Hans%Pargger%NULL%0,  Stefano%Bassetti%NULL%0,  Joerg D%Leuppi%NULL%0,  Gieri%Cathomas%NULL%0,  Markus%Tolnay%NULL%0,  Kirsten D%Mertz%NULL%0,  Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,  Andreas J%Flammer%NULL%1,  Peter%Steiger%NULL%1,  Martina%Haberecker%NULL%1,  Rea%Andermatt%NULL%1,  Annelies S%Zinkernagel%NULL%1,  Mandeep R%Mehra%NULL%1,  Reto A%Schuepbach%NULL%1,  Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,  Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,  Yong%Xiong%NULL%0,  Huan%Liu%NULL%3,  Li%Niu%NULL%1,  Jianchun%Guo%NULL%1,  Meiyan%Liao%NULL%1,  Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_Springer</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,  Eric J%Duval%NULL%1,  Edana%Stroberg%NULL%1,  Subha%Ghosh%NULL%1,  Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,  Pilar%Alemany Monraval%NULL%1,  Carmen%Medina Medina%NULL%1,  Ana%Jiménez Sánchez%NULL%1,  Juan Carlos%Andrés Teruel%NULL%1,  José%Ferrando Marco%NULL%1,  Víctor%Puglia Santos%NULL%1,  Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,  Ann Sophie%Schröder%NULL%0,  Martin%Aepfelbacher%NULL%0,  Antonia%Fitzek%NULL%1,  Axel%Heinemann%NULL%0,  Fabian%Heinrich%NULL%0,  Anke%Klein%NULL%1,  Felicia%Langenwalder%NULL%1,  Marc%Lütgehetmann%NULL%0,  Kira%Meißner%NULL%1,  Klaus%Püschel%NULL%0,  Julia%Schädler%NULL%1,  Stefan%Steurer%NULL%0,  Herbert%Mushumba%NULL%0,  Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,  Holly%Harper%NULL%1,  Behtash G%Nezami%NULL%1,  Daniel L%Shen%NULL%1,  Simona Pichler%Sekulic%NULL%1,  Aaron T%Koeth%NULL%1,  Clifford V%Harding%NULL%1,  Hannah%Gilmore%NULL%1,  Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,  Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,  Johannes Alexander%Lobrinus%NULL%2,  Johannes Alexander%Lobrinus%NULL%0,  Manuel%Schibler%NULL%1,  Tony%Fracasso%NULL%1,  Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,  Aibek%Akmatbekov%NULL%1,  Jack L%Harbert%NULL%1,  Guang%Li%NULL%1,  J%Quincy Brown%NULL%1,  Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,  Behnaz%Jahanbin%NULL%1,  Masoomeh%Safaei%NULL%1,  Laya%Amoozadeh%NULL%1,  Meysam%Khoshavi%NULL%1,  Vahid%Mehrtash%NULL%1,  Bita%Jafarzadeh%NULL%1,  Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,  Jing%Xie%NULL%2,  Lei%Zhao%NULL%1,  Xiaochun%Fei%NULL%1,  Heng%Zhang%NULL%1,  Yun%Tan%NULL%1,  Xiu%Nie%NULL%1,  Luting%Zhou%NULL%1,  Zhenhua%Liu%NULL%1,  Yong%Ren%NULL%1,  Ling%Yuan%NULL%1,  Yu%Zhang%NULL%1,  Jinsheng%Zhang%NULL%1,  Liwei%Liang%NULL%1,  Xinwei%Chen%NULL%1,  Xin%Liu%NULL%2,  Peng%Wang%NULL%1,  Xiao%Han%NULL%1,  Xiangqin%Weng%NULL%1,  Ying%Chen%NULL%1,  Ting%Yu%NULL%0,  Xinxin%Zhang%NULL%0,  Jun%Cai%caijun@shsmu.edu.cn%1,  Rong%Chen%crjudy@126.com%3,  Zhengli%Shi%zlshi@wh.iov.cn%2,  Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,  Selina%Traxler%NULL%2,  Selina%Traxler%NULL%0,  Michael%Bitzer%NULL%1,  Helene%Häberle%NULL%1,  Wolfgang%Raiser%NULL%1,  Dominik%Nann%NULL%1,  Leonie%Frauenfeld%NULL%1,  Antonio%Vogelsberg%NULL%1,  Karin%Klingel%NULL%1,  Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,  Thomas%Ruder%NULL%1,  Rilana%Baumeister%NULL%1,  Stephan%Bolliger%NULL%1,  Michael%Thali%NULL%1,  Eva%Meixner%NULL%1,  Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,  Lei%Shi%NULL%1,  Yijin%Wang%NULL%1,  Jiyuan%Zhang%NULL%1,  Lei%Huang%NULL%2,  Chao%Zhang%NULL%1,  Shuhong%Liu%NULL%1,  Peng%Zhao%NULL%1,  Hongxia%Liu%NULL%1,  Li%Zhu%NULL%1,  Yanhong%Tai%NULL%1,  Changqing%Bai%NULL%1,  Tingting%Gao%NULL%1,  Jinwen%Song%NULL%1,  Peng%Xia%NULL%1,  Jinghui%Dong%NULL%1,  Jingmin%Zhao%NULL%1,  Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,  Benjamin%Gaborit%NULL%2,  Benjamin%Gaborit%NULL%0,  Claire%Toquet%NULL%1,  Louise%Castain%NULL%1,  Antonin%Bal%NULL%1,  Pierre Paul%Arrigoni%NULL%1,  Raphaël%Lecomte%NULL%1,  Renaud%Clement%NULL%1,  Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,  Radu Lucian%Buzulică%NULL%1,  Daniel%Pirici%NULL%1,  Mihail Constantin%Ceauşu%NULL%1,  Radu Vasile%Iman%NULL%1,  Ovidiu-Mircea%Gheorghe%NULL%1,  Simona Daniela%Neamţu%NULL%1,  Liliana%Stanca%NULL%1,  Răzvan%Ene%NULL%1,  Samir%Kumar-Singh%NULL%1,  Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,  Alexander%Leunig%NULL%1,  Sophia%Brambs%NULL%1,  Rainer%Kaiser%NULL%1,  Tobias%Weinberger%NULL%1,  Michael%Weigand%NULL%1,  Maximilian%Muenchhoff%NULL%1,  Johannes C.%Hellmuth%NULL%1,  Stephan%Ledderose%NULL%1,  Heiko%Schulz%NULL%1,  Clemens%Scherer%NULL%1,  Martina%Rudelius%NULL%1,  Michael%Zoller%NULL%1,  Dominik%Höchter%NULL%1,  Oliver%Keppler%NULL%1,  Daniel%Teupser%NULL%1,  Bernhard%Zwißler%NULL%1,  Michael%von Bergwelt-Baildon%NULL%1,  Stefan%Kääb%NULL%1,  Steffen%Massberg%NULL%1,  Kami%Pekayvaz%NULL%1,  Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,  Alexandra%Grosse%NULL%1,  Helmut J.F.%Salzer%NULL%1,  Martin W.%Dünser%NULL%1,  Reinhard%Motz%NULL%1,  Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,  Ricardo%De Mendonça%NULL%1,  Nicky%D’Haene%NULL%1,  Sarah%De Clercq%NULL%1,  Camille%Verocq%NULL%1,  Laetitia%Lebrun%NULL%1,  Philomène%Lavis%NULL%1,  Marie-Lucie%Racu%NULL%1,  Anne-Laure%Trépant%NULL%1,  Calliope%Maris%NULL%1,  Sandrine%Rorive%NULL%1,  Jean-Christophe%Goffard%NULL%1,  Olivier%De Witte%NULL%1,  Lorenzo%Peluso%NULL%1,  Jean-Louis%Vincent%NULL%1,  Christine%Decaestecker%NULL%1,  Fabio Silvio%Taccone%NULL%1,  Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,  Hiroyuki%Hayashi%NULL%2,  Hiroyuki%Hayashi%NULL%0,  Yukihiro%Yoshimura%NULL%1,  Hiroaki%Sasaki%NULL%1,  Hiroshi%Horiuchi%NULL%1,  Nobuyuki%Miyata%NULL%1,  Natsuo%Tachikawa%NULL%1,  Yuki%Tsuchiya%NULL%1,  Hideaki%Mitsui%NULL%1,  Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,  Ja-Mun%Chong%NULL%1,  Noriko%Nakajima%NULL%1,  Masahiro%Sano%NULL%1,  Jun%Yamazaki%NULL%1,  Ippei%Miyamoto%NULL%1,  Haruka%Nishioka%NULL%1,  Hidetaka%Akita%NULL%1,  Yuko%Sato%NULL%1,  Michiyo%Kataoka%NULL%1,  Harutaka%Katano%NULL%1,  Minoru%Tobiume%NULL%1,  Tsuyoshi%Sekizuka%NULL%1,  Kentaro%Itokawa%NULL%1,  Makoto%Kuroda%NULL%1,  Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,  Anuradha%Lala%NULL%1,  Emilia%Bagiella%NULL%1,  Helena L.%Chang%NULL%1,  Pedro R.%Moreno%NULL%1,  Elisabet%Pujadas%NULL%1,  Varun%Arvind%NULL%1,  Sonali%Bose%NULL%1,  Alexander W.%Charney%NULL%1,  Martin D.%Chen%NULL%1,  Carlos%Cordon-Cardo%NULL%1,  Andrew S.%Dunn%NULL%1,  Michael E.%Farkouh%NULL%1,  Benjamin S.%Glicksberg%NULL%1,  Arash%Kia%NULL%1,  Roopa%Kohli-Seth%NULL%1,  Matthew A.%Levin%NULL%1,  Prem%Timsina%NULL%1,  Shan%Zhao%NULL%1,  Zahi A.%Fayad%NULL%5,  Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,  Kiran T.%Thakur%NULL%2,  Kiran T.%Thakur%NULL%0,  Anna S.%Nordvig%NULL%1,  Morgan L.%Prust%NULL%1,  William%Roth%NULL%1,  Angela%Lignelli%NULL%1,  Anne-Catrin%Uhlemann%NULL%1,  Emily Happy%Miller%NULL%1,  Shajo%Kunnath-Velayudhan%NULL%1,  Armando%Del Portillo%NULL%1,  Yang%Liu%NULL%1,  Gunnar%Hargus%NULL%1,  Andrew F.%Teich%NULL%1,  Richard A.%Hickman%NULL%1,  Kurenai%Tanji%NULL%1,  James E.%Goldman%NULL%1,  Phyllis L.%Faust%NULL%1,  Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,  Lilioara-Alexandra%Muja%NULL%2,  Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,  Chen%Shao%NULL%2,  Chen%Shao%NULL%0,  Xiao-jie%Huang%NULL%1,  Lin%Sun%NULL%1,  Ling-jia%Meng%NULL%1,  Hui%Liu%NULL%2,  Shi-jie%Zhang%NULL%1,  Hong-jun%Li%NULL%1,  Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,  Maria%Mostyka%NULL%1,  Alicia%Dillard%NULL%1,  Diana R.%Berman%NULL%1,  Lucy X.%Ma%NULL%1,  Amy%Chadburn%NULL%1,  Rhonda K.%Yantiss%NULL%1,  Jose%Jessurun%NULL%1,  Surya V.%Seshan%NULL%1,  Alain C.%Borczuk%NULL%1,  Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,  Kikkeri N%Naresh%NULL%1,  Candice%Roufosse%NULL%1,  Andrew G%Nicholson%NULL%1,  Justin%Weir%NULL%1,  Graham S%Cooke%NULL%1,  Mark%Thursz%NULL%1,  Pinelopi%Manousou%NULL%1,  Richard%Corbett%NULL%1,  Robert%Goldin%NULL%1,  Safa%Al-Sarraj%NULL%1,  Alireza%Abdolrasouli%NULL%1,  Olivia C%Swann%NULL%1,  Laury%Baillon%NULL%1,  Rebecca%Penn%NULL%1,  Wendy S%Barclay%NULL%1,  Patrizia%Viola%NULL%1,  Michael%Osborn%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1353,6 +1467,9 @@
       <c r="H1" t="s">
         <v>53</v>
       </c>
+      <c r="I1" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -1368,7 +1485,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>56</v>
+        <v>206</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -1378,6 +1495,9 @@
       </c>
       <c r="H2" t="s">
         <v>59</v>
+      </c>
+      <c r="I2" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="3">
@@ -1405,6 +1525,9 @@
       <c r="H3" t="s">
         <v>60</v>
       </c>
+      <c r="I3" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
@@ -1420,7 +1543,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>63</v>
+        <v>208</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -1430,6 +1553,9 @@
       </c>
       <c r="H4" t="s">
         <v>65</v>
+      </c>
+      <c r="I4" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="5">
@@ -1457,6 +1583,9 @@
       <c r="H5" t="s">
         <v>60</v>
       </c>
+      <c r="I5" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -1472,7 +1601,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>68</v>
+        <v>210</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -1482,6 +1611,9 @@
       </c>
       <c r="H6" t="s">
         <v>70</v>
+      </c>
+      <c r="I6" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="7">
@@ -1498,7 +1630,7 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>73</v>
+        <v>211</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -1508,6 +1640,9 @@
       </c>
       <c r="H7" t="s">
         <v>60</v>
+      </c>
+      <c r="I7" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="8">
@@ -1524,7 +1659,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>212</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
@@ -1534,6 +1669,9 @@
       </c>
       <c r="H8" t="s">
         <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="9">
@@ -1550,7 +1688,7 @@
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>80</v>
+        <v>213</v>
       </c>
       <c r="F9" t="s">
         <v>78</v>
@@ -1560,6 +1698,9 @@
       </c>
       <c r="H9" t="s">
         <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="10">
@@ -1576,7 +1717,7 @@
         <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>83</v>
+        <v>214</v>
       </c>
       <c r="F10" t="s">
         <v>84</v>
@@ -1586,6 +1727,9 @@
       </c>
       <c r="H10" t="s">
         <v>60</v>
+      </c>
+      <c r="I10" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="11">
@@ -1602,7 +1746,7 @@
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>87</v>
+        <v>215</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
@@ -1612,6 +1756,9 @@
       </c>
       <c r="H11" t="s">
         <v>89</v>
+      </c>
+      <c r="I11" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="12">
@@ -1628,7 +1775,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>217</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -1638,6 +1785,9 @@
       </c>
       <c r="H12" t="s">
         <v>60</v>
+      </c>
+      <c r="I12" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="13">
@@ -1654,7 +1804,7 @@
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>96</v>
+        <v>218</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
@@ -1664,6 +1814,9 @@
       </c>
       <c r="H13" t="s">
         <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="14">
@@ -1680,7 +1833,7 @@
         <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>219</v>
       </c>
       <c r="F14" t="s">
         <v>101</v>
@@ -1690,6 +1843,9 @@
       </c>
       <c r="H14" t="s">
         <v>102</v>
+      </c>
+      <c r="I14" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="15">
@@ -1717,6 +1873,9 @@
       <c r="H15" t="s">
         <v>60</v>
       </c>
+      <c r="I15" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
@@ -1732,7 +1891,7 @@
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="F16" t="s">
         <v>106</v>
@@ -1742,6 +1901,9 @@
       </c>
       <c r="H16" t="s">
         <v>60</v>
+      </c>
+      <c r="I16" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="17">
@@ -1758,7 +1920,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>109</v>
+        <v>222</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -1768,6 +1930,9 @@
       </c>
       <c r="H17" t="s">
         <v>111</v>
+      </c>
+      <c r="I17" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="18">
@@ -1784,7 +1949,7 @@
         <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -1794,6 +1959,9 @@
       </c>
       <c r="H18" t="s">
         <v>111</v>
+      </c>
+      <c r="I18" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="19">
@@ -1810,7 +1978,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>118</v>
+        <v>224</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -1820,6 +1988,9 @@
       </c>
       <c r="H19" t="s">
         <v>60</v>
+      </c>
+      <c r="I19" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="20">
@@ -1836,7 +2007,7 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>122</v>
+        <v>225</v>
       </c>
       <c r="F20" t="s">
         <v>123</v>
@@ -1846,6 +2017,9 @@
       </c>
       <c r="H20" t="s">
         <v>60</v>
+      </c>
+      <c r="I20" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="21">
@@ -1862,7 +2036,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>126</v>
+        <v>226</v>
       </c>
       <c r="F21" t="s">
         <v>127</v>
@@ -1872,6 +2046,9 @@
       </c>
       <c r="H21" t="s">
         <v>128</v>
+      </c>
+      <c r="I21" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="22">
@@ -1888,7 +2065,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>131</v>
+        <v>227</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -1898,6 +2075,9 @@
       </c>
       <c r="H22" t="s">
         <v>133</v>
+      </c>
+      <c r="I22" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="23">
@@ -1914,7 +2094,7 @@
         <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -1924,6 +2104,9 @@
       </c>
       <c r="H23" t="s">
         <v>138</v>
+      </c>
+      <c r="I23" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="24">
@@ -1940,7 +2123,7 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>140</v>
+        <v>229</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -1950,6 +2133,9 @@
       </c>
       <c r="H24" t="s">
         <v>60</v>
+      </c>
+      <c r="I24" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="25">
@@ -1977,6 +2163,9 @@
       <c r="H25" t="s">
         <v>60</v>
       </c>
+      <c r="I25" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
@@ -1992,7 +2181,7 @@
         <v>143</v>
       </c>
       <c r="E26" t="s">
-        <v>144</v>
+        <v>230</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
@@ -2002,6 +2191,9 @@
       </c>
       <c r="H26" t="s">
         <v>146</v>
+      </c>
+      <c r="I26" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="27">
@@ -2018,7 +2210,7 @@
         <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>149</v>
+        <v>231</v>
       </c>
       <c r="F27" t="s">
         <v>150</v>
@@ -2028,6 +2220,9 @@
       </c>
       <c r="H27" t="s">
         <v>151</v>
+      </c>
+      <c r="I27" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="28">
@@ -2044,7 +2239,7 @@
         <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>154</v>
+        <v>232</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -2054,6 +2249,9 @@
       </c>
       <c r="H28" t="s">
         <v>156</v>
+      </c>
+      <c r="I28" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="29">
@@ -2070,7 +2268,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>159</v>
+        <v>233</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -2080,6 +2278,9 @@
       </c>
       <c r="H29" t="s">
         <v>161</v>
+      </c>
+      <c r="I29" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="30">
@@ -2107,6 +2308,9 @@
       <c r="H30" t="s">
         <v>60</v>
       </c>
+      <c r="I30" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="4" t="s">
@@ -2122,7 +2326,7 @@
         <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>164</v>
+        <v>234</v>
       </c>
       <c r="F31" t="s">
         <v>165</v>
@@ -2132,6 +2336,9 @@
       </c>
       <c r="H31" t="s">
         <v>166</v>
+      </c>
+      <c r="I31" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="32">
@@ -2148,7 +2355,7 @@
         <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>169</v>
+        <v>235</v>
       </c>
       <c r="F32" t="s">
         <v>170</v>
@@ -2158,6 +2365,9 @@
       </c>
       <c r="H32" t="s">
         <v>171</v>
+      </c>
+      <c r="I32" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="33">
@@ -2174,7 +2384,7 @@
         <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>174</v>
+        <v>236</v>
       </c>
       <c r="F33" t="s">
         <v>175</v>
@@ -2184,6 +2394,9 @@
       </c>
       <c r="H33" t="s">
         <v>60</v>
+      </c>
+      <c r="I33" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="34">
@@ -2200,7 +2413,7 @@
         <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>178</v>
+        <v>237</v>
       </c>
       <c r="F34" t="s">
         <v>179</v>
@@ -2210,6 +2423,9 @@
       </c>
       <c r="H34" t="s">
         <v>180</v>
+      </c>
+      <c r="I34" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="35">
@@ -2226,7 +2442,7 @@
         <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>183</v>
+        <v>238</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -2236,6 +2452,9 @@
       </c>
       <c r="H35" t="s">
         <v>185</v>
+      </c>
+      <c r="I35" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="36">
@@ -2252,7 +2471,7 @@
         <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>188</v>
+        <v>239</v>
       </c>
       <c r="F36" t="s">
         <v>189</v>
@@ -2262,6 +2481,9 @@
       </c>
       <c r="H36" t="s">
         <v>190</v>
+      </c>
+      <c r="I36" t="s">
+        <v>220</v>
       </c>
     </row>
     <row r="37">
@@ -2278,7 +2500,7 @@
         <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>193</v>
+        <v>240</v>
       </c>
       <c r="F37" t="s">
         <v>194</v>
@@ -2288,6 +2510,9 @@
       </c>
       <c r="H37" t="s">
         <v>195</v>
+      </c>
+      <c r="I37" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="38">
@@ -2315,6 +2540,9 @@
       <c r="H38" t="s">
         <v>60</v>
       </c>
+      <c r="I38" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="4" t="s">
@@ -2330,7 +2558,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>198</v>
+        <v>241</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -2340,6 +2568,9 @@
       </c>
       <c r="H39" t="s">
         <v>200</v>
+      </c>
+      <c r="I39" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="40">
@@ -2356,7 +2587,7 @@
         <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="F40" t="s">
         <v>204</v>
@@ -2366,6 +2597,9 @@
       </c>
       <c r="H40" t="s">
         <v>60</v>
+      </c>
+      <c r="I40" t="s">
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/11.xlsx
+++ b/Covid_19_Dataset_and_References/References/11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="393">
   <si>
     <t>Doi</t>
   </si>
@@ -1090,6 +1090,476 @@
   </si>
   <si>
     <t>[Brian%Hanley%NULL%1,  Kikkeri N%Naresh%NULL%1,  Candice%Roufosse%NULL%1,  Andrew G%Nicholson%NULL%1,  Justin%Weir%NULL%1,  Graham S%Cooke%NULL%1,  Mark%Thursz%NULL%1,  Pinelopi%Manousou%NULL%1,  Richard%Corbett%NULL%1,  Robert%Goldin%NULL%1,  Safa%Al-Sarraj%NULL%1,  Alireza%Abdolrasouli%NULL%1,  Olivia C%Swann%NULL%1,  Laury%Baillon%NULL%1,  Rebecca%Penn%NULL%1,  Wendy S%Barclay%NULL%1,  Patrizia%Viola%NULL%1,  Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,   Renata A A%Monteiro%NULL%2,   Renata A A%Monteiro%NULL%0,   Luiz F F%da Silva%NULL%1,   Denise M A C%Malheiros%NULL%1,   Ellen P%de Oliveira%NULL%1,   Jair%Theodoro‐Filho%NULL%1,   João R R%Pinho%NULL%1,   Michele S%Gomes‐Gouvêa%NULL%1,   Ana P M%Salles%NULL%1,   Ilka R S%de Oliveira%NULL%1,   Thais%Mauad%NULL%1,   Paulo H N%Saldiva%NULL%1,   Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>Postmortem examination of patients with COVID-19</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1, Burkhardt%Katrin%coreGivesNoEmail%1, Claus%Rainer%coreGivesNoEmail%1, Hirschb\u00fchl%Klaus%coreGivesNoEmail%1, M\u00e4rkl%Bruno%coreGivesNoEmail%1, Schaller%Tina%coreGivesNoEmail%1, Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>CORE</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,   Dwayne A.%Wolf%NULL%1,   Bihong%Zhao%NULL%1,   Bindu%Akkanti%NULL%1,   Michelle%McDonald%NULL%1,   Laura%Lelenwa%NULL%1,   Noah%Reilly%NULL%1,   Giulia%Ottaviani%NULL%1,   M. Tarek%Elghetany%NULL%1,   Daniel Ocazionez%Trujillo%NULL%1,   Gabriel M.%Aisenberg%NULL%1,   Mohammad%Madjid%NULL%1,   Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,   Erin G.%Brooks%NULL%1,   Joshua%Akers%NULL%1,   Danielle%Armstrong%NULL%1,   Lauren%Decker%NULL%1,   Adam%Gonzalez%NULL%1,   William%Humphrey%NULL%1,   Romana%Mayer%NULL%1,   Matthew%Miller%NULL%1,   Catherine%Perez%NULL%1,   Jose Antonio Ruiz%Arango%NULL%1,   Lakshmanan%Sathyavagiswaran%NULL%1,   Wendy%Stroh%NULL%1,   Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,   Jan-Peter%Sperhake%NULL%2,   Marc%Lütgehetmann%NULL%2,   Stefan%Steurer%NULL%2,   Carolin%Edler%NULL%1,   Axel%Heinemann%NULL%2,   Fabian%Heinrich%NULL%2,   Herbert%Mushumba%NULL%2,   Inga%Kniep%NULL%1,   Ann Sophie%Schröder%NULL%2,   Christoph%Burdelski%NULL%2,   Geraldine%de Heer%NULL%2,   Axel%Nierhaus%NULL%2,   Daniel%Frings%NULL%2,   Susanne%Pfefferle%NULL%1,   Heinrich%Becker%NULL%1,   Hanns%Bredereke-Wiedling%NULL%1,   Andreas%de Weerth%NULL%2,   Hans-Richard%Paschen%NULL%1,   Sara%Sheikhzadeh-Eggers%NULL%1,   Axel%Stang%NULL%1,   Stefan%Schmiedel%NULL%1,   Carsten%Bokemeyer%NULL%1,   Marylyn M.%Addo%NULL%1,   Martin%Aepfelbacher%NULL%2,   Klaus%Püschel%NULL%2,   Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,   Jasmin D%Haslbauer%NULL%4,   Jasmin D%Haslbauer%NULL%0,   Ronny%Nienhold%NULL%2,   Spasenija%Savic%NULL%2,   Helmut%Hopfer%NULL%2,   Nikolaus%Deigendesch%NULL%2,   Stephan%Frank%NULL%2,   Daniel%Turek%NULL%2,   Niels%Willi%NULL%2,   Hans%Pargger%NULL%2,   Stefano%Bassetti%NULL%2,   Joerg D%Leuppi%NULL%2,   Gieri%Cathomas%NULL%2,   Markus%Tolnay%NULL%2,   Kirsten D%Mertz%NULL%2,   Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,   Jasmin D%Haslbauer%NULL%0,   Jasmin D%Haslbauer%NULL%0,   Ronny%Nienhold%NULL%0,   Spasenija%Savic%NULL%0,   Helmut%Hopfer%NULL%0,   Nikolaus%Deigendesch%NULL%0,   Stephan%Frank%NULL%0,   Daniel%Turek%NULL%0,   Niels%Willi%NULL%0,   Hans%Pargger%NULL%0,   Stefano%Bassetti%NULL%0,   Joerg D%Leuppi%NULL%0,   Gieri%Cathomas%NULL%0,   Markus%Tolnay%NULL%0,   Kirsten D%Mertz%NULL%0,   Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,   Andreas J%Flammer%NULL%1,   Peter%Steiger%NULL%1,   Martina%Haberecker%NULL%1,   Rea%Andermatt%NULL%1,   Annelies S%Zinkernagel%NULL%1,   Mandeep R%Mehra%NULL%1,   Reto A%Schuepbach%NULL%1,   Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,   Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,   Yong%Xiong%NULL%0,   Huan%Liu%NULL%3,   Li%Niu%NULL%1,   Jianchun%Guo%NULL%1,   Meiyan%Liao%NULL%1,   Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,   Eric J%Duval%NULL%1,   Edana%Stroberg%NULL%1,   Subha%Ghosh%NULL%1,   Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,   Pilar%Alemany Monraval%NULL%1,   Carmen%Medina Medina%NULL%1,   Ana%Jiménez Sánchez%NULL%1,   Juan Carlos%Andrés Teruel%NULL%1,   José%Ferrando Marco%NULL%1,   Víctor%Puglia Santos%NULL%1,   Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,   Ann Sophie%Schröder%NULL%0,   Martin%Aepfelbacher%NULL%0,   Antonia%Fitzek%NULL%1,   Axel%Heinemann%NULL%0,   Fabian%Heinrich%NULL%0,   Anke%Klein%NULL%1,   Felicia%Langenwalder%NULL%1,   Marc%Lütgehetmann%NULL%0,   Kira%Meißner%NULL%1,   Klaus%Püschel%NULL%0,   Julia%Schädler%NULL%1,   Stefan%Steurer%NULL%0,   Herbert%Mushumba%NULL%0,   Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>Association of cardiac infection with SARS-CoV-2 in confirmed COVID-19 autopsy cases</t>
+  </si>
+  <si>
+    <t>IMPORTANCE: Severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) can be documented in various tissues, but the frequency of cardiac involvement as well as possible consequences are unknown.
+ OBJECTIVE: To evaluate the presence of SARS-CoV-2 in the myocardial tissue from autopsy cases and to document a possible cardiac response to that infection.
+ DESIGN, SETTING, AND PARTICIPANTS: This cohort study used data from consecutive autopsy cases from Germany between April 8 and April 18, 2020. All patients had tested positive for SARS-CoV-2 in pharyngeal swab tests.
+ EXPOSURES: Patients who died of coronavirus disease 2019. MAIN OUTCOMES AND MEASURES: Incidence of SARS-CoV-2 positivity in cardiac tissue as well as CD3(+), CD45(+), and CD68(+) cells in the myocardium and gene expression of tumor necrosis growth factor \u03b1, interferon \u03b3, chemokine ligand 5, as well as interleukin-6, -8, and -18. RESULTS: Cardiac tissue from 39 consecutive autopsy cases were included.
+ The median (interquartile range) age of patients was 85 (78-89) years, and 23 (59.0%) were women.
+ SARS-CoV-2 could be documented in 24 of 39 patients (61.5%).
+ Viral load above 1000 copies per \u03bcg RNA could be documented in 16 of 39 patients (41.0%).
+ A cytokine response panel consisting of 6 proinflammatory genes was increased in those 16 patients compared with 15 patients without any SARS-CoV-2 in the heart.
+ Comparison of 15 patients without cardiac infection with 16 patients with more than 1000 copies revealed no inflammatory cell infiltrates or differences in leukocyte numbers per high power field.
+ CONCLUSIONS AND RELEVANCE: In this analysis of autopsy cases, viral presence within the myocardium could be documented.
+ While a response to this infection could be reported in cases with higher virus load vs no virus infection, this was not associated with an influx of inflammatory cells.
+ Future investigations should focus on evaluating the long-term consequences of this cardiac involvement</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1, Blankenberg%Stefan S%coreGivesNoEmail%1, Brauninger%Hanna%coreGivesNoEmail%1, Edler%Caroline%coreGivesNoEmail%1, Escher%Felicitas%coreGivesNoEmail%1, Fitzek%Antonia%coreGivesNoEmail%1, Kirchhof%Paulus%coreGivesNoEmail%1, Lindner%Diana%coreGivesNoEmail%1, Meissner%Kira%coreGivesNoEmail%1, Puschel%Klaus%coreGivesNoEmail%1, Scherschel%Katharina%coreGivesNoEmail%1, Schultheiss%Heinz-Peter%coreGivesNoEmail%1, Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,   Holly%Harper%NULL%1,   Behtash G%Nezami%NULL%1,   Daniel L%Shen%NULL%1,   Simona Pichler%Sekulic%NULL%1,   Aaron T%Koeth%NULL%1,   Clifford V%Harding%NULL%1,   Hannah%Gilmore%NULL%1,   Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,   Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,   Johannes Alexander%Lobrinus%NULL%2,   Johannes Alexander%Lobrinus%NULL%0,   Manuel%Schibler%NULL%1,   Tony%Fracasso%NULL%1,   Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,   Aibek%Akmatbekov%NULL%1,   Jack L%Harbert%NULL%1,   Guang%Li%NULL%1,   J%Quincy Brown%NULL%1,   Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,   Behnaz%Jahanbin%NULL%1,   Masoomeh%Safaei%NULL%1,   Laya%Amoozadeh%NULL%1,   Meysam%Khoshavi%NULL%1,   Vahid%Mehrtash%NULL%1,   Bita%Jafarzadeh%NULL%1,   Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,   Jing%Xie%NULL%2,   Lei%Zhao%NULL%1,   Xiaochun%Fei%NULL%1,   Heng%Zhang%NULL%1,   Yun%Tan%NULL%1,   Xiu%Nie%NULL%1,   Luting%Zhou%NULL%1,   Zhenhua%Liu%NULL%1,   Yong%Ren%NULL%1,   Ling%Yuan%NULL%1,   Yu%Zhang%NULL%1,   Jinsheng%Zhang%NULL%1,   Liwei%Liang%NULL%1,   Xinwei%Chen%NULL%1,   Xin%Liu%NULL%2,   Peng%Wang%NULL%1,   Xiao%Han%NULL%1,   Xiangqin%Weng%NULL%1,   Ying%Chen%NULL%1,   Ting%Yu%NULL%0,   Xinxin%Zhang%NULL%0,   Jun%Cai%caijun@shsmu.edu.cn%1,   Rong%Chen%crjudy@126.com%3,   Zhengli%Shi%zlshi@wh.iov.cn%2,   Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,   Selina%Traxler%NULL%2,   Selina%Traxler%NULL%0,   Michael%Bitzer%NULL%1,   Helene%Häberle%NULL%1,   Wolfgang%Raiser%NULL%1,   Dominik%Nann%NULL%1,   Leonie%Frauenfeld%NULL%1,   Antonio%Vogelsberg%NULL%1,   Karin%Klingel%NULL%1,   Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,   Thomas%Ruder%NULL%1,   Rilana%Baumeister%NULL%1,   Stephan%Bolliger%NULL%1,   Michael%Thali%NULL%1,   Eva%Meixner%NULL%1,   Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,   Lei%Shi%NULL%1,   Yijin%Wang%NULL%1,   Jiyuan%Zhang%NULL%1,   Lei%Huang%NULL%2,   Chao%Zhang%NULL%1,   Shuhong%Liu%NULL%1,   Peng%Zhao%NULL%1,   Hongxia%Liu%NULL%1,   Li%Zhu%NULL%1,   Yanhong%Tai%NULL%1,   Changqing%Bai%NULL%1,   Tingting%Gao%NULL%1,   Jinwen%Song%NULL%1,   Peng%Xia%NULL%1,   Jinghui%Dong%NULL%1,   Jingmin%Zhao%NULL%1,   Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,   Benjamin%Gaborit%NULL%2,   Benjamin%Gaborit%NULL%0,   Claire%Toquet%NULL%1,   Louise%Castain%NULL%1,   Antonin%Bal%NULL%1,   Pierre Paul%Arrigoni%NULL%1,   Raphaël%Lecomte%NULL%1,   Renaud%Clement%NULL%1,   Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,   Radu Lucian%Buzulică%NULL%1,   Daniel%Pirici%NULL%1,   Mihail Constantin%Ceauşu%NULL%1,   Radu Vasile%Iman%NULL%1,   Ovidiu-Mircea%Gheorghe%NULL%1,   Simona Daniela%Neamţu%NULL%1,   Liliana%Stanca%NULL%1,   Răzvan%Ene%NULL%1,   Samir%Kumar-Singh%NULL%1,   Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,   Alexander%Leunig%NULL%1,   Sophia%Brambs%NULL%1,   Rainer%Kaiser%NULL%1,   Tobias%Weinberger%NULL%1,   Michael%Weigand%NULL%1,   Maximilian%Muenchhoff%NULL%1,   Johannes C.%Hellmuth%NULL%1,   Stephan%Ledderose%NULL%1,   Heiko%Schulz%NULL%1,   Clemens%Scherer%NULL%1,   Martina%Rudelius%NULL%1,   Michael%Zoller%NULL%1,   Dominik%Höchter%NULL%1,   Oliver%Keppler%NULL%1,   Daniel%Teupser%NULL%1,   Bernhard%Zwißler%NULL%1,   Michael%von Bergwelt-Baildon%NULL%1,   Stefan%Kääb%NULL%1,   Steffen%Massberg%NULL%1,   Kami%Pekayvaz%NULL%1,   Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,   Alexandra%Grosse%NULL%1,   Helmut J.F.%Salzer%NULL%1,   Martin W.%Dünser%NULL%1,   Reinhard%Motz%NULL%1,   Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,   Ricardo%De Mendonça%NULL%1,   Nicky%D’Haene%NULL%1,   Sarah%De Clercq%NULL%1,   Camille%Verocq%NULL%1,   Laetitia%Lebrun%NULL%1,   Philomène%Lavis%NULL%1,   Marie-Lucie%Racu%NULL%1,   Anne-Laure%Trépant%NULL%1,   Calliope%Maris%NULL%1,   Sandrine%Rorive%NULL%1,   Jean-Christophe%Goffard%NULL%1,   Olivier%De Witte%NULL%1,   Lorenzo%Peluso%NULL%1,   Jean-Louis%Vincent%NULL%1,   Christine%Decaestecker%NULL%1,   Fabio Silvio%Taccone%NULL%1,   Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,   Hiroyuki%Hayashi%NULL%2,   Hiroyuki%Hayashi%NULL%0,   Yukihiro%Yoshimura%NULL%1,   Hiroaki%Sasaki%NULL%1,   Hiroshi%Horiuchi%NULL%1,   Nobuyuki%Miyata%NULL%1,   Natsuo%Tachikawa%NULL%1,   Yuki%Tsuchiya%NULL%1,   Hideaki%Mitsui%NULL%1,   Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,   Ja-Mun%Chong%NULL%1,   Noriko%Nakajima%NULL%1,   Masahiro%Sano%NULL%1,   Jun%Yamazaki%NULL%1,   Ippei%Miyamoto%NULL%1,   Haruka%Nishioka%NULL%1,   Hidetaka%Akita%NULL%1,   Yuko%Sato%NULL%1,   Michiyo%Kataoka%NULL%1,   Harutaka%Katano%NULL%1,   Minoru%Tobiume%NULL%1,   Tsuyoshi%Sekizuka%NULL%1,   Kentaro%Itokawa%NULL%1,   Makoto%Kuroda%NULL%1,   Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,   Anuradha%Lala%NULL%1,   Emilia%Bagiella%NULL%1,   Helena L.%Chang%NULL%1,   Pedro R.%Moreno%NULL%1,   Elisabet%Pujadas%NULL%1,   Varun%Arvind%NULL%1,   Sonali%Bose%NULL%1,   Alexander W.%Charney%NULL%2,   Martin D.%Chen%NULL%1,   Carlos%Cordon-Cardo%NULL%2,   Andrew S.%Dunn%NULL%1,   Michael E.%Farkouh%NULL%1,   Benjamin S.%Glicksberg%NULL%1,   Arash%Kia%NULL%1,   Roopa%Kohli-Seth%NULL%1,   Matthew A.%Levin%NULL%1,   Prem%Timsina%NULL%1,   Shan%Zhao%NULL%1,   Zahi A.%Fayad%NULL%5,   Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,   Kiran T.%Thakur%NULL%2,   Kiran T.%Thakur%NULL%0,   Anna S.%Nordvig%NULL%1,   Morgan L.%Prust%NULL%1,   William%Roth%NULL%1,   Angela%Lignelli%NULL%1,   Anne-Catrin%Uhlemann%NULL%1,   Emily Happy%Miller%NULL%1,   Shajo%Kunnath-Velayudhan%NULL%1,   Armando%Del Portillo%NULL%1,   Yang%Liu%NULL%1,   Gunnar%Hargus%NULL%1,   Andrew F.%Teich%NULL%1,   Richard A.%Hickman%NULL%1,   Kurenai%Tanji%NULL%1,   James E.%Goldman%NULL%1,   Phyllis L.%Faust%NULL%1,   Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,   Lilioara-Alexandra%Muja%NULL%2,   Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,   Chen%Shao%NULL%2,   Chen%Shao%NULL%0,   Xiao-jie%Huang%NULL%1,   Lin%Sun%NULL%1,   Ling-jia%Meng%NULL%1,   Hui%Liu%NULL%2,   Shi-jie%Zhang%NULL%1,   Hong-jun%Li%NULL%1,   Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>Neuropathological findings in two patients with fatal COVID\u201019</t>
+  </si>
+  <si>
+    <t>Aims\n\nTo describe the neuropathological findings in two cases of fatal Coronavirus Disease 2019 (COVID-19) with neurological decline.
+\n\n\n\nMethods\n\nSevere acute respiratory syndrome coronavirus-2 (SARS-CoV-2) infection was confirmed in both patients by reverse transcription polymerase chain reaction (RT-PCR) from nasopharyngeal swabs antemortem.
+ Coronial autopsies were performed on both patients and histological sampling of the brain was undertaken with a variety of histochemical and immunohistochemical stains.
+ RNAscope\u00ae in situ hybridization (ISH) using the V-nCoV2019-S probe and RT-PCR SARS-CoV-2 ribonucleic acid (RNA) was performed in paraffin-embedded brain tissue sampled from areas of pathology.
+\n\n\n\nResults\n\nCase 1 demonstrated severe multifocal cortical infarction with extensive perivascular calcification and numerous megakaryocytes, consistent with a severe multi-territorial cerebral vascular injury.
+ There was associated cerebral thrombotic microangiopathy.
+ Case 2 demonstrated a brainstem encephalitis centred on the dorsal medulla and a subacute regional infarct involving the cerebellar cortex.
+ In both cases, ISH and RT-PCR for SARS-CoV-2 RNA were negative in tissue sampled from the area of pathology.
+\n\n\n\nConclusions\n\nOur case series adds calcifying cerebral cortical infarction with associated megakaryocytes and brainstem encephalitis to the spectrum of neuropathological findings that may contribute to the neurological decompensation seen in some COVID-19 patients.
+ Viral RNA was not detected in post-mortem brain tissue, suggesting that these pathologies may not be a direct consequence of viral neuroinvasion and may represent para-infectious phenomena, relating to the systemic hyperinflammatory and hypercoagulable syndromes that both patients suffered</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1, Ficken%C.%coreGivesNoEmail%1, Goddard%M.%coreGivesNoEmail%1, Jensen%M. P.%coreGivesNoEmail%1, Le%Quesne J.%coreGivesNoEmail%1, Menon%D.%coreGivesNoEmail%1, Officer\u2010Jones%L.%coreGivesNoEmail%1, Smith%C.%coreGivesNoEmail%1, Teod\u00f2sio%A.%coreGivesNoEmail%1, Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,   Maria%Mostyka%NULL%1,   Alicia%Dillard%NULL%1,   Diana R.%Berman%NULL%1,   Lucy X.%Ma%NULL%1,   Amy%Chadburn%NULL%1,   Rhonda K.%Yantiss%NULL%1,   Jose%Jessurun%NULL%1,   Surya V.%Seshan%NULL%1,   Alain C.%Borczuk%NULL%1,   Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,   Kikkeri N%Naresh%NULL%1,   Candice%Roufosse%NULL%1,   Andrew G%Nicholson%NULL%1,   Justin%Weir%NULL%1,   Graham S%Cooke%NULL%1,   Mark%Thursz%NULL%1,   Pinelopi%Manousou%NULL%1,   Richard%Corbett%NULL%1,   Robert%Goldin%NULL%1,   Safa%Al-Sarraj%NULL%1,   Alireza%Abdolrasouli%NULL%1,   Olivia C%Swann%NULL%1,   Laury%Baillon%NULL%1,   Rebecca%Penn%NULL%1,   Wendy S%Barclay%NULL%1,   Patrizia%Viola%NULL%1,   Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,    Renata A A%Monteiro%NULL%2,    Renata A A%Monteiro%NULL%0,    Luiz F F%da Silva%NULL%1,    Denise M A C%Malheiros%NULL%1,    Ellen P%de Oliveira%NULL%1,    Jair%Theodoro‐Filho%NULL%1,    João R R%Pinho%NULL%1,    Michele S%Gomes‐Gouvêa%NULL%1,    Ana P M%Salles%NULL%1,    Ilka R S%de Oliveira%NULL%1,    Thais%Mauad%NULL%1,    Paulo H N%Saldiva%NULL%1,    Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,  Burkhardt%Katrin%coreGivesNoEmail%1,  Claus%Rainer%coreGivesNoEmail%1,  Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,  M\u00e4rkl%Bruno%coreGivesNoEmail%1,  Schaller%Tina%coreGivesNoEmail%1,  Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,    Dwayne A.%Wolf%NULL%1,    Bihong%Zhao%NULL%1,    Bindu%Akkanti%NULL%1,    Michelle%McDonald%NULL%1,    Laura%Lelenwa%NULL%1,    Noah%Reilly%NULL%1,    Giulia%Ottaviani%NULL%1,    M. Tarek%Elghetany%NULL%1,    Daniel Ocazionez%Trujillo%NULL%1,    Gabriel M.%Aisenberg%NULL%1,    Mohammad%Madjid%NULL%1,    Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,    Erin G.%Brooks%NULL%1,    Joshua%Akers%NULL%1,    Danielle%Armstrong%NULL%1,    Lauren%Decker%NULL%1,    Adam%Gonzalez%NULL%1,    William%Humphrey%NULL%1,    Romana%Mayer%NULL%1,    Matthew%Miller%NULL%1,    Catherine%Perez%NULL%1,    Jose Antonio Ruiz%Arango%NULL%1,    Lakshmanan%Sathyavagiswaran%NULL%1,    Wendy%Stroh%NULL%1,    Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,    Jan-Peter%Sperhake%NULL%2,    Marc%Lütgehetmann%NULL%2,    Stefan%Steurer%NULL%2,    Carolin%Edler%NULL%1,    Axel%Heinemann%NULL%2,    Fabian%Heinrich%NULL%2,    Herbert%Mushumba%NULL%2,    Inga%Kniep%NULL%1,    Ann Sophie%Schröder%NULL%2,    Christoph%Burdelski%NULL%2,    Geraldine%de Heer%NULL%2,    Axel%Nierhaus%NULL%2,    Daniel%Frings%NULL%2,    Susanne%Pfefferle%NULL%1,    Heinrich%Becker%NULL%1,    Hanns%Bredereke-Wiedling%NULL%1,    Andreas%de Weerth%NULL%2,    Hans-Richard%Paschen%NULL%1,    Sara%Sheikhzadeh-Eggers%NULL%1,    Axel%Stang%NULL%1,    Stefan%Schmiedel%NULL%1,    Carsten%Bokemeyer%NULL%1,    Marylyn M.%Addo%NULL%1,    Martin%Aepfelbacher%NULL%2,    Klaus%Püschel%NULL%2,    Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,    Jasmin D%Haslbauer%NULL%4,    Jasmin D%Haslbauer%NULL%0,    Ronny%Nienhold%NULL%2,    Spasenija%Savic%NULL%2,    Helmut%Hopfer%NULL%2,    Nikolaus%Deigendesch%NULL%2,    Stephan%Frank%NULL%2,    Daniel%Turek%NULL%2,    Niels%Willi%NULL%2,    Hans%Pargger%NULL%2,    Stefano%Bassetti%NULL%2,    Joerg D%Leuppi%NULL%2,    Gieri%Cathomas%NULL%2,    Markus%Tolnay%NULL%2,    Kirsten D%Mertz%NULL%2,    Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,    Jasmin D%Haslbauer%NULL%0,    Jasmin D%Haslbauer%NULL%0,    Ronny%Nienhold%NULL%0,    Spasenija%Savic%NULL%0,    Helmut%Hopfer%NULL%0,    Nikolaus%Deigendesch%NULL%0,    Stephan%Frank%NULL%0,    Daniel%Turek%NULL%0,    Niels%Willi%NULL%0,    Hans%Pargger%NULL%0,    Stefano%Bassetti%NULL%0,    Joerg D%Leuppi%NULL%0,    Gieri%Cathomas%NULL%0,    Markus%Tolnay%NULL%0,    Kirsten D%Mertz%NULL%0,    Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,    Andreas J%Flammer%NULL%1,    Peter%Steiger%NULL%1,    Martina%Haberecker%NULL%1,    Rea%Andermatt%NULL%1,    Annelies S%Zinkernagel%NULL%1,    Mandeep R%Mehra%NULL%1,    Reto A%Schuepbach%NULL%1,    Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,    Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,    Yong%Xiong%NULL%0,    Huan%Liu%NULL%3,    Li%Niu%NULL%1,    Jianchun%Guo%NULL%1,    Meiyan%Liao%NULL%1,    Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,    Eric J%Duval%NULL%1,    Edana%Stroberg%NULL%1,    Subha%Ghosh%NULL%1,    Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,    Pilar%Alemany Monraval%NULL%1,    Carmen%Medina Medina%NULL%1,    Ana%Jiménez Sánchez%NULL%1,    Juan Carlos%Andrés Teruel%NULL%1,    José%Ferrando Marco%NULL%1,    Víctor%Puglia Santos%NULL%1,    Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,    Ann Sophie%Schröder%NULL%0,    Martin%Aepfelbacher%NULL%0,    Antonia%Fitzek%NULL%1,    Axel%Heinemann%NULL%0,    Fabian%Heinrich%NULL%0,    Anke%Klein%NULL%1,    Felicia%Langenwalder%NULL%1,    Marc%Lütgehetmann%NULL%0,    Kira%Meißner%NULL%1,    Klaus%Püschel%NULL%0,    Julia%Schädler%NULL%1,    Stefan%Steurer%NULL%0,    Herbert%Mushumba%NULL%0,    Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,  Blankenberg%Stefan S%coreGivesNoEmail%1,  Brauninger%Hanna%coreGivesNoEmail%1,  Edler%Caroline%coreGivesNoEmail%1,  Escher%Felicitas%coreGivesNoEmail%1,  Fitzek%Antonia%coreGivesNoEmail%1,  Kirchhof%Paulus%coreGivesNoEmail%1,  Lindner%Diana%coreGivesNoEmail%1,  Meissner%Kira%coreGivesNoEmail%1,  Puschel%Klaus%coreGivesNoEmail%1,  Scherschel%Katharina%coreGivesNoEmail%1,  Schultheiss%Heinz-Peter%coreGivesNoEmail%1,  Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,    Holly%Harper%NULL%1,    Behtash G%Nezami%NULL%1,    Daniel L%Shen%NULL%1,    Simona Pichler%Sekulic%NULL%1,    Aaron T%Koeth%NULL%1,    Clifford V%Harding%NULL%1,    Hannah%Gilmore%NULL%1,    Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,    Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,    Johannes Alexander%Lobrinus%NULL%2,    Johannes Alexander%Lobrinus%NULL%0,    Manuel%Schibler%NULL%1,    Tony%Fracasso%NULL%1,    Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,    Aibek%Akmatbekov%NULL%1,    Jack L%Harbert%NULL%1,    Guang%Li%NULL%1,    J%Quincy Brown%NULL%1,    Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,    Behnaz%Jahanbin%NULL%1,    Masoomeh%Safaei%NULL%1,    Laya%Amoozadeh%NULL%1,    Meysam%Khoshavi%NULL%1,    Vahid%Mehrtash%NULL%1,    Bita%Jafarzadeh%NULL%1,    Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,    Jing%Xie%NULL%2,    Lei%Zhao%NULL%1,    Xiaochun%Fei%NULL%1,    Heng%Zhang%NULL%1,    Yun%Tan%NULL%1,    Xiu%Nie%NULL%1,    Luting%Zhou%NULL%1,    Zhenhua%Liu%NULL%1,    Yong%Ren%NULL%1,    Ling%Yuan%NULL%1,    Yu%Zhang%NULL%1,    Jinsheng%Zhang%NULL%1,    Liwei%Liang%NULL%1,    Xinwei%Chen%NULL%1,    Xin%Liu%NULL%2,    Peng%Wang%NULL%1,    Xiao%Han%NULL%1,    Xiangqin%Weng%NULL%1,    Ying%Chen%NULL%1,    Ting%Yu%NULL%0,    Xinxin%Zhang%NULL%0,    Jun%Cai%caijun@shsmu.edu.cn%1,    Rong%Chen%crjudy@126.com%4,    Zhengli%Shi%zlshi@wh.iov.cn%2,    Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,    Selina%Traxler%NULL%2,    Selina%Traxler%NULL%0,    Michael%Bitzer%NULL%1,    Helene%Häberle%NULL%1,    Wolfgang%Raiser%NULL%1,    Dominik%Nann%NULL%1,    Leonie%Frauenfeld%NULL%1,    Antonio%Vogelsberg%NULL%1,    Karin%Klingel%NULL%1,    Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,    Thomas%Ruder%NULL%1,    Rilana%Baumeister%NULL%1,    Stephan%Bolliger%NULL%1,    Michael%Thali%NULL%1,    Eva%Meixner%NULL%1,    Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,    Lei%Shi%NULL%1,    Yijin%Wang%NULL%1,    Jiyuan%Zhang%NULL%1,    Lei%Huang%NULL%3,    Chao%Zhang%NULL%1,    Shuhong%Liu%NULL%1,    Peng%Zhao%NULL%1,    Hongxia%Liu%NULL%1,    Li%Zhu%NULL%1,    Yanhong%Tai%NULL%1,    Changqing%Bai%NULL%1,    Tingting%Gao%NULL%1,    Jinwen%Song%NULL%1,    Peng%Xia%NULL%1,    Jinghui%Dong%NULL%1,    Jingmin%Zhao%NULL%1,    Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,    Benjamin%Gaborit%NULL%2,    Benjamin%Gaborit%NULL%0,    Claire%Toquet%NULL%1,    Louise%Castain%NULL%1,    Antonin%Bal%NULL%1,    Pierre Paul%Arrigoni%NULL%1,    Raphaël%Lecomte%NULL%3,    Renaud%Clement%NULL%1,    Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,    Radu Lucian%Buzulică%NULL%1,    Daniel%Pirici%NULL%1,    Mihail Constantin%Ceauşu%NULL%1,    Radu Vasile%Iman%NULL%1,    Ovidiu-Mircea%Gheorghe%NULL%1,    Simona Daniela%Neamţu%NULL%1,    Liliana%Stanca%NULL%1,    Răzvan%Ene%NULL%1,    Samir%Kumar-Singh%NULL%1,    Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,    Alexander%Leunig%NULL%1,    Sophia%Brambs%NULL%1,    Rainer%Kaiser%NULL%1,    Tobias%Weinberger%NULL%1,    Michael%Weigand%NULL%1,    Maximilian%Muenchhoff%NULL%1,    Johannes C.%Hellmuth%NULL%1,    Stephan%Ledderose%NULL%1,    Heiko%Schulz%NULL%1,    Clemens%Scherer%NULL%1,    Martina%Rudelius%NULL%1,    Michael%Zoller%NULL%1,    Dominik%Höchter%NULL%1,    Oliver%Keppler%NULL%1,    Daniel%Teupser%NULL%1,    Bernhard%Zwißler%NULL%1,    Michael%von Bergwelt-Baildon%NULL%1,    Stefan%Kääb%NULL%1,    Steffen%Massberg%NULL%1,    Kami%Pekayvaz%NULL%1,    Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,    Alexandra%Grosse%NULL%1,    Helmut J.F.%Salzer%NULL%1,    Martin W.%Dünser%NULL%1,    Reinhard%Motz%NULL%1,    Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,    Ricardo%De Mendonça%NULL%1,    Nicky%D’Haene%NULL%1,    Sarah%De Clercq%NULL%1,    Camille%Verocq%NULL%1,    Laetitia%Lebrun%NULL%1,    Philomène%Lavis%NULL%1,    Marie-Lucie%Racu%NULL%1,    Anne-Laure%Trépant%NULL%1,    Calliope%Maris%NULL%1,    Sandrine%Rorive%NULL%1,    Jean-Christophe%Goffard%NULL%1,    Olivier%De Witte%NULL%1,    Lorenzo%Peluso%NULL%1,    Jean-Louis%Vincent%NULL%1,    Christine%Decaestecker%NULL%1,    Fabio Silvio%Taccone%NULL%1,    Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,    Hiroyuki%Hayashi%NULL%2,    Hiroyuki%Hayashi%NULL%0,    Yukihiro%Yoshimura%NULL%1,    Hiroaki%Sasaki%NULL%1,    Hiroshi%Horiuchi%NULL%1,    Nobuyuki%Miyata%NULL%1,    Natsuo%Tachikawa%NULL%1,    Yuki%Tsuchiya%NULL%1,    Hideaki%Mitsui%NULL%1,    Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,    Ja-Mun%Chong%NULL%1,    Noriko%Nakajima%NULL%1,    Masahiro%Sano%NULL%1,    Jun%Yamazaki%NULL%1,    Ippei%Miyamoto%NULL%1,    Haruka%Nishioka%NULL%1,    Hidetaka%Akita%NULL%1,    Yuko%Sato%NULL%1,    Michiyo%Kataoka%NULL%1,    Harutaka%Katano%NULL%1,    Minoru%Tobiume%NULL%1,    Tsuyoshi%Sekizuka%NULL%1,    Kentaro%Itokawa%NULL%1,    Makoto%Kuroda%NULL%1,    Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,    Anuradha%Lala%NULL%1,    Emilia%Bagiella%NULL%1,    Helena L.%Chang%NULL%1,    Pedro R.%Moreno%NULL%1,    Elisabet%Pujadas%NULL%1,    Varun%Arvind%NULL%1,    Sonali%Bose%NULL%1,    Alexander W.%Charney%NULL%2,    Martin D.%Chen%NULL%1,    Carlos%Cordon-Cardo%NULL%2,    Andrew S.%Dunn%NULL%1,    Michael E.%Farkouh%NULL%1,    Benjamin S.%Glicksberg%NULL%1,    Arash%Kia%NULL%1,    Roopa%Kohli-Seth%NULL%1,    Matthew A.%Levin%NULL%1,    Prem%Timsina%NULL%1,    Shan%Zhao%NULL%1,    Zahi A.%Fayad%NULL%5,    Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,    Kiran T.%Thakur%NULL%2,    Kiran T.%Thakur%NULL%0,    Anna S.%Nordvig%NULL%1,    Morgan L.%Prust%NULL%1,    William%Roth%NULL%1,    Angela%Lignelli%NULL%1,    Anne-Catrin%Uhlemann%NULL%1,    Emily Happy%Miller%NULL%1,    Shajo%Kunnath-Velayudhan%NULL%1,    Armando%Del Portillo%NULL%1,    Yang%Liu%NULL%2,    Gunnar%Hargus%NULL%1,    Andrew F.%Teich%NULL%1,    Richard A.%Hickman%NULL%1,    Kurenai%Tanji%NULL%1,    James E.%Goldman%NULL%1,    Phyllis L.%Faust%NULL%1,    Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,    Lilioara-Alexandra%Muja%NULL%2,    Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,    Chen%Shao%NULL%2,    Chen%Shao%NULL%0,    Xiao-jie%Huang%NULL%1,    Lin%Sun%NULL%2,    Ling-jia%Meng%NULL%1,    Hui%Liu%NULL%3,    Shi-jie%Zhang%NULL%1,    Hong-jun%Li%NULL%1,    Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,  Ficken%C.%coreGivesNoEmail%1,  Goddard%M.%coreGivesNoEmail%1,  Jensen%M. P.%coreGivesNoEmail%1,  Le%Quesne J.%coreGivesNoEmail%1,  Menon%D.%coreGivesNoEmail%1,  Officer\u2010Jones%L.%coreGivesNoEmail%1,  Smith%C.%coreGivesNoEmail%1,  Teod\u00f2sio%A.%coreGivesNoEmail%1,  Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,    Maria%Mostyka%NULL%1,    Alicia%Dillard%NULL%1,    Diana R.%Berman%NULL%1,    Lucy X.%Ma%NULL%1,    Amy%Chadburn%NULL%1,    Rhonda K.%Yantiss%NULL%1,    Jose%Jessurun%NULL%1,    Surya V.%Seshan%NULL%1,    Alain C.%Borczuk%NULL%1,    Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,    Kikkeri N%Naresh%NULL%1,    Candice%Roufosse%NULL%1,    Andrew G%Nicholson%NULL%1,    Justin%Weir%NULL%1,    Graham S%Cooke%NULL%1,    Mark%Thursz%NULL%1,    Pinelopi%Manousou%NULL%1,    Richard%Corbett%NULL%1,    Robert%Goldin%NULL%1,    Safa%Al-Sarraj%NULL%1,    Alireza%Abdolrasouli%NULL%1,    Olivia C%Swann%NULL%1,    Laury%Baillon%NULL%1,    Rebecca%Penn%NULL%1,    Wendy S%Barclay%NULL%1,    Patrizia%Viola%NULL%1,    Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,     Renata A A%Monteiro%NULL%2,     Renata A A%Monteiro%NULL%0,     Luiz F F%da Silva%NULL%1,     Denise M A C%Malheiros%NULL%1,     Ellen P%de Oliveira%NULL%1,     Jair%Theodoro‐Filho%NULL%1,     João R R%Pinho%NULL%1,     Michele S%Gomes‐Gouvêa%NULL%1,     Ana P M%Salles%NULL%1,     Ilka R S%de Oliveira%NULL%1,     Thais%Mauad%NULL%1,     Paulo H N%Saldiva%NULL%1,     Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,   Burkhardt%Katrin%coreGivesNoEmail%1,   Claus%Rainer%coreGivesNoEmail%1,   Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,   M\u00e4rkl%Bruno%coreGivesNoEmail%1,   Schaller%Tina%coreGivesNoEmail%1,   Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,     Dwayne A.%Wolf%NULL%1,     Bihong%Zhao%NULL%1,     Bindu%Akkanti%NULL%1,     Michelle%McDonald%NULL%1,     Laura%Lelenwa%NULL%1,     Noah%Reilly%NULL%1,     Giulia%Ottaviani%NULL%1,     M. Tarek%Elghetany%NULL%1,     Daniel Ocazionez%Trujillo%NULL%1,     Gabriel M.%Aisenberg%NULL%1,     Mohammad%Madjid%NULL%1,     Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,     Erin G.%Brooks%NULL%1,     Joshua%Akers%NULL%1,     Danielle%Armstrong%NULL%1,     Lauren%Decker%NULL%1,     Adam%Gonzalez%NULL%1,     William%Humphrey%NULL%1,     Romana%Mayer%NULL%1,     Matthew%Miller%NULL%1,     Catherine%Perez%NULL%1,     Jose Antonio Ruiz%Arango%NULL%1,     Lakshmanan%Sathyavagiswaran%NULL%1,     Wendy%Stroh%NULL%1,     Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,     Jan-Peter%Sperhake%NULL%2,     Marc%Lütgehetmann%NULL%2,     Stefan%Steurer%NULL%2,     Carolin%Edler%NULL%1,     Axel%Heinemann%NULL%2,     Fabian%Heinrich%NULL%2,     Herbert%Mushumba%NULL%2,     Inga%Kniep%NULL%1,     Ann Sophie%Schröder%NULL%2,     Christoph%Burdelski%NULL%2,     Geraldine%de Heer%NULL%2,     Axel%Nierhaus%NULL%2,     Daniel%Frings%NULL%2,     Susanne%Pfefferle%NULL%1,     Heinrich%Becker%NULL%1,     Hanns%Bredereke-Wiedling%NULL%1,     Andreas%de Weerth%NULL%2,     Hans-Richard%Paschen%NULL%1,     Sara%Sheikhzadeh-Eggers%NULL%1,     Axel%Stang%NULL%1,     Stefan%Schmiedel%NULL%1,     Carsten%Bokemeyer%NULL%1,     Marylyn M.%Addo%NULL%1,     Martin%Aepfelbacher%NULL%2,     Klaus%Püschel%NULL%2,     Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,     Jasmin D%Haslbauer%NULL%4,     Jasmin D%Haslbauer%NULL%0,     Ronny%Nienhold%NULL%2,     Spasenija%Savic%NULL%2,     Helmut%Hopfer%NULL%2,     Nikolaus%Deigendesch%NULL%2,     Stephan%Frank%NULL%2,     Daniel%Turek%NULL%2,     Niels%Willi%NULL%2,     Hans%Pargger%NULL%2,     Stefano%Bassetti%NULL%2,     Joerg D%Leuppi%NULL%2,     Gieri%Cathomas%NULL%2,     Markus%Tolnay%NULL%2,     Kirsten D%Mertz%NULL%2,     Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,     Jasmin D%Haslbauer%NULL%0,     Jasmin D%Haslbauer%NULL%0,     Ronny%Nienhold%NULL%0,     Spasenija%Savic%NULL%0,     Helmut%Hopfer%NULL%0,     Nikolaus%Deigendesch%NULL%0,     Stephan%Frank%NULL%0,     Daniel%Turek%NULL%0,     Niels%Willi%NULL%0,     Hans%Pargger%NULL%0,     Stefano%Bassetti%NULL%0,     Joerg D%Leuppi%NULL%0,     Gieri%Cathomas%NULL%0,     Markus%Tolnay%NULL%0,     Kirsten D%Mertz%NULL%0,     Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,     Andreas J%Flammer%NULL%1,     Peter%Steiger%NULL%1,     Martina%Haberecker%NULL%1,     Rea%Andermatt%NULL%1,     Annelies S%Zinkernagel%NULL%1,     Mandeep R%Mehra%NULL%1,     Reto A%Schuepbach%NULL%1,     Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,     Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,     Yong%Xiong%NULL%0,     Huan%Liu%NULL%3,     Li%Niu%NULL%1,     Jianchun%Guo%NULL%1,     Meiyan%Liao%NULL%1,     Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,     Eric J%Duval%NULL%1,     Edana%Stroberg%NULL%1,     Subha%Ghosh%NULL%1,     Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,     Pilar%Alemany Monraval%NULL%1,     Carmen%Medina Medina%NULL%1,     Ana%Jiménez Sánchez%NULL%1,     Juan Carlos%Andrés Teruel%NULL%1,     José%Ferrando Marco%NULL%1,     Víctor%Puglia Santos%NULL%1,     Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,     Ann Sophie%Schröder%NULL%0,     Martin%Aepfelbacher%NULL%0,     Antonia%Fitzek%NULL%1,     Axel%Heinemann%NULL%0,     Fabian%Heinrich%NULL%0,     Anke%Klein%NULL%1,     Felicia%Langenwalder%NULL%1,     Marc%Lütgehetmann%NULL%0,     Kira%Meißner%NULL%1,     Klaus%Püschel%NULL%0,     Julia%Schädler%NULL%1,     Stefan%Steurer%NULL%0,     Herbert%Mushumba%NULL%0,     Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,   Blankenberg%Stefan S%coreGivesNoEmail%1,   Brauninger%Hanna%coreGivesNoEmail%1,   Edler%Caroline%coreGivesNoEmail%1,   Escher%Felicitas%coreGivesNoEmail%1,   Fitzek%Antonia%coreGivesNoEmail%1,   Kirchhof%Paulus%coreGivesNoEmail%1,   Lindner%Diana%coreGivesNoEmail%1,   Meissner%Kira%coreGivesNoEmail%1,   Puschel%Klaus%coreGivesNoEmail%1,   Scherschel%Katharina%coreGivesNoEmail%1,   Schultheiss%Heinz-Peter%coreGivesNoEmail%1,   Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,     Holly%Harper%NULL%1,     Behtash G%Nezami%NULL%1,     Daniel L%Shen%NULL%1,     Simona Pichler%Sekulic%NULL%1,     Aaron T%Koeth%NULL%1,     Clifford V%Harding%NULL%1,     Hannah%Gilmore%NULL%1,     Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,     Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,     Johannes Alexander%Lobrinus%NULL%2,     Johannes Alexander%Lobrinus%NULL%0,     Manuel%Schibler%NULL%1,     Tony%Fracasso%NULL%1,     Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,     Aibek%Akmatbekov%NULL%1,     Jack L%Harbert%NULL%1,     Guang%Li%NULL%1,     J%Quincy Brown%NULL%1,     Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,     Behnaz%Jahanbin%NULL%1,     Masoomeh%Safaei%NULL%1,     Laya%Amoozadeh%NULL%1,     Meysam%Khoshavi%NULL%1,     Vahid%Mehrtash%NULL%1,     Bita%Jafarzadeh%NULL%1,     Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,     Jing%Xie%NULL%2,     Lei%Zhao%NULL%1,     Xiaochun%Fei%NULL%1,     Heng%Zhang%NULL%1,     Yun%Tan%NULL%1,     Xiu%Nie%NULL%1,     Luting%Zhou%NULL%1,     Zhenhua%Liu%NULL%1,     Yong%Ren%NULL%1,     Ling%Yuan%NULL%1,     Yu%Zhang%NULL%1,     Jinsheng%Zhang%NULL%1,     Liwei%Liang%NULL%1,     Xinwei%Chen%NULL%1,     Xin%Liu%NULL%1,     Peng%Wang%NULL%1,     Xiao%Han%NULL%1,     Xiangqin%Weng%NULL%1,     Ying%Chen%NULL%1,     Ting%Yu%NULL%0,     Xinxin%Zhang%NULL%0,     Jun%Cai%caijun@shsmu.edu.cn%1,     Rong%Chen%crjudy@126.com%3,     Zhengli%Shi%zlshi@wh.iov.cn%2,     Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,     Selina%Traxler%NULL%2,     Selina%Traxler%NULL%0,     Michael%Bitzer%NULL%1,     Helene%Häberle%NULL%1,     Wolfgang%Raiser%NULL%1,     Dominik%Nann%NULL%1,     Leonie%Frauenfeld%NULL%1,     Antonio%Vogelsberg%NULL%1,     Karin%Klingel%NULL%1,     Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,     Thomas%Ruder%NULL%1,     Rilana%Baumeister%NULL%1,     Stephan%Bolliger%NULL%1,     Michael%Thali%NULL%1,     Eva%Meixner%NULL%1,     Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,     Lei%Shi%NULL%1,     Yijin%Wang%NULL%1,     Jiyuan%Zhang%NULL%1,     Lei%Huang%NULL%3,     Chao%Zhang%NULL%1,     Shuhong%Liu%NULL%1,     Peng%Zhao%NULL%1,     Hongxia%Liu%NULL%1,     Li%Zhu%NULL%1,     Yanhong%Tai%NULL%1,     Changqing%Bai%NULL%1,     Tingting%Gao%NULL%1,     Jinwen%Song%NULL%1,     Peng%Xia%NULL%1,     Jinghui%Dong%NULL%1,     Jingmin%Zhao%NULL%1,     Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,     Benjamin%Gaborit%NULL%2,     Benjamin%Gaborit%NULL%0,     Claire%Toquet%NULL%1,     Louise%Castain%NULL%1,     Antonin%Bal%NULL%1,     Pierre Paul%Arrigoni%NULL%1,     Raphaël%Lecomte%NULL%3,     Renaud%Clement%NULL%1,     Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,     Radu Lucian%Buzulică%NULL%1,     Daniel%Pirici%NULL%1,     Mihail Constantin%Ceauşu%NULL%1,     Radu Vasile%Iman%NULL%1,     Ovidiu-Mircea%Gheorghe%NULL%1,     Simona Daniela%Neamţu%NULL%1,     Liliana%Stanca%NULL%1,     Răzvan%Ene%NULL%1,     Samir%Kumar-Singh%NULL%1,     Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,     Alexander%Leunig%NULL%1,     Sophia%Brambs%NULL%1,     Rainer%Kaiser%NULL%1,     Tobias%Weinberger%NULL%1,     Michael%Weigand%NULL%1,     Maximilian%Muenchhoff%NULL%1,     Johannes C.%Hellmuth%NULL%1,     Stephan%Ledderose%NULL%1,     Heiko%Schulz%NULL%1,     Clemens%Scherer%NULL%1,     Martina%Rudelius%NULL%1,     Michael%Zoller%NULL%1,     Dominik%Höchter%NULL%1,     Oliver%Keppler%NULL%1,     Daniel%Teupser%NULL%1,     Bernhard%Zwißler%NULL%1,     Michael%von Bergwelt-Baildon%NULL%1,     Stefan%Kääb%NULL%1,     Steffen%Massberg%NULL%1,     Kami%Pekayvaz%NULL%1,     Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,     Alexandra%Grosse%NULL%1,     Helmut J.F.%Salzer%NULL%1,     Martin W.%Dünser%NULL%1,     Reinhard%Motz%NULL%1,     Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,     Ricardo%De Mendonça%NULL%1,     Nicky%D’Haene%NULL%1,     Sarah%De Clercq%NULL%1,     Camille%Verocq%NULL%1,     Laetitia%Lebrun%NULL%1,     Philomène%Lavis%NULL%1,     Marie-Lucie%Racu%NULL%1,     Anne-Laure%Trépant%NULL%1,     Calliope%Maris%NULL%1,     Sandrine%Rorive%NULL%1,     Jean-Christophe%Goffard%NULL%1,     Olivier%De Witte%NULL%1,     Lorenzo%Peluso%NULL%1,     Jean-Louis%Vincent%NULL%1,     Christine%Decaestecker%NULL%1,     Fabio Silvio%Taccone%NULL%1,     Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,     Hiroyuki%Hayashi%NULL%2,     Hiroyuki%Hayashi%NULL%0,     Yukihiro%Yoshimura%NULL%1,     Hiroaki%Sasaki%NULL%1,     Hiroshi%Horiuchi%NULL%1,     Nobuyuki%Miyata%NULL%1,     Natsuo%Tachikawa%NULL%1,     Yuki%Tsuchiya%NULL%1,     Hideaki%Mitsui%NULL%1,     Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,     Ja-Mun%Chong%NULL%1,     Noriko%Nakajima%NULL%1,     Masahiro%Sano%NULL%1,     Jun%Yamazaki%NULL%1,     Ippei%Miyamoto%NULL%1,     Haruka%Nishioka%NULL%1,     Hidetaka%Akita%NULL%1,     Yuko%Sato%NULL%1,     Michiyo%Kataoka%NULL%1,     Harutaka%Katano%NULL%1,     Minoru%Tobiume%NULL%1,     Tsuyoshi%Sekizuka%NULL%1,     Kentaro%Itokawa%NULL%1,     Makoto%Kuroda%NULL%1,     Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,     Anuradha%Lala%NULL%1,     Emilia%Bagiella%NULL%1,     Helena L.%Chang%NULL%1,     Pedro R.%Moreno%NULL%1,     Elisabet%Pujadas%NULL%1,     Varun%Arvind%NULL%1,     Sonali%Bose%NULL%1,     Alexander W.%Charney%NULL%2,     Martin D.%Chen%NULL%1,     Carlos%Cordon-Cardo%NULL%2,     Andrew S.%Dunn%NULL%1,     Michael E.%Farkouh%NULL%1,     Benjamin S.%Glicksberg%NULL%1,     Arash%Kia%NULL%1,     Roopa%Kohli-Seth%NULL%1,     Matthew A.%Levin%NULL%1,     Prem%Timsina%NULL%1,     Shan%Zhao%NULL%1,     Zahi A.%Fayad%NULL%5,     Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,     Kiran T.%Thakur%NULL%2,     Kiran T.%Thakur%NULL%0,     Anna S.%Nordvig%NULL%1,     Morgan L.%Prust%NULL%1,     William%Roth%NULL%1,     Angela%Lignelli%NULL%1,     Anne-Catrin%Uhlemann%NULL%1,     Emily Happy%Miller%NULL%1,     Shajo%Kunnath-Velayudhan%NULL%1,     Armando%Del Portillo%NULL%1,     Yang%Liu%NULL%2,     Gunnar%Hargus%NULL%1,     Andrew F.%Teich%NULL%1,     Richard A.%Hickman%NULL%1,     Kurenai%Tanji%NULL%1,     James E.%Goldman%NULL%1,     Phyllis L.%Faust%NULL%1,     Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,     Lilioara-Alexandra%Muja%NULL%2,     Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,     Chen%Shao%NULL%2,     Chen%Shao%NULL%0,     Xiao-jie%Huang%NULL%1,     Lin%Sun%NULL%2,     Ling-jia%Meng%NULL%1,     Hui%Liu%NULL%3,     Shi-jie%Zhang%NULL%1,     Hong-jun%Li%NULL%1,     Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,   Ficken%C.%coreGivesNoEmail%1,   Goddard%M.%coreGivesNoEmail%1,   Jensen%M. P.%coreGivesNoEmail%1,   Le%Quesne J.%coreGivesNoEmail%1,   Menon%D.%coreGivesNoEmail%1,   Officer\u2010Jones%L.%coreGivesNoEmail%1,   Smith%C.%coreGivesNoEmail%1,   Teod\u00f2sio%A.%coreGivesNoEmail%1,   Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,     Maria%Mostyka%NULL%1,     Alicia%Dillard%NULL%1,     Diana R.%Berman%NULL%1,     Lucy X.%Ma%NULL%1,     Amy%Chadburn%NULL%1,     Rhonda K.%Yantiss%NULL%1,     Jose%Jessurun%NULL%1,     Surya V.%Seshan%NULL%1,     Alain C.%Borczuk%NULL%1,     Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,     Kikkeri N%Naresh%NULL%1,     Candice%Roufosse%NULL%1,     Andrew G%Nicholson%NULL%1,     Justin%Weir%NULL%1,     Graham S%Cooke%NULL%1,     Mark%Thursz%NULL%1,     Pinelopi%Manousou%NULL%1,     Richard%Corbett%NULL%1,     Robert%Goldin%NULL%1,     Safa%Al-Sarraj%NULL%1,     Alireza%Abdolrasouli%NULL%1,     Olivia C%Swann%NULL%1,     Laury%Baillon%NULL%1,     Rebecca%Penn%NULL%1,     Wendy S%Barclay%NULL%1,     Patrizia%Viola%NULL%1,     Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,      Renata A A%Monteiro%NULL%2,      Renata A A%Monteiro%NULL%0,      Luiz F F%da Silva%NULL%1,      Denise M A C%Malheiros%NULL%1,      Ellen P%de Oliveira%NULL%1,      Jair%Theodoro‐Filho%NULL%1,      João R R%Pinho%NULL%1,      Michele S%Gomes‐Gouvêa%NULL%1,      Ana P M%Salles%NULL%1,      Ilka R S%de Oliveira%NULL%1,      Thais%Mauad%NULL%1,      Paulo H N%Saldiva%NULL%1,      Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,    Burkhardt%Katrin%coreGivesNoEmail%1,    Claus%Rainer%coreGivesNoEmail%1,    Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,    M\u00e4rkl%Bruno%coreGivesNoEmail%1,    Schaller%Tina%coreGivesNoEmail%1,    Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,      Dwayne A.%Wolf%NULL%1,      Bihong%Zhao%NULL%1,      Bindu%Akkanti%NULL%1,      Michelle%McDonald%NULL%1,      Laura%Lelenwa%NULL%1,      Noah%Reilly%NULL%1,      Giulia%Ottaviani%NULL%1,      M. Tarek%Elghetany%NULL%1,      Daniel Ocazionez%Trujillo%NULL%1,      Gabriel M.%Aisenberg%NULL%1,      Mohammad%Madjid%NULL%1,      Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,      Erin G.%Brooks%NULL%1,      Joshua%Akers%NULL%1,      Danielle%Armstrong%NULL%1,      Lauren%Decker%NULL%1,      Adam%Gonzalez%NULL%1,      William%Humphrey%NULL%1,      Romana%Mayer%NULL%1,      Matthew%Miller%NULL%1,      Catherine%Perez%NULL%1,      Jose Antonio Ruiz%Arango%NULL%1,      Lakshmanan%Sathyavagiswaran%NULL%1,      Wendy%Stroh%NULL%1,      Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,      Jan-Peter%Sperhake%NULL%2,      Marc%Lütgehetmann%NULL%2,      Stefan%Steurer%NULL%2,      Carolin%Edler%NULL%1,      Axel%Heinemann%NULL%2,      Fabian%Heinrich%NULL%2,      Herbert%Mushumba%NULL%2,      Inga%Kniep%NULL%1,      Ann Sophie%Schröder%NULL%2,      Christoph%Burdelski%NULL%2,      Geraldine%de Heer%NULL%2,      Axel%Nierhaus%NULL%2,      Daniel%Frings%NULL%2,      Susanne%Pfefferle%NULL%1,      Heinrich%Becker%NULL%1,      Hanns%Bredereke-Wiedling%NULL%1,      Andreas%de Weerth%NULL%2,      Hans-Richard%Paschen%NULL%1,      Sara%Sheikhzadeh-Eggers%NULL%1,      Axel%Stang%NULL%1,      Stefan%Schmiedel%NULL%1,      Carsten%Bokemeyer%NULL%1,      Marylyn M.%Addo%NULL%1,      Martin%Aepfelbacher%NULL%2,      Klaus%Püschel%NULL%2,      Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,      Jasmin D%Haslbauer%NULL%4,      Jasmin D%Haslbauer%NULL%0,      Ronny%Nienhold%NULL%2,      Spasenija%Savic%NULL%2,      Helmut%Hopfer%NULL%2,      Nikolaus%Deigendesch%NULL%2,      Stephan%Frank%NULL%2,      Daniel%Turek%NULL%2,      Niels%Willi%NULL%2,      Hans%Pargger%NULL%2,      Stefano%Bassetti%NULL%2,      Joerg D%Leuppi%NULL%2,      Gieri%Cathomas%NULL%2,      Markus%Tolnay%NULL%2,      Kirsten D%Mertz%NULL%2,      Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,      Jasmin D%Haslbauer%NULL%0,      Jasmin D%Haslbauer%NULL%0,      Ronny%Nienhold%NULL%0,      Spasenija%Savic%NULL%0,      Helmut%Hopfer%NULL%0,      Nikolaus%Deigendesch%NULL%0,      Stephan%Frank%NULL%0,      Daniel%Turek%NULL%0,      Niels%Willi%NULL%0,      Hans%Pargger%NULL%0,      Stefano%Bassetti%NULL%0,      Joerg D%Leuppi%NULL%0,      Gieri%Cathomas%NULL%0,      Markus%Tolnay%NULL%0,      Kirsten D%Mertz%NULL%0,      Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,      Andreas J%Flammer%NULL%1,      Peter%Steiger%NULL%1,      Martina%Haberecker%NULL%1,      Rea%Andermatt%NULL%1,      Annelies S%Zinkernagel%NULL%1,      Mandeep R%Mehra%NULL%1,      Reto A%Schuepbach%NULL%1,      Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,      Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,      Yong%Xiong%NULL%0,      Huan%Liu%NULL%3,      Li%Niu%NULL%1,      Jianchun%Guo%NULL%1,      Meiyan%Liao%NULL%1,      Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,      Eric J%Duval%NULL%1,      Edana%Stroberg%NULL%1,      Subha%Ghosh%NULL%1,      Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,      Pilar%Alemany Monraval%NULL%1,      Carmen%Medina Medina%NULL%1,      Ana%Jiménez Sánchez%NULL%1,      Juan Carlos%Andrés Teruel%NULL%1,      José%Ferrando Marco%NULL%1,      Víctor%Puglia Santos%NULL%1,      Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,      Ann Sophie%Schröder%NULL%0,      Martin%Aepfelbacher%NULL%0,      Antonia%Fitzek%NULL%1,      Axel%Heinemann%NULL%0,      Fabian%Heinrich%NULL%0,      Anke%Klein%NULL%1,      Felicia%Langenwalder%NULL%1,      Marc%Lütgehetmann%NULL%0,      Kira%Meißner%NULL%1,      Klaus%Püschel%NULL%0,      Julia%Schädler%NULL%1,      Stefan%Steurer%NULL%0,      Herbert%Mushumba%NULL%0,      Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,    Blankenberg%Stefan S%coreGivesNoEmail%1,    Brauninger%Hanna%coreGivesNoEmail%1,    Edler%Caroline%coreGivesNoEmail%1,    Escher%Felicitas%coreGivesNoEmail%1,    Fitzek%Antonia%coreGivesNoEmail%1,    Kirchhof%Paulus%coreGivesNoEmail%1,    Lindner%Diana%coreGivesNoEmail%1,    Meissner%Kira%coreGivesNoEmail%1,    Puschel%Klaus%coreGivesNoEmail%1,    Scherschel%Katharina%coreGivesNoEmail%1,    Schultheiss%Heinz-Peter%coreGivesNoEmail%1,    Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,      Holly%Harper%NULL%1,      Behtash G%Nezami%NULL%1,      Daniel L%Shen%NULL%1,      Simona Pichler%Sekulic%NULL%1,      Aaron T%Koeth%NULL%1,      Clifford V%Harding%NULL%1,      Hannah%Gilmore%NULL%1,      Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,      Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,      Johannes Alexander%Lobrinus%NULL%2,      Johannes Alexander%Lobrinus%NULL%0,      Manuel%Schibler%NULL%1,      Tony%Fracasso%NULL%1,      Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,      Aibek%Akmatbekov%NULL%1,      Jack L%Harbert%NULL%1,      Guang%Li%NULL%1,      J%Quincy Brown%NULL%1,      Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,      Behnaz%Jahanbin%NULL%1,      Masoomeh%Safaei%NULL%1,      Laya%Amoozadeh%NULL%1,      Meysam%Khoshavi%NULL%1,      Vahid%Mehrtash%NULL%1,      Bita%Jafarzadeh%NULL%1,      Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,      Jing%Xie%NULL%2,      Lei%Zhao%NULL%1,      Xiaochun%Fei%NULL%1,      Heng%Zhang%NULL%1,      Yun%Tan%NULL%1,      Xiu%Nie%NULL%1,      Luting%Zhou%NULL%1,      Zhenhua%Liu%NULL%1,      Yong%Ren%NULL%1,      Ling%Yuan%NULL%1,      Yu%Zhang%NULL%1,      Jinsheng%Zhang%NULL%1,      Liwei%Liang%NULL%1,      Xinwei%Chen%NULL%1,      Xin%Liu%NULL%1,      Peng%Wang%NULL%1,      Xiao%Han%NULL%1,      Xiangqin%Weng%NULL%1,      Ying%Chen%NULL%1,      Ting%Yu%NULL%0,      Xinxin%Zhang%NULL%0,      Jun%Cai%caijun@shsmu.edu.cn%1,      Rong%Chen%crjudy@126.com%3,      Zhengli%Shi%zlshi@wh.iov.cn%2,      Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,      Selina%Traxler%NULL%2,      Selina%Traxler%NULL%0,      Michael%Bitzer%NULL%1,      Helene%Häberle%NULL%1,      Wolfgang%Raiser%NULL%1,      Dominik%Nann%NULL%1,      Leonie%Frauenfeld%NULL%1,      Antonio%Vogelsberg%NULL%1,      Karin%Klingel%NULL%1,      Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,      Thomas%Ruder%NULL%1,      Rilana%Baumeister%NULL%1,      Stephan%Bolliger%NULL%1,      Michael%Thali%NULL%1,      Eva%Meixner%NULL%1,      Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,      Lei%Shi%NULL%1,      Yijin%Wang%NULL%1,      Jiyuan%Zhang%NULL%1,      Lei%Huang%NULL%3,      Chao%Zhang%NULL%1,      Shuhong%Liu%NULL%1,      Peng%Zhao%NULL%1,      Hongxia%Liu%NULL%1,      Li%Zhu%NULL%1,      Yanhong%Tai%NULL%1,      Changqing%Bai%NULL%1,      Tingting%Gao%NULL%1,      Jinwen%Song%NULL%1,      Peng%Xia%NULL%1,      Jinghui%Dong%NULL%1,      Jingmin%Zhao%NULL%1,      Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,      Benjamin%Gaborit%NULL%2,      Benjamin%Gaborit%NULL%0,      Claire%Toquet%NULL%1,      Louise%Castain%NULL%1,      Antonin%Bal%NULL%1,      Pierre Paul%Arrigoni%NULL%1,      Raphaël%Lecomte%NULL%3,      Renaud%Clement%NULL%1,      Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,      Radu Lucian%Buzulică%NULL%1,      Daniel%Pirici%NULL%1,      Mihail Constantin%Ceauşu%NULL%1,      Radu Vasile%Iman%NULL%1,      Ovidiu-Mircea%Gheorghe%NULL%1,      Simona Daniela%Neamţu%NULL%1,      Liliana%Stanca%NULL%1,      Răzvan%Ene%NULL%1,      Samir%Kumar-Singh%NULL%1,      Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,      Alexander%Leunig%NULL%1,      Sophia%Brambs%NULL%1,      Rainer%Kaiser%NULL%1,      Tobias%Weinberger%NULL%1,      Michael%Weigand%NULL%1,      Maximilian%Muenchhoff%NULL%1,      Johannes C.%Hellmuth%NULL%1,      Stephan%Ledderose%NULL%1,      Heiko%Schulz%NULL%1,      Clemens%Scherer%NULL%1,      Martina%Rudelius%NULL%1,      Michael%Zoller%NULL%1,      Dominik%Höchter%NULL%1,      Oliver%Keppler%NULL%1,      Daniel%Teupser%NULL%1,      Bernhard%Zwißler%NULL%1,      Michael%von Bergwelt-Baildon%NULL%1,      Stefan%Kääb%NULL%1,      Steffen%Massberg%NULL%1,      Kami%Pekayvaz%NULL%1,      Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,      Alexandra%Grosse%NULL%1,      Helmut J.F.%Salzer%NULL%1,      Martin W.%Dünser%NULL%1,      Reinhard%Motz%NULL%1,      Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,      Ricardo%De Mendonça%NULL%1,      Nicky%D’Haene%NULL%1,      Sarah%De Clercq%NULL%1,      Camille%Verocq%NULL%1,      Laetitia%Lebrun%NULL%1,      Philomène%Lavis%NULL%1,      Marie-Lucie%Racu%NULL%1,      Anne-Laure%Trépant%NULL%1,      Calliope%Maris%NULL%1,      Sandrine%Rorive%NULL%1,      Jean-Christophe%Goffard%NULL%1,      Olivier%De Witte%NULL%1,      Lorenzo%Peluso%NULL%1,      Jean-Louis%Vincent%NULL%1,      Christine%Decaestecker%NULL%1,      Fabio Silvio%Taccone%NULL%1,      Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,      Hiroyuki%Hayashi%NULL%2,      Hiroyuki%Hayashi%NULL%0,      Yukihiro%Yoshimura%NULL%1,      Hiroaki%Sasaki%NULL%1,      Hiroshi%Horiuchi%NULL%1,      Nobuyuki%Miyata%NULL%1,      Natsuo%Tachikawa%NULL%1,      Yuki%Tsuchiya%NULL%1,      Hideaki%Mitsui%NULL%1,      Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,      Ja-Mun%Chong%NULL%1,      Noriko%Nakajima%NULL%1,      Masahiro%Sano%NULL%1,      Jun%Yamazaki%NULL%1,      Ippei%Miyamoto%NULL%1,      Haruka%Nishioka%NULL%1,      Hidetaka%Akita%NULL%1,      Yuko%Sato%NULL%1,      Michiyo%Kataoka%NULL%1,      Harutaka%Katano%NULL%1,      Minoru%Tobiume%NULL%1,      Tsuyoshi%Sekizuka%NULL%1,      Kentaro%Itokawa%NULL%1,      Makoto%Kuroda%NULL%1,      Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,      Anuradha%Lala%NULL%1,      Emilia%Bagiella%NULL%1,      Helena L.%Chang%NULL%1,      Pedro R.%Moreno%NULL%1,      Elisabet%Pujadas%NULL%1,      Varun%Arvind%NULL%1,      Sonali%Bose%NULL%1,      Alexander W.%Charney%NULL%2,      Martin D.%Chen%NULL%1,      Carlos%Cordon-Cardo%NULL%2,      Andrew S.%Dunn%NULL%1,      Michael E.%Farkouh%NULL%1,      Benjamin S.%Glicksberg%NULL%1,      Arash%Kia%NULL%1,      Roopa%Kohli-Seth%NULL%1,      Matthew A.%Levin%NULL%1,      Prem%Timsina%NULL%1,      Shan%Zhao%NULL%1,      Zahi A.%Fayad%NULL%5,      Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,      Kiran T.%Thakur%NULL%2,      Kiran T.%Thakur%NULL%0,      Anna S.%Nordvig%NULL%1,      Morgan L.%Prust%NULL%1,      William%Roth%NULL%1,      Angela%Lignelli%NULL%1,      Anne-Catrin%Uhlemann%NULL%1,      Emily Happy%Miller%NULL%1,      Shajo%Kunnath-Velayudhan%NULL%1,      Armando%Del Portillo%NULL%1,      Yang%Liu%NULL%2,      Gunnar%Hargus%NULL%1,      Andrew F.%Teich%NULL%1,      Richard A.%Hickman%NULL%1,      Kurenai%Tanji%NULL%1,      James E.%Goldman%NULL%1,      Phyllis L.%Faust%NULL%1,      Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,      Lilioara-Alexandra%Muja%NULL%2,      Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,      Chen%Shao%NULL%2,      Chen%Shao%NULL%0,      Xiao-jie%Huang%NULL%1,      Lin%Sun%NULL%2,      Ling-jia%Meng%NULL%1,      Hui%Liu%NULL%3,      Shi-jie%Zhang%NULL%1,      Hong-jun%Li%NULL%1,      Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,    Ficken%C.%coreGivesNoEmail%1,    Goddard%M.%coreGivesNoEmail%1,    Jensen%M. P.%coreGivesNoEmail%1,    Le%Quesne J.%coreGivesNoEmail%1,    Menon%D.%coreGivesNoEmail%1,    Officer\u2010Jones%L.%coreGivesNoEmail%1,    Smith%C.%coreGivesNoEmail%1,    Teod\u00f2sio%A.%coreGivesNoEmail%1,    Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,      Maria%Mostyka%NULL%1,      Alicia%Dillard%NULL%1,      Diana R.%Berman%NULL%1,      Lucy X.%Ma%NULL%1,      Amy%Chadburn%NULL%1,      Rhonda K.%Yantiss%NULL%1,      Jose%Jessurun%NULL%1,      Surya V.%Seshan%NULL%1,      Alain C.%Borczuk%NULL%1,      Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,      Kikkeri N%Naresh%NULL%1,      Candice%Roufosse%NULL%1,      Andrew G%Nicholson%NULL%1,      Justin%Weir%NULL%1,      Graham S%Cooke%NULL%1,      Mark%Thursz%NULL%1,      Pinelopi%Manousou%NULL%1,      Richard%Corbett%NULL%1,      Robert%Goldin%NULL%1,      Safa%Al-Sarraj%NULL%1,      Alireza%Abdolrasouli%NULL%1,      Olivia C%Swann%NULL%1,      Laury%Baillon%NULL%1,      Rebecca%Penn%NULL%1,      Wendy S%Barclay%NULL%1,      Patrizia%Viola%NULL%1,      Michael%Osborn%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1485,7 +1955,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>206</v>
+        <v>357</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -1508,19 +1978,19 @@
         <v>44005.0</v>
       </c>
       <c r="C3" t="s">
-        <v>46</v>
+        <v>244</v>
       </c>
       <c r="D3" t="s">
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>50</v>
+        <v>358</v>
       </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>3</v>
       </c>
       <c r="G3" t="s">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="H3" t="s">
         <v>60</v>
@@ -1543,7 +2013,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>208</v>
+        <v>359</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -1601,7 +2071,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>210</v>
+        <v>360</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -1630,7 +2100,7 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>211</v>
+        <v>361</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -1659,7 +2129,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>362</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
@@ -1688,7 +2158,7 @@
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>213</v>
+        <v>363</v>
       </c>
       <c r="F9" t="s">
         <v>78</v>
@@ -1717,7 +2187,7 @@
         <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>214</v>
+        <v>364</v>
       </c>
       <c r="F10" t="s">
         <v>84</v>
@@ -1746,7 +2216,7 @@
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>215</v>
+        <v>365</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
@@ -1775,7 +2245,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>217</v>
+        <v>366</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -1804,7 +2274,7 @@
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>218</v>
+        <v>367</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
@@ -1833,7 +2303,7 @@
         <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>219</v>
+        <v>368</v>
       </c>
       <c r="F14" t="s">
         <v>101</v>
@@ -1856,19 +2326,19 @@
         <v>44136.0</v>
       </c>
       <c r="C15" t="s">
-        <v>46</v>
+        <v>257</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>50</v>
+        <v>369</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G15" t="s">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="H15" t="s">
         <v>60</v>
@@ -1891,7 +2361,7 @@
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>221</v>
+        <v>370</v>
       </c>
       <c r="F16" t="s">
         <v>106</v>
@@ -1920,7 +2390,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>222</v>
+        <v>371</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -1949,7 +2419,7 @@
         <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>223</v>
+        <v>372</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -1978,7 +2448,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>224</v>
+        <v>373</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -2007,7 +2477,7 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>225</v>
+        <v>374</v>
       </c>
       <c r="F20" t="s">
         <v>123</v>
@@ -2036,7 +2506,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>226</v>
+        <v>375</v>
       </c>
       <c r="F21" t="s">
         <v>127</v>
@@ -2065,7 +2535,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>227</v>
+        <v>376</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -2094,7 +2564,7 @@
         <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>228</v>
+        <v>377</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -2123,7 +2593,7 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>229</v>
+        <v>378</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -2181,7 +2651,7 @@
         <v>143</v>
       </c>
       <c r="E26" t="s">
-        <v>230</v>
+        <v>379</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
@@ -2210,7 +2680,7 @@
         <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>231</v>
+        <v>380</v>
       </c>
       <c r="F27" t="s">
         <v>150</v>
@@ -2239,7 +2709,7 @@
         <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>232</v>
+        <v>381</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -2268,7 +2738,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>233</v>
+        <v>382</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -2326,7 +2796,7 @@
         <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>234</v>
+        <v>383</v>
       </c>
       <c r="F31" t="s">
         <v>165</v>
@@ -2355,7 +2825,7 @@
         <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>235</v>
+        <v>384</v>
       </c>
       <c r="F32" t="s">
         <v>170</v>
@@ -2384,7 +2854,7 @@
         <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>236</v>
+        <v>385</v>
       </c>
       <c r="F33" t="s">
         <v>175</v>
@@ -2413,7 +2883,7 @@
         <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>237</v>
+        <v>386</v>
       </c>
       <c r="F34" t="s">
         <v>179</v>
@@ -2442,7 +2912,7 @@
         <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>238</v>
+        <v>387</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -2471,7 +2941,7 @@
         <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>239</v>
+        <v>388</v>
       </c>
       <c r="F36" t="s">
         <v>189</v>
@@ -2500,7 +2970,7 @@
         <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>240</v>
+        <v>389</v>
       </c>
       <c r="F37" t="s">
         <v>194</v>
@@ -2523,19 +2993,19 @@
         <v>44228.0</v>
       </c>
       <c r="C38" t="s">
-        <v>46</v>
+        <v>280</v>
       </c>
       <c r="D38" t="s">
-        <v>47</v>
+        <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>50</v>
+        <v>390</v>
       </c>
       <c r="F38" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G38" t="s">
-        <v>52</v>
+        <v>246</v>
       </c>
       <c r="H38" t="s">
         <v>60</v>
@@ -2558,7 +3028,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>241</v>
+        <v>391</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -2587,7 +3057,7 @@
         <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>242</v>
+        <v>392</v>
       </c>
       <c r="F40" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/11.xlsx
+++ b/Covid_19_Dataset_and_References/References/11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2004" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="481">
   <si>
     <t>Doi</t>
   </si>
@@ -1560,6 +1560,290 @@
   </si>
   <si>
     <t>[Brian%Hanley%NULL%1,      Kikkeri N%Naresh%NULL%1,      Candice%Roufosse%NULL%1,      Andrew G%Nicholson%NULL%1,      Justin%Weir%NULL%1,      Graham S%Cooke%NULL%1,      Mark%Thursz%NULL%1,      Pinelopi%Manousou%NULL%1,      Richard%Corbett%NULL%1,      Robert%Goldin%NULL%1,      Safa%Al-Sarraj%NULL%1,      Alireza%Abdolrasouli%NULL%1,      Olivia C%Swann%NULL%1,      Laury%Baillon%NULL%1,      Rebecca%Penn%NULL%1,      Wendy S%Barclay%NULL%1,      Patrizia%Viola%NULL%1,      Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,       Renata A A%Monteiro%NULL%2,       Renata A A%Monteiro%NULL%0,       Luiz F F%da Silva%NULL%1,       Denise M A C%Malheiros%NULL%1,       Ellen P%de Oliveira%NULL%1,       Jair%Theodoro‐Filho%NULL%1,       João R R%Pinho%NULL%1,       Michele S%Gomes‐Gouvêa%NULL%1,       Ana P M%Salles%NULL%1,       Ilka R S%de Oliveira%NULL%1,       Thais%Mauad%NULL%1,       Paulo H N%Saldiva%NULL%1,       Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,     Burkhardt%Katrin%coreGivesNoEmail%1,     Claus%Rainer%coreGivesNoEmail%1,     Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,     M\u00e4rkl%Bruno%coreGivesNoEmail%1,     Schaller%Tina%coreGivesNoEmail%1,     Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,       Dwayne A.%Wolf%NULL%1,       Bihong%Zhao%NULL%1,       Bindu%Akkanti%NULL%1,       Michelle%McDonald%NULL%1,       Laura%Lelenwa%NULL%1,       Noah%Reilly%NULL%1,       Giulia%Ottaviani%NULL%1,       M. Tarek%Elghetany%NULL%1,       Daniel Ocazionez%Trujillo%NULL%1,       Gabriel M.%Aisenberg%NULL%1,       Mohammad%Madjid%NULL%1,       Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>"COVID-19 in a Hispanic Woman"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Since making its debut on the global stage in December 2019, coronavirus disease 2019 (COVID-19) has afflicted nearly 4 million people and caused hundreds of thousands of deaths.
+ Case reports and case series depicting the clinical effects of the causative virus\u2014severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2)\u2014have been published, yet few demonstrate the cytopathologic alterations of this disease.
+ We present a clinical-pathologic correlation report of a previously healthy Hispanic woman with laboratory-confirmed COVID-19 who had typical features of acute respiratory distress syndrome (ARDS) and also showed cardiac abnormalities thought to represent fulminant viral myocarditis.
+ Congruent with the ARDS clinical impression, autopsy findings were remarkable for extensive and markedly severe acute lung injury consistent with viral pneumonia, characterized by diffuse alveolar damage, pulmonary infarction, severe pulmonary edema, desquamation of pneumocytes with intra-alveolar aggregation, and pneumocyte morphologic alterations suggestive of viral cytopathic effect.
+ However, there was incongruence between the clinical impression and the cardiovascular pathology findings in that viral myocarditis was not detected on histopathologic evaluation.
+ This case highlights the importance of pathologic corroboration of the clinical impression and, in addition, illuminates the key role autopsy plays during a pandemic by providing valuable insight into viral pathology in tissues.
+</t>
+  </si>
+  <si>
+    <t>[Lei%Yan%xref no email%1, Mahnoor%Mir%xref no email%1, Paloma%Sanchez%xref no email%1, Moeezullah%Beg%xref no email%1, Jay%Peters%xref no email%1, Omar%Enriquez%xref no email%1, Andrea%Gilbert%xref no email%1]</t>
+  </si>
+  <si>
+    <t>CROSSREF</t>
+  </si>
+  <si>
+    <t>2023-04-09</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,       Erin G.%Brooks%NULL%1,       Joshua%Akers%NULL%1,       Danielle%Armstrong%NULL%1,       Lauren%Decker%NULL%1,       Adam%Gonzalez%NULL%1,       William%Humphrey%NULL%1,       Romana%Mayer%NULL%1,       Matthew%Miller%NULL%1,       Catherine%Perez%NULL%1,       Jose Antonio Ruiz%Arango%NULL%1,       Lakshmanan%Sathyavagiswaran%NULL%1,       Wendy%Stroh%NULL%1,       Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,       Jan-Peter%Sperhake%NULL%2,       Marc%Lütgehetmann%NULL%2,       Stefan%Steurer%NULL%2,       Carolin%Edler%NULL%1,       Axel%Heinemann%NULL%2,       Fabian%Heinrich%NULL%2,       Herbert%Mushumba%NULL%2,       Inga%Kniep%NULL%1,       Ann Sophie%Schröder%NULL%2,       Christoph%Burdelski%NULL%2,       Geraldine%de Heer%NULL%2,       Axel%Nierhaus%NULL%2,       Daniel%Frings%NULL%2,       Susanne%Pfefferle%NULL%1,       Heinrich%Becker%NULL%1,       Hanns%Bredereke-Wiedling%NULL%1,       Andreas%de Weerth%NULL%2,       Hans-Richard%Paschen%NULL%1,       Sara%Sheikhzadeh-Eggers%NULL%1,       Axel%Stang%NULL%1,       Stefan%Schmiedel%NULL%1,       Carsten%Bokemeyer%NULL%1,       Marylyn M.%Addo%NULL%1,       Martin%Aepfelbacher%NULL%2,       Klaus%Püschel%NULL%2,       Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,       Jasmin D%Haslbauer%NULL%4,       Jasmin D%Haslbauer%NULL%0,       Ronny%Nienhold%NULL%2,       Spasenija%Savic%NULL%2,       Helmut%Hopfer%NULL%2,       Nikolaus%Deigendesch%NULL%2,       Stephan%Frank%NULL%2,       Daniel%Turek%NULL%2,       Niels%Willi%NULL%2,       Hans%Pargger%NULL%2,       Stefano%Bassetti%NULL%2,       Joerg D%Leuppi%NULL%2,       Gieri%Cathomas%NULL%2,       Markus%Tolnay%NULL%2,       Kirsten D%Mertz%NULL%2,       Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,       Jasmin D%Haslbauer%NULL%0,       Jasmin D%Haslbauer%NULL%0,       Ronny%Nienhold%NULL%0,       Spasenija%Savic%NULL%0,       Helmut%Hopfer%NULL%0,       Nikolaus%Deigendesch%NULL%0,       Stephan%Frank%NULL%0,       Daniel%Turek%NULL%0,       Niels%Willi%NULL%0,       Hans%Pargger%NULL%0,       Stefano%Bassetti%NULL%0,       Joerg D%Leuppi%NULL%0,       Gieri%Cathomas%NULL%0,       Markus%Tolnay%NULL%0,       Kirsten D%Mertz%NULL%0,       Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,       Andreas J%Flammer%NULL%1,       Peter%Steiger%NULL%1,       Martina%Haberecker%NULL%1,       Rea%Andermatt%NULL%1,       Annelies S%Zinkernagel%NULL%1,       Mandeep R%Mehra%NULL%1,       Reto A%Schuepbach%NULL%1,       Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,       Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,       Yong%Xiong%NULL%0,       Huan%Liu%NULL%3,       Li%Niu%NULL%1,       Jianchun%Guo%NULL%1,       Meiyan%Liao%NULL%1,       Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,       Eric J%Duval%NULL%1,       Edana%Stroberg%NULL%1,       Subha%Ghosh%NULL%1,       Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,       Pilar%Alemany Monraval%NULL%1,       Carmen%Medina Medina%NULL%1,       Ana%Jiménez Sánchez%NULL%1,       Juan Carlos%Andrés Teruel%NULL%1,       José%Ferrando Marco%NULL%1,       Víctor%Puglia Santos%NULL%1,       Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,       Ann Sophie%Schröder%NULL%0,       Martin%Aepfelbacher%NULL%0,       Antonia%Fitzek%NULL%1,       Axel%Heinemann%NULL%0,       Fabian%Heinrich%NULL%0,       Anke%Klein%NULL%1,       Felicia%Langenwalder%NULL%1,       Marc%Lütgehetmann%NULL%0,       Kira%Meißner%NULL%1,       Klaus%Püschel%NULL%0,       Julia%Schädler%NULL%1,       Stefan%Steurer%NULL%0,       Herbert%Mushumba%NULL%0,       Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,     Blankenberg%Stefan S%coreGivesNoEmail%1,     Brauninger%Hanna%coreGivesNoEmail%1,     Edler%Caroline%coreGivesNoEmail%1,     Escher%Felicitas%coreGivesNoEmail%1,     Fitzek%Antonia%coreGivesNoEmail%1,     Kirchhof%Paulus%coreGivesNoEmail%1,     Lindner%Diana%coreGivesNoEmail%1,     Meissner%Kira%coreGivesNoEmail%1,     Puschel%Klaus%coreGivesNoEmail%1,     Scherschel%Katharina%coreGivesNoEmail%1,     Schultheiss%Heinz-Peter%coreGivesNoEmail%1,     Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,       Holly%Harper%NULL%1,       Behtash G%Nezami%NULL%1,       Daniel L%Shen%NULL%1,       Simona Pichler%Sekulic%NULL%1,       Aaron T%Koeth%NULL%1,       Clifford V%Harding%NULL%1,       Hannah%Gilmore%NULL%1,       Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,       Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,       Johannes Alexander%Lobrinus%NULL%2,       Johannes Alexander%Lobrinus%NULL%0,       Manuel%Schibler%NULL%1,       Tony%Fracasso%NULL%1,       Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,       Aibek%Akmatbekov%NULL%1,       Jack L%Harbert%NULL%1,       Guang%Li%NULL%1,       J%Quincy Brown%NULL%1,       Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,       Behnaz%Jahanbin%NULL%1,       Masoomeh%Safaei%NULL%1,       Laya%Amoozadeh%NULL%1,       Meysam%Khoshavi%NULL%1,       Vahid%Mehrtash%NULL%1,       Bita%Jafarzadeh%NULL%1,       Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,       Jing%Xie%NULL%2,       Lei%Zhao%NULL%1,       Xiaochun%Fei%NULL%1,       Heng%Zhang%NULL%1,       Yun%Tan%NULL%1,       Xiu%Nie%NULL%1,       Luting%Zhou%NULL%1,       Zhenhua%Liu%NULL%1,       Yong%Ren%NULL%1,       Ling%Yuan%NULL%1,       Yu%Zhang%NULL%1,       Jinsheng%Zhang%NULL%1,       Liwei%Liang%NULL%1,       Xinwei%Chen%NULL%1,       Xin%Liu%NULL%1,       Peng%Wang%NULL%1,       Xiao%Han%NULL%1,       Xiangqin%Weng%NULL%1,       Ying%Chen%NULL%1,       Ting%Yu%NULL%0,       Xinxin%Zhang%NULL%0,       Jun%Cai%caijun@shsmu.edu.cn%1,       Rong%Chen%crjudy@126.com%2,       Zhengli%Shi%zlshi@wh.iov.cn%2,       Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,       Selina%Traxler%NULL%2,       Selina%Traxler%NULL%0,       Michael%Bitzer%NULL%1,       Helene%Häberle%NULL%1,       Wolfgang%Raiser%NULL%1,       Dominik%Nann%NULL%1,       Leonie%Frauenfeld%NULL%1,       Antonio%Vogelsberg%NULL%1,       Karin%Klingel%NULL%1,       Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,       Thomas%Ruder%NULL%1,       Rilana%Baumeister%NULL%1,       Stephan%Bolliger%NULL%1,       Michael%Thali%NULL%1,       Eva%Meixner%NULL%1,       Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%2,       Lei%Shi%NULL%1,       Yijin%Wang%NULL%1,       Jiyuan%Zhang%NULL%1,       Lei%Huang%NULL%2,       Chao%Zhang%NULL%1,       Shuhong%Liu%NULL%1,       Peng%Zhao%NULL%1,       Hongxia%Liu%NULL%1,       Li%Zhu%NULL%1,       Yanhong%Tai%NULL%1,       Changqing%Bai%NULL%1,       Tingting%Gao%NULL%1,       Jinwen%Song%NULL%1,       Peng%Xia%NULL%1,       Jinghui%Dong%NULL%1,       Jingmin%Zhao%NULL%1,       Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>"COVID-19 autopsy in people who died in community settings: the first series"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"Here, we report the pathological findings of nine complete autopsies of individuals who died in community settings in the UK, three of which were positive for severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2), three tested negative for SARS-CoV-2 but are likely false negatives, and three died of other respiratory infections.
+ Autopsy revealed firm, consolidated lungs or lobar pneumonia.
+ Histology of the lungs showed changes of diffuse alveolar damage with fibrin membrane formation, thickened alveolar walls and interstitium with lymphocytic infiltrate, and type 2 pneumocyte hyperplasia with shedding into the alveolar space.
+ This series is the first in the world to describe autopsy findings in individuals dying suddenly in the community, not previously known to have COVID-19 infection, and the first autopsy series in the UK.
+ During a time when testing in the UK is currently primarily offered to patients in hospital or symptomatic key workers, with limited testing available in community settings, it highlights the importance of testing for COVID-19 at autopsy.
+ Two deaths occurred in care homes where a diagnosis of COVID-19 allowed the health protection team to provide support in that \u2018closed setting\u2019 to reduce the risks of onward transmission.
+ This work highlights the need for frequent COVID-19 testing in the management of patients in community settings.
+ Comprehensive virology and microbiology assessment is pivotal to correctly identify the cause of death, including those due to COVID-19 infection, and to derive accurate death statistics.
+</t>
+  </si>
+  <si>
+    <t>[Esther%Youd%xref no email%1, Luiza%Moore%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-03</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,       Benjamin%Gaborit%NULL%2,       Benjamin%Gaborit%NULL%0,       Claire%Toquet%NULL%1,       Louise%Castain%NULL%1,       Antonin%Bal%NULL%1,       Pierre Paul%Arrigoni%NULL%1,       Raphaël%Lecomte%NULL%1,       Renaud%Clement%NULL%1,       Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,       Radu Lucian%Buzulică%NULL%1,       Daniel%Pirici%NULL%1,       Mihail Constantin%Ceauşu%NULL%1,       Radu Vasile%Iman%NULL%1,       Ovidiu-Mircea%Gheorghe%NULL%1,       Simona Daniela%Neamţu%NULL%1,       Liliana%Stanca%NULL%1,       Răzvan%Ene%NULL%1,       Samir%Kumar-Singh%NULL%1,       Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,       Alexander%Leunig%NULL%1,       Sophia%Brambs%NULL%1,       Rainer%Kaiser%NULL%1,       Tobias%Weinberger%NULL%1,       Michael%Weigand%NULL%1,       Maximilian%Muenchhoff%NULL%1,       Johannes C.%Hellmuth%NULL%1,       Stephan%Ledderose%NULL%1,       Heiko%Schulz%NULL%1,       Clemens%Scherer%NULL%1,       Martina%Rudelius%NULL%1,       Michael%Zoller%NULL%1,       Dominik%Höchter%NULL%1,       Oliver%Keppler%NULL%1,       Daniel%Teupser%NULL%1,       Bernhard%Zwißler%NULL%1,       Michael%von Bergwelt-Baildon%NULL%1,       Stefan%Kääb%NULL%1,       Steffen%Massberg%NULL%1,       Kami%Pekayvaz%NULL%1,       Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,       Alexandra%Grosse%NULL%1,       Helmut J.F.%Salzer%NULL%1,       Martin W.%Dünser%NULL%1,       Reinhard%Motz%NULL%1,       Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>"Fatal pulmonary fibrosis: a post-COVID-19 autopsy case"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">"There is growing evidence of histopathological changes in autopsied individuals infected with severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2); however, data on histopathological changes in autopsied patients with eradicated COVID-19 are limited.
+ We performed an autopsy on a Caucasian female in her 80s, who died due to severe, bilateral pulmonary fibrosis after eliminated SARS-CoV-2 infection.
+ In addition, CT scans from 2\u2009months before infection and from 6\u2009days prior to death were compared.
+ Comparison of the CT scans showed bilateral development of widespread fibrosis in previously healthy lungs.
+ Microscopic examination showed different areas with acute and organising diffuse alveolar damage and fibrosis with honeycomb-like remodelling and bronchial metaplasia.
+ We here report a unique autopsy case with development of widespread pulmonary fibrosis in a woman in her 80s with previous COVID-19 and no history of pulmonary illnesses.
+</t>
+  </si>
+  <si>
+    <t>[Hanna Ferl\u00f8v%Schwensen%xref no email%1, Line Kristine%Borreschmidt%xref no email%1, Merete%Storgaard%xref no email%1, S\u00f8ren%Redsted%xref no email%1, Steffen%Christensen%xref no email%1, Line Bille%Madsen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>2023-05-20</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,       Ricardo%De Mendonça%NULL%1,       Nicky%D’Haene%NULL%1,       Sarah%De Clercq%NULL%1,       Camille%Verocq%NULL%1,       Laetitia%Lebrun%NULL%1,       Philomène%Lavis%NULL%1,       Marie-Lucie%Racu%NULL%1,       Anne-Laure%Trépant%NULL%1,       Calliope%Maris%NULL%1,       Sandrine%Rorive%NULL%1,       Jean-Christophe%Goffard%NULL%1,       Olivier%De Witte%NULL%1,       Lorenzo%Peluso%NULL%1,       Jean-Louis%Vincent%NULL%1,       Christine%Decaestecker%NULL%1,       Fabio Silvio%Taccone%NULL%1,       Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,       Hiroyuki%Hayashi%NULL%2,       Hiroyuki%Hayashi%NULL%0,       Yukihiro%Yoshimura%NULL%1,       Hiroaki%Sasaki%NULL%1,       Hiroshi%Horiuchi%NULL%1,       Nobuyuki%Miyata%NULL%1,       Natsuo%Tachikawa%NULL%1,       Yuki%Tsuchiya%NULL%1,       Hideaki%Mitsui%NULL%1,       Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,       Ja-Mun%Chong%NULL%1,       Noriko%Nakajima%NULL%1,       Masahiro%Sano%NULL%1,       Jun%Yamazaki%NULL%1,       Ippei%Miyamoto%NULL%1,       Haruka%Nishioka%NULL%1,       Hidetaka%Akita%NULL%1,       Yuko%Sato%NULL%1,       Michiyo%Kataoka%NULL%1,       Harutaka%Katano%NULL%1,       Minoru%Tobiume%NULL%1,       Tsuyoshi%Sekizuka%NULL%1,       Kentaro%Itokawa%NULL%1,       Makoto%Kuroda%NULL%1,       Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,       Anuradha%Lala%NULL%1,       Emilia%Bagiella%NULL%1,       Helena L.%Chang%NULL%1,       Pedro R.%Moreno%NULL%1,       Elisabet%Pujadas%NULL%1,       Varun%Arvind%NULL%1,       Sonali%Bose%NULL%1,       Alexander W.%Charney%NULL%2,       Martin D.%Chen%NULL%1,       Carlos%Cordon-Cardo%NULL%2,       Andrew S.%Dunn%NULL%1,       Michael E.%Farkouh%NULL%1,       Benjamin S.%Glicksberg%NULL%1,       Arash%Kia%NULL%1,       Roopa%Kohli-Seth%NULL%1,       Matthew A.%Levin%NULL%1,       Prem%Timsina%NULL%1,       Shan%Zhao%NULL%1,       Zahi A.%Fayad%NULL%5,       Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,       Kiran T.%Thakur%NULL%2,       Kiran T.%Thakur%NULL%0,       Anna S.%Nordvig%NULL%1,       Morgan L.%Prust%NULL%1,       William%Roth%NULL%1,       Angela%Lignelli%NULL%1,       Anne-Catrin%Uhlemann%NULL%1,       Emily Happy%Miller%NULL%1,       Shajo%Kunnath-Velayudhan%NULL%1,       Armando%Del Portillo%NULL%1,       Yang%Liu%NULL%1,       Gunnar%Hargus%NULL%1,       Andrew F.%Teich%NULL%1,       Richard A.%Hickman%NULL%1,       Kurenai%Tanji%NULL%1,       James E.%Goldman%NULL%1,       Phyllis L.%Faust%NULL%1,       Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,       Lilioara-Alexandra%Muja%NULL%2,       Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,       Chen%Shao%NULL%2,       Chen%Shao%NULL%0,       Xiao-jie%Huang%NULL%1,       Lin%Sun%NULL%1,       Ling-jia%Meng%NULL%1,       Hui%Liu%NULL%2,       Shi-jie%Zhang%NULL%1,       Hong-jun%Li%NULL%1,       Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,     Ficken%C.%coreGivesNoEmail%1,     Goddard%M.%coreGivesNoEmail%1,     Jensen%M. P.%coreGivesNoEmail%1,     Le%Quesne J.%coreGivesNoEmail%1,     Menon%D.%coreGivesNoEmail%1,     Officer\u2010Jones%L.%coreGivesNoEmail%1,     Smith%C.%coreGivesNoEmail%1,     Teod\u00f2sio%A.%coreGivesNoEmail%1,     Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,       Maria%Mostyka%NULL%1,       Alicia%Dillard%NULL%1,       Diana R.%Berman%NULL%1,       Lucy X.%Ma%NULL%1,       Amy%Chadburn%NULL%1,       Rhonda K.%Yantiss%NULL%1,       Jose%Jessurun%NULL%1,       Surya V.%Seshan%NULL%1,       Alain C.%Borczuk%NULL%1,       Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,       Kikkeri N%Naresh%NULL%1,       Candice%Roufosse%NULL%1,       Andrew G%Nicholson%NULL%1,       Justin%Weir%NULL%1,       Graham S%Cooke%NULL%1,       Mark%Thursz%NULL%1,       Pinelopi%Manousou%NULL%1,       Richard%Corbett%NULL%1,       Robert%Goldin%NULL%1,       Safa%Al-Sarraj%NULL%1,       Alireza%Abdolrasouli%NULL%1,       Olivia C%Swann%NULL%1,       Laury%Baillon%NULL%1,       Rebecca%Penn%NULL%1,       Wendy S%Barclay%NULL%1,       Patrizia%Viola%NULL%1,       Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,        Renata A A%Monteiro%NULL%2,        Renata A A%Monteiro%NULL%0,        Luiz F F%da Silva%NULL%1,        Denise M A C%Malheiros%NULL%1,        Ellen P%de Oliveira%NULL%1,        Jair%Theodoro‐Filho%NULL%1,        João R R%Pinho%NULL%1,        Michele S%Gomes‐Gouvêa%NULL%1,        Ana P M%Salles%NULL%1,        Ilka R S%de Oliveira%NULL%1,        Thais%Mauad%NULL%1,        Paulo H N%Saldiva%NULL%1,        Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,      Burkhardt%Katrin%coreGivesNoEmail%1,      Claus%Rainer%coreGivesNoEmail%1,      Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,      M\u00e4rkl%Bruno%coreGivesNoEmail%1,      Schaller%Tina%coreGivesNoEmail%1,      Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,        Dwayne A.%Wolf%NULL%1,        Bihong%Zhao%NULL%1,        Bindu%Akkanti%NULL%1,        Michelle%McDonald%NULL%1,        Laura%Lelenwa%NULL%1,        Noah%Reilly%NULL%1,        Giulia%Ottaviani%NULL%1,        M. Tarek%Elghetany%NULL%1,        Daniel Ocazionez%Trujillo%NULL%1,        Gabriel M.%Aisenberg%NULL%1,        Mohammad%Madjid%NULL%1,        Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Yan%xref no email%1,  Mahnoor%Mir%xref no email%1,  Paloma%Sanchez%xref no email%1,  Moeezullah%Beg%xref no email%1,  Jay%Peters%xref no email%1,  Omar%Enriquez%xref no email%1,  Andrea%Gilbert%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,        Erin G.%Brooks%NULL%1,        Joshua%Akers%NULL%1,        Danielle%Armstrong%NULL%1,        Lauren%Decker%NULL%1,        Adam%Gonzalez%NULL%1,        William%Humphrey%NULL%1,        Romana%Mayer%NULL%1,        Matthew%Miller%NULL%1,        Catherine%Perez%NULL%1,        Jose Antonio Ruiz%Arango%NULL%1,        Lakshmanan%Sathyavagiswaran%NULL%1,        Wendy%Stroh%NULL%1,        Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,        Jan-Peter%Sperhake%NULL%2,        Marc%Lütgehetmann%NULL%2,        Stefan%Steurer%NULL%2,        Carolin%Edler%NULL%1,        Axel%Heinemann%NULL%2,        Fabian%Heinrich%NULL%2,        Herbert%Mushumba%NULL%2,        Inga%Kniep%NULL%1,        Ann Sophie%Schröder%NULL%2,        Christoph%Burdelski%NULL%2,        Geraldine%de Heer%NULL%2,        Axel%Nierhaus%NULL%2,        Daniel%Frings%NULL%2,        Susanne%Pfefferle%NULL%1,        Heinrich%Becker%NULL%1,        Hanns%Bredereke-Wiedling%NULL%1,        Andreas%de Weerth%NULL%2,        Hans-Richard%Paschen%NULL%1,        Sara%Sheikhzadeh-Eggers%NULL%1,        Axel%Stang%NULL%1,        Stefan%Schmiedel%NULL%1,        Carsten%Bokemeyer%NULL%1,        Marylyn M.%Addo%NULL%1,        Martin%Aepfelbacher%NULL%2,        Klaus%Püschel%NULL%2,        Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,        Jasmin D%Haslbauer%NULL%4,        Jasmin D%Haslbauer%NULL%0,        Ronny%Nienhold%NULL%2,        Spasenija%Savic%NULL%2,        Helmut%Hopfer%NULL%2,        Nikolaus%Deigendesch%NULL%2,        Stephan%Frank%NULL%2,        Daniel%Turek%NULL%2,        Niels%Willi%NULL%2,        Hans%Pargger%NULL%2,        Stefano%Bassetti%NULL%2,        Joerg D%Leuppi%NULL%2,        Gieri%Cathomas%NULL%2,        Markus%Tolnay%NULL%2,        Kirsten D%Mertz%NULL%2,        Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,        Jasmin D%Haslbauer%NULL%0,        Jasmin D%Haslbauer%NULL%0,        Ronny%Nienhold%NULL%0,        Spasenija%Savic%NULL%0,        Helmut%Hopfer%NULL%0,        Nikolaus%Deigendesch%NULL%0,        Stephan%Frank%NULL%0,        Daniel%Turek%NULL%0,        Niels%Willi%NULL%0,        Hans%Pargger%NULL%0,        Stefano%Bassetti%NULL%0,        Joerg D%Leuppi%NULL%0,        Gieri%Cathomas%NULL%0,        Markus%Tolnay%NULL%0,        Kirsten D%Mertz%NULL%0,        Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,        Andreas J%Flammer%NULL%1,        Peter%Steiger%NULL%1,        Martina%Haberecker%NULL%1,        Rea%Andermatt%NULL%1,        Annelies S%Zinkernagel%NULL%1,        Mandeep R%Mehra%NULL%1,        Reto A%Schuepbach%NULL%1,        Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,        Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,        Yong%Xiong%NULL%0,        Huan%Liu%NULL%3,        Li%Niu%NULL%1,        Jianchun%Guo%NULL%1,        Meiyan%Liao%NULL%1,        Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,        Eric J%Duval%NULL%1,        Edana%Stroberg%NULL%1,        Subha%Ghosh%NULL%1,        Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,        Pilar%Alemany Monraval%NULL%1,        Carmen%Medina Medina%NULL%1,        Ana%Jiménez Sánchez%NULL%1,        Juan Carlos%Andrés Teruel%NULL%1,        José%Ferrando Marco%NULL%1,        Víctor%Puglia Santos%NULL%1,        Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,        Ann Sophie%Schröder%NULL%0,        Martin%Aepfelbacher%NULL%0,        Antonia%Fitzek%NULL%1,        Axel%Heinemann%NULL%0,        Fabian%Heinrich%NULL%0,        Anke%Klein%NULL%1,        Felicia%Langenwalder%NULL%1,        Marc%Lütgehetmann%NULL%0,        Kira%Meißner%NULL%1,        Klaus%Püschel%NULL%0,        Julia%Schädler%NULL%1,        Stefan%Steurer%NULL%0,        Herbert%Mushumba%NULL%0,        Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,      Blankenberg%Stefan S%coreGivesNoEmail%1,      Brauninger%Hanna%coreGivesNoEmail%1,      Edler%Caroline%coreGivesNoEmail%1,      Escher%Felicitas%coreGivesNoEmail%1,      Fitzek%Antonia%coreGivesNoEmail%1,      Kirchhof%Paulus%coreGivesNoEmail%1,      Lindner%Diana%coreGivesNoEmail%1,      Meissner%Kira%coreGivesNoEmail%1,      Puschel%Klaus%coreGivesNoEmail%1,      Scherschel%Katharina%coreGivesNoEmail%1,      Schultheiss%Heinz-Peter%coreGivesNoEmail%1,      Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,        Holly%Harper%NULL%1,        Behtash G%Nezami%NULL%1,        Daniel L%Shen%NULL%1,        Simona Pichler%Sekulic%NULL%1,        Aaron T%Koeth%NULL%1,        Clifford V%Harding%NULL%1,        Hannah%Gilmore%NULL%1,        Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,        Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,        Johannes Alexander%Lobrinus%NULL%2,        Johannes Alexander%Lobrinus%NULL%0,        Manuel%Schibler%NULL%1,        Tony%Fracasso%NULL%1,        Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,        Aibek%Akmatbekov%NULL%1,        Jack L%Harbert%NULL%1,        Guang%Li%NULL%1,        J%Quincy Brown%NULL%1,        Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,        Behnaz%Jahanbin%NULL%1,        Masoomeh%Safaei%NULL%1,        Laya%Amoozadeh%NULL%1,        Meysam%Khoshavi%NULL%1,        Vahid%Mehrtash%NULL%1,        Bita%Jafarzadeh%NULL%1,        Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,        Jing%Xie%NULL%2,        Lei%Zhao%NULL%1,        Xiaochun%Fei%NULL%1,        Heng%Zhang%NULL%1,        Yun%Tan%NULL%1,        Xiu%Nie%NULL%1,        Luting%Zhou%NULL%1,        Zhenhua%Liu%NULL%1,        Yong%Ren%NULL%1,        Ling%Yuan%NULL%1,        Yu%Zhang%NULL%1,        Jinsheng%Zhang%NULL%1,        Liwei%Liang%NULL%1,        Xinwei%Chen%NULL%1,        Xin%Liu%NULL%1,        Peng%Wang%NULL%1,        Xiao%Han%NULL%1,        Xiangqin%Weng%NULL%1,        Ying%Chen%NULL%1,        Ting%Yu%NULL%0,        Xinxin%Zhang%NULL%0,        Jun%Cai%caijun@shsmu.edu.cn%1,        Rong%Chen%crjudy@126.com%2,        Zhengli%Shi%zlshi@wh.iov.cn%2,        Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,        Selina%Traxler%NULL%2,        Selina%Traxler%NULL%0,        Michael%Bitzer%NULL%1,        Helene%Häberle%NULL%1,        Wolfgang%Raiser%NULL%1,        Dominik%Nann%NULL%1,        Leonie%Frauenfeld%NULL%1,        Antonio%Vogelsberg%NULL%1,        Karin%Klingel%NULL%1,        Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,        Thomas%Ruder%NULL%1,        Rilana%Baumeister%NULL%1,        Stephan%Bolliger%NULL%1,        Michael%Thali%NULL%1,        Eva%Meixner%NULL%1,        Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,        Lei%Shi%NULL%1,        Yijin%Wang%NULL%1,        Jiyuan%Zhang%NULL%1,        Lei%Huang%NULL%2,        Chao%Zhang%NULL%1,        Shuhong%Liu%NULL%1,        Peng%Zhao%NULL%1,        Hongxia%Liu%NULL%1,        Li%Zhu%NULL%1,        Yanhong%Tai%NULL%1,        Changqing%Bai%NULL%1,        Tingting%Gao%NULL%1,        Jinwen%Song%NULL%1,        Peng%Xia%NULL%1,        Jinghui%Dong%NULL%1,        Jingmin%Zhao%NULL%1,        Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Esther%Youd%xref no email%1,  Luiza%Moore%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,        Benjamin%Gaborit%NULL%2,        Benjamin%Gaborit%NULL%0,        Claire%Toquet%NULL%1,        Louise%Castain%NULL%1,        Antonin%Bal%NULL%1,        Pierre Paul%Arrigoni%NULL%1,        Raphaël%Lecomte%NULL%1,        Renaud%Clement%NULL%1,        Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,        Radu Lucian%Buzulică%NULL%1,        Daniel%Pirici%NULL%1,        Mihail Constantin%Ceauşu%NULL%1,        Radu Vasile%Iman%NULL%1,        Ovidiu-Mircea%Gheorghe%NULL%1,        Simona Daniela%Neamţu%NULL%1,        Liliana%Stanca%NULL%1,        Răzvan%Ene%NULL%1,        Samir%Kumar-Singh%NULL%1,        Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,        Alexander%Leunig%NULL%1,        Sophia%Brambs%NULL%1,        Rainer%Kaiser%NULL%1,        Tobias%Weinberger%NULL%1,        Michael%Weigand%NULL%1,        Maximilian%Muenchhoff%NULL%1,        Johannes C.%Hellmuth%NULL%1,        Stephan%Ledderose%NULL%1,        Heiko%Schulz%NULL%1,        Clemens%Scherer%NULL%1,        Martina%Rudelius%NULL%1,        Michael%Zoller%NULL%1,        Dominik%Höchter%NULL%1,        Oliver%Keppler%NULL%1,        Daniel%Teupser%NULL%1,        Bernhard%Zwißler%NULL%1,        Michael%von Bergwelt-Baildon%NULL%1,        Stefan%Kääb%NULL%1,        Steffen%Massberg%NULL%1,        Kami%Pekayvaz%NULL%1,        Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,        Alexandra%Grosse%NULL%1,        Helmut J.F.%Salzer%NULL%1,        Martin W.%Dünser%NULL%1,        Reinhard%Motz%NULL%1,        Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna Ferl\u00f8v%Schwensen%xref no email%1,  Line Kristine%Borreschmidt%xref no email%1,  Merete%Storgaard%xref no email%1,  S\u00f8ren%Redsted%xref no email%1,  Steffen%Christensen%xref no email%1,  Line Bille%Madsen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,        Ricardo%De Mendonça%NULL%1,        Nicky%D’Haene%NULL%1,        Sarah%De Clercq%NULL%1,        Camille%Verocq%NULL%1,        Laetitia%Lebrun%NULL%1,        Philomène%Lavis%NULL%1,        Marie-Lucie%Racu%NULL%1,        Anne-Laure%Trépant%NULL%1,        Calliope%Maris%NULL%1,        Sandrine%Rorive%NULL%1,        Jean-Christophe%Goffard%NULL%1,        Olivier%De Witte%NULL%1,        Lorenzo%Peluso%NULL%1,        Jean-Louis%Vincent%NULL%1,        Christine%Decaestecker%NULL%1,        Fabio Silvio%Taccone%NULL%1,        Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,        Hiroyuki%Hayashi%NULL%2,        Hiroyuki%Hayashi%NULL%0,        Yukihiro%Yoshimura%NULL%1,        Hiroaki%Sasaki%NULL%1,        Hiroshi%Horiuchi%NULL%1,        Nobuyuki%Miyata%NULL%1,        Natsuo%Tachikawa%NULL%1,        Yuki%Tsuchiya%NULL%1,        Hideaki%Mitsui%NULL%1,        Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,        Ja-Mun%Chong%NULL%1,        Noriko%Nakajima%NULL%1,        Masahiro%Sano%NULL%1,        Jun%Yamazaki%NULL%1,        Ippei%Miyamoto%NULL%1,        Haruka%Nishioka%NULL%1,        Hidetaka%Akita%NULL%1,        Yuko%Sato%NULL%1,        Michiyo%Kataoka%NULL%1,        Harutaka%Katano%NULL%1,        Minoru%Tobiume%NULL%1,        Tsuyoshi%Sekizuka%NULL%1,        Kentaro%Itokawa%NULL%1,        Makoto%Kuroda%NULL%1,        Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,        Anuradha%Lala%NULL%1,        Emilia%Bagiella%NULL%1,        Helena L.%Chang%NULL%1,        Pedro R.%Moreno%NULL%1,        Elisabet%Pujadas%NULL%1,        Varun%Arvind%NULL%1,        Sonali%Bose%NULL%1,        Alexander W.%Charney%NULL%2,        Martin D.%Chen%NULL%1,        Carlos%Cordon-Cardo%NULL%2,        Andrew S.%Dunn%NULL%1,        Michael E.%Farkouh%NULL%1,        Benjamin S.%Glicksberg%NULL%1,        Arash%Kia%NULL%1,        Roopa%Kohli-Seth%NULL%1,        Matthew A.%Levin%NULL%1,        Prem%Timsina%NULL%1,        Shan%Zhao%NULL%1,        Zahi A.%Fayad%NULL%5,        Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,        Kiran T.%Thakur%NULL%2,        Kiran T.%Thakur%NULL%0,        Anna S.%Nordvig%NULL%1,        Morgan L.%Prust%NULL%1,        William%Roth%NULL%1,        Angela%Lignelli%NULL%1,        Anne-Catrin%Uhlemann%NULL%1,        Emily Happy%Miller%NULL%1,        Shajo%Kunnath-Velayudhan%NULL%1,        Armando%Del Portillo%NULL%1,        Yang%Liu%NULL%1,        Gunnar%Hargus%NULL%1,        Andrew F.%Teich%NULL%1,        Richard A.%Hickman%NULL%1,        Kurenai%Tanji%NULL%1,        James E.%Goldman%NULL%1,        Phyllis L.%Faust%NULL%1,        Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,        Lilioara-Alexandra%Muja%NULL%2,        Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,        Chen%Shao%NULL%2,        Chen%Shao%NULL%0,        Xiao-jie%Huang%NULL%1,        Lin%Sun%NULL%1,        Ling-jia%Meng%NULL%1,        Hui%Liu%NULL%2,        Shi-jie%Zhang%NULL%1,        Hong-jun%Li%NULL%1,        Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,      Ficken%C.%coreGivesNoEmail%1,      Goddard%M.%coreGivesNoEmail%1,      Jensen%M. P.%coreGivesNoEmail%1,      Le%Quesne J.%coreGivesNoEmail%1,      Menon%D.%coreGivesNoEmail%1,      Officer\u2010Jones%L.%coreGivesNoEmail%1,      Smith%C.%coreGivesNoEmail%1,      Teod\u00f2sio%A.%coreGivesNoEmail%1,      Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,        Maria%Mostyka%NULL%1,        Alicia%Dillard%NULL%1,        Diana R.%Berman%NULL%1,        Lucy X.%Ma%NULL%1,        Amy%Chadburn%NULL%1,        Rhonda K.%Yantiss%NULL%1,        Jose%Jessurun%NULL%1,        Surya V.%Seshan%NULL%1,        Alain C.%Borczuk%NULL%1,        Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,        Kikkeri N%Naresh%NULL%1,        Candice%Roufosse%NULL%1,        Andrew G%Nicholson%NULL%1,        Justin%Weir%NULL%1,        Graham S%Cooke%NULL%1,        Mark%Thursz%NULL%1,        Pinelopi%Manousou%NULL%1,        Richard%Corbett%NULL%1,        Robert%Goldin%NULL%1,        Safa%Al-Sarraj%NULL%1,        Alireza%Abdolrasouli%NULL%1,        Olivia C%Swann%NULL%1,        Laury%Baillon%NULL%1,        Rebecca%Penn%NULL%1,        Wendy S%Barclay%NULL%1,        Patrizia%Viola%NULL%1,        Michael%Osborn%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -1955,7 +2239,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>357</v>
+        <v>442</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -1984,7 +2268,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>358</v>
+        <v>443</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2013,7 +2297,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>359</v>
+        <v>444</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -2036,22 +2320,22 @@
         <v>44075.0</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>396</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>445</v>
       </c>
       <c r="F5" t="s">
-        <v>51</v>
+        <v>6</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
+        <v>399</v>
       </c>
       <c r="H5" t="s">
-        <v>60</v>
+        <v>400</v>
       </c>
       <c r="I5" t="s">
         <v>82</v>
@@ -2071,7 +2355,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>360</v>
+        <v>446</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -2100,7 +2384,7 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>361</v>
+        <v>447</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -2129,7 +2413,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>362</v>
+        <v>448</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
@@ -2158,7 +2442,7 @@
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>363</v>
+        <v>449</v>
       </c>
       <c r="F9" t="s">
         <v>78</v>
@@ -2187,7 +2471,7 @@
         <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>364</v>
+        <v>450</v>
       </c>
       <c r="F10" t="s">
         <v>84</v>
@@ -2216,7 +2500,7 @@
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>365</v>
+        <v>451</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
@@ -2245,7 +2529,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>366</v>
+        <v>452</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -2274,7 +2558,7 @@
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>367</v>
+        <v>453</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
@@ -2303,7 +2587,7 @@
         <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>368</v>
+        <v>454</v>
       </c>
       <c r="F14" t="s">
         <v>101</v>
@@ -2332,7 +2616,7 @@
         <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>369</v>
+        <v>455</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -2361,7 +2645,7 @@
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>370</v>
+        <v>456</v>
       </c>
       <c r="F16" t="s">
         <v>106</v>
@@ -2390,7 +2674,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>371</v>
+        <v>457</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -2419,7 +2703,7 @@
         <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>372</v>
+        <v>458</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -2448,7 +2732,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>373</v>
+        <v>459</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -2477,7 +2761,7 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>374</v>
+        <v>460</v>
       </c>
       <c r="F20" t="s">
         <v>123</v>
@@ -2506,7 +2790,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>375</v>
+        <v>461</v>
       </c>
       <c r="F21" t="s">
         <v>127</v>
@@ -2535,7 +2819,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>376</v>
+        <v>462</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -2564,7 +2848,7 @@
         <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>377</v>
+        <v>463</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -2593,7 +2877,7 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>378</v>
+        <v>464</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -2616,22 +2900,22 @@
         <v>44166.0</v>
       </c>
       <c r="C25" t="s">
-        <v>46</v>
+        <v>420</v>
       </c>
       <c r="D25" t="s">
-        <v>47</v>
+        <v>421</v>
       </c>
       <c r="E25" t="s">
-        <v>50</v>
+        <v>465</v>
       </c>
       <c r="F25" t="s">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G25" t="s">
-        <v>52</v>
+        <v>399</v>
       </c>
       <c r="H25" t="s">
-        <v>60</v>
+        <v>423</v>
       </c>
       <c r="I25" t="s">
         <v>82</v>
@@ -2651,7 +2935,7 @@
         <v>143</v>
       </c>
       <c r="E26" t="s">
-        <v>379</v>
+        <v>466</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
@@ -2680,7 +2964,7 @@
         <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>380</v>
+        <v>467</v>
       </c>
       <c r="F27" t="s">
         <v>150</v>
@@ -2709,7 +2993,7 @@
         <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>381</v>
+        <v>468</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -2738,7 +3022,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>382</v>
+        <v>469</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -2761,22 +3045,22 @@
         <v>44040.0</v>
       </c>
       <c r="C30" t="s">
-        <v>46</v>
+        <v>428</v>
       </c>
       <c r="D30" t="s">
-        <v>47</v>
+        <v>429</v>
       </c>
       <c r="E30" t="s">
-        <v>50</v>
+        <v>470</v>
       </c>
       <c r="F30" t="s">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="G30" t="s">
-        <v>52</v>
+        <v>399</v>
       </c>
       <c r="H30" t="s">
-        <v>60</v>
+        <v>431</v>
       </c>
       <c r="I30" t="s">
         <v>82</v>
@@ -2796,7 +3080,7 @@
         <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>383</v>
+        <v>471</v>
       </c>
       <c r="F31" t="s">
         <v>165</v>
@@ -2825,7 +3109,7 @@
         <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>384</v>
+        <v>472</v>
       </c>
       <c r="F32" t="s">
         <v>170</v>
@@ -2854,7 +3138,7 @@
         <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>385</v>
+        <v>473</v>
       </c>
       <c r="F33" t="s">
         <v>175</v>
@@ -2883,7 +3167,7 @@
         <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>386</v>
+        <v>474</v>
       </c>
       <c r="F34" t="s">
         <v>179</v>
@@ -2912,7 +3196,7 @@
         <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>387</v>
+        <v>475</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -2941,7 +3225,7 @@
         <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>388</v>
+        <v>476</v>
       </c>
       <c r="F36" t="s">
         <v>189</v>
@@ -2970,7 +3254,7 @@
         <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>389</v>
+        <v>477</v>
       </c>
       <c r="F37" t="s">
         <v>194</v>
@@ -2999,7 +3283,7 @@
         <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>390</v>
+        <v>478</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -3028,7 +3312,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>391</v>
+        <v>479</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -3057,7 +3341,7 @@
         <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>392</v>
+        <v>480</v>
       </c>
       <c r="F40" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/11.xlsx
+++ b/Covid_19_Dataset_and_References/References/11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2564" uniqueCount="481">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="559">
   <si>
     <t>Doi</t>
   </si>
@@ -1844,6 +1844,240 @@
   </si>
   <si>
     <t>[Brian%Hanley%NULL%1,        Kikkeri N%Naresh%NULL%1,        Candice%Roufosse%NULL%1,        Andrew G%Nicholson%NULL%1,        Justin%Weir%NULL%1,        Graham S%Cooke%NULL%1,        Mark%Thursz%NULL%1,        Pinelopi%Manousou%NULL%1,        Richard%Corbett%NULL%1,        Robert%Goldin%NULL%1,        Safa%Al-Sarraj%NULL%1,        Alireza%Abdolrasouli%NULL%1,        Olivia C%Swann%NULL%1,        Laury%Baillon%NULL%1,        Rebecca%Penn%NULL%1,        Wendy S%Barclay%NULL%1,        Patrizia%Viola%NULL%1,        Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,         Renata A A%Monteiro%NULL%2,         Renata A A%Monteiro%NULL%0,         Luiz F F%da Silva%NULL%1,         Denise M A C%Malheiros%NULL%1,         Ellen P%de Oliveira%NULL%1,         Jair%Theodoro‐Filho%NULL%1,         João R R%Pinho%NULL%1,         Michele S%Gomes‐Gouvêa%NULL%1,         Ana P M%Salles%NULL%1,         Ilka R S%de Oliveira%NULL%1,         Thais%Mauad%NULL%1,         Paulo H N%Saldiva%NULL%1,         Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,       Burkhardt%Katrin%coreGivesNoEmail%1,       Claus%Rainer%coreGivesNoEmail%1,       Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,       M\u00e4rkl%Bruno%coreGivesNoEmail%1,       Schaller%Tina%coreGivesNoEmail%1,       Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,         Dwayne A.%Wolf%NULL%1,         Bihong%Zhao%NULL%1,         Bindu%Akkanti%NULL%1,         Michelle%McDonald%NULL%1,         Laura%Lelenwa%NULL%1,         Noah%Reilly%NULL%1,         Giulia%Ottaviani%NULL%1,         M. Tarek%Elghetany%NULL%1,         Daniel Ocazionez%Trujillo%NULL%1,         Gabriel M.%Aisenberg%NULL%1,         Mohammad%Madjid%NULL%1,         Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Yan%xref no email%1,   Mahnoor%Mir%xref no email%1,   Paloma%Sanchez%xref no email%1,   Moeezullah%Beg%xref no email%1,   Jay%Peters%xref no email%1,   Omar%Enriquez%xref no email%1,   Andrea%Gilbert%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,         Erin G.%Brooks%NULL%1,         Joshua%Akers%NULL%1,         Danielle%Armstrong%NULL%1,         Lauren%Decker%NULL%1,         Adam%Gonzalez%NULL%1,         William%Humphrey%NULL%1,         Romana%Mayer%NULL%1,         Matthew%Miller%NULL%1,         Catherine%Perez%NULL%1,         Jose Antonio Ruiz%Arango%NULL%1,         Lakshmanan%Sathyavagiswaran%NULL%1,         Wendy%Stroh%NULL%1,         Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,         Jan-Peter%Sperhake%NULL%2,         Marc%Lütgehetmann%NULL%2,         Stefan%Steurer%NULL%2,         Carolin%Edler%NULL%1,         Axel%Heinemann%NULL%2,         Fabian%Heinrich%NULL%2,         Herbert%Mushumba%NULL%2,         Inga%Kniep%NULL%1,         Ann Sophie%Schröder%NULL%2,         Christoph%Burdelski%NULL%2,         Geraldine%de Heer%NULL%2,         Axel%Nierhaus%NULL%2,         Daniel%Frings%NULL%2,         Susanne%Pfefferle%NULL%1,         Heinrich%Becker%NULL%1,         Hanns%Bredereke-Wiedling%NULL%1,         Andreas%de Weerth%NULL%2,         Hans-Richard%Paschen%NULL%1,         Sara%Sheikhzadeh-Eggers%NULL%1,         Axel%Stang%NULL%1,         Stefan%Schmiedel%NULL%1,         Carsten%Bokemeyer%NULL%1,         Marylyn M.%Addo%NULL%1,         Martin%Aepfelbacher%NULL%2,         Klaus%Püschel%NULL%2,         Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,         Jasmin D%Haslbauer%NULL%4,         Jasmin D%Haslbauer%NULL%0,         Ronny%Nienhold%NULL%2,         Spasenija%Savic%NULL%2,         Helmut%Hopfer%NULL%2,         Nikolaus%Deigendesch%NULL%2,         Stephan%Frank%NULL%2,         Daniel%Turek%NULL%2,         Niels%Willi%NULL%2,         Hans%Pargger%NULL%2,         Stefano%Bassetti%NULL%2,         Joerg D%Leuppi%NULL%2,         Gieri%Cathomas%NULL%2,         Markus%Tolnay%NULL%2,         Kirsten D%Mertz%NULL%2,         Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,         Jasmin D%Haslbauer%NULL%0,         Jasmin D%Haslbauer%NULL%0,         Ronny%Nienhold%NULL%0,         Spasenija%Savic%NULL%0,         Helmut%Hopfer%NULL%0,         Nikolaus%Deigendesch%NULL%0,         Stephan%Frank%NULL%0,         Daniel%Turek%NULL%0,         Niels%Willi%NULL%0,         Hans%Pargger%NULL%0,         Stefano%Bassetti%NULL%0,         Joerg D%Leuppi%NULL%0,         Gieri%Cathomas%NULL%0,         Markus%Tolnay%NULL%0,         Kirsten D%Mertz%NULL%0,         Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,         Andreas J%Flammer%NULL%1,         Peter%Steiger%NULL%1,         Martina%Haberecker%NULL%1,         Rea%Andermatt%NULL%1,         Annelies S%Zinkernagel%NULL%1,         Mandeep R%Mehra%NULL%1,         Reto A%Schuepbach%NULL%1,         Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,         Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,         Yong%Xiong%NULL%0,         Huan%Liu%NULL%3,         Li%Niu%NULL%1,         Jianchun%Guo%NULL%1,         Meiyan%Liao%NULL%1,         Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,         Eric J%Duval%NULL%1,         Edana%Stroberg%NULL%1,         Subha%Ghosh%NULL%1,         Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,         Pilar%Alemany Monraval%NULL%1,         Carmen%Medina Medina%NULL%1,         Ana%Jiménez Sánchez%NULL%1,         Juan Carlos%Andrés Teruel%NULL%1,         José%Ferrando Marco%NULL%1,         Víctor%Puglia Santos%NULL%1,         Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,         Ann Sophie%Schröder%NULL%0,         Martin%Aepfelbacher%NULL%0,         Antonia%Fitzek%NULL%1,         Axel%Heinemann%NULL%0,         Fabian%Heinrich%NULL%0,         Anke%Klein%NULL%1,         Felicia%Langenwalder%NULL%1,         Marc%Lütgehetmann%NULL%0,         Kira%Meißner%NULL%1,         Klaus%Püschel%NULL%0,         Julia%Schädler%NULL%1,         Stefan%Steurer%NULL%0,         Herbert%Mushumba%NULL%0,         Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,       Blankenberg%Stefan S%coreGivesNoEmail%1,       Brauninger%Hanna%coreGivesNoEmail%1,       Edler%Caroline%coreGivesNoEmail%1,       Escher%Felicitas%coreGivesNoEmail%1,       Fitzek%Antonia%coreGivesNoEmail%1,       Kirchhof%Paulus%coreGivesNoEmail%1,       Lindner%Diana%coreGivesNoEmail%1,       Meissner%Kira%coreGivesNoEmail%1,       Puschel%Klaus%coreGivesNoEmail%1,       Scherschel%Katharina%coreGivesNoEmail%1,       Schultheiss%Heinz-Peter%coreGivesNoEmail%1,       Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,         Holly%Harper%NULL%1,         Behtash G%Nezami%NULL%1,         Daniel L%Shen%NULL%1,         Simona Pichler%Sekulic%NULL%1,         Aaron T%Koeth%NULL%1,         Clifford V%Harding%NULL%1,         Hannah%Gilmore%NULL%1,         Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,         Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,         Johannes Alexander%Lobrinus%NULL%2,         Johannes Alexander%Lobrinus%NULL%0,         Manuel%Schibler%NULL%1,         Tony%Fracasso%NULL%1,         Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,         Aibek%Akmatbekov%NULL%1,         Jack L%Harbert%NULL%1,         Guang%Li%NULL%1,         J%Quincy Brown%NULL%1,         Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,         Behnaz%Jahanbin%NULL%1,         Masoomeh%Safaei%NULL%1,         Laya%Amoozadeh%NULL%1,         Meysam%Khoshavi%NULL%1,         Vahid%Mehrtash%NULL%1,         Bita%Jafarzadeh%NULL%1,         Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,         Jing%Xie%NULL%2,         Lei%Zhao%NULL%1,         Xiaochun%Fei%NULL%1,         Heng%Zhang%NULL%1,         Yun%Tan%NULL%1,         Xiu%Nie%NULL%1,         Luting%Zhou%NULL%1,         Zhenhua%Liu%NULL%1,         Yong%Ren%NULL%1,         Ling%Yuan%NULL%1,         Yu%Zhang%NULL%1,         Jinsheng%Zhang%NULL%1,         Liwei%Liang%NULL%1,         Xinwei%Chen%NULL%1,         Xin%Liu%NULL%1,         Peng%Wang%NULL%1,         Xiao%Han%NULL%1,         Xiangqin%Weng%NULL%1,         Ying%Chen%NULL%1,         Ting%Yu%NULL%0,         Xinxin%Zhang%NULL%0,         Jun%Cai%caijun@shsmu.edu.cn%1,         Rong%Chen%crjudy@126.com%2,         Zhengli%Shi%zlshi@wh.iov.cn%2,         Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,         Selina%Traxler%NULL%2,         Selina%Traxler%NULL%0,         Michael%Bitzer%NULL%1,         Helene%Häberle%NULL%1,         Wolfgang%Raiser%NULL%1,         Dominik%Nann%NULL%1,         Leonie%Frauenfeld%NULL%1,         Antonio%Vogelsberg%NULL%1,         Karin%Klingel%NULL%1,         Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,         Thomas%Ruder%NULL%1,         Rilana%Baumeister%NULL%1,         Stephan%Bolliger%NULL%1,         Michael%Thali%NULL%1,         Eva%Meixner%NULL%1,         Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,         Lei%Shi%NULL%1,         Yijin%Wang%NULL%1,         Jiyuan%Zhang%NULL%1,         Lei%Huang%NULL%2,         Chao%Zhang%NULL%1,         Shuhong%Liu%NULL%1,         Peng%Zhao%NULL%1,         Hongxia%Liu%NULL%1,         Li%Zhu%NULL%1,         Yanhong%Tai%NULL%1,         Changqing%Bai%NULL%1,         Tingting%Gao%NULL%1,         Jinwen%Song%NULL%1,         Peng%Xia%NULL%1,         Jinghui%Dong%NULL%1,         Jingmin%Zhao%NULL%1,         Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Esther%Youd%xref no email%1,   Luiza%Moore%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,         Benjamin%Gaborit%NULL%2,         Benjamin%Gaborit%NULL%0,         Claire%Toquet%NULL%1,         Louise%Castain%NULL%1,         Antonin%Bal%NULL%1,         Pierre Paul%Arrigoni%NULL%1,         Raphaël%Lecomte%NULL%1,         Renaud%Clement%NULL%1,         Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,         Radu Lucian%Buzulică%NULL%1,         Daniel%Pirici%NULL%1,         Mihail Constantin%Ceauşu%NULL%1,         Radu Vasile%Iman%NULL%1,         Ovidiu-Mircea%Gheorghe%NULL%1,         Simona Daniela%Neamţu%NULL%1,         Liliana%Stanca%NULL%1,         Răzvan%Ene%NULL%1,         Samir%Kumar-Singh%NULL%1,         Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,         Alexander%Leunig%NULL%1,         Sophia%Brambs%NULL%1,         Rainer%Kaiser%NULL%1,         Tobias%Weinberger%NULL%1,         Michael%Weigand%NULL%1,         Maximilian%Muenchhoff%NULL%1,         Johannes C.%Hellmuth%NULL%1,         Stephan%Ledderose%NULL%1,         Heiko%Schulz%NULL%1,         Clemens%Scherer%NULL%1,         Martina%Rudelius%NULL%1,         Michael%Zoller%NULL%1,         Dominik%Höchter%NULL%1,         Oliver%Keppler%NULL%1,         Daniel%Teupser%NULL%1,         Bernhard%Zwißler%NULL%1,         Michael%von Bergwelt-Baildon%NULL%1,         Stefan%Kääb%NULL%1,         Steffen%Massberg%NULL%1,         Kami%Pekayvaz%NULL%1,         Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,         Alexandra%Grosse%NULL%1,         Helmut J.F.%Salzer%NULL%1,         Martin W.%Dünser%NULL%1,         Reinhard%Motz%NULL%1,         Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna Ferl\u00f8v%Schwensen%xref no email%1,   Line Kristine%Borreschmidt%xref no email%1,   Merete%Storgaard%xref no email%1,   S\u00f8ren%Redsted%xref no email%1,   Steffen%Christensen%xref no email%1,   Line Bille%Madsen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,         Ricardo%De Mendonça%NULL%1,         Nicky%D’Haene%NULL%1,         Sarah%De Clercq%NULL%1,         Camille%Verocq%NULL%1,         Laetitia%Lebrun%NULL%1,         Philomène%Lavis%NULL%1,         Marie-Lucie%Racu%NULL%1,         Anne-Laure%Trépant%NULL%1,         Calliope%Maris%NULL%1,         Sandrine%Rorive%NULL%1,         Jean-Christophe%Goffard%NULL%1,         Olivier%De Witte%NULL%1,         Lorenzo%Peluso%NULL%1,         Jean-Louis%Vincent%NULL%1,         Christine%Decaestecker%NULL%1,         Fabio Silvio%Taccone%NULL%1,         Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,         Hiroyuki%Hayashi%NULL%2,         Hiroyuki%Hayashi%NULL%0,         Yukihiro%Yoshimura%NULL%1,         Hiroaki%Sasaki%NULL%1,         Hiroshi%Horiuchi%NULL%1,         Nobuyuki%Miyata%NULL%1,         Natsuo%Tachikawa%NULL%1,         Yuki%Tsuchiya%NULL%1,         Hideaki%Mitsui%NULL%1,         Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,         Ja-Mun%Chong%NULL%1,         Noriko%Nakajima%NULL%1,         Masahiro%Sano%NULL%1,         Jun%Yamazaki%NULL%1,         Ippei%Miyamoto%NULL%1,         Haruka%Nishioka%NULL%1,         Hidetaka%Akita%NULL%1,         Yuko%Sato%NULL%1,         Michiyo%Kataoka%NULL%1,         Harutaka%Katano%NULL%1,         Minoru%Tobiume%NULL%1,         Tsuyoshi%Sekizuka%NULL%1,         Kentaro%Itokawa%NULL%1,         Makoto%Kuroda%NULL%1,         Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,         Anuradha%Lala%NULL%1,         Emilia%Bagiella%NULL%1,         Helena L.%Chang%NULL%1,         Pedro R.%Moreno%NULL%1,         Elisabet%Pujadas%NULL%1,         Varun%Arvind%NULL%1,         Sonali%Bose%NULL%1,         Alexander W.%Charney%NULL%2,         Martin D.%Chen%NULL%1,         Carlos%Cordon-Cardo%NULL%2,         Andrew S.%Dunn%NULL%1,         Michael E.%Farkouh%NULL%1,         Benjamin S.%Glicksberg%NULL%1,         Arash%Kia%NULL%1,         Roopa%Kohli-Seth%NULL%1,         Matthew A.%Levin%NULL%1,         Prem%Timsina%NULL%1,         Shan%Zhao%NULL%1,         Zahi A.%Fayad%NULL%5,         Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,         Kiran T.%Thakur%NULL%2,         Kiran T.%Thakur%NULL%0,         Anna S.%Nordvig%NULL%1,         Morgan L.%Prust%NULL%1,         William%Roth%NULL%1,         Angela%Lignelli%NULL%1,         Anne-Catrin%Uhlemann%NULL%1,         Emily Happy%Miller%NULL%1,         Shajo%Kunnath-Velayudhan%NULL%1,         Armando%Del Portillo%NULL%1,         Yang%Liu%NULL%1,         Gunnar%Hargus%NULL%1,         Andrew F.%Teich%NULL%1,         Richard A.%Hickman%NULL%1,         Kurenai%Tanji%NULL%1,         James E.%Goldman%NULL%1,         Phyllis L.%Faust%NULL%1,         Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,         Lilioara-Alexandra%Muja%NULL%2,         Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,         Chen%Shao%NULL%2,         Chen%Shao%NULL%0,         Xiao-jie%Huang%NULL%1,         Lin%Sun%NULL%1,         Ling-jia%Meng%NULL%1,         Hui%Liu%NULL%2,         Shi-jie%Zhang%NULL%1,         Hong-jun%Li%NULL%1,         Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,       Ficken%C.%coreGivesNoEmail%1,       Goddard%M.%coreGivesNoEmail%1,       Jensen%M. P.%coreGivesNoEmail%1,       Le%Quesne J.%coreGivesNoEmail%1,       Menon%D.%coreGivesNoEmail%1,       Officer\u2010Jones%L.%coreGivesNoEmail%1,       Smith%C.%coreGivesNoEmail%1,       Teod\u00f2sio%A.%coreGivesNoEmail%1,       Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,         Maria%Mostyka%NULL%1,         Alicia%Dillard%NULL%1,         Diana R.%Berman%NULL%1,         Lucy X.%Ma%NULL%1,         Amy%Chadburn%NULL%1,         Rhonda K.%Yantiss%NULL%1,         Jose%Jessurun%NULL%1,         Surya V.%Seshan%NULL%1,         Alain C.%Borczuk%NULL%1,         Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,         Kikkeri N%Naresh%NULL%1,         Candice%Roufosse%NULL%1,         Andrew G%Nicholson%NULL%1,         Justin%Weir%NULL%1,         Graham S%Cooke%NULL%1,         Mark%Thursz%NULL%1,         Pinelopi%Manousou%NULL%1,         Richard%Corbett%NULL%1,         Robert%Goldin%NULL%1,         Safa%Al-Sarraj%NULL%1,         Alireza%Abdolrasouli%NULL%1,         Olivia C%Swann%NULL%1,         Laury%Baillon%NULL%1,         Rebecca%Penn%NULL%1,         Wendy S%Barclay%NULL%1,         Patrizia%Viola%NULL%1,         Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,          Renata A A%Monteiro%NULL%2,          Renata A A%Monteiro%NULL%0,          Luiz F F%da Silva%NULL%1,          Denise M A C%Malheiros%NULL%1,          Ellen P%de Oliveira%NULL%1,          Jair%Theodoro‐Filho%NULL%1,          João R R%Pinho%NULL%1,          Michele S%Gomes‐Gouvêa%NULL%1,          Ana P M%Salles%NULL%1,          Ilka R S%de Oliveira%NULL%1,          Thais%Mauad%NULL%1,          Paulo H N%Saldiva%NULL%1,          Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,        Burkhardt%Katrin%coreGivesNoEmail%1,        Claus%Rainer%coreGivesNoEmail%1,        Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,        M\u00e4rkl%Bruno%coreGivesNoEmail%1,        Schaller%Tina%coreGivesNoEmail%1,        Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,          Dwayne A.%Wolf%NULL%1,          Bihong%Zhao%NULL%1,          Bindu%Akkanti%NULL%1,          Michelle%McDonald%NULL%1,          Laura%Lelenwa%NULL%1,          Noah%Reilly%NULL%1,          Giulia%Ottaviani%NULL%1,          M. Tarek%Elghetany%NULL%1,          Daniel Ocazionez%Trujillo%NULL%1,          Gabriel M.%Aisenberg%NULL%1,          Mohammad%Madjid%NULL%1,          Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Yan%xref no email%1,    Mahnoor%Mir%xref no email%1,    Paloma%Sanchez%xref no email%1,    Moeezullah%Beg%xref no email%1,    Jay%Peters%xref no email%1,    Omar%Enriquez%xref no email%1,    Andrea%Gilbert%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,          Erin G.%Brooks%NULL%1,          Joshua%Akers%NULL%1,          Danielle%Armstrong%NULL%1,          Lauren%Decker%NULL%1,          Adam%Gonzalez%NULL%1,          William%Humphrey%NULL%1,          Romana%Mayer%NULL%1,          Matthew%Miller%NULL%1,          Catherine%Perez%NULL%1,          Jose Antonio Ruiz%Arango%NULL%1,          Lakshmanan%Sathyavagiswaran%NULL%1,          Wendy%Stroh%NULL%1,          Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,          Jan-Peter%Sperhake%NULL%2,          Marc%Lütgehetmann%NULL%2,          Stefan%Steurer%NULL%2,          Carolin%Edler%NULL%1,          Axel%Heinemann%NULL%2,          Fabian%Heinrich%NULL%2,          Herbert%Mushumba%NULL%2,          Inga%Kniep%NULL%1,          Ann Sophie%Schröder%NULL%2,          Christoph%Burdelski%NULL%2,          Geraldine%de Heer%NULL%2,          Axel%Nierhaus%NULL%2,          Daniel%Frings%NULL%2,          Susanne%Pfefferle%NULL%1,          Heinrich%Becker%NULL%1,          Hanns%Bredereke-Wiedling%NULL%1,          Andreas%de Weerth%NULL%2,          Hans-Richard%Paschen%NULL%1,          Sara%Sheikhzadeh-Eggers%NULL%1,          Axel%Stang%NULL%1,          Stefan%Schmiedel%NULL%1,          Carsten%Bokemeyer%NULL%1,          Marylyn M.%Addo%NULL%1,          Martin%Aepfelbacher%NULL%2,          Klaus%Püschel%NULL%2,          Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,          Jasmin D%Haslbauer%NULL%4,          Jasmin D%Haslbauer%NULL%0,          Ronny%Nienhold%NULL%2,          Spasenija%Savic%NULL%2,          Helmut%Hopfer%NULL%2,          Nikolaus%Deigendesch%NULL%2,          Stephan%Frank%NULL%2,          Daniel%Turek%NULL%2,          Niels%Willi%NULL%2,          Hans%Pargger%NULL%2,          Stefano%Bassetti%NULL%2,          Joerg D%Leuppi%NULL%2,          Gieri%Cathomas%NULL%2,          Markus%Tolnay%NULL%2,          Kirsten D%Mertz%NULL%2,          Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,          Jasmin D%Haslbauer%NULL%0,          Jasmin D%Haslbauer%NULL%0,          Ronny%Nienhold%NULL%0,          Spasenija%Savic%NULL%0,          Helmut%Hopfer%NULL%0,          Nikolaus%Deigendesch%NULL%0,          Stephan%Frank%NULL%0,          Daniel%Turek%NULL%0,          Niels%Willi%NULL%0,          Hans%Pargger%NULL%0,          Stefano%Bassetti%NULL%0,          Joerg D%Leuppi%NULL%0,          Gieri%Cathomas%NULL%0,          Markus%Tolnay%NULL%0,          Kirsten D%Mertz%NULL%0,          Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,          Andreas J%Flammer%NULL%1,          Peter%Steiger%NULL%1,          Martina%Haberecker%NULL%1,          Rea%Andermatt%NULL%1,          Annelies S%Zinkernagel%NULL%1,          Mandeep R%Mehra%NULL%1,          Reto A%Schuepbach%NULL%1,          Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,          Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,          Yong%Xiong%NULL%0,          Huan%Liu%NULL%3,          Li%Niu%NULL%1,          Jianchun%Guo%NULL%1,          Meiyan%Liao%NULL%1,          Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,          Eric J%Duval%NULL%1,          Edana%Stroberg%NULL%1,          Subha%Ghosh%NULL%1,          Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,          Pilar%Alemany Monraval%NULL%1,          Carmen%Medina Medina%NULL%1,          Ana%Jiménez Sánchez%NULL%1,          Juan Carlos%Andrés Teruel%NULL%1,          José%Ferrando Marco%NULL%1,          Víctor%Puglia Santos%NULL%1,          Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,          Ann Sophie%Schröder%NULL%0,          Martin%Aepfelbacher%NULL%0,          Antonia%Fitzek%NULL%1,          Axel%Heinemann%NULL%0,          Fabian%Heinrich%NULL%0,          Anke%Klein%NULL%1,          Felicia%Langenwalder%NULL%1,          Marc%Lütgehetmann%NULL%0,          Kira%Meißner%NULL%1,          Klaus%Püschel%NULL%0,          Julia%Schädler%NULL%1,          Stefan%Steurer%NULL%0,          Herbert%Mushumba%NULL%0,          Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,        Blankenberg%Stefan S%coreGivesNoEmail%1,        Brauninger%Hanna%coreGivesNoEmail%1,        Edler%Caroline%coreGivesNoEmail%1,        Escher%Felicitas%coreGivesNoEmail%1,        Fitzek%Antonia%coreGivesNoEmail%1,        Kirchhof%Paulus%coreGivesNoEmail%1,        Lindner%Diana%coreGivesNoEmail%1,        Meissner%Kira%coreGivesNoEmail%1,        Puschel%Klaus%coreGivesNoEmail%1,        Scherschel%Katharina%coreGivesNoEmail%1,        Schultheiss%Heinz-Peter%coreGivesNoEmail%1,        Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,          Holly%Harper%NULL%1,          Behtash G%Nezami%NULL%1,          Daniel L%Shen%NULL%1,          Simona Pichler%Sekulic%NULL%1,          Aaron T%Koeth%NULL%1,          Clifford V%Harding%NULL%1,          Hannah%Gilmore%NULL%1,          Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,          Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,          Johannes Alexander%Lobrinus%NULL%2,          Johannes Alexander%Lobrinus%NULL%0,          Manuel%Schibler%NULL%1,          Tony%Fracasso%NULL%1,          Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,          Aibek%Akmatbekov%NULL%1,          Jack L%Harbert%NULL%1,          Guang%Li%NULL%1,          J%Quincy Brown%NULL%1,          Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,          Behnaz%Jahanbin%NULL%1,          Masoomeh%Safaei%NULL%1,          Laya%Amoozadeh%NULL%1,          Meysam%Khoshavi%NULL%1,          Vahid%Mehrtash%NULL%1,          Bita%Jafarzadeh%NULL%1,          Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,          Jing%Xie%NULL%2,          Lei%Zhao%NULL%1,          Xiaochun%Fei%NULL%1,          Heng%Zhang%NULL%1,          Yun%Tan%NULL%1,          Xiu%Nie%NULL%1,          Luting%Zhou%NULL%1,          Zhenhua%Liu%NULL%1,          Yong%Ren%NULL%1,          Ling%Yuan%NULL%1,          Yu%Zhang%NULL%1,          Jinsheng%Zhang%NULL%1,          Liwei%Liang%NULL%1,          Xinwei%Chen%NULL%1,          Xin%Liu%NULL%1,          Peng%Wang%NULL%1,          Xiao%Han%NULL%1,          Xiangqin%Weng%NULL%1,          Ying%Chen%NULL%1,          Ting%Yu%NULL%0,          Xinxin%Zhang%NULL%0,          Jun%Cai%caijun@shsmu.edu.cn%1,          Rong%Chen%crjudy@126.com%2,          Zhengli%Shi%zlshi@wh.iov.cn%2,          Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,          Selina%Traxler%NULL%2,          Selina%Traxler%NULL%0,          Michael%Bitzer%NULL%1,          Helene%Häberle%NULL%1,          Wolfgang%Raiser%NULL%1,          Dominik%Nann%NULL%1,          Leonie%Frauenfeld%NULL%1,          Antonio%Vogelsberg%NULL%1,          Karin%Klingel%NULL%1,          Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,          Thomas%Ruder%NULL%1,          Rilana%Baumeister%NULL%1,          Stephan%Bolliger%NULL%1,          Michael%Thali%NULL%1,          Eva%Meixner%NULL%1,          Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,          Lei%Shi%NULL%1,          Yijin%Wang%NULL%1,          Jiyuan%Zhang%NULL%1,          Lei%Huang%NULL%2,          Chao%Zhang%NULL%1,          Shuhong%Liu%NULL%1,          Peng%Zhao%NULL%1,          Hongxia%Liu%NULL%1,          Li%Zhu%NULL%1,          Yanhong%Tai%NULL%1,          Changqing%Bai%NULL%1,          Tingting%Gao%NULL%1,          Jinwen%Song%NULL%1,          Peng%Xia%NULL%1,          Jinghui%Dong%NULL%1,          Jingmin%Zhao%NULL%1,          Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Esther%Youd%xref no email%1,    Luiza%Moore%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,          Benjamin%Gaborit%NULL%2,          Benjamin%Gaborit%NULL%0,          Claire%Toquet%NULL%1,          Louise%Castain%NULL%1,          Antonin%Bal%NULL%1,          Pierre Paul%Arrigoni%NULL%1,          Raphaël%Lecomte%NULL%1,          Renaud%Clement%NULL%1,          Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,          Radu Lucian%Buzulică%NULL%1,          Daniel%Pirici%NULL%1,          Mihail Constantin%Ceauşu%NULL%1,          Radu Vasile%Iman%NULL%1,          Ovidiu-Mircea%Gheorghe%NULL%1,          Simona Daniela%Neamţu%NULL%1,          Liliana%Stanca%NULL%1,          Răzvan%Ene%NULL%1,          Samir%Kumar-Singh%NULL%1,          Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,          Alexander%Leunig%NULL%1,          Sophia%Brambs%NULL%1,          Rainer%Kaiser%NULL%1,          Tobias%Weinberger%NULL%1,          Michael%Weigand%NULL%1,          Maximilian%Muenchhoff%NULL%1,          Johannes C.%Hellmuth%NULL%1,          Stephan%Ledderose%NULL%1,          Heiko%Schulz%NULL%1,          Clemens%Scherer%NULL%1,          Martina%Rudelius%NULL%1,          Michael%Zoller%NULL%1,          Dominik%Höchter%NULL%1,          Oliver%Keppler%NULL%1,          Daniel%Teupser%NULL%1,          Bernhard%Zwißler%NULL%1,          Michael%von Bergwelt-Baildon%NULL%1,          Stefan%Kääb%NULL%1,          Steffen%Massberg%NULL%1,          Kami%Pekayvaz%NULL%1,          Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,          Alexandra%Grosse%NULL%1,          Helmut J.F.%Salzer%NULL%1,          Martin W.%Dünser%NULL%1,          Reinhard%Motz%NULL%1,          Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna Ferl\u00f8v%Schwensen%xref no email%1,    Line Kristine%Borreschmidt%xref no email%1,    Merete%Storgaard%xref no email%1,    S\u00f8ren%Redsted%xref no email%1,    Steffen%Christensen%xref no email%1,    Line Bille%Madsen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,          Ricardo%De Mendonça%NULL%1,          Nicky%D’Haene%NULL%1,          Sarah%De Clercq%NULL%1,          Camille%Verocq%NULL%1,          Laetitia%Lebrun%NULL%1,          Philomène%Lavis%NULL%1,          Marie-Lucie%Racu%NULL%1,          Anne-Laure%Trépant%NULL%1,          Calliope%Maris%NULL%1,          Sandrine%Rorive%NULL%1,          Jean-Christophe%Goffard%NULL%1,          Olivier%De Witte%NULL%1,          Lorenzo%Peluso%NULL%1,          Jean-Louis%Vincent%NULL%1,          Christine%Decaestecker%NULL%1,          Fabio Silvio%Taccone%NULL%1,          Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,          Hiroyuki%Hayashi%NULL%2,          Hiroyuki%Hayashi%NULL%0,          Yukihiro%Yoshimura%NULL%1,          Hiroaki%Sasaki%NULL%1,          Hiroshi%Horiuchi%NULL%1,          Nobuyuki%Miyata%NULL%1,          Natsuo%Tachikawa%NULL%1,          Yuki%Tsuchiya%NULL%1,          Hideaki%Mitsui%NULL%1,          Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,          Ja-Mun%Chong%NULL%1,          Noriko%Nakajima%NULL%1,          Masahiro%Sano%NULL%1,          Jun%Yamazaki%NULL%1,          Ippei%Miyamoto%NULL%1,          Haruka%Nishioka%NULL%1,          Hidetaka%Akita%NULL%1,          Yuko%Sato%NULL%1,          Michiyo%Kataoka%NULL%1,          Harutaka%Katano%NULL%1,          Minoru%Tobiume%NULL%1,          Tsuyoshi%Sekizuka%NULL%1,          Kentaro%Itokawa%NULL%1,          Makoto%Kuroda%NULL%1,          Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,          Anuradha%Lala%NULL%1,          Emilia%Bagiella%NULL%1,          Helena L.%Chang%NULL%1,          Pedro R.%Moreno%NULL%1,          Elisabet%Pujadas%NULL%1,          Varun%Arvind%NULL%1,          Sonali%Bose%NULL%1,          Alexander W.%Charney%NULL%2,          Martin D.%Chen%NULL%1,          Carlos%Cordon-Cardo%NULL%2,          Andrew S.%Dunn%NULL%1,          Michael E.%Farkouh%NULL%1,          Benjamin S.%Glicksberg%NULL%1,          Arash%Kia%NULL%1,          Roopa%Kohli-Seth%NULL%1,          Matthew A.%Levin%NULL%1,          Prem%Timsina%NULL%1,          Shan%Zhao%NULL%1,          Zahi A.%Fayad%NULL%5,          Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,          Kiran T.%Thakur%NULL%2,          Kiran T.%Thakur%NULL%0,          Anna S.%Nordvig%NULL%1,          Morgan L.%Prust%NULL%1,          William%Roth%NULL%1,          Angela%Lignelli%NULL%1,          Anne-Catrin%Uhlemann%NULL%1,          Emily Happy%Miller%NULL%1,          Shajo%Kunnath-Velayudhan%NULL%1,          Armando%Del Portillo%NULL%1,          Yang%Liu%NULL%1,          Gunnar%Hargus%NULL%1,          Andrew F.%Teich%NULL%1,          Richard A.%Hickman%NULL%1,          Kurenai%Tanji%NULL%1,          James E.%Goldman%NULL%1,          Phyllis L.%Faust%NULL%1,          Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,          Lilioara-Alexandra%Muja%NULL%2,          Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,          Chen%Shao%NULL%2,          Chen%Shao%NULL%0,          Xiao-jie%Huang%NULL%1,          Lin%Sun%NULL%1,          Ling-jia%Meng%NULL%1,          Hui%Liu%NULL%2,          Shi-jie%Zhang%NULL%1,          Hong-jun%Li%NULL%1,          Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,        Ficken%C.%coreGivesNoEmail%1,        Goddard%M.%coreGivesNoEmail%1,        Jensen%M. P.%coreGivesNoEmail%1,        Le%Quesne J.%coreGivesNoEmail%1,        Menon%D.%coreGivesNoEmail%1,        Officer\u2010Jones%L.%coreGivesNoEmail%1,        Smith%C.%coreGivesNoEmail%1,        Teod\u00f2sio%A.%coreGivesNoEmail%1,        Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,          Maria%Mostyka%NULL%1,          Alicia%Dillard%NULL%1,          Diana R.%Berman%NULL%1,          Lucy X.%Ma%NULL%1,          Amy%Chadburn%NULL%1,          Rhonda K.%Yantiss%NULL%1,          Jose%Jessurun%NULL%1,          Surya V.%Seshan%NULL%1,          Alain C.%Borczuk%NULL%1,          Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,          Kikkeri N%Naresh%NULL%1,          Candice%Roufosse%NULL%1,          Andrew G%Nicholson%NULL%1,          Justin%Weir%NULL%1,          Graham S%Cooke%NULL%1,          Mark%Thursz%NULL%1,          Pinelopi%Manousou%NULL%1,          Richard%Corbett%NULL%1,          Robert%Goldin%NULL%1,          Safa%Al-Sarraj%NULL%1,          Alireza%Abdolrasouli%NULL%1,          Olivia C%Swann%NULL%1,          Laury%Baillon%NULL%1,          Rebecca%Penn%NULL%1,          Wendy S%Barclay%NULL%1,          Patrizia%Viola%NULL%1,          Michael%Osborn%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2239,7 +2473,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>442</v>
+        <v>520</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -2268,7 +2502,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>443</v>
+        <v>521</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2297,7 +2531,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>444</v>
+        <v>522</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -2326,7 +2560,7 @@
         <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>445</v>
+        <v>523</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -2355,7 +2589,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>446</v>
+        <v>524</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -2384,7 +2618,7 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>447</v>
+        <v>525</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -2413,7 +2647,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>448</v>
+        <v>526</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
@@ -2442,7 +2676,7 @@
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>449</v>
+        <v>527</v>
       </c>
       <c r="F9" t="s">
         <v>78</v>
@@ -2471,7 +2705,7 @@
         <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>450</v>
+        <v>528</v>
       </c>
       <c r="F10" t="s">
         <v>84</v>
@@ -2500,7 +2734,7 @@
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>451</v>
+        <v>529</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
@@ -2529,7 +2763,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>452</v>
+        <v>530</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -2558,7 +2792,7 @@
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>453</v>
+        <v>531</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
@@ -2587,7 +2821,7 @@
         <v>99</v>
       </c>
       <c r="E14" t="s">
-        <v>454</v>
+        <v>532</v>
       </c>
       <c r="F14" t="s">
         <v>101</v>
@@ -2616,7 +2850,7 @@
         <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>455</v>
+        <v>533</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -2645,7 +2879,7 @@
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>456</v>
+        <v>534</v>
       </c>
       <c r="F16" t="s">
         <v>106</v>
@@ -2674,7 +2908,7 @@
         <v>108</v>
       </c>
       <c r="E17" t="s">
-        <v>457</v>
+        <v>535</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -2703,7 +2937,7 @@
         <v>113</v>
       </c>
       <c r="E18" t="s">
-        <v>458</v>
+        <v>536</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -2732,7 +2966,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>459</v>
+        <v>537</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -2761,7 +2995,7 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>460</v>
+        <v>538</v>
       </c>
       <c r="F20" t="s">
         <v>123</v>
@@ -2790,7 +3024,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>461</v>
+        <v>539</v>
       </c>
       <c r="F21" t="s">
         <v>127</v>
@@ -2819,7 +3053,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>462</v>
+        <v>540</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -2848,7 +3082,7 @@
         <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>463</v>
+        <v>541</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -2877,7 +3111,7 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>464</v>
+        <v>542</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -2906,7 +3140,7 @@
         <v>421</v>
       </c>
       <c r="E25" t="s">
-        <v>465</v>
+        <v>543</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -2935,7 +3169,7 @@
         <v>143</v>
       </c>
       <c r="E26" t="s">
-        <v>466</v>
+        <v>544</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
@@ -2964,7 +3198,7 @@
         <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>467</v>
+        <v>545</v>
       </c>
       <c r="F27" t="s">
         <v>150</v>
@@ -2993,7 +3227,7 @@
         <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>468</v>
+        <v>546</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -3022,7 +3256,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>469</v>
+        <v>547</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -3051,7 +3285,7 @@
         <v>429</v>
       </c>
       <c r="E30" t="s">
-        <v>470</v>
+        <v>548</v>
       </c>
       <c r="F30" t="s">
         <v>32</v>
@@ -3080,7 +3314,7 @@
         <v>163</v>
       </c>
       <c r="E31" t="s">
-        <v>471</v>
+        <v>549</v>
       </c>
       <c r="F31" t="s">
         <v>165</v>
@@ -3109,7 +3343,7 @@
         <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>472</v>
+        <v>550</v>
       </c>
       <c r="F32" t="s">
         <v>170</v>
@@ -3138,7 +3372,7 @@
         <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>473</v>
+        <v>551</v>
       </c>
       <c r="F33" t="s">
         <v>175</v>
@@ -3167,7 +3401,7 @@
         <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>474</v>
+        <v>552</v>
       </c>
       <c r="F34" t="s">
         <v>179</v>
@@ -3196,7 +3430,7 @@
         <v>182</v>
       </c>
       <c r="E35" t="s">
-        <v>475</v>
+        <v>553</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -3225,7 +3459,7 @@
         <v>187</v>
       </c>
       <c r="E36" t="s">
-        <v>476</v>
+        <v>554</v>
       </c>
       <c r="F36" t="s">
         <v>189</v>
@@ -3254,7 +3488,7 @@
         <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>477</v>
+        <v>555</v>
       </c>
       <c r="F37" t="s">
         <v>194</v>
@@ -3283,7 +3517,7 @@
         <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>478</v>
+        <v>556</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -3312,7 +3546,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>479</v>
+        <v>557</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -3341,7 +3575,7 @@
         <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>480</v>
+        <v>558</v>
       </c>
       <c r="F40" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/11.xlsx
+++ b/Covid_19_Dataset_and_References/References/11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3124" uniqueCount="559">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3684" uniqueCount="644">
   <si>
     <t>Doi</t>
   </si>
@@ -2078,6 +2078,338 @@
   </si>
   <si>
     <t>[Brian%Hanley%NULL%1,          Kikkeri N%Naresh%NULL%1,          Candice%Roufosse%NULL%1,          Andrew G%Nicholson%NULL%1,          Justin%Weir%NULL%1,          Graham S%Cooke%NULL%1,          Mark%Thursz%NULL%1,          Pinelopi%Manousou%NULL%1,          Richard%Corbett%NULL%1,          Robert%Goldin%NULL%1,          Safa%Al-Sarraj%NULL%1,          Alireza%Abdolrasouli%NULL%1,          Olivia C%Swann%NULL%1,          Laury%Baillon%NULL%1,          Rebecca%Penn%NULL%1,          Wendy S%Barclay%NULL%1,          Patrizia%Viola%NULL%1,          Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,           Renata A A%Monteiro%NULL%2,           Renata A A%Monteiro%NULL%0,           Luiz F F%da Silva%NULL%1,           Denise M A C%Malheiros%NULL%1,           Ellen P%de Oliveira%NULL%1,           Jair%Theodoro‐Filho%NULL%1,           João R R%Pinho%NULL%1,           Michele S%Gomes‐Gouvêa%NULL%1,           Ana P M%Salles%NULL%1,           Ilka R S%de Oliveira%NULL%1,           Thais%Mauad%NULL%1,           Paulo H N%Saldiva%NULL%1,           Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,         Burkhardt%Katrin%coreGivesNoEmail%1,         Claus%Rainer%coreGivesNoEmail%1,         Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,         M\u00e4rkl%Bruno%coreGivesNoEmail%1,         Schaller%Tina%coreGivesNoEmail%1,         Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,           Dwayne A.%Wolf%NULL%1,           Bihong%Zhao%NULL%1,           Bindu%Akkanti%NULL%1,           Michelle%McDonald%NULL%1,           Laura%Lelenwa%NULL%1,           Noah%Reilly%NULL%1,           Giulia%Ottaviani%NULL%1,           M. Tarek%Elghetany%NULL%1,           Daniel Ocazionez%Trujillo%NULL%1,           Gabriel M.%Aisenberg%NULL%1,           Mohammad%Madjid%NULL%1,           Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Yan%xref no email%1,     Mahnoor%Mir%xref no email%1,     Paloma%Sanchez%xref no email%1,     Moeezullah%Beg%xref no email%1,     Jay%Peters%xref no email%1,     Omar%Enriquez%xref no email%1,     Andrea%Gilbert%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,           Erin G.%Brooks%NULL%1,           Joshua%Akers%NULL%1,           Danielle%Armstrong%NULL%1,           Lauren%Decker%NULL%1,           Adam%Gonzalez%NULL%1,           William%Humphrey%NULL%1,           Romana%Mayer%NULL%1,           Matthew%Miller%NULL%1,           Catherine%Perez%NULL%1,           Jose Antonio Ruiz%Arango%NULL%1,           Lakshmanan%Sathyavagiswaran%NULL%1,           Wendy%Stroh%NULL%1,           Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,           Jan-Peter%Sperhake%NULL%2,           Marc%Lütgehetmann%NULL%2,           Stefan%Steurer%NULL%2,           Carolin%Edler%NULL%1,           Axel%Heinemann%NULL%2,           Fabian%Heinrich%NULL%2,           Herbert%Mushumba%NULL%2,           Inga%Kniep%NULL%1,           Ann Sophie%Schröder%NULL%2,           Christoph%Burdelski%NULL%2,           Geraldine%de Heer%NULL%2,           Axel%Nierhaus%NULL%2,           Daniel%Frings%NULL%2,           Susanne%Pfefferle%NULL%1,           Heinrich%Becker%NULL%1,           Hanns%Bredereke-Wiedling%NULL%1,           Andreas%de Weerth%NULL%2,           Hans-Richard%Paschen%NULL%1,           Sara%Sheikhzadeh-Eggers%NULL%1,           Axel%Stang%NULL%1,           Stefan%Schmiedel%NULL%1,           Carsten%Bokemeyer%NULL%1,           Marylyn M.%Addo%NULL%1,           Martin%Aepfelbacher%NULL%2,           Klaus%Püschel%NULL%2,           Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,           Jasmin D%Haslbauer%NULL%4,           Jasmin D%Haslbauer%NULL%0,           Ronny%Nienhold%NULL%2,           Spasenija%Savic%NULL%2,           Helmut%Hopfer%NULL%2,           Nikolaus%Deigendesch%NULL%2,           Stephan%Frank%NULL%2,           Daniel%Turek%NULL%2,           Niels%Willi%NULL%2,           Hans%Pargger%NULL%2,           Stefano%Bassetti%NULL%2,           Joerg D%Leuppi%NULL%2,           Gieri%Cathomas%NULL%2,           Markus%Tolnay%NULL%2,           Kirsten D%Mertz%NULL%2,           Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,           Jasmin D%Haslbauer%NULL%0,           Jasmin D%Haslbauer%NULL%0,           Ronny%Nienhold%NULL%0,           Spasenija%Savic%NULL%0,           Helmut%Hopfer%NULL%0,           Nikolaus%Deigendesch%NULL%0,           Stephan%Frank%NULL%0,           Daniel%Turek%NULL%0,           Niels%Willi%NULL%0,           Hans%Pargger%NULL%0,           Stefano%Bassetti%NULL%0,           Joerg D%Leuppi%NULL%0,           Gieri%Cathomas%NULL%0,           Markus%Tolnay%NULL%0,           Kirsten D%Mertz%NULL%0,           Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,           Andreas J%Flammer%NULL%1,           Peter%Steiger%NULL%1,           Martina%Haberecker%NULL%1,           Rea%Andermatt%NULL%1,           Annelies S%Zinkernagel%NULL%1,           Mandeep R%Mehra%NULL%1,           Reto A%Schuepbach%NULL%1,           Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,           Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,           Yong%Xiong%NULL%0,           Huan%Liu%NULL%3,           Li%Niu%NULL%1,           Jianchun%Guo%NULL%1,           Meiyan%Liao%NULL%1,           Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,           Eric J%Duval%NULL%1,           Edana%Stroberg%NULL%1,           Subha%Ghosh%NULL%1,           Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,           Pilar%Alemany Monraval%NULL%1,           Carmen%Medina Medina%NULL%1,           Ana%Jiménez Sánchez%NULL%1,           Juan Carlos%Andrés Teruel%NULL%1,           José%Ferrando Marco%NULL%1,           Víctor%Puglia Santos%NULL%1,           Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Autopsies of deceased with a confirmed severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) infection can provide important insights into the novel disease and its course.
+ Furthermore, autopsies are essential for the correct statistical recording of the coronavirus disease 2019 (COVID-19) deaths.
+ In the northern German Federal State of Hamburg, all deaths of Hamburg citizens with ante- or postmortem PCR-confirmed SARS-CoV-2 infection have been autopsied since the outbreak of the pandemic in Germany.
+ Our evaluation provides a systematic overview of the first 80 consecutive full autopsies.
+ A proposal for the categorisation of deaths with SARS-CoV-2 infection is presented (category 1: definite COVID-19 death; category 2: probable COVID-19 death; category 3: possible COVID-19 death with an equal alternative cause of death; category 4: SARS-CoV-2 detection with cause of death not associated to COVID-19).
+ In six cases, SARS-CoV-2 infection was diagnosed postmortem by a positive PCR test in a nasopharyngeal or lung tissue swab.
+ In the other 74 cases, SARS-CoV-2 infection had already been known antemortem.
+ The deceased were aged between 52 and 96 years (average 79.2 years, median 82.4 years).
+ In the study cohort, 34 deceased were female (38%) and 46 male (62%).
+ Overall, 38% of the deceased were overweight or obese.
+ All deceased, except for two women, in whom no significant pre-existing conditions were found autoptically, had relevant comorbidities (in descending order of frequency): (1) diseases of the cardiovascular system, (2) lung diseases, (3) central nervous system diseases, (4) kidney diseases, and (5) diabetes mellitus.
+ A total of 76 cases (95%) were classified as COVID-19 deaths, corresponding to categories 1–3. Four deaths (5%) were defined as non-COVID-19 deaths with virus-independent causes of death.
+ In eight cases, pneumonia was combined with a fulminant pulmonary artery embolism.
+ Peripheral pulmonary artery embolisms were found in nine other cases.
+ Overall, deep vein thrombosis has been found in 40% of the cases.
+ This study provides the largest overview of autopsies of SARS-CoV-2-infected patients presented so far.
+</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,           Ann Sophie%Schröder%NULL%0,           Martin%Aepfelbacher%NULL%0,           Antonia%Fitzek%NULL%1,           Axel%Heinemann%NULL%0,           Fabian%Heinrich%NULL%0,           Anke%Klein%NULL%1,           Felicia%Langenwalder%NULL%1,           Marc%Lütgehetmann%NULL%0,           Kira%Meißner%NULL%1,           Klaus%Püschel%NULL%0,           Julia%Schädler%NULL%1,           Stefan%Steurer%NULL%0,           Herbert%Mushumba%NULL%0,           Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,         Blankenberg%Stefan S%coreGivesNoEmail%1,         Brauninger%Hanna%coreGivesNoEmail%1,         Edler%Caroline%coreGivesNoEmail%1,         Escher%Felicitas%coreGivesNoEmail%1,         Fitzek%Antonia%coreGivesNoEmail%1,         Kirchhof%Paulus%coreGivesNoEmail%1,         Lindner%Diana%coreGivesNoEmail%1,         Meissner%Kira%coreGivesNoEmail%1,         Puschel%Klaus%coreGivesNoEmail%1,         Scherschel%Katharina%coreGivesNoEmail%1,         Schultheiss%Heinz-Peter%coreGivesNoEmail%1,         Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,           Holly%Harper%NULL%1,           Behtash G%Nezami%NULL%1,           Daniel L%Shen%NULL%1,           Simona Pichler%Sekulic%NULL%1,           Aaron T%Koeth%NULL%1,           Clifford V%Harding%NULL%1,           Hannah%Gilmore%NULL%1,           Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forensic investigations generally contain extensive morphological examinations to accurately diagnose the cause of death.
+ Thus, the appearance of a new disease often creates emerging challenges in morphological examinations due to the lack of available data from autopsy- or biopsy-based research.
+ Since late December 2019, an outbreak of a novel seventh coronavirus disease has been reported in China caused by “severe acute respiratory syndrome coronavirus 2” (SARS-CoV-2).
+ On March 11, 2020, the new clinical condition COVID-19 (Corona-Virus-Disease-19) was declared a pandemic by the World Health Organization (WHO).
+ Patients with COVID-19 mainly have a mild disease course, but severe disease onset might result in death due to proceeded lung injury with massive alveolar damage and progressive respiratory failure.
+ However, the detailed mechanisms that cause organ injury still remain unclear.
+ We investigated the morphological findings of a COVID-19 patient who died during self-isolation.
+ Pathologic examination revealed massive bilateral alveolar damage, indicating early-phase “acute respiratory distress syndrome” (ARDS).
+ This case emphasizes the possibility of a rapid severe disease onset in previously mild clinical condition and highlights the necessity of a complete autopsy to gain a better understanding of the pathophysiological changes in SARS-CoV-2 infections.
+</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,           Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">In the setting of the coronavirus disease 2019 (COVID-19) pandemic, only few data regarding lung pathology induced by severe acute respiratory syndrome coronavirus 2 (SARS-CoV-2) is available, especially without medical intervention interfering with the natural evolution of the disease.
+ We present here the first case of forensic autopsy of a COVID-19 fatality occurring in a young woman, in the community.
+ Diagnosis was made at necropsy and lung histology showed diffuse alveolar damage, edema, and interstitial pneumonia with a geographically heterogeneous pattern, mostly affecting the central part of the lungs.
+ This death related to COVID-19 pathology highlights the heterogeneity and severity of central lung lesions after natural evolution of the disease.
+</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,           Johannes Alexander%Lobrinus%NULL%2,           Johannes Alexander%Lobrinus%NULL%0,           Manuel%Schibler%NULL%1,           Tony%Fracasso%NULL%1,           Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,           Aibek%Akmatbekov%NULL%1,           Jack L%Harbert%NULL%1,           Guang%Li%NULL%1,           J%Quincy Brown%NULL%1,           Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,           Behnaz%Jahanbin%NULL%1,           Masoomeh%Safaei%NULL%1,           Laya%Amoozadeh%NULL%1,           Meysam%Khoshavi%NULL%1,           Vahid%Mehrtash%NULL%1,           Bita%Jafarzadeh%NULL%1,           Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,           Jing%Xie%NULL%2,           Lei%Zhao%NULL%1,           Xiaochun%Fei%NULL%1,           Heng%Zhang%NULL%1,           Yun%Tan%NULL%1,           Xiu%Nie%NULL%1,           Luting%Zhou%NULL%1,           Zhenhua%Liu%NULL%1,           Yong%Ren%NULL%1,           Ling%Yuan%NULL%1,           Yu%Zhang%NULL%1,           Jinsheng%Zhang%NULL%1,           Liwei%Liang%NULL%1,           Xinwei%Chen%NULL%1,           Xin%Liu%NULL%1,           Peng%Wang%NULL%1,           Xiao%Han%NULL%1,           Xiangqin%Weng%NULL%1,           Ying%Chen%NULL%1,           Ting%Yu%NULL%0,           Xinxin%Zhang%NULL%0,           Jun%Cai%caijun@shsmu.edu.cn%1,           Rong%Chen%crjudy@126.com%3,           Zhengli%Shi%zlshi@wh.iov.cn%2,           Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,           Selina%Traxler%NULL%2,           Selina%Traxler%NULL%0,           Michael%Bitzer%NULL%1,           Helene%Häberle%NULL%1,           Wolfgang%Raiser%NULL%1,           Dominik%Nann%NULL%1,           Leonie%Frauenfeld%NULL%1,           Antonio%Vogelsberg%NULL%1,           Karin%Klingel%NULL%1,           Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,           Thomas%Ruder%NULL%1,           Rilana%Baumeister%NULL%1,           Stephan%Bolliger%NULL%1,           Michael%Thali%NULL%1,           Eva%Meixner%NULL%1,           Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,           Lei%Shi%NULL%1,           Yijin%Wang%NULL%1,           Jiyuan%Zhang%NULL%1,           Lei%Huang%NULL%2,           Chao%Zhang%NULL%2,           Shuhong%Liu%NULL%1,           Peng%Zhao%NULL%1,           Hongxia%Liu%NULL%1,           Li%Zhu%NULL%1,           Yanhong%Tai%NULL%1,           Changqing%Bai%NULL%1,           Tingting%Gao%NULL%1,           Jinwen%Song%NULL%1,           Peng%Xia%NULL%1,           Jinghui%Dong%NULL%1,           Jingmin%Zhao%NULL%1,           Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Esther%Youd%xref no email%1,     Luiza%Moore%xref no email%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A 75-year-old man presented to a French hospital with a 4-day fever after returning from a coronavirus disease-19 (COVID-19) cluster region.
+ A reverse-transcription polymerase chain reaction test was positive for severe acute respiratory syndrome coronavirus-2 (SARS CoV-2) using a nasopharyngeal swab sample.
+ After he returned home and a telephone follow-up, he was found deceased 9 days after first showing symptoms.
+ Whole-body, non-enhanced, post-mortem computed tomography (PMCT) and a forensic autopsy were performed approximately 48 h after death, with sanitary precautions.
+ The PMCT showed bilateral and diffuse crazy-paving lung opacities, with bilateral pleural effusions.
+ Post-mortem virology studies detected the presence of SARS-CoV-2 (B.
+1 lineage) in the nasopharynx, plasma, lung biopsies, pleural effusion and faeces confirming the persistence of viral ribonucleic acid 48 h after death.
+ Microscopic examination showed that severe lung damage was responsible for his death.
+ The main abnormality was diffuse alveolar damage, associated with different stages of inflammation and fibrosis.
+ This case is one of the first to describe complete post-mortem data for a COVID-19 death and highlights the ability of PMCT to detect severe involvement of the lungs before autopsy in an apparently natural death.
+ The present pathology results are concordant with previously reported findings and reinforce the disease pathogenesis hypothesis of combined viral replication with an inappropriate immune response.
+</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,           Benjamin%Gaborit%NULL%2,           Benjamin%Gaborit%NULL%0,           Claire%Toquet%NULL%1,           Louise%Castain%NULL%1,           Antonin%Bal%NULL%1,           Pierre Paul%Arrigoni%NULL%1,           Raphaël%Lecomte%NULL%1,           Renaud%Clement%NULL%1,           Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,           Radu Lucian%Buzulică%NULL%1,           Daniel%Pirici%NULL%1,           Mihail Constantin%Ceauşu%NULL%1,           Radu Vasile%Iman%NULL%1,           Ovidiu-Mircea%Gheorghe%NULL%1,           Simona Daniela%Neamţu%NULL%1,           Liliana%Stanca%NULL%1,           Răzvan%Ene%NULL%1,           Samir%Kumar-Singh%NULL%1,           Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,           Alexander%Leunig%NULL%1,           Sophia%Brambs%NULL%1,           Rainer%Kaiser%NULL%1,           Tobias%Weinberger%NULL%1,           Michael%Weigand%NULL%1,           Maximilian%Muenchhoff%NULL%1,           Johannes C.%Hellmuth%NULL%1,           Stephan%Ledderose%NULL%1,           Heiko%Schulz%NULL%1,           Clemens%Scherer%NULL%1,           Martina%Rudelius%NULL%1,           Michael%Zoller%NULL%1,           Dominik%Höchter%NULL%1,           Oliver%Keppler%NULL%1,           Daniel%Teupser%NULL%1,           Bernhard%Zwißler%NULL%1,           Michael%von Bergwelt-Baildon%NULL%1,           Stefan%Kääb%NULL%1,           Steffen%Massberg%NULL%1,           Kami%Pekayvaz%NULL%1,           Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,           Alexandra%Grosse%NULL%1,           Helmut J.F.%Salzer%NULL%1,           Martin W.%Dünser%NULL%1,           Reinhard%Motz%NULL%1,           Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna Ferl\u00f8v%Schwensen%xref no email%1,     Line Kristine%Borreschmidt%xref no email%1,     Merete%Storgaard%xref no email%1,     S\u00f8ren%Redsted%xref no email%1,     Steffen%Christensen%xref no email%1,     Line Bille%Madsen%xref no email%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Background
+Post-mortem studies can provide important information for understanding new diseases and small autopsy case series have already reported different findings in COVID-19 patients.
+Methods
+We evaluated whether some specific post-mortem features are observed in these patients and if these changes are related to the presence of the virus in different organs.
+ Complete macroscopic and microscopic autopsies were performed on different organs in 17 COVID-19 non-survivors.
+ Presence of SARS-CoV-2 was evaluated with immunohistochemistry (IHC) in lung samples and with real-time reverse-transcription polymerase chain reaction (RT-PCR) test in the lung and other organs.
+Results
+Pulmonary findings revealed early-stage diffuse alveolar damage (DAD) in 15 out of 17 patients and microthrombi in small lung arteries in 11 patients.
+ Late-stage DAD, atypical pneumocytes, and/or acute pneumonia were also observed.
+ Four lung infarcts, two acute myocardial infarctions, and one ischemic enteritis were observed.
+ There was no evidence of myocarditis, hepatitis, or encephalitis.
+ Kidney evaluation revealed the presence of hemosiderin in tubules or pigmented casts in most patients.
+ Spongiosis and vascular congestion were the most frequently encountered brain lesions.
+ No specific SARS-CoV-2 lesions were observed in any organ.
+ IHC revealed positive cells with a heterogeneous distribution in the lungs of 11 of the 17 (65%) patients; RT-PCR yielded a wide distribution of SARS-CoV-2 in different tissues, with 8 patients showing viral presence in all tested organs (i.
+e.
+, lung, heart, spleen, liver, colon, kidney, and brain).
+Conclusions
+In conclusion, autopsies revealed a great heterogeneity of COVID-19-associated organ injury and the remarkable absence of any specific viral lesions, even when RT-PCR identified the presence of the virus in many organs.
+</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,           Ricardo%De Mendonça%NULL%1,           Nicky%D’Haene%NULL%1,           Sarah%De Clercq%NULL%1,           Camille%Verocq%NULL%1,           Laetitia%Lebrun%NULL%1,           Philomène%Lavis%NULL%1,           Marie-Lucie%Racu%NULL%1,           Anne-Laure%Trépant%NULL%1,           Calliope%Maris%NULL%1,           Sandrine%Rorive%NULL%1,           Jean-Christophe%Goffard%NULL%1,           Olivier%De Witte%NULL%1,           Lorenzo%Peluso%NULL%1,           Jean-Louis%Vincent%NULL%1,           Christine%Decaestecker%NULL%1,           Fabio Silvio%Taccone%NULL%1,           Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,           Hiroyuki%Hayashi%NULL%2,           Hiroyuki%Hayashi%NULL%0,           Yukihiro%Yoshimura%NULL%1,           Hiroaki%Sasaki%NULL%1,           Hiroshi%Horiuchi%NULL%1,           Nobuyuki%Miyata%NULL%1,           Natsuo%Tachikawa%NULL%1,           Yuki%Tsuchiya%NULL%1,           Hideaki%Mitsui%NULL%1,           Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,           Ja-Mun%Chong%NULL%1,           Noriko%Nakajima%NULL%1,           Masahiro%Sano%NULL%1,           Jun%Yamazaki%NULL%1,           Ippei%Miyamoto%NULL%1,           Haruka%Nishioka%NULL%1,           Hidetaka%Akita%NULL%1,           Yuko%Sato%NULL%1,           Michiyo%Kataoka%NULL%1,           Harutaka%Katano%NULL%1,           Minoru%Tobiume%NULL%1,           Tsuyoshi%Sekizuka%NULL%1,           Kentaro%Itokawa%NULL%1,           Makoto%Kuroda%NULL%1,           Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,           Anuradha%Lala%NULL%2,           Emilia%Bagiella%NULL%2,           Helena L.%Chang%NULL%1,           Pedro R.%Moreno%NULL%1,           Elisabet%Pujadas%NULL%1,           Varun%Arvind%NULL%1,           Sonali%Bose%NULL%1,           Alexander W.%Charney%NULL%1,           Martin D.%Chen%NULL%1,           Carlos%Cordon-Cardo%NULL%2,           Andrew S.%Dunn%NULL%1,           Michael E.%Farkouh%NULL%1,           Benjamin S.%Glicksberg%NULL%1,           Arash%Kia%NULL%2,           Roopa%Kohli-Seth%NULL%1,           Matthew A.%Levin%NULL%1,           Prem%Timsina%NULL%2,           Shan%Zhao%NULL%1,           Zahi A.%Fayad%NULL%5,           Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We document the neuropathologic findings of a 73-year old man who died from acute cerebellar hemorrhage in the context of relatively mild SARS-CoV2 infection.
+ The patient developed sudden onset of headache, nausea, and vomiting, immediately followed by loss of consciousness on the day of admission.
+ Emergency medical services found him severely hypoxemic at home, and the patient suffered a cardiac arrest during transport to the emergency department.
+ The emergency team achieved return of spontaneous circulation after over 17 min of resuscitation.
+ A chest radiograph revealed hazy bilateral opacities; and real-time-PCR for SARS-CoV-2 on the nasopharyngeal swab was positive.
+ Computed tomography of the head showed a large right cerebellar hemorrhage, with tonsillar herniation and intraventricular hemorrhage.
+ One day after presentation, he was transitioned to comfort care and died shortly after palliative extubation.
+ Autopsy performed 3 h after death showed cerebellar hemorrhage and acute infarcts in the dorsal pons and medulla.
+ Remarkably, there were microglial nodules and neuronophagia bilaterally in the inferior olives and multifocally in the cerebellar dentate nuclei.
+ This constellation of findings has not been reported thus far in the context of SARS-CoV-2 infection.
+</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,           Kiran T.%Thakur%NULL%2,           Kiran T.%Thakur%NULL%0,           Anna S.%Nordvig%NULL%1,           Morgan L.%Prust%NULL%1,           William%Roth%NULL%1,           Angela%Lignelli%NULL%1,           Anne-Catrin%Uhlemann%NULL%1,           Emily Happy%Miller%NULL%1,           Shajo%Kunnath-Velayudhan%NULL%1,           Armando%Del Portillo%NULL%1,           Yang%Liu%NULL%1,           Gunnar%Hargus%NULL%1,           Andrew F.%Teich%NULL%1,           Richard A.%Hickman%NULL%1,           Kurenai%Tanji%NULL%1,           James E.%Goldman%NULL%1,           Phyllis L.%Faust%NULL%1,           Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This paper describes three autopsy cases with postmortem diagnosis of SARS-CoV-2 infection, with detailed macroscopic examination as well as advanced microscopic studies of organ tissues collected using hematoxylin-eosin stains and immunohistochemical markers.
+ Two of the cases were admitted briefly in the County Clinical Emergency Hospital of Sibiu, and one was found deceased at his home address.
+ All three autopsies were completed at the County morgue, in the COVID-19 restricted area, using complete protective equipment.
+ The lungs of the patients seemed to be the center organ of invasion and pathogenesis of the novel coronavirus with diffuse areas of condensation, subpleural retraction zones but with different aspect of the classic bacterial bronchopneumonia.
+ Microscopic evaluation revealed viral cytopathic effect of type II pneumocytes with a couple of cells that presented cytoplasmic and nuclear inclusions and who tend to form clusters mimicking multinucleated giant cells.
+ Hyaline membranes and destruction of the alveolar wall as well as microthrombi formation within the small blood vessels were constantly found in almost all our three cases.
+ The spleen had sustained white pulp atrophy with absence of lymphoid follicles.
+ There were no microscopic signs of viral infection on the myocardium or the other organs.
+</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,           Lilioara-Alexandra%Muja%NULL%2,           Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,           Chen%Shao%NULL%3,           Chen%Shao%NULL%0,           Xiao-jie%Huang%NULL%1,           Lin%Sun%NULL%1,           Ling-jia%Meng%NULL%1,           Hui%Liu%NULL%2,           Shi-jie%Zhang%NULL%1,           Hong-jun%Li%NULL%1,           Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,         Ficken%C.%coreGivesNoEmail%1,         Goddard%M.%coreGivesNoEmail%1,         Jensen%M. P.%coreGivesNoEmail%1,         Le%Quesne J.%coreGivesNoEmail%1,         Menon%D.%coreGivesNoEmail%1,         Officer\u2010Jones%L.%coreGivesNoEmail%1,         Smith%C.%coreGivesNoEmail%1,         Teod\u00f2sio%A.%coreGivesNoEmail%1,         Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,           Maria%Mostyka%NULL%1,           Alicia%Dillard%NULL%1,           Diana R.%Berman%NULL%1,           Lucy X.%Ma%NULL%1,           Amy%Chadburn%NULL%1,           Rhonda K.%Yantiss%NULL%1,           Jose%Jessurun%NULL%1,           Surya V.%Seshan%NULL%1,           Alain C.%Borczuk%NULL%1,           Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,           Kikkeri N%Naresh%NULL%1,           Candice%Roufosse%NULL%1,           Andrew G%Nicholson%NULL%1,           Justin%Weir%NULL%1,           Graham S%Cooke%NULL%1,           Mark%Thursz%NULL%1,           Pinelopi%Manousou%NULL%1,           Richard%Corbett%NULL%1,           Robert%Goldin%NULL%1,           Safa%Al-Sarraj%NULL%1,           Alireza%Abdolrasouli%NULL%1,           Olivia C%Swann%NULL%1,           Laury%Baillon%NULL%1,           Rebecca%Penn%NULL%1,           Wendy S%Barclay%NULL%1,           Patrizia%Viola%NULL%1,           Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,            Renata A A%Monteiro%NULL%2,            Renata A A%Monteiro%NULL%0,            Luiz F F%da Silva%NULL%1,            Denise M A C%Malheiros%NULL%1,            Ellen P%de Oliveira%NULL%1,            Jair%Theodoro‐Filho%NULL%1,            João R R%Pinho%NULL%1,            Michele S%Gomes‐Gouvêa%NULL%1,            Ana P M%Salles%NULL%1,            Ilka R S%de Oliveira%NULL%1,            Thais%Mauad%NULL%1,            Paulo H N%Saldiva%NULL%1,            Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,          Burkhardt%Katrin%coreGivesNoEmail%1,          Claus%Rainer%coreGivesNoEmail%1,          Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,          M\u00e4rkl%Bruno%coreGivesNoEmail%1,          Schaller%Tina%coreGivesNoEmail%1,          Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,            Dwayne A.%Wolf%NULL%1,            Bihong%Zhao%NULL%1,            Bindu%Akkanti%NULL%1,            Michelle%McDonald%NULL%1,            Laura%Lelenwa%NULL%1,            Noah%Reilly%NULL%1,            Giulia%Ottaviani%NULL%1,            M. Tarek%Elghetany%NULL%1,            Daniel Ocazionez%Trujillo%NULL%1,            Gabriel M.%Aisenberg%NULL%1,            Mohammad%Madjid%NULL%1,            Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Yan%xref no email%1,      Mahnoor%Mir%xref no email%1,      Paloma%Sanchez%xref no email%1,      Moeezullah%Beg%xref no email%1,      Jay%Peters%xref no email%1,      Omar%Enriquez%xref no email%1,      Andrea%Gilbert%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,            Erin G.%Brooks%NULL%1,            Joshua%Akers%NULL%1,            Danielle%Armstrong%NULL%1,            Lauren%Decker%NULL%1,            Adam%Gonzalez%NULL%1,            William%Humphrey%NULL%1,            Romana%Mayer%NULL%1,            Matthew%Miller%NULL%1,            Catherine%Perez%NULL%1,            Jose Antonio Ruiz%Arango%NULL%1,            Lakshmanan%Sathyavagiswaran%NULL%1,            Wendy%Stroh%NULL%1,            Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,            Jan-Peter%Sperhake%NULL%2,            Marc%Lütgehetmann%NULL%2,            Stefan%Steurer%NULL%2,            Carolin%Edler%NULL%1,            Axel%Heinemann%NULL%2,            Fabian%Heinrich%NULL%2,            Herbert%Mushumba%NULL%2,            Inga%Kniep%NULL%1,            Ann Sophie%Schröder%NULL%2,            Christoph%Burdelski%NULL%2,            Geraldine%de Heer%NULL%2,            Axel%Nierhaus%NULL%2,            Daniel%Frings%NULL%2,            Susanne%Pfefferle%NULL%1,            Heinrich%Becker%NULL%1,            Hanns%Bredereke-Wiedling%NULL%1,            Andreas%de Weerth%NULL%2,            Hans-Richard%Paschen%NULL%1,            Sara%Sheikhzadeh-Eggers%NULL%1,            Axel%Stang%NULL%1,            Stefan%Schmiedel%NULL%1,            Carsten%Bokemeyer%NULL%1,            Marylyn M.%Addo%NULL%1,            Martin%Aepfelbacher%NULL%2,            Klaus%Püschel%NULL%2,            Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,            Jasmin D%Haslbauer%NULL%4,            Jasmin D%Haslbauer%NULL%0,            Ronny%Nienhold%NULL%2,            Spasenija%Savic%NULL%2,            Helmut%Hopfer%NULL%2,            Nikolaus%Deigendesch%NULL%2,            Stephan%Frank%NULL%2,            Daniel%Turek%NULL%2,            Niels%Willi%NULL%2,            Hans%Pargger%NULL%2,            Stefano%Bassetti%NULL%2,            Joerg D%Leuppi%NULL%2,            Gieri%Cathomas%NULL%2,            Markus%Tolnay%NULL%2,            Kirsten D%Mertz%NULL%2,            Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,            Jasmin D%Haslbauer%NULL%0,            Jasmin D%Haslbauer%NULL%0,            Ronny%Nienhold%NULL%0,            Spasenija%Savic%NULL%0,            Helmut%Hopfer%NULL%0,            Nikolaus%Deigendesch%NULL%0,            Stephan%Frank%NULL%0,            Daniel%Turek%NULL%0,            Niels%Willi%NULL%0,            Hans%Pargger%NULL%0,            Stefano%Bassetti%NULL%0,            Joerg D%Leuppi%NULL%0,            Gieri%Cathomas%NULL%0,            Markus%Tolnay%NULL%0,            Kirsten D%Mertz%NULL%0,            Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,            Andreas J%Flammer%NULL%1,            Peter%Steiger%NULL%1,            Martina%Haberecker%NULL%1,            Rea%Andermatt%NULL%1,            Annelies S%Zinkernagel%NULL%1,            Mandeep R%Mehra%NULL%1,            Reto A%Schuepbach%NULL%1,            Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,            Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,            Yong%Xiong%NULL%0,            Huan%Liu%NULL%3,            Li%Niu%NULL%1,            Jianchun%Guo%NULL%1,            Meiyan%Liao%NULL%1,            Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,            Eric J%Duval%NULL%1,            Edana%Stroberg%NULL%1,            Subha%Ghosh%NULL%1,            Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,            Pilar%Alemany Monraval%NULL%1,            Carmen%Medina Medina%NULL%1,            Ana%Jiménez Sánchez%NULL%1,            Juan Carlos%Andrés Teruel%NULL%1,            José%Ferrando Marco%NULL%1,            Víctor%Puglia Santos%NULL%1,            Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,            Ann Sophie%Schröder%NULL%0,            Martin%Aepfelbacher%NULL%0,            Antonia%Fitzek%NULL%1,            Axel%Heinemann%NULL%0,            Fabian%Heinrich%NULL%0,            Anke%Klein%NULL%1,            Felicia%Langenwalder%NULL%1,            Marc%Lütgehetmann%NULL%0,            Kira%Meißner%NULL%1,            Klaus%Püschel%NULL%0,            Julia%Schädler%NULL%1,            Stefan%Steurer%NULL%0,            Herbert%Mushumba%NULL%0,            Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,          Blankenberg%Stefan S%coreGivesNoEmail%1,          Brauninger%Hanna%coreGivesNoEmail%1,          Edler%Caroline%coreGivesNoEmail%1,          Escher%Felicitas%coreGivesNoEmail%1,          Fitzek%Antonia%coreGivesNoEmail%1,          Kirchhof%Paulus%coreGivesNoEmail%1,          Lindner%Diana%coreGivesNoEmail%1,          Meissner%Kira%coreGivesNoEmail%1,          Puschel%Klaus%coreGivesNoEmail%1,          Scherschel%Katharina%coreGivesNoEmail%1,          Schultheiss%Heinz-Peter%coreGivesNoEmail%1,          Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,            Holly%Harper%NULL%1,            Behtash G%Nezami%NULL%1,            Daniel L%Shen%NULL%1,            Simona Pichler%Sekulic%NULL%1,            Aaron T%Koeth%NULL%1,            Clifford V%Harding%NULL%1,            Hannah%Gilmore%NULL%1,            Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,            Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,            Johannes Alexander%Lobrinus%NULL%2,            Johannes Alexander%Lobrinus%NULL%0,            Manuel%Schibler%NULL%1,            Tony%Fracasso%NULL%1,            Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,            Aibek%Akmatbekov%NULL%1,            Jack L%Harbert%NULL%1,            Guang%Li%NULL%1,            J%Quincy Brown%NULL%1,            Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,            Behnaz%Jahanbin%NULL%1,            Masoomeh%Safaei%NULL%1,            Laya%Amoozadeh%NULL%1,            Meysam%Khoshavi%NULL%1,            Vahid%Mehrtash%NULL%1,            Bita%Jafarzadeh%NULL%1,            Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,            Jing%Xie%NULL%2,            Lei%Zhao%NULL%1,            Xiaochun%Fei%NULL%1,            Heng%Zhang%NULL%1,            Yun%Tan%NULL%1,            Xiu%Nie%NULL%1,            Luting%Zhou%NULL%1,            Zhenhua%Liu%NULL%1,            Yong%Ren%NULL%1,            Ling%Yuan%NULL%1,            Yu%Zhang%NULL%1,            Jinsheng%Zhang%NULL%1,            Liwei%Liang%NULL%1,            Xinwei%Chen%NULL%1,            Xin%Liu%NULL%1,            Peng%Wang%NULL%1,            Xiao%Han%NULL%1,            Xiangqin%Weng%NULL%1,            Ying%Chen%NULL%1,            Ting%Yu%NULL%0,            Xinxin%Zhang%NULL%0,            Jun%Cai%caijun@shsmu.edu.cn%1,            Rong%Chen%crjudy@126.com%2,            Zhengli%Shi%zlshi@wh.iov.cn%2,            Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,            Selina%Traxler%NULL%2,            Selina%Traxler%NULL%0,            Michael%Bitzer%NULL%1,            Helene%Häberle%NULL%1,            Wolfgang%Raiser%NULL%1,            Dominik%Nann%NULL%1,            Leonie%Frauenfeld%NULL%1,            Antonio%Vogelsberg%NULL%1,            Karin%Klingel%NULL%1,            Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,            Thomas%Ruder%NULL%1,            Rilana%Baumeister%NULL%1,            Stephan%Bolliger%NULL%1,            Michael%Thali%NULL%1,            Eva%Meixner%NULL%1,            Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,            Lei%Shi%NULL%1,            Yijin%Wang%NULL%1,            Jiyuan%Zhang%NULL%1,            Lei%Huang%NULL%2,            Chao%Zhang%NULL%1,            Shuhong%Liu%NULL%1,            Peng%Zhao%NULL%1,            Hongxia%Liu%NULL%1,            Li%Zhu%NULL%1,            Yanhong%Tai%NULL%1,            Changqing%Bai%NULL%1,            Tingting%Gao%NULL%1,            Jinwen%Song%NULL%1,            Peng%Xia%NULL%1,            Jinghui%Dong%NULL%1,            Jingmin%Zhao%NULL%1,            Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Esther%Youd%xref no email%1,      Luiza%Moore%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,            Benjamin%Gaborit%NULL%2,            Benjamin%Gaborit%NULL%0,            Claire%Toquet%NULL%1,            Louise%Castain%NULL%1,            Antonin%Bal%NULL%1,            Pierre Paul%Arrigoni%NULL%1,            Raphaël%Lecomte%NULL%1,            Renaud%Clement%NULL%1,            Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,            Radu Lucian%Buzulică%NULL%1,            Daniel%Pirici%NULL%1,            Mihail Constantin%Ceauşu%NULL%1,            Radu Vasile%Iman%NULL%1,            Ovidiu-Mircea%Gheorghe%NULL%1,            Simona Daniela%Neamţu%NULL%1,            Liliana%Stanca%NULL%1,            Răzvan%Ene%NULL%1,            Samir%Kumar-Singh%NULL%1,            Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,            Alexander%Leunig%NULL%1,            Sophia%Brambs%NULL%1,            Rainer%Kaiser%NULL%1,            Tobias%Weinberger%NULL%1,            Michael%Weigand%NULL%1,            Maximilian%Muenchhoff%NULL%1,            Johannes C.%Hellmuth%NULL%1,            Stephan%Ledderose%NULL%1,            Heiko%Schulz%NULL%1,            Clemens%Scherer%NULL%1,            Martina%Rudelius%NULL%1,            Michael%Zoller%NULL%1,            Dominik%Höchter%NULL%1,            Oliver%Keppler%NULL%1,            Daniel%Teupser%NULL%1,            Bernhard%Zwißler%NULL%1,            Michael%von Bergwelt-Baildon%NULL%1,            Stefan%Kääb%NULL%1,            Steffen%Massberg%NULL%1,            Kami%Pekayvaz%NULL%1,            Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,            Alexandra%Grosse%NULL%1,            Helmut J.F.%Salzer%NULL%1,            Martin W.%Dünser%NULL%1,            Reinhard%Motz%NULL%1,            Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna Ferl\u00f8v%Schwensen%xref no email%1,      Line Kristine%Borreschmidt%xref no email%1,      Merete%Storgaard%xref no email%1,      S\u00f8ren%Redsted%xref no email%1,      Steffen%Christensen%xref no email%1,      Line Bille%Madsen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,            Ricardo%De Mendonça%NULL%1,            Nicky%D’Haene%NULL%1,            Sarah%De Clercq%NULL%1,            Camille%Verocq%NULL%1,            Laetitia%Lebrun%NULL%1,            Philomène%Lavis%NULL%1,            Marie-Lucie%Racu%NULL%1,            Anne-Laure%Trépant%NULL%1,            Calliope%Maris%NULL%1,            Sandrine%Rorive%NULL%1,            Jean-Christophe%Goffard%NULL%1,            Olivier%De Witte%NULL%1,            Lorenzo%Peluso%NULL%1,            Jean-Louis%Vincent%NULL%1,            Christine%Decaestecker%NULL%1,            Fabio Silvio%Taccone%NULL%1,            Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,            Hiroyuki%Hayashi%NULL%2,            Hiroyuki%Hayashi%NULL%0,            Yukihiro%Yoshimura%NULL%1,            Hiroaki%Sasaki%NULL%1,            Hiroshi%Horiuchi%NULL%1,            Nobuyuki%Miyata%NULL%1,            Natsuo%Tachikawa%NULL%1,            Yuki%Tsuchiya%NULL%1,            Hideaki%Mitsui%NULL%1,            Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,            Ja-Mun%Chong%NULL%1,            Noriko%Nakajima%NULL%1,            Masahiro%Sano%NULL%1,            Jun%Yamazaki%NULL%1,            Ippei%Miyamoto%NULL%1,            Haruka%Nishioka%NULL%1,            Hidetaka%Akita%NULL%1,            Yuko%Sato%NULL%1,            Michiyo%Kataoka%NULL%1,            Harutaka%Katano%NULL%1,            Minoru%Tobiume%NULL%1,            Tsuyoshi%Sekizuka%NULL%1,            Kentaro%Itokawa%NULL%1,            Makoto%Kuroda%NULL%1,            Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,            Anuradha%Lala%NULL%1,            Emilia%Bagiella%NULL%1,            Helena L.%Chang%NULL%1,            Pedro R.%Moreno%NULL%1,            Elisabet%Pujadas%NULL%1,            Varun%Arvind%NULL%1,            Sonali%Bose%NULL%1,            Alexander W.%Charney%NULL%1,            Martin D.%Chen%NULL%1,            Carlos%Cordon-Cardo%NULL%1,            Andrew S.%Dunn%NULL%1,            Michael E.%Farkouh%NULL%1,            Benjamin S.%Glicksberg%NULL%1,            Arash%Kia%NULL%1,            Roopa%Kohli-Seth%NULL%1,            Matthew A.%Levin%NULL%1,            Prem%Timsina%NULL%1,            Shan%Zhao%NULL%1,            Zahi A.%Fayad%NULL%5,            Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,            Kiran T.%Thakur%NULL%2,            Kiran T.%Thakur%NULL%0,            Anna S.%Nordvig%NULL%1,            Morgan L.%Prust%NULL%1,            William%Roth%NULL%1,            Angela%Lignelli%NULL%1,            Anne-Catrin%Uhlemann%NULL%1,            Emily Happy%Miller%NULL%1,            Shajo%Kunnath-Velayudhan%NULL%1,            Armando%Del Portillo%NULL%1,            Yang%Liu%NULL%1,            Gunnar%Hargus%NULL%1,            Andrew F.%Teich%NULL%1,            Richard A.%Hickman%NULL%1,            Kurenai%Tanji%NULL%1,            James E.%Goldman%NULL%1,            Phyllis L.%Faust%NULL%1,            Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,            Lilioara-Alexandra%Muja%NULL%2,            Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,            Chen%Shao%NULL%2,            Chen%Shao%NULL%0,            Xiao-jie%Huang%NULL%1,            Lin%Sun%NULL%1,            Ling-jia%Meng%NULL%1,            Hui%Liu%NULL%2,            Shi-jie%Zhang%NULL%1,            Hong-jun%Li%NULL%1,            Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,          Ficken%C.%coreGivesNoEmail%1,          Goddard%M.%coreGivesNoEmail%1,          Jensen%M. P.%coreGivesNoEmail%1,          Le%Quesne J.%coreGivesNoEmail%1,          Menon%D.%coreGivesNoEmail%1,          Officer\u2010Jones%L.%coreGivesNoEmail%1,          Smith%C.%coreGivesNoEmail%1,          Teod\u00f2sio%A.%coreGivesNoEmail%1,          Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,            Maria%Mostyka%NULL%1,            Alicia%Dillard%NULL%1,            Diana R.%Berman%NULL%1,            Lucy X.%Ma%NULL%1,            Amy%Chadburn%NULL%1,            Rhonda K.%Yantiss%NULL%1,            Jose%Jessurun%NULL%1,            Surya V.%Seshan%NULL%1,            Alain C.%Borczuk%NULL%1,            Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,            Kikkeri N%Naresh%NULL%1,            Candice%Roufosse%NULL%1,            Andrew G%Nicholson%NULL%1,            Justin%Weir%NULL%1,            Graham S%Cooke%NULL%1,            Mark%Thursz%NULL%1,            Pinelopi%Manousou%NULL%1,            Richard%Corbett%NULL%1,            Robert%Goldin%NULL%1,            Safa%Al-Sarraj%NULL%1,            Alireza%Abdolrasouli%NULL%1,            Olivia C%Swann%NULL%1,            Laury%Baillon%NULL%1,            Rebecca%Penn%NULL%1,            Wendy S%Barclay%NULL%1,            Patrizia%Viola%NULL%1,            Michael%Osborn%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2473,7 +2805,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>520</v>
+        <v>605</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -2502,7 +2834,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>521</v>
+        <v>606</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2531,7 +2863,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>522</v>
+        <v>607</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -2560,7 +2892,7 @@
         <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>523</v>
+        <v>608</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -2589,7 +2921,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>524</v>
+        <v>609</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -2618,7 +2950,7 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>525</v>
+        <v>610</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -2647,7 +2979,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>526</v>
+        <v>611</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
@@ -2676,7 +3008,7 @@
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>527</v>
+        <v>612</v>
       </c>
       <c r="F9" t="s">
         <v>78</v>
@@ -2705,7 +3037,7 @@
         <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>528</v>
+        <v>613</v>
       </c>
       <c r="F10" t="s">
         <v>84</v>
@@ -2734,7 +3066,7 @@
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>529</v>
+        <v>614</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
@@ -2763,7 +3095,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>530</v>
+        <v>615</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -2792,7 +3124,7 @@
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>531</v>
+        <v>616</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
@@ -2818,10 +3150,10 @@
         <v>98</v>
       </c>
       <c r="D14" t="s">
-        <v>99</v>
+        <v>571</v>
       </c>
       <c r="E14" t="s">
-        <v>532</v>
+        <v>617</v>
       </c>
       <c r="F14" t="s">
         <v>101</v>
@@ -2850,7 +3182,7 @@
         <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>533</v>
+        <v>618</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -2879,7 +3211,7 @@
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>534</v>
+        <v>619</v>
       </c>
       <c r="F16" t="s">
         <v>106</v>
@@ -2905,10 +3237,10 @@
         <v>107</v>
       </c>
       <c r="D17" t="s">
-        <v>108</v>
+        <v>575</v>
       </c>
       <c r="E17" t="s">
-        <v>535</v>
+        <v>620</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -2934,10 +3266,10 @@
         <v>112</v>
       </c>
       <c r="D18" t="s">
-        <v>113</v>
+        <v>577</v>
       </c>
       <c r="E18" t="s">
-        <v>536</v>
+        <v>621</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -2966,7 +3298,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>537</v>
+        <v>622</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -2995,7 +3327,7 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>538</v>
+        <v>623</v>
       </c>
       <c r="F20" t="s">
         <v>123</v>
@@ -3024,7 +3356,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>539</v>
+        <v>624</v>
       </c>
       <c r="F21" t="s">
         <v>127</v>
@@ -3053,7 +3385,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>540</v>
+        <v>625</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -3082,7 +3414,7 @@
         <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>541</v>
+        <v>626</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -3111,7 +3443,7 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>542</v>
+        <v>627</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -3140,7 +3472,7 @@
         <v>421</v>
       </c>
       <c r="E25" t="s">
-        <v>543</v>
+        <v>628</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -3166,10 +3498,10 @@
         <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>143</v>
+        <v>586</v>
       </c>
       <c r="E26" t="s">
-        <v>544</v>
+        <v>629</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
@@ -3198,7 +3530,7 @@
         <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>545</v>
+        <v>630</v>
       </c>
       <c r="F27" t="s">
         <v>150</v>
@@ -3227,7 +3559,7 @@
         <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>546</v>
+        <v>631</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -3256,7 +3588,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>547</v>
+        <v>632</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -3285,7 +3617,7 @@
         <v>429</v>
       </c>
       <c r="E30" t="s">
-        <v>548</v>
+        <v>633</v>
       </c>
       <c r="F30" t="s">
         <v>32</v>
@@ -3311,10 +3643,10 @@
         <v>162</v>
       </c>
       <c r="D31" t="s">
-        <v>163</v>
+        <v>592</v>
       </c>
       <c r="E31" t="s">
-        <v>549</v>
+        <v>634</v>
       </c>
       <c r="F31" t="s">
         <v>165</v>
@@ -3343,7 +3675,7 @@
         <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>550</v>
+        <v>635</v>
       </c>
       <c r="F32" t="s">
         <v>170</v>
@@ -3372,7 +3704,7 @@
         <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>551</v>
+        <v>636</v>
       </c>
       <c r="F33" t="s">
         <v>175</v>
@@ -3401,7 +3733,7 @@
         <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>552</v>
+        <v>637</v>
       </c>
       <c r="F34" t="s">
         <v>179</v>
@@ -3427,10 +3759,10 @@
         <v>181</v>
       </c>
       <c r="D35" t="s">
-        <v>182</v>
+        <v>597</v>
       </c>
       <c r="E35" t="s">
-        <v>553</v>
+        <v>638</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -3456,10 +3788,10 @@
         <v>186</v>
       </c>
       <c r="D36" t="s">
-        <v>187</v>
+        <v>599</v>
       </c>
       <c r="E36" t="s">
-        <v>554</v>
+        <v>639</v>
       </c>
       <c r="F36" t="s">
         <v>189</v>
@@ -3488,7 +3820,7 @@
         <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>555</v>
+        <v>640</v>
       </c>
       <c r="F37" t="s">
         <v>194</v>
@@ -3517,7 +3849,7 @@
         <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>556</v>
+        <v>641</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -3546,7 +3878,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>557</v>
+        <v>642</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -3575,7 +3907,7 @@
         <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>558</v>
+        <v>643</v>
       </c>
       <c r="F40" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/11.xlsx
+++ b/Covid_19_Dataset_and_References/References/11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3684" uniqueCount="644">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3964" uniqueCount="683">
   <si>
     <t>Doi</t>
   </si>
@@ -2410,6 +2410,123 @@
   </si>
   <si>
     <t>[Brian%Hanley%NULL%1,            Kikkeri N%Naresh%NULL%1,            Candice%Roufosse%NULL%1,            Andrew G%Nicholson%NULL%1,            Justin%Weir%NULL%1,            Graham S%Cooke%NULL%1,            Mark%Thursz%NULL%1,            Pinelopi%Manousou%NULL%1,            Richard%Corbett%NULL%1,            Robert%Goldin%NULL%1,            Safa%Al-Sarraj%NULL%1,            Alireza%Abdolrasouli%NULL%1,            Olivia C%Swann%NULL%1,            Laury%Baillon%NULL%1,            Rebecca%Penn%NULL%1,            Wendy S%Barclay%NULL%1,            Patrizia%Viola%NULL%1,            Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,             Renata A A%Monteiro%NULL%2,             Renata A A%Monteiro%NULL%0,             Luiz F F%da Silva%NULL%1,             Denise M A C%Malheiros%NULL%1,             Ellen P%de Oliveira%NULL%1,             Jair%Theodoro‐Filho%NULL%1,             João R R%Pinho%NULL%1,             Michele S%Gomes‐Gouvêa%NULL%1,             Ana P M%Salles%NULL%1,             Ilka R S%de Oliveira%NULL%1,             Thais%Mauad%NULL%1,             Paulo H N%Saldiva%NULL%1,             Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,           Burkhardt%Katrin%coreGivesNoEmail%1,           Claus%Rainer%coreGivesNoEmail%1,           Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,           M\u00e4rkl%Bruno%coreGivesNoEmail%1,           Schaller%Tina%coreGivesNoEmail%1,           Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,             Dwayne A.%Wolf%NULL%1,             Bihong%Zhao%NULL%1,             Bindu%Akkanti%NULL%1,             Michelle%McDonald%NULL%1,             Laura%Lelenwa%NULL%1,             Noah%Reilly%NULL%1,             Giulia%Ottaviani%NULL%1,             M. Tarek%Elghetany%NULL%1,             Daniel Ocazionez%Trujillo%NULL%1,             Gabriel M.%Aisenberg%NULL%1,             Mohammad%Madjid%NULL%1,             Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Yan%xref no email%1,       Mahnoor%Mir%xref no email%1,       Paloma%Sanchez%xref no email%1,       Moeezullah%Beg%xref no email%1,       Jay%Peters%xref no email%1,       Omar%Enriquez%xref no email%1,       Andrea%Gilbert%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,             Erin G.%Brooks%NULL%1,             Joshua%Akers%NULL%1,             Danielle%Armstrong%NULL%1,             Lauren%Decker%NULL%1,             Adam%Gonzalez%NULL%1,             William%Humphrey%NULL%1,             Romana%Mayer%NULL%1,             Matthew%Miller%NULL%1,             Catherine%Perez%NULL%1,             Jose Antonio Ruiz%Arango%NULL%1,             Lakshmanan%Sathyavagiswaran%NULL%1,             Wendy%Stroh%NULL%1,             Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,             Jan-Peter%Sperhake%NULL%2,             Marc%Lütgehetmann%NULL%2,             Stefan%Steurer%NULL%2,             Carolin%Edler%NULL%1,             Axel%Heinemann%NULL%2,             Fabian%Heinrich%NULL%2,             Herbert%Mushumba%NULL%2,             Inga%Kniep%NULL%1,             Ann Sophie%Schröder%NULL%2,             Christoph%Burdelski%NULL%2,             Geraldine%de Heer%NULL%2,             Axel%Nierhaus%NULL%2,             Daniel%Frings%NULL%2,             Susanne%Pfefferle%NULL%1,             Heinrich%Becker%NULL%1,             Hanns%Bredereke-Wiedling%NULL%1,             Andreas%de Weerth%NULL%2,             Hans-Richard%Paschen%NULL%1,             Sara%Sheikhzadeh-Eggers%NULL%1,             Axel%Stang%NULL%1,             Stefan%Schmiedel%NULL%1,             Carsten%Bokemeyer%NULL%1,             Marylyn M.%Addo%NULL%1,             Martin%Aepfelbacher%NULL%2,             Klaus%Püschel%NULL%2,             Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,             Jasmin D%Haslbauer%NULL%4,             Jasmin D%Haslbauer%NULL%0,             Ronny%Nienhold%NULL%2,             Spasenija%Savic%NULL%2,             Helmut%Hopfer%NULL%2,             Nikolaus%Deigendesch%NULL%2,             Stephan%Frank%NULL%2,             Daniel%Turek%NULL%2,             Niels%Willi%NULL%2,             Hans%Pargger%NULL%2,             Stefano%Bassetti%NULL%2,             Joerg D%Leuppi%NULL%2,             Gieri%Cathomas%NULL%2,             Markus%Tolnay%NULL%2,             Kirsten D%Mertz%NULL%2,             Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,             Jasmin D%Haslbauer%NULL%0,             Jasmin D%Haslbauer%NULL%0,             Ronny%Nienhold%NULL%0,             Spasenija%Savic%NULL%0,             Helmut%Hopfer%NULL%0,             Nikolaus%Deigendesch%NULL%0,             Stephan%Frank%NULL%0,             Daniel%Turek%NULL%0,             Niels%Willi%NULL%0,             Hans%Pargger%NULL%0,             Stefano%Bassetti%NULL%0,             Joerg D%Leuppi%NULL%0,             Gieri%Cathomas%NULL%0,             Markus%Tolnay%NULL%0,             Kirsten D%Mertz%NULL%0,             Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,             Andreas J%Flammer%NULL%1,             Peter%Steiger%NULL%1,             Martina%Haberecker%NULL%1,             Rea%Andermatt%NULL%1,             Annelies S%Zinkernagel%NULL%1,             Mandeep R%Mehra%NULL%1,             Reto A%Schuepbach%NULL%1,             Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,             Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,             Yong%Xiong%NULL%0,             Huan%Liu%NULL%3,             Li%Niu%NULL%1,             Jianchun%Guo%NULL%1,             Meiyan%Liao%NULL%1,             Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,             Eric J%Duval%NULL%1,             Edana%Stroberg%NULL%1,             Subha%Ghosh%NULL%1,             Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,             Pilar%Alemany Monraval%NULL%1,             Carmen%Medina Medina%NULL%1,             Ana%Jiménez Sánchez%NULL%1,             Juan Carlos%Andrés Teruel%NULL%1,             José%Ferrando Marco%NULL%1,             Víctor%Puglia Santos%NULL%1,             Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,             Ann Sophie%Schröder%NULL%0,             Martin%Aepfelbacher%NULL%0,             Antonia%Fitzek%NULL%1,             Axel%Heinemann%NULL%0,             Fabian%Heinrich%NULL%0,             Anke%Klein%NULL%1,             Felicia%Langenwalder%NULL%1,             Marc%Lütgehetmann%NULL%0,             Kira%Meißner%NULL%1,             Klaus%Püschel%NULL%0,             Julia%Schädler%NULL%1,             Stefan%Steurer%NULL%0,             Herbert%Mushumba%NULL%0,             Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,           Blankenberg%Stefan S%coreGivesNoEmail%1,           Brauninger%Hanna%coreGivesNoEmail%1,           Edler%Caroline%coreGivesNoEmail%1,           Escher%Felicitas%coreGivesNoEmail%1,           Fitzek%Antonia%coreGivesNoEmail%1,           Kirchhof%Paulus%coreGivesNoEmail%1,           Lindner%Diana%coreGivesNoEmail%1,           Meissner%Kira%coreGivesNoEmail%1,           Puschel%Klaus%coreGivesNoEmail%1,           Scherschel%Katharina%coreGivesNoEmail%1,           Schultheiss%Heinz-Peter%coreGivesNoEmail%1,           Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,             Holly%Harper%NULL%1,             Behtash G%Nezami%NULL%1,             Daniel L%Shen%NULL%1,             Simona Pichler%Sekulic%NULL%1,             Aaron T%Koeth%NULL%1,             Clifford V%Harding%NULL%1,             Hannah%Gilmore%NULL%1,             Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,             Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,             Johannes Alexander%Lobrinus%NULL%2,             Johannes Alexander%Lobrinus%NULL%0,             Manuel%Schibler%NULL%1,             Tony%Fracasso%NULL%1,             Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,             Aibek%Akmatbekov%NULL%1,             Jack L%Harbert%NULL%1,             Guang%Li%NULL%1,             J%Quincy Brown%NULL%1,             Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,             Behnaz%Jahanbin%NULL%1,             Masoomeh%Safaei%NULL%1,             Laya%Amoozadeh%NULL%1,             Meysam%Khoshavi%NULL%1,             Vahid%Mehrtash%NULL%1,             Bita%Jafarzadeh%NULL%1,             Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,             Jing%Xie%NULL%2,             Lei%Zhao%NULL%1,             Xiaochun%Fei%NULL%1,             Heng%Zhang%NULL%1,             Yun%Tan%NULL%1,             Xiu%Nie%NULL%1,             Luting%Zhou%NULL%1,             Zhenhua%Liu%NULL%1,             Yong%Ren%NULL%1,             Ling%Yuan%NULL%1,             Yu%Zhang%NULL%1,             Jinsheng%Zhang%NULL%1,             Liwei%Liang%NULL%1,             Xinwei%Chen%NULL%1,             Xin%Liu%NULL%1,             Peng%Wang%NULL%1,             Xiao%Han%NULL%1,             Xiangqin%Weng%NULL%1,             Ying%Chen%NULL%1,             Ting%Yu%NULL%0,             Xinxin%Zhang%NULL%0,             Jun%Cai%caijun@shsmu.edu.cn%1,             Rong%Chen%crjudy@126.com%2,             Zhengli%Shi%zlshi@wh.iov.cn%2,             Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,             Selina%Traxler%NULL%2,             Selina%Traxler%NULL%0,             Michael%Bitzer%NULL%1,             Helene%Häberle%NULL%1,             Wolfgang%Raiser%NULL%1,             Dominik%Nann%NULL%1,             Leonie%Frauenfeld%NULL%1,             Antonio%Vogelsberg%NULL%1,             Karin%Klingel%NULL%1,             Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,             Thomas%Ruder%NULL%1,             Rilana%Baumeister%NULL%1,             Stephan%Bolliger%NULL%1,             Michael%Thali%NULL%1,             Eva%Meixner%NULL%1,             Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,             Lei%Shi%NULL%1,             Yijin%Wang%NULL%1,             Jiyuan%Zhang%NULL%1,             Lei%Huang%NULL%2,             Chao%Zhang%NULL%1,             Shuhong%Liu%NULL%1,             Peng%Zhao%NULL%1,             Hongxia%Liu%NULL%1,             Li%Zhu%NULL%1,             Yanhong%Tai%NULL%1,             Changqing%Bai%NULL%1,             Tingting%Gao%NULL%1,             Jinwen%Song%NULL%1,             Peng%Xia%NULL%1,             Jinghui%Dong%NULL%1,             Jingmin%Zhao%NULL%1,             Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Esther%Youd%xref no email%1,       Luiza%Moore%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,             Benjamin%Gaborit%NULL%2,             Benjamin%Gaborit%NULL%0,             Claire%Toquet%NULL%1,             Louise%Castain%NULL%1,             Antonin%Bal%NULL%1,             Pierre Paul%Arrigoni%NULL%1,             Raphaël%Lecomte%NULL%1,             Renaud%Clement%NULL%1,             Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,             Radu Lucian%Buzulică%NULL%1,             Daniel%Pirici%NULL%1,             Mihail Constantin%Ceauşu%NULL%1,             Radu Vasile%Iman%NULL%1,             Ovidiu-Mircea%Gheorghe%NULL%1,             Simona Daniela%Neamţu%NULL%1,             Liliana%Stanca%NULL%1,             Răzvan%Ene%NULL%1,             Samir%Kumar-Singh%NULL%1,             Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,             Alexander%Leunig%NULL%1,             Sophia%Brambs%NULL%1,             Rainer%Kaiser%NULL%1,             Tobias%Weinberger%NULL%1,             Michael%Weigand%NULL%1,             Maximilian%Muenchhoff%NULL%1,             Johannes C.%Hellmuth%NULL%1,             Stephan%Ledderose%NULL%1,             Heiko%Schulz%NULL%1,             Clemens%Scherer%NULL%1,             Martina%Rudelius%NULL%1,             Michael%Zoller%NULL%1,             Dominik%Höchter%NULL%1,             Oliver%Keppler%NULL%1,             Daniel%Teupser%NULL%1,             Bernhard%Zwißler%NULL%1,             Michael%von Bergwelt-Baildon%NULL%1,             Stefan%Kääb%NULL%1,             Steffen%Massberg%NULL%1,             Kami%Pekayvaz%NULL%1,             Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,             Alexandra%Grosse%NULL%1,             Helmut J.F.%Salzer%NULL%1,             Martin W.%Dünser%NULL%1,             Reinhard%Motz%NULL%1,             Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna Ferl\u00f8v%Schwensen%xref no email%1,       Line Kristine%Borreschmidt%xref no email%1,       Merete%Storgaard%xref no email%1,       S\u00f8ren%Redsted%xref no email%1,       Steffen%Christensen%xref no email%1,       Line Bille%Madsen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,             Ricardo%De Mendonça%NULL%1,             Nicky%D’Haene%NULL%1,             Sarah%De Clercq%NULL%1,             Camille%Verocq%NULL%1,             Laetitia%Lebrun%NULL%1,             Philomène%Lavis%NULL%1,             Marie-Lucie%Racu%NULL%1,             Anne-Laure%Trépant%NULL%1,             Calliope%Maris%NULL%1,             Sandrine%Rorive%NULL%1,             Jean-Christophe%Goffard%NULL%1,             Olivier%De Witte%NULL%1,             Lorenzo%Peluso%NULL%1,             Jean-Louis%Vincent%NULL%1,             Christine%Decaestecker%NULL%1,             Fabio Silvio%Taccone%NULL%1,             Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,             Hiroyuki%Hayashi%NULL%2,             Hiroyuki%Hayashi%NULL%0,             Yukihiro%Yoshimura%NULL%1,             Hiroaki%Sasaki%NULL%1,             Hiroshi%Horiuchi%NULL%1,             Nobuyuki%Miyata%NULL%1,             Natsuo%Tachikawa%NULL%1,             Yuki%Tsuchiya%NULL%1,             Hideaki%Mitsui%NULL%1,             Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,             Ja-Mun%Chong%NULL%1,             Noriko%Nakajima%NULL%1,             Masahiro%Sano%NULL%1,             Jun%Yamazaki%NULL%1,             Ippei%Miyamoto%NULL%1,             Haruka%Nishioka%NULL%1,             Hidetaka%Akita%NULL%1,             Yuko%Sato%NULL%1,             Michiyo%Kataoka%NULL%1,             Harutaka%Katano%NULL%1,             Minoru%Tobiume%NULL%1,             Tsuyoshi%Sekizuka%NULL%1,             Kentaro%Itokawa%NULL%1,             Makoto%Kuroda%NULL%1,             Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,             Anuradha%Lala%NULL%1,             Emilia%Bagiella%NULL%1,             Helena L.%Chang%NULL%1,             Pedro R.%Moreno%NULL%1,             Elisabet%Pujadas%NULL%1,             Varun%Arvind%NULL%1,             Sonali%Bose%NULL%1,             Alexander W.%Charney%NULL%1,             Martin D.%Chen%NULL%1,             Carlos%Cordon-Cardo%NULL%1,             Andrew S.%Dunn%NULL%1,             Michael E.%Farkouh%NULL%1,             Benjamin S.%Glicksberg%NULL%1,             Arash%Kia%NULL%1,             Roopa%Kohli-Seth%NULL%1,             Matthew A.%Levin%NULL%1,             Prem%Timsina%NULL%1,             Shan%Zhao%NULL%1,             Zahi A.%Fayad%NULL%5,             Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,             Kiran T.%Thakur%NULL%2,             Kiran T.%Thakur%NULL%0,             Anna S.%Nordvig%NULL%1,             Morgan L.%Prust%NULL%1,             William%Roth%NULL%1,             Angela%Lignelli%NULL%1,             Anne-Catrin%Uhlemann%NULL%1,             Emily Happy%Miller%NULL%1,             Shajo%Kunnath-Velayudhan%NULL%1,             Armando%Del Portillo%NULL%1,             Yang%Liu%NULL%1,             Gunnar%Hargus%NULL%1,             Andrew F.%Teich%NULL%1,             Richard A.%Hickman%NULL%1,             Kurenai%Tanji%NULL%1,             James E.%Goldman%NULL%1,             Phyllis L.%Faust%NULL%1,             Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,             Lilioara-Alexandra%Muja%NULL%2,             Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,             Chen%Shao%NULL%2,             Chen%Shao%NULL%0,             Xiao-jie%Huang%NULL%1,             Lin%Sun%NULL%1,             Ling-jia%Meng%NULL%1,             Hui%Liu%NULL%2,             Shi-jie%Zhang%NULL%1,             Hong-jun%Li%NULL%1,             Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,           Ficken%C.%coreGivesNoEmail%1,           Goddard%M.%coreGivesNoEmail%1,           Jensen%M. P.%coreGivesNoEmail%1,           Le%Quesne J.%coreGivesNoEmail%1,           Menon%D.%coreGivesNoEmail%1,           Officer\u2010Jones%L.%coreGivesNoEmail%1,           Smith%C.%coreGivesNoEmail%1,           Teod\u00f2sio%A.%coreGivesNoEmail%1,           Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,             Maria%Mostyka%NULL%1,             Alicia%Dillard%NULL%1,             Diana R.%Berman%NULL%1,             Lucy X.%Ma%NULL%1,             Amy%Chadburn%NULL%1,             Rhonda K.%Yantiss%NULL%1,             Jose%Jessurun%NULL%1,             Surya V.%Seshan%NULL%1,             Alain C.%Borczuk%NULL%1,             Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,             Kikkeri N%Naresh%NULL%1,             Candice%Roufosse%NULL%1,             Andrew G%Nicholson%NULL%1,             Justin%Weir%NULL%1,             Graham S%Cooke%NULL%1,             Mark%Thursz%NULL%1,             Pinelopi%Manousou%NULL%1,             Richard%Corbett%NULL%1,             Robert%Goldin%NULL%1,             Safa%Al-Sarraj%NULL%1,             Alireza%Abdolrasouli%NULL%1,             Olivia C%Swann%NULL%1,             Laury%Baillon%NULL%1,             Rebecca%Penn%NULL%1,             Wendy S%Barclay%NULL%1,             Patrizia%Viola%NULL%1,             Michael%Osborn%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2805,7 +2922,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>605</v>
+        <v>644</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -2834,7 +2951,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>606</v>
+        <v>645</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2863,7 +2980,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>607</v>
+        <v>646</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -2892,7 +3009,7 @@
         <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>608</v>
+        <v>647</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -2921,7 +3038,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>609</v>
+        <v>648</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -2950,7 +3067,7 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>610</v>
+        <v>649</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -2979,7 +3096,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>611</v>
+        <v>650</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
@@ -3008,7 +3125,7 @@
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>612</v>
+        <v>651</v>
       </c>
       <c r="F9" t="s">
         <v>78</v>
@@ -3037,7 +3154,7 @@
         <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>613</v>
+        <v>652</v>
       </c>
       <c r="F10" t="s">
         <v>84</v>
@@ -3066,7 +3183,7 @@
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>614</v>
+        <v>653</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
@@ -3095,7 +3212,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>615</v>
+        <v>654</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -3124,7 +3241,7 @@
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>616</v>
+        <v>655</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
@@ -3153,7 +3270,7 @@
         <v>571</v>
       </c>
       <c r="E14" t="s">
-        <v>617</v>
+        <v>656</v>
       </c>
       <c r="F14" t="s">
         <v>101</v>
@@ -3182,7 +3299,7 @@
         <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>618</v>
+        <v>657</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -3211,7 +3328,7 @@
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>619</v>
+        <v>658</v>
       </c>
       <c r="F16" t="s">
         <v>106</v>
@@ -3240,7 +3357,7 @@
         <v>575</v>
       </c>
       <c r="E17" t="s">
-        <v>620</v>
+        <v>659</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -3269,7 +3386,7 @@
         <v>577</v>
       </c>
       <c r="E18" t="s">
-        <v>621</v>
+        <v>660</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -3298,7 +3415,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>622</v>
+        <v>661</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -3327,7 +3444,7 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>623</v>
+        <v>662</v>
       </c>
       <c r="F20" t="s">
         <v>123</v>
@@ -3356,7 +3473,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>624</v>
+        <v>663</v>
       </c>
       <c r="F21" t="s">
         <v>127</v>
@@ -3385,7 +3502,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>625</v>
+        <v>664</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -3414,7 +3531,7 @@
         <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>626</v>
+        <v>665</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -3443,7 +3560,7 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>627</v>
+        <v>666</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -3472,7 +3589,7 @@
         <v>421</v>
       </c>
       <c r="E25" t="s">
-        <v>628</v>
+        <v>667</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -3501,7 +3618,7 @@
         <v>586</v>
       </c>
       <c r="E26" t="s">
-        <v>629</v>
+        <v>668</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
@@ -3530,7 +3647,7 @@
         <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>630</v>
+        <v>669</v>
       </c>
       <c r="F27" t="s">
         <v>150</v>
@@ -3559,7 +3676,7 @@
         <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>631</v>
+        <v>670</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -3588,7 +3705,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>632</v>
+        <v>671</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -3617,7 +3734,7 @@
         <v>429</v>
       </c>
       <c r="E30" t="s">
-        <v>633</v>
+        <v>672</v>
       </c>
       <c r="F30" t="s">
         <v>32</v>
@@ -3646,7 +3763,7 @@
         <v>592</v>
       </c>
       <c r="E31" t="s">
-        <v>634</v>
+        <v>673</v>
       </c>
       <c r="F31" t="s">
         <v>165</v>
@@ -3675,7 +3792,7 @@
         <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>635</v>
+        <v>674</v>
       </c>
       <c r="F32" t="s">
         <v>170</v>
@@ -3704,7 +3821,7 @@
         <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>636</v>
+        <v>675</v>
       </c>
       <c r="F33" t="s">
         <v>175</v>
@@ -3733,7 +3850,7 @@
         <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>637</v>
+        <v>676</v>
       </c>
       <c r="F34" t="s">
         <v>179</v>
@@ -3762,7 +3879,7 @@
         <v>597</v>
       </c>
       <c r="E35" t="s">
-        <v>638</v>
+        <v>677</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -3791,7 +3908,7 @@
         <v>599</v>
       </c>
       <c r="E36" t="s">
-        <v>639</v>
+        <v>678</v>
       </c>
       <c r="F36" t="s">
         <v>189</v>
@@ -3820,7 +3937,7 @@
         <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>640</v>
+        <v>679</v>
       </c>
       <c r="F37" t="s">
         <v>194</v>
@@ -3849,7 +3966,7 @@
         <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>641</v>
+        <v>680</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -3878,7 +3995,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>642</v>
+        <v>681</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -3907,7 +4024,7 @@
         <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>643</v>
+        <v>682</v>
       </c>
       <c r="F40" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/11.xlsx
+++ b/Covid_19_Dataset_and_References/References/11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3964" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4244" uniqueCount="722">
   <si>
     <t>Doi</t>
   </si>
@@ -2527,6 +2527,123 @@
   </si>
   <si>
     <t>[Brian%Hanley%NULL%1,             Kikkeri N%Naresh%NULL%1,             Candice%Roufosse%NULL%1,             Andrew G%Nicholson%NULL%1,             Justin%Weir%NULL%1,             Graham S%Cooke%NULL%1,             Mark%Thursz%NULL%1,             Pinelopi%Manousou%NULL%1,             Richard%Corbett%NULL%1,             Robert%Goldin%NULL%1,             Safa%Al-Sarraj%NULL%1,             Alireza%Abdolrasouli%NULL%1,             Olivia C%Swann%NULL%1,             Laury%Baillon%NULL%1,             Rebecca%Penn%NULL%1,             Wendy S%Barclay%NULL%1,             Patrizia%Viola%NULL%1,             Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,              Renata A A%Monteiro%NULL%2,              Renata A A%Monteiro%NULL%0,              Luiz F F%da Silva%NULL%1,              Denise M A C%Malheiros%NULL%1,              Ellen P%de Oliveira%NULL%1,              Jair%Theodoro‐Filho%NULL%1,              João R R%Pinho%NULL%1,              Michele S%Gomes‐Gouvêa%NULL%1,              Ana P M%Salles%NULL%1,              Ilka R S%de Oliveira%NULL%1,              Thais%Mauad%NULL%1,              Paulo H N%Saldiva%NULL%1,              Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,            Burkhardt%Katrin%coreGivesNoEmail%1,            Claus%Rainer%coreGivesNoEmail%1,            Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,            M\u00e4rkl%Bruno%coreGivesNoEmail%1,            Schaller%Tina%coreGivesNoEmail%1,            Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,              Dwayne A.%Wolf%NULL%1,              Bihong%Zhao%NULL%1,              Bindu%Akkanti%NULL%1,              Michelle%McDonald%NULL%1,              Laura%Lelenwa%NULL%1,              Noah%Reilly%NULL%1,              Giulia%Ottaviani%NULL%1,              M. Tarek%Elghetany%NULL%1,              Daniel Ocazionez%Trujillo%NULL%1,              Gabriel M.%Aisenberg%NULL%1,              Mohammad%Madjid%NULL%1,              Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Yan%xref no email%1,        Mahnoor%Mir%xref no email%1,        Paloma%Sanchez%xref no email%1,        Moeezullah%Beg%xref no email%1,        Jay%Peters%xref no email%1,        Omar%Enriquez%xref no email%1,        Andrea%Gilbert%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,              Erin G.%Brooks%NULL%1,              Joshua%Akers%NULL%1,              Danielle%Armstrong%NULL%1,              Lauren%Decker%NULL%1,              Adam%Gonzalez%NULL%1,              William%Humphrey%NULL%1,              Romana%Mayer%NULL%1,              Matthew%Miller%NULL%1,              Catherine%Perez%NULL%1,              Jose Antonio Ruiz%Arango%NULL%1,              Lakshmanan%Sathyavagiswaran%NULL%1,              Wendy%Stroh%NULL%1,              Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,              Jan-Peter%Sperhake%NULL%2,              Marc%Lütgehetmann%NULL%2,              Stefan%Steurer%NULL%2,              Carolin%Edler%NULL%1,              Axel%Heinemann%NULL%2,              Fabian%Heinrich%NULL%2,              Herbert%Mushumba%NULL%2,              Inga%Kniep%NULL%1,              Ann Sophie%Schröder%NULL%2,              Christoph%Burdelski%NULL%2,              Geraldine%de Heer%NULL%2,              Axel%Nierhaus%NULL%2,              Daniel%Frings%NULL%2,              Susanne%Pfefferle%NULL%1,              Heinrich%Becker%NULL%1,              Hanns%Bredereke-Wiedling%NULL%1,              Andreas%de Weerth%NULL%2,              Hans-Richard%Paschen%NULL%1,              Sara%Sheikhzadeh-Eggers%NULL%1,              Axel%Stang%NULL%1,              Stefan%Schmiedel%NULL%1,              Carsten%Bokemeyer%NULL%1,              Marylyn M.%Addo%NULL%1,              Martin%Aepfelbacher%NULL%2,              Klaus%Püschel%NULL%2,              Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,              Jasmin D%Haslbauer%NULL%4,              Jasmin D%Haslbauer%NULL%0,              Ronny%Nienhold%NULL%2,              Spasenija%Savic%NULL%2,              Helmut%Hopfer%NULL%2,              Nikolaus%Deigendesch%NULL%2,              Stephan%Frank%NULL%2,              Daniel%Turek%NULL%2,              Niels%Willi%NULL%2,              Hans%Pargger%NULL%2,              Stefano%Bassetti%NULL%2,              Joerg D%Leuppi%NULL%2,              Gieri%Cathomas%NULL%2,              Markus%Tolnay%NULL%2,              Kirsten D%Mertz%NULL%2,              Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,              Jasmin D%Haslbauer%NULL%0,              Jasmin D%Haslbauer%NULL%0,              Ronny%Nienhold%NULL%0,              Spasenija%Savic%NULL%0,              Helmut%Hopfer%NULL%0,              Nikolaus%Deigendesch%NULL%0,              Stephan%Frank%NULL%0,              Daniel%Turek%NULL%0,              Niels%Willi%NULL%0,              Hans%Pargger%NULL%0,              Stefano%Bassetti%NULL%0,              Joerg D%Leuppi%NULL%0,              Gieri%Cathomas%NULL%0,              Markus%Tolnay%NULL%0,              Kirsten D%Mertz%NULL%0,              Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,              Andreas J%Flammer%NULL%1,              Peter%Steiger%NULL%1,              Martina%Haberecker%NULL%1,              Rea%Andermatt%NULL%1,              Annelies S%Zinkernagel%NULL%1,              Mandeep R%Mehra%NULL%1,              Reto A%Schuepbach%NULL%1,              Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,              Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,              Yong%Xiong%NULL%0,              Huan%Liu%NULL%3,              Li%Niu%NULL%1,              Jianchun%Guo%NULL%1,              Meiyan%Liao%NULL%1,              Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,              Eric J%Duval%NULL%1,              Edana%Stroberg%NULL%1,              Subha%Ghosh%NULL%1,              Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,              Pilar%Alemany Monraval%NULL%1,              Carmen%Medina Medina%NULL%1,              Ana%Jiménez Sánchez%NULL%1,              Juan Carlos%Andrés Teruel%NULL%1,              José%Ferrando Marco%NULL%1,              Víctor%Puglia Santos%NULL%1,              Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,              Ann Sophie%Schröder%NULL%0,              Martin%Aepfelbacher%NULL%0,              Antonia%Fitzek%NULL%1,              Axel%Heinemann%NULL%0,              Fabian%Heinrich%NULL%0,              Anke%Klein%NULL%1,              Felicia%Langenwalder%NULL%1,              Marc%Lütgehetmann%NULL%0,              Kira%Meißner%NULL%1,              Klaus%Püschel%NULL%0,              Julia%Schädler%NULL%1,              Stefan%Steurer%NULL%0,              Herbert%Mushumba%NULL%0,              Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,            Blankenberg%Stefan S%coreGivesNoEmail%1,            Brauninger%Hanna%coreGivesNoEmail%1,            Edler%Caroline%coreGivesNoEmail%1,            Escher%Felicitas%coreGivesNoEmail%1,            Fitzek%Antonia%coreGivesNoEmail%1,            Kirchhof%Paulus%coreGivesNoEmail%1,            Lindner%Diana%coreGivesNoEmail%1,            Meissner%Kira%coreGivesNoEmail%1,            Puschel%Klaus%coreGivesNoEmail%1,            Scherschel%Katharina%coreGivesNoEmail%1,            Schultheiss%Heinz-Peter%coreGivesNoEmail%1,            Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,              Holly%Harper%NULL%1,              Behtash G%Nezami%NULL%1,              Daniel L%Shen%NULL%1,              Simona Pichler%Sekulic%NULL%1,              Aaron T%Koeth%NULL%1,              Clifford V%Harding%NULL%1,              Hannah%Gilmore%NULL%1,              Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,              Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,              Johannes Alexander%Lobrinus%NULL%2,              Johannes Alexander%Lobrinus%NULL%0,              Manuel%Schibler%NULL%1,              Tony%Fracasso%NULL%1,              Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,              Aibek%Akmatbekov%NULL%1,              Jack L%Harbert%NULL%1,              Guang%Li%NULL%1,              J%Quincy Brown%NULL%1,              Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,              Behnaz%Jahanbin%NULL%1,              Masoomeh%Safaei%NULL%1,              Laya%Amoozadeh%NULL%1,              Meysam%Khoshavi%NULL%1,              Vahid%Mehrtash%NULL%1,              Bita%Jafarzadeh%NULL%1,              Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,              Jing%Xie%NULL%2,              Lei%Zhao%NULL%1,              Xiaochun%Fei%NULL%1,              Heng%Zhang%NULL%1,              Yun%Tan%NULL%1,              Xiu%Nie%NULL%1,              Luting%Zhou%NULL%1,              Zhenhua%Liu%NULL%1,              Yong%Ren%NULL%1,              Ling%Yuan%NULL%1,              Yu%Zhang%NULL%1,              Jinsheng%Zhang%NULL%1,              Liwei%Liang%NULL%1,              Xinwei%Chen%NULL%1,              Xin%Liu%NULL%1,              Peng%Wang%NULL%1,              Xiao%Han%NULL%1,              Xiangqin%Weng%NULL%1,              Ying%Chen%NULL%1,              Ting%Yu%NULL%0,              Xinxin%Zhang%NULL%0,              Jun%Cai%caijun@shsmu.edu.cn%1,              Rong%Chen%crjudy@126.com%2,              Zhengli%Shi%zlshi@wh.iov.cn%2,              Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,              Selina%Traxler%NULL%2,              Selina%Traxler%NULL%0,              Michael%Bitzer%NULL%1,              Helene%Häberle%NULL%1,              Wolfgang%Raiser%NULL%1,              Dominik%Nann%NULL%1,              Leonie%Frauenfeld%NULL%1,              Antonio%Vogelsberg%NULL%1,              Karin%Klingel%NULL%1,              Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,              Thomas%Ruder%NULL%1,              Rilana%Baumeister%NULL%1,              Stephan%Bolliger%NULL%1,              Michael%Thali%NULL%1,              Eva%Meixner%NULL%1,              Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,              Lei%Shi%NULL%1,              Yijin%Wang%NULL%1,              Jiyuan%Zhang%NULL%1,              Lei%Huang%NULL%2,              Chao%Zhang%NULL%1,              Shuhong%Liu%NULL%1,              Peng%Zhao%NULL%1,              Hongxia%Liu%NULL%1,              Li%Zhu%NULL%1,              Yanhong%Tai%NULL%1,              Changqing%Bai%NULL%1,              Tingting%Gao%NULL%1,              Jinwen%Song%NULL%1,              Peng%Xia%NULL%1,              Jinghui%Dong%NULL%1,              Jingmin%Zhao%NULL%1,              Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Esther%Youd%xref no email%1,        Luiza%Moore%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,              Benjamin%Gaborit%NULL%2,              Benjamin%Gaborit%NULL%0,              Claire%Toquet%NULL%1,              Louise%Castain%NULL%1,              Antonin%Bal%NULL%1,              Pierre Paul%Arrigoni%NULL%1,              Raphaël%Lecomte%NULL%1,              Renaud%Clement%NULL%1,              Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,              Radu Lucian%Buzulică%NULL%1,              Daniel%Pirici%NULL%1,              Mihail Constantin%Ceauşu%NULL%1,              Radu Vasile%Iman%NULL%1,              Ovidiu-Mircea%Gheorghe%NULL%1,              Simona Daniela%Neamţu%NULL%1,              Liliana%Stanca%NULL%1,              Răzvan%Ene%NULL%1,              Samir%Kumar-Singh%NULL%1,              Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,              Alexander%Leunig%NULL%1,              Sophia%Brambs%NULL%1,              Rainer%Kaiser%NULL%1,              Tobias%Weinberger%NULL%1,              Michael%Weigand%NULL%1,              Maximilian%Muenchhoff%NULL%1,              Johannes C.%Hellmuth%NULL%1,              Stephan%Ledderose%NULL%1,              Heiko%Schulz%NULL%1,              Clemens%Scherer%NULL%1,              Martina%Rudelius%NULL%1,              Michael%Zoller%NULL%1,              Dominik%Höchter%NULL%1,              Oliver%Keppler%NULL%1,              Daniel%Teupser%NULL%1,              Bernhard%Zwißler%NULL%1,              Michael%von Bergwelt-Baildon%NULL%1,              Stefan%Kääb%NULL%1,              Steffen%Massberg%NULL%1,              Kami%Pekayvaz%NULL%1,              Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,              Alexandra%Grosse%NULL%1,              Helmut J.F.%Salzer%NULL%1,              Martin W.%Dünser%NULL%1,              Reinhard%Motz%NULL%1,              Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna Ferl\u00f8v%Schwensen%xref no email%1,        Line Kristine%Borreschmidt%xref no email%1,        Merete%Storgaard%xref no email%1,        S\u00f8ren%Redsted%xref no email%1,        Steffen%Christensen%xref no email%1,        Line Bille%Madsen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,              Ricardo%De Mendonça%NULL%1,              Nicky%D’Haene%NULL%1,              Sarah%De Clercq%NULL%1,              Camille%Verocq%NULL%1,              Laetitia%Lebrun%NULL%1,              Philomène%Lavis%NULL%1,              Marie-Lucie%Racu%NULL%1,              Anne-Laure%Trépant%NULL%1,              Calliope%Maris%NULL%1,              Sandrine%Rorive%NULL%1,              Jean-Christophe%Goffard%NULL%1,              Olivier%De Witte%NULL%1,              Lorenzo%Peluso%NULL%1,              Jean-Louis%Vincent%NULL%1,              Christine%Decaestecker%NULL%1,              Fabio Silvio%Taccone%NULL%1,              Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,              Hiroyuki%Hayashi%NULL%2,              Hiroyuki%Hayashi%NULL%0,              Yukihiro%Yoshimura%NULL%1,              Hiroaki%Sasaki%NULL%1,              Hiroshi%Horiuchi%NULL%1,              Nobuyuki%Miyata%NULL%1,              Natsuo%Tachikawa%NULL%1,              Yuki%Tsuchiya%NULL%1,              Hideaki%Mitsui%NULL%1,              Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,              Ja-Mun%Chong%NULL%1,              Noriko%Nakajima%NULL%1,              Masahiro%Sano%NULL%1,              Jun%Yamazaki%NULL%1,              Ippei%Miyamoto%NULL%1,              Haruka%Nishioka%NULL%1,              Hidetaka%Akita%NULL%1,              Yuko%Sato%NULL%1,              Michiyo%Kataoka%NULL%1,              Harutaka%Katano%NULL%1,              Minoru%Tobiume%NULL%1,              Tsuyoshi%Sekizuka%NULL%1,              Kentaro%Itokawa%NULL%1,              Makoto%Kuroda%NULL%1,              Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,              Anuradha%Lala%NULL%1,              Emilia%Bagiella%NULL%1,              Helena L.%Chang%NULL%1,              Pedro R.%Moreno%NULL%1,              Elisabet%Pujadas%NULL%1,              Varun%Arvind%NULL%1,              Sonali%Bose%NULL%1,              Alexander W.%Charney%NULL%1,              Martin D.%Chen%NULL%1,              Carlos%Cordon-Cardo%NULL%1,              Andrew S.%Dunn%NULL%1,              Michael E.%Farkouh%NULL%1,              Benjamin S.%Glicksberg%NULL%1,              Arash%Kia%NULL%1,              Roopa%Kohli-Seth%NULL%1,              Matthew A.%Levin%NULL%1,              Prem%Timsina%NULL%1,              Shan%Zhao%NULL%1,              Zahi A.%Fayad%NULL%5,              Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,              Kiran T.%Thakur%NULL%2,              Kiran T.%Thakur%NULL%0,              Anna S.%Nordvig%NULL%1,              Morgan L.%Prust%NULL%1,              William%Roth%NULL%1,              Angela%Lignelli%NULL%1,              Anne-Catrin%Uhlemann%NULL%1,              Emily Happy%Miller%NULL%1,              Shajo%Kunnath-Velayudhan%NULL%1,              Armando%Del Portillo%NULL%1,              Yang%Liu%NULL%1,              Gunnar%Hargus%NULL%1,              Andrew F.%Teich%NULL%1,              Richard A.%Hickman%NULL%1,              Kurenai%Tanji%NULL%1,              James E.%Goldman%NULL%1,              Phyllis L.%Faust%NULL%1,              Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,              Lilioara-Alexandra%Muja%NULL%2,              Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,              Chen%Shao%NULL%2,              Chen%Shao%NULL%0,              Xiao-jie%Huang%NULL%1,              Lin%Sun%NULL%1,              Ling-jia%Meng%NULL%1,              Hui%Liu%NULL%2,              Shi-jie%Zhang%NULL%1,              Hong-jun%Li%NULL%1,              Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,            Ficken%C.%coreGivesNoEmail%1,            Goddard%M.%coreGivesNoEmail%1,            Jensen%M. P.%coreGivesNoEmail%1,            Le%Quesne J.%coreGivesNoEmail%1,            Menon%D.%coreGivesNoEmail%1,            Officer\u2010Jones%L.%coreGivesNoEmail%1,            Smith%C.%coreGivesNoEmail%1,            Teod\u00f2sio%A.%coreGivesNoEmail%1,            Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,              Maria%Mostyka%NULL%1,              Alicia%Dillard%NULL%1,              Diana R.%Berman%NULL%1,              Lucy X.%Ma%NULL%1,              Amy%Chadburn%NULL%1,              Rhonda K.%Yantiss%NULL%1,              Jose%Jessurun%NULL%1,              Surya V.%Seshan%NULL%1,              Alain C.%Borczuk%NULL%1,              Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,              Kikkeri N%Naresh%NULL%1,              Candice%Roufosse%NULL%1,              Andrew G%Nicholson%NULL%1,              Justin%Weir%NULL%1,              Graham S%Cooke%NULL%1,              Mark%Thursz%NULL%1,              Pinelopi%Manousou%NULL%1,              Richard%Corbett%NULL%1,              Robert%Goldin%NULL%1,              Safa%Al-Sarraj%NULL%1,              Alireza%Abdolrasouli%NULL%1,              Olivia C%Swann%NULL%1,              Laury%Baillon%NULL%1,              Rebecca%Penn%NULL%1,              Wendy S%Barclay%NULL%1,              Patrizia%Viola%NULL%1,              Michael%Osborn%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -2922,7 +3039,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>644</v>
+        <v>683</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -2951,7 +3068,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>645</v>
+        <v>684</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -2980,7 +3097,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>646</v>
+        <v>685</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -3009,7 +3126,7 @@
         <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>647</v>
+        <v>686</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -3038,7 +3155,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>648</v>
+        <v>687</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -3067,7 +3184,7 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>649</v>
+        <v>688</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -3096,7 +3213,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>650</v>
+        <v>689</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
@@ -3125,7 +3242,7 @@
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>651</v>
+        <v>690</v>
       </c>
       <c r="F9" t="s">
         <v>78</v>
@@ -3154,7 +3271,7 @@
         <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>652</v>
+        <v>691</v>
       </c>
       <c r="F10" t="s">
         <v>84</v>
@@ -3183,7 +3300,7 @@
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>653</v>
+        <v>692</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
@@ -3212,7 +3329,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>654</v>
+        <v>693</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -3241,7 +3358,7 @@
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>655</v>
+        <v>694</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
@@ -3270,7 +3387,7 @@
         <v>571</v>
       </c>
       <c r="E14" t="s">
-        <v>656</v>
+        <v>695</v>
       </c>
       <c r="F14" t="s">
         <v>101</v>
@@ -3299,7 +3416,7 @@
         <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>657</v>
+        <v>696</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -3328,7 +3445,7 @@
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>658</v>
+        <v>697</v>
       </c>
       <c r="F16" t="s">
         <v>106</v>
@@ -3357,7 +3474,7 @@
         <v>575</v>
       </c>
       <c r="E17" t="s">
-        <v>659</v>
+        <v>698</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -3386,7 +3503,7 @@
         <v>577</v>
       </c>
       <c r="E18" t="s">
-        <v>660</v>
+        <v>699</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -3415,7 +3532,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>661</v>
+        <v>700</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -3444,7 +3561,7 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>662</v>
+        <v>701</v>
       </c>
       <c r="F20" t="s">
         <v>123</v>
@@ -3473,7 +3590,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>663</v>
+        <v>702</v>
       </c>
       <c r="F21" t="s">
         <v>127</v>
@@ -3502,7 +3619,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>664</v>
+        <v>703</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -3531,7 +3648,7 @@
         <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>665</v>
+        <v>704</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -3560,7 +3677,7 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>666</v>
+        <v>705</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -3589,7 +3706,7 @@
         <v>421</v>
       </c>
       <c r="E25" t="s">
-        <v>667</v>
+        <v>706</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -3618,7 +3735,7 @@
         <v>586</v>
       </c>
       <c r="E26" t="s">
-        <v>668</v>
+        <v>707</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
@@ -3647,7 +3764,7 @@
         <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>669</v>
+        <v>708</v>
       </c>
       <c r="F27" t="s">
         <v>150</v>
@@ -3676,7 +3793,7 @@
         <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>670</v>
+        <v>709</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -3705,7 +3822,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>671</v>
+        <v>710</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -3734,7 +3851,7 @@
         <v>429</v>
       </c>
       <c r="E30" t="s">
-        <v>672</v>
+        <v>711</v>
       </c>
       <c r="F30" t="s">
         <v>32</v>
@@ -3763,7 +3880,7 @@
         <v>592</v>
       </c>
       <c r="E31" t="s">
-        <v>673</v>
+        <v>712</v>
       </c>
       <c r="F31" t="s">
         <v>165</v>
@@ -3792,7 +3909,7 @@
         <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>674</v>
+        <v>713</v>
       </c>
       <c r="F32" t="s">
         <v>170</v>
@@ -3821,7 +3938,7 @@
         <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>675</v>
+        <v>714</v>
       </c>
       <c r="F33" t="s">
         <v>175</v>
@@ -3850,7 +3967,7 @@
         <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>676</v>
+        <v>715</v>
       </c>
       <c r="F34" t="s">
         <v>179</v>
@@ -3879,7 +3996,7 @@
         <v>597</v>
       </c>
       <c r="E35" t="s">
-        <v>677</v>
+        <v>716</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -3908,7 +4025,7 @@
         <v>599</v>
       </c>
       <c r="E36" t="s">
-        <v>678</v>
+        <v>717</v>
       </c>
       <c r="F36" t="s">
         <v>189</v>
@@ -3937,7 +4054,7 @@
         <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>679</v>
+        <v>718</v>
       </c>
       <c r="F37" t="s">
         <v>194</v>
@@ -3966,7 +4083,7 @@
         <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>680</v>
+        <v>719</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -3995,7 +4112,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>681</v>
+        <v>720</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -4024,7 +4141,7 @@
         <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>682</v>
+        <v>721</v>
       </c>
       <c r="F40" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/11.xlsx
+++ b/Covid_19_Dataset_and_References/References/11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4244" uniqueCount="722">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="800">
   <si>
     <t>Doi</t>
   </si>
@@ -2644,6 +2644,240 @@
   </si>
   <si>
     <t>[Brian%Hanley%NULL%1,              Kikkeri N%Naresh%NULL%1,              Candice%Roufosse%NULL%1,              Andrew G%Nicholson%NULL%1,              Justin%Weir%NULL%1,              Graham S%Cooke%NULL%1,              Mark%Thursz%NULL%1,              Pinelopi%Manousou%NULL%1,              Richard%Corbett%NULL%1,              Robert%Goldin%NULL%1,              Safa%Al-Sarraj%NULL%1,              Alireza%Abdolrasouli%NULL%1,              Olivia C%Swann%NULL%1,              Laury%Baillon%NULL%1,              Rebecca%Penn%NULL%1,              Wendy S%Barclay%NULL%1,              Patrizia%Viola%NULL%1,              Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,               Renata A A%Monteiro%NULL%2,               Renata A A%Monteiro%NULL%0,               Luiz F F%da Silva%NULL%1,               Denise M A C%Malheiros%NULL%1,               Ellen P%de Oliveira%NULL%1,               Jair%Theodoro‐Filho%NULL%1,               João R R%Pinho%NULL%1,               Michele S%Gomes‐Gouvêa%NULL%1,               Ana P M%Salles%NULL%1,               Ilka R S%de Oliveira%NULL%1,               Thais%Mauad%NULL%1,               Paulo H N%Saldiva%NULL%1,               Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,             Burkhardt%Katrin%coreGivesNoEmail%1,             Claus%Rainer%coreGivesNoEmail%1,             Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,             M\u00e4rkl%Bruno%coreGivesNoEmail%1,             Schaller%Tina%coreGivesNoEmail%1,             Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,               Dwayne A.%Wolf%NULL%1,               Bihong%Zhao%NULL%1,               Bindu%Akkanti%NULL%1,               Michelle%McDonald%NULL%1,               Laura%Lelenwa%NULL%1,               Noah%Reilly%NULL%1,               Giulia%Ottaviani%NULL%1,               M. Tarek%Elghetany%NULL%1,               Daniel Ocazionez%Trujillo%NULL%1,               Gabriel M.%Aisenberg%NULL%1,               Mohammad%Madjid%NULL%1,               Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Yan%xref no email%1,         Mahnoor%Mir%xref no email%1,         Paloma%Sanchez%xref no email%1,         Moeezullah%Beg%xref no email%1,         Jay%Peters%xref no email%1,         Omar%Enriquez%xref no email%1,         Andrea%Gilbert%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,               Erin G.%Brooks%NULL%1,               Joshua%Akers%NULL%1,               Danielle%Armstrong%NULL%1,               Lauren%Decker%NULL%1,               Adam%Gonzalez%NULL%1,               William%Humphrey%NULL%1,               Romana%Mayer%NULL%1,               Matthew%Miller%NULL%1,               Catherine%Perez%NULL%1,               Jose Antonio Ruiz%Arango%NULL%1,               Lakshmanan%Sathyavagiswaran%NULL%1,               Wendy%Stroh%NULL%1,               Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,               Jan-Peter%Sperhake%NULL%2,               Marc%Lütgehetmann%NULL%2,               Stefan%Steurer%NULL%2,               Carolin%Edler%NULL%1,               Axel%Heinemann%NULL%2,               Fabian%Heinrich%NULL%2,               Herbert%Mushumba%NULL%2,               Inga%Kniep%NULL%1,               Ann Sophie%Schröder%NULL%2,               Christoph%Burdelski%NULL%2,               Geraldine%de Heer%NULL%2,               Axel%Nierhaus%NULL%2,               Daniel%Frings%NULL%2,               Susanne%Pfefferle%NULL%1,               Heinrich%Becker%NULL%1,               Hanns%Bredereke-Wiedling%NULL%1,               Andreas%de Weerth%NULL%2,               Hans-Richard%Paschen%NULL%1,               Sara%Sheikhzadeh-Eggers%NULL%1,               Axel%Stang%NULL%1,               Stefan%Schmiedel%NULL%1,               Carsten%Bokemeyer%NULL%1,               Marylyn M.%Addo%NULL%1,               Martin%Aepfelbacher%NULL%2,               Klaus%Püschel%NULL%2,               Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,               Jasmin D%Haslbauer%NULL%4,               Jasmin D%Haslbauer%NULL%0,               Ronny%Nienhold%NULL%2,               Spasenija%Savic%NULL%2,               Helmut%Hopfer%NULL%2,               Nikolaus%Deigendesch%NULL%2,               Stephan%Frank%NULL%2,               Daniel%Turek%NULL%2,               Niels%Willi%NULL%2,               Hans%Pargger%NULL%2,               Stefano%Bassetti%NULL%2,               Joerg D%Leuppi%NULL%2,               Gieri%Cathomas%NULL%2,               Markus%Tolnay%NULL%2,               Kirsten D%Mertz%NULL%2,               Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,               Jasmin D%Haslbauer%NULL%0,               Jasmin D%Haslbauer%NULL%0,               Ronny%Nienhold%NULL%0,               Spasenija%Savic%NULL%0,               Helmut%Hopfer%NULL%0,               Nikolaus%Deigendesch%NULL%0,               Stephan%Frank%NULL%0,               Daniel%Turek%NULL%0,               Niels%Willi%NULL%0,               Hans%Pargger%NULL%0,               Stefano%Bassetti%NULL%0,               Joerg D%Leuppi%NULL%0,               Gieri%Cathomas%NULL%0,               Markus%Tolnay%NULL%0,               Kirsten D%Mertz%NULL%0,               Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,               Andreas J%Flammer%NULL%1,               Peter%Steiger%NULL%1,               Martina%Haberecker%NULL%1,               Rea%Andermatt%NULL%1,               Annelies S%Zinkernagel%NULL%1,               Mandeep R%Mehra%NULL%1,               Reto A%Schuepbach%NULL%1,               Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,               Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,               Yong%Xiong%NULL%0,               Huan%Liu%NULL%3,               Li%Niu%NULL%1,               Jianchun%Guo%NULL%1,               Meiyan%Liao%NULL%1,               Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,               Eric J%Duval%NULL%1,               Edana%Stroberg%NULL%1,               Subha%Ghosh%NULL%1,               Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,               Pilar%Alemany Monraval%NULL%1,               Carmen%Medina Medina%NULL%1,               Ana%Jiménez Sánchez%NULL%1,               Juan Carlos%Andrés Teruel%NULL%1,               José%Ferrando Marco%NULL%1,               Víctor%Puglia Santos%NULL%1,               Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,               Ann Sophie%Schröder%NULL%0,               Martin%Aepfelbacher%NULL%0,               Antonia%Fitzek%NULL%1,               Axel%Heinemann%NULL%0,               Fabian%Heinrich%NULL%0,               Anke%Klein%NULL%1,               Felicia%Langenwalder%NULL%1,               Marc%Lütgehetmann%NULL%0,               Kira%Meißner%NULL%1,               Klaus%Püschel%NULL%0,               Julia%Schädler%NULL%1,               Stefan%Steurer%NULL%0,               Herbert%Mushumba%NULL%0,               Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,             Blankenberg%Stefan S%coreGivesNoEmail%1,             Brauninger%Hanna%coreGivesNoEmail%1,             Edler%Caroline%coreGivesNoEmail%1,             Escher%Felicitas%coreGivesNoEmail%1,             Fitzek%Antonia%coreGivesNoEmail%1,             Kirchhof%Paulus%coreGivesNoEmail%1,             Lindner%Diana%coreGivesNoEmail%1,             Meissner%Kira%coreGivesNoEmail%1,             Puschel%Klaus%coreGivesNoEmail%1,             Scherschel%Katharina%coreGivesNoEmail%1,             Schultheiss%Heinz-Peter%coreGivesNoEmail%1,             Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,               Holly%Harper%NULL%1,               Behtash G%Nezami%NULL%1,               Daniel L%Shen%NULL%1,               Simona Pichler%Sekulic%NULL%1,               Aaron T%Koeth%NULL%1,               Clifford V%Harding%NULL%1,               Hannah%Gilmore%NULL%1,               Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,               Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,               Johannes Alexander%Lobrinus%NULL%2,               Johannes Alexander%Lobrinus%NULL%0,               Manuel%Schibler%NULL%1,               Tony%Fracasso%NULL%1,               Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,               Aibek%Akmatbekov%NULL%1,               Jack L%Harbert%NULL%1,               Guang%Li%NULL%1,               J%Quincy Brown%NULL%1,               Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,               Behnaz%Jahanbin%NULL%1,               Masoomeh%Safaei%NULL%1,               Laya%Amoozadeh%NULL%1,               Meysam%Khoshavi%NULL%1,               Vahid%Mehrtash%NULL%1,               Bita%Jafarzadeh%NULL%1,               Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,               Jing%Xie%NULL%2,               Lei%Zhao%NULL%1,               Xiaochun%Fei%NULL%1,               Heng%Zhang%NULL%1,               Yun%Tan%NULL%1,               Xiu%Nie%NULL%1,               Luting%Zhou%NULL%1,               Zhenhua%Liu%NULL%1,               Yong%Ren%NULL%1,               Ling%Yuan%NULL%1,               Yu%Zhang%NULL%1,               Jinsheng%Zhang%NULL%1,               Liwei%Liang%NULL%1,               Xinwei%Chen%NULL%1,               Xin%Liu%NULL%1,               Peng%Wang%NULL%1,               Xiao%Han%NULL%1,               Xiangqin%Weng%NULL%1,               Ying%Chen%NULL%1,               Ting%Yu%NULL%0,               Xinxin%Zhang%NULL%0,               Jun%Cai%caijun@shsmu.edu.cn%1,               Rong%Chen%crjudy@126.com%2,               Zhengli%Shi%zlshi@wh.iov.cn%2,               Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,               Selina%Traxler%NULL%2,               Selina%Traxler%NULL%0,               Michael%Bitzer%NULL%1,               Helene%Häberle%NULL%1,               Wolfgang%Raiser%NULL%1,               Dominik%Nann%NULL%1,               Leonie%Frauenfeld%NULL%1,               Antonio%Vogelsberg%NULL%1,               Karin%Klingel%NULL%1,               Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,               Thomas%Ruder%NULL%1,               Rilana%Baumeister%NULL%1,               Stephan%Bolliger%NULL%1,               Michael%Thali%NULL%1,               Eva%Meixner%NULL%1,               Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,               Lei%Shi%NULL%1,               Yijin%Wang%NULL%1,               Jiyuan%Zhang%NULL%1,               Lei%Huang%NULL%2,               Chao%Zhang%NULL%1,               Shuhong%Liu%NULL%1,               Peng%Zhao%NULL%1,               Hongxia%Liu%NULL%1,               Li%Zhu%NULL%1,               Yanhong%Tai%NULL%1,               Changqing%Bai%NULL%1,               Tingting%Gao%NULL%1,               Jinwen%Song%NULL%1,               Peng%Xia%NULL%1,               Jinghui%Dong%NULL%1,               Jingmin%Zhao%NULL%1,               Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Esther%Youd%xref no email%1,         Luiza%Moore%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,               Benjamin%Gaborit%NULL%2,               Benjamin%Gaborit%NULL%0,               Claire%Toquet%NULL%1,               Louise%Castain%NULL%1,               Antonin%Bal%NULL%1,               Pierre Paul%Arrigoni%NULL%1,               Raphaël%Lecomte%NULL%1,               Renaud%Clement%NULL%1,               Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,               Radu Lucian%Buzulică%NULL%1,               Daniel%Pirici%NULL%1,               Mihail Constantin%Ceauşu%NULL%1,               Radu Vasile%Iman%NULL%1,               Ovidiu-Mircea%Gheorghe%NULL%1,               Simona Daniela%Neamţu%NULL%1,               Liliana%Stanca%NULL%1,               Răzvan%Ene%NULL%1,               Samir%Kumar-Singh%NULL%1,               Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,               Alexander%Leunig%NULL%1,               Sophia%Brambs%NULL%1,               Rainer%Kaiser%NULL%1,               Tobias%Weinberger%NULL%1,               Michael%Weigand%NULL%1,               Maximilian%Muenchhoff%NULL%1,               Johannes C.%Hellmuth%NULL%1,               Stephan%Ledderose%NULL%1,               Heiko%Schulz%NULL%1,               Clemens%Scherer%NULL%1,               Martina%Rudelius%NULL%1,               Michael%Zoller%NULL%1,               Dominik%Höchter%NULL%1,               Oliver%Keppler%NULL%1,               Daniel%Teupser%NULL%1,               Bernhard%Zwißler%NULL%1,               Michael%von Bergwelt-Baildon%NULL%1,               Stefan%Kääb%NULL%1,               Steffen%Massberg%NULL%1,               Kami%Pekayvaz%NULL%1,               Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,               Alexandra%Grosse%NULL%1,               Helmut J.F.%Salzer%NULL%1,               Martin W.%Dünser%NULL%1,               Reinhard%Motz%NULL%1,               Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna Ferl\u00f8v%Schwensen%xref no email%1,         Line Kristine%Borreschmidt%xref no email%1,         Merete%Storgaard%xref no email%1,         S\u00f8ren%Redsted%xref no email%1,         Steffen%Christensen%xref no email%1,         Line Bille%Madsen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,               Ricardo%De Mendonça%NULL%1,               Nicky%D’Haene%NULL%1,               Sarah%De Clercq%NULL%1,               Camille%Verocq%NULL%1,               Laetitia%Lebrun%NULL%1,               Philomène%Lavis%NULL%1,               Marie-Lucie%Racu%NULL%1,               Anne-Laure%Trépant%NULL%1,               Calliope%Maris%NULL%1,               Sandrine%Rorive%NULL%1,               Jean-Christophe%Goffard%NULL%1,               Olivier%De Witte%NULL%1,               Lorenzo%Peluso%NULL%1,               Jean-Louis%Vincent%NULL%1,               Christine%Decaestecker%NULL%1,               Fabio Silvio%Taccone%NULL%1,               Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,               Hiroyuki%Hayashi%NULL%2,               Hiroyuki%Hayashi%NULL%0,               Yukihiro%Yoshimura%NULL%1,               Hiroaki%Sasaki%NULL%1,               Hiroshi%Horiuchi%NULL%1,               Nobuyuki%Miyata%NULL%1,               Natsuo%Tachikawa%NULL%1,               Yuki%Tsuchiya%NULL%1,               Hideaki%Mitsui%NULL%1,               Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,               Ja-Mun%Chong%NULL%1,               Noriko%Nakajima%NULL%1,               Masahiro%Sano%NULL%1,               Jun%Yamazaki%NULL%1,               Ippei%Miyamoto%NULL%1,               Haruka%Nishioka%NULL%1,               Hidetaka%Akita%NULL%1,               Yuko%Sato%NULL%1,               Michiyo%Kataoka%NULL%1,               Harutaka%Katano%NULL%1,               Minoru%Tobiume%NULL%1,               Tsuyoshi%Sekizuka%NULL%1,               Kentaro%Itokawa%NULL%1,               Makoto%Kuroda%NULL%1,               Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,               Anuradha%Lala%NULL%1,               Emilia%Bagiella%NULL%1,               Helena L.%Chang%NULL%1,               Pedro R.%Moreno%NULL%1,               Elisabet%Pujadas%NULL%1,               Varun%Arvind%NULL%1,               Sonali%Bose%NULL%1,               Alexander W.%Charney%NULL%1,               Martin D.%Chen%NULL%1,               Carlos%Cordon-Cardo%NULL%1,               Andrew S.%Dunn%NULL%1,               Michael E.%Farkouh%NULL%1,               Benjamin S.%Glicksberg%NULL%1,               Arash%Kia%NULL%1,               Roopa%Kohli-Seth%NULL%1,               Matthew A.%Levin%NULL%1,               Prem%Timsina%NULL%1,               Shan%Zhao%NULL%1,               Zahi A.%Fayad%NULL%5,               Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,               Kiran T.%Thakur%NULL%2,               Kiran T.%Thakur%NULL%0,               Anna S.%Nordvig%NULL%1,               Morgan L.%Prust%NULL%1,               William%Roth%NULL%1,               Angela%Lignelli%NULL%1,               Anne-Catrin%Uhlemann%NULL%1,               Emily Happy%Miller%NULL%1,               Shajo%Kunnath-Velayudhan%NULL%1,               Armando%Del Portillo%NULL%1,               Yang%Liu%NULL%1,               Gunnar%Hargus%NULL%1,               Andrew F.%Teich%NULL%1,               Richard A.%Hickman%NULL%1,               Kurenai%Tanji%NULL%1,               James E.%Goldman%NULL%1,               Phyllis L.%Faust%NULL%1,               Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,               Lilioara-Alexandra%Muja%NULL%2,               Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,               Chen%Shao%NULL%2,               Chen%Shao%NULL%0,               Xiao-jie%Huang%NULL%1,               Lin%Sun%NULL%1,               Ling-jia%Meng%NULL%1,               Hui%Liu%NULL%2,               Shi-jie%Zhang%NULL%1,               Hong-jun%Li%NULL%1,               Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,             Ficken%C.%coreGivesNoEmail%1,             Goddard%M.%coreGivesNoEmail%1,             Jensen%M. P.%coreGivesNoEmail%1,             Le%Quesne J.%coreGivesNoEmail%1,             Menon%D.%coreGivesNoEmail%1,             Officer\u2010Jones%L.%coreGivesNoEmail%1,             Smith%C.%coreGivesNoEmail%1,             Teod\u00f2sio%A.%coreGivesNoEmail%1,             Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,               Maria%Mostyka%NULL%1,               Alicia%Dillard%NULL%1,               Diana R.%Berman%NULL%1,               Lucy X.%Ma%NULL%1,               Amy%Chadburn%NULL%1,               Rhonda K.%Yantiss%NULL%1,               Jose%Jessurun%NULL%1,               Surya V.%Seshan%NULL%1,               Alain C.%Borczuk%NULL%1,               Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,               Kikkeri N%Naresh%NULL%1,               Candice%Roufosse%NULL%1,               Andrew G%Nicholson%NULL%1,               Justin%Weir%NULL%1,               Graham S%Cooke%NULL%1,               Mark%Thursz%NULL%1,               Pinelopi%Manousou%NULL%1,               Richard%Corbett%NULL%1,               Robert%Goldin%NULL%1,               Safa%Al-Sarraj%NULL%1,               Alireza%Abdolrasouli%NULL%1,               Olivia C%Swann%NULL%1,               Laury%Baillon%NULL%1,               Rebecca%Penn%NULL%1,               Wendy S%Barclay%NULL%1,               Patrizia%Viola%NULL%1,               Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,                Renata A A%Monteiro%NULL%2,                Renata A A%Monteiro%NULL%0,                Luiz F F%da Silva%NULL%1,                Denise M A C%Malheiros%NULL%1,                Ellen P%de Oliveira%NULL%1,                Jair%Theodoro‐Filho%NULL%1,                João R R%Pinho%NULL%1,                Michele S%Gomes‐Gouvêa%NULL%1,                Ana P M%Salles%NULL%1,                Ilka R S%de Oliveira%NULL%1,                Thais%Mauad%NULL%1,                Paulo H N%Saldiva%NULL%1,                Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,              Burkhardt%Katrin%coreGivesNoEmail%1,              Claus%Rainer%coreGivesNoEmail%1,              Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,              M\u00e4rkl%Bruno%coreGivesNoEmail%1,              Schaller%Tina%coreGivesNoEmail%1,              Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,                Dwayne A.%Wolf%NULL%1,                Bihong%Zhao%NULL%1,                Bindu%Akkanti%NULL%1,                Michelle%McDonald%NULL%1,                Laura%Lelenwa%NULL%1,                Noah%Reilly%NULL%1,                Giulia%Ottaviani%NULL%1,                M. Tarek%Elghetany%NULL%1,                Daniel Ocazionez%Trujillo%NULL%1,                Gabriel M.%Aisenberg%NULL%1,                Mohammad%Madjid%NULL%1,                Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Yan%xref no email%1,          Mahnoor%Mir%xref no email%1,          Paloma%Sanchez%xref no email%1,          Moeezullah%Beg%xref no email%1,          Jay%Peters%xref no email%1,          Omar%Enriquez%xref no email%1,          Andrea%Gilbert%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,                Erin G.%Brooks%NULL%1,                Joshua%Akers%NULL%1,                Danielle%Armstrong%NULL%1,                Lauren%Decker%NULL%1,                Adam%Gonzalez%NULL%1,                William%Humphrey%NULL%1,                Romana%Mayer%NULL%1,                Matthew%Miller%NULL%1,                Catherine%Perez%NULL%1,                Jose Antonio Ruiz%Arango%NULL%1,                Lakshmanan%Sathyavagiswaran%NULL%1,                Wendy%Stroh%NULL%1,                Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,                Jan-Peter%Sperhake%NULL%2,                Marc%Lütgehetmann%NULL%2,                Stefan%Steurer%NULL%2,                Carolin%Edler%NULL%1,                Axel%Heinemann%NULL%2,                Fabian%Heinrich%NULL%2,                Herbert%Mushumba%NULL%2,                Inga%Kniep%NULL%1,                Ann Sophie%Schröder%NULL%2,                Christoph%Burdelski%NULL%2,                Geraldine%de Heer%NULL%2,                Axel%Nierhaus%NULL%2,                Daniel%Frings%NULL%2,                Susanne%Pfefferle%NULL%1,                Heinrich%Becker%NULL%1,                Hanns%Bredereke-Wiedling%NULL%1,                Andreas%de Weerth%NULL%2,                Hans-Richard%Paschen%NULL%1,                Sara%Sheikhzadeh-Eggers%NULL%1,                Axel%Stang%NULL%1,                Stefan%Schmiedel%NULL%1,                Carsten%Bokemeyer%NULL%1,                Marylyn M.%Addo%NULL%1,                Martin%Aepfelbacher%NULL%2,                Klaus%Püschel%NULL%2,                Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,                Jasmin D%Haslbauer%NULL%4,                Jasmin D%Haslbauer%NULL%0,                Ronny%Nienhold%NULL%2,                Spasenija%Savic%NULL%2,                Helmut%Hopfer%NULL%2,                Nikolaus%Deigendesch%NULL%2,                Stephan%Frank%NULL%2,                Daniel%Turek%NULL%2,                Niels%Willi%NULL%2,                Hans%Pargger%NULL%2,                Stefano%Bassetti%NULL%2,                Joerg D%Leuppi%NULL%2,                Gieri%Cathomas%NULL%2,                Markus%Tolnay%NULL%2,                Kirsten D%Mertz%NULL%2,                Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,                Jasmin D%Haslbauer%NULL%0,                Jasmin D%Haslbauer%NULL%0,                Ronny%Nienhold%NULL%0,                Spasenija%Savic%NULL%0,                Helmut%Hopfer%NULL%0,                Nikolaus%Deigendesch%NULL%0,                Stephan%Frank%NULL%0,                Daniel%Turek%NULL%0,                Niels%Willi%NULL%0,                Hans%Pargger%NULL%0,                Stefano%Bassetti%NULL%0,                Joerg D%Leuppi%NULL%0,                Gieri%Cathomas%NULL%0,                Markus%Tolnay%NULL%0,                Kirsten D%Mertz%NULL%0,                Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,                Andreas J%Flammer%NULL%1,                Peter%Steiger%NULL%1,                Martina%Haberecker%NULL%1,                Rea%Andermatt%NULL%1,                Annelies S%Zinkernagel%NULL%1,                Mandeep R%Mehra%NULL%1,                Reto A%Schuepbach%NULL%1,                Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,                Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,                Yong%Xiong%NULL%0,                Huan%Liu%NULL%3,                Li%Niu%NULL%1,                Jianchun%Guo%NULL%1,                Meiyan%Liao%NULL%1,                Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,                Eric J%Duval%NULL%1,                Edana%Stroberg%NULL%1,                Subha%Ghosh%NULL%1,                Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,                Pilar%Alemany Monraval%NULL%1,                Carmen%Medina Medina%NULL%1,                Ana%Jiménez Sánchez%NULL%1,                Juan Carlos%Andrés Teruel%NULL%1,                José%Ferrando Marco%NULL%1,                Víctor%Puglia Santos%NULL%1,                Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,                Ann Sophie%Schröder%NULL%0,                Martin%Aepfelbacher%NULL%0,                Antonia%Fitzek%NULL%1,                Axel%Heinemann%NULL%0,                Fabian%Heinrich%NULL%0,                Anke%Klein%NULL%1,                Felicia%Langenwalder%NULL%1,                Marc%Lütgehetmann%NULL%0,                Kira%Meißner%NULL%1,                Klaus%Püschel%NULL%0,                Julia%Schädler%NULL%1,                Stefan%Steurer%NULL%0,                Herbert%Mushumba%NULL%0,                Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,              Blankenberg%Stefan S%coreGivesNoEmail%1,              Brauninger%Hanna%coreGivesNoEmail%1,              Edler%Caroline%coreGivesNoEmail%1,              Escher%Felicitas%coreGivesNoEmail%1,              Fitzek%Antonia%coreGivesNoEmail%1,              Kirchhof%Paulus%coreGivesNoEmail%1,              Lindner%Diana%coreGivesNoEmail%1,              Meissner%Kira%coreGivesNoEmail%1,              Puschel%Klaus%coreGivesNoEmail%1,              Scherschel%Katharina%coreGivesNoEmail%1,              Schultheiss%Heinz-Peter%coreGivesNoEmail%1,              Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,                Holly%Harper%NULL%1,                Behtash G%Nezami%NULL%1,                Daniel L%Shen%NULL%1,                Simona Pichler%Sekulic%NULL%1,                Aaron T%Koeth%NULL%1,                Clifford V%Harding%NULL%1,                Hannah%Gilmore%NULL%1,                Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,                Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,                Johannes Alexander%Lobrinus%NULL%2,                Johannes Alexander%Lobrinus%NULL%0,                Manuel%Schibler%NULL%1,                Tony%Fracasso%NULL%1,                Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,                Aibek%Akmatbekov%NULL%1,                Jack L%Harbert%NULL%1,                Guang%Li%NULL%1,                J%Quincy Brown%NULL%1,                Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,                Behnaz%Jahanbin%NULL%1,                Masoomeh%Safaei%NULL%1,                Laya%Amoozadeh%NULL%1,                Meysam%Khoshavi%NULL%1,                Vahid%Mehrtash%NULL%1,                Bita%Jafarzadeh%NULL%1,                Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,                Jing%Xie%NULL%2,                Lei%Zhao%NULL%1,                Xiaochun%Fei%NULL%1,                Heng%Zhang%NULL%1,                Yun%Tan%NULL%1,                Xiu%Nie%NULL%1,                Luting%Zhou%NULL%1,                Zhenhua%Liu%NULL%1,                Yong%Ren%NULL%1,                Ling%Yuan%NULL%1,                Yu%Zhang%NULL%1,                Jinsheng%Zhang%NULL%1,                Liwei%Liang%NULL%1,                Xinwei%Chen%NULL%1,                Xin%Liu%NULL%1,                Peng%Wang%NULL%1,                Xiao%Han%NULL%1,                Xiangqin%Weng%NULL%1,                Ying%Chen%NULL%1,                Ting%Yu%NULL%0,                Xinxin%Zhang%NULL%0,                Jun%Cai%caijun@shsmu.edu.cn%1,                Rong%Chen%crjudy@126.com%2,                Zhengli%Shi%zlshi@wh.iov.cn%2,                Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,                Selina%Traxler%NULL%2,                Selina%Traxler%NULL%0,                Michael%Bitzer%NULL%1,                Helene%Häberle%NULL%1,                Wolfgang%Raiser%NULL%1,                Dominik%Nann%NULL%1,                Leonie%Frauenfeld%NULL%1,                Antonio%Vogelsberg%NULL%1,                Karin%Klingel%NULL%1,                Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,                Thomas%Ruder%NULL%1,                Rilana%Baumeister%NULL%1,                Stephan%Bolliger%NULL%1,                Michael%Thali%NULL%1,                Eva%Meixner%NULL%1,                Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,                Lei%Shi%NULL%1,                Yijin%Wang%NULL%1,                Jiyuan%Zhang%NULL%1,                Lei%Huang%NULL%2,                Chao%Zhang%NULL%1,                Shuhong%Liu%NULL%1,                Peng%Zhao%NULL%1,                Hongxia%Liu%NULL%1,                Li%Zhu%NULL%1,                Yanhong%Tai%NULL%1,                Changqing%Bai%NULL%1,                Tingting%Gao%NULL%1,                Jinwen%Song%NULL%1,                Peng%Xia%NULL%1,                Jinghui%Dong%NULL%1,                Jingmin%Zhao%NULL%1,                Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Esther%Youd%xref no email%1,          Luiza%Moore%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,                Benjamin%Gaborit%NULL%2,                Benjamin%Gaborit%NULL%0,                Claire%Toquet%NULL%1,                Louise%Castain%NULL%1,                Antonin%Bal%NULL%1,                Pierre Paul%Arrigoni%NULL%1,                Raphaël%Lecomte%NULL%1,                Renaud%Clement%NULL%1,                Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,                Radu Lucian%Buzulică%NULL%1,                Daniel%Pirici%NULL%1,                Mihail Constantin%Ceauşu%NULL%1,                Radu Vasile%Iman%NULL%1,                Ovidiu-Mircea%Gheorghe%NULL%1,                Simona Daniela%Neamţu%NULL%1,                Liliana%Stanca%NULL%1,                Răzvan%Ene%NULL%1,                Samir%Kumar-Singh%NULL%1,                Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,                Alexander%Leunig%NULL%1,                Sophia%Brambs%NULL%1,                Rainer%Kaiser%NULL%1,                Tobias%Weinberger%NULL%1,                Michael%Weigand%NULL%1,                Maximilian%Muenchhoff%NULL%1,                Johannes C.%Hellmuth%NULL%1,                Stephan%Ledderose%NULL%1,                Heiko%Schulz%NULL%1,                Clemens%Scherer%NULL%1,                Martina%Rudelius%NULL%1,                Michael%Zoller%NULL%1,                Dominik%Höchter%NULL%1,                Oliver%Keppler%NULL%1,                Daniel%Teupser%NULL%1,                Bernhard%Zwißler%NULL%1,                Michael%von Bergwelt-Baildon%NULL%1,                Stefan%Kääb%NULL%1,                Steffen%Massberg%NULL%1,                Kami%Pekayvaz%NULL%1,                Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,                Alexandra%Grosse%NULL%1,                Helmut J.F.%Salzer%NULL%1,                Martin W.%Dünser%NULL%1,                Reinhard%Motz%NULL%1,                Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna Ferl\u00f8v%Schwensen%xref no email%1,          Line Kristine%Borreschmidt%xref no email%1,          Merete%Storgaard%xref no email%1,          S\u00f8ren%Redsted%xref no email%1,          Steffen%Christensen%xref no email%1,          Line Bille%Madsen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,                Ricardo%De Mendonça%NULL%1,                Nicky%D’Haene%NULL%1,                Sarah%De Clercq%NULL%1,                Camille%Verocq%NULL%1,                Laetitia%Lebrun%NULL%1,                Philomène%Lavis%NULL%1,                Marie-Lucie%Racu%NULL%1,                Anne-Laure%Trépant%NULL%1,                Calliope%Maris%NULL%1,                Sandrine%Rorive%NULL%1,                Jean-Christophe%Goffard%NULL%1,                Olivier%De Witte%NULL%1,                Lorenzo%Peluso%NULL%1,                Jean-Louis%Vincent%NULL%1,                Christine%Decaestecker%NULL%1,                Fabio Silvio%Taccone%NULL%1,                Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,                Hiroyuki%Hayashi%NULL%2,                Hiroyuki%Hayashi%NULL%0,                Yukihiro%Yoshimura%NULL%1,                Hiroaki%Sasaki%NULL%1,                Hiroshi%Horiuchi%NULL%1,                Nobuyuki%Miyata%NULL%1,                Natsuo%Tachikawa%NULL%1,                Yuki%Tsuchiya%NULL%1,                Hideaki%Mitsui%NULL%1,                Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,                Ja-Mun%Chong%NULL%1,                Noriko%Nakajima%NULL%1,                Masahiro%Sano%NULL%1,                Jun%Yamazaki%NULL%1,                Ippei%Miyamoto%NULL%1,                Haruka%Nishioka%NULL%1,                Hidetaka%Akita%NULL%1,                Yuko%Sato%NULL%1,                Michiyo%Kataoka%NULL%1,                Harutaka%Katano%NULL%1,                Minoru%Tobiume%NULL%1,                Tsuyoshi%Sekizuka%NULL%1,                Kentaro%Itokawa%NULL%1,                Makoto%Kuroda%NULL%1,                Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,                Anuradha%Lala%NULL%1,                Emilia%Bagiella%NULL%1,                Helena L.%Chang%NULL%1,                Pedro R.%Moreno%NULL%1,                Elisabet%Pujadas%NULL%1,                Varun%Arvind%NULL%1,                Sonali%Bose%NULL%1,                Alexander W.%Charney%NULL%1,                Martin D.%Chen%NULL%1,                Carlos%Cordon-Cardo%NULL%1,                Andrew S.%Dunn%NULL%1,                Michael E.%Farkouh%NULL%1,                Benjamin S.%Glicksberg%NULL%1,                Arash%Kia%NULL%1,                Roopa%Kohli-Seth%NULL%1,                Matthew A.%Levin%NULL%1,                Prem%Timsina%NULL%1,                Shan%Zhao%NULL%1,                Zahi A.%Fayad%NULL%5,                Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,                Kiran T.%Thakur%NULL%2,                Kiran T.%Thakur%NULL%0,                Anna S.%Nordvig%NULL%1,                Morgan L.%Prust%NULL%1,                William%Roth%NULL%1,                Angela%Lignelli%NULL%1,                Anne-Catrin%Uhlemann%NULL%1,                Emily Happy%Miller%NULL%1,                Shajo%Kunnath-Velayudhan%NULL%1,                Armando%Del Portillo%NULL%1,                Yang%Liu%NULL%1,                Gunnar%Hargus%NULL%1,                Andrew F.%Teich%NULL%1,                Richard A.%Hickman%NULL%1,                Kurenai%Tanji%NULL%1,                James E.%Goldman%NULL%1,                Phyllis L.%Faust%NULL%1,                Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,                Lilioara-Alexandra%Muja%NULL%2,                Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,                Chen%Shao%NULL%2,                Chen%Shao%NULL%0,                Xiao-jie%Huang%NULL%1,                Lin%Sun%NULL%1,                Ling-jia%Meng%NULL%1,                Hui%Liu%NULL%2,                Shi-jie%Zhang%NULL%1,                Hong-jun%Li%NULL%1,                Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,              Ficken%C.%coreGivesNoEmail%1,              Goddard%M.%coreGivesNoEmail%1,              Jensen%M. P.%coreGivesNoEmail%1,              Le%Quesne J.%coreGivesNoEmail%1,              Menon%D.%coreGivesNoEmail%1,              Officer\u2010Jones%L.%coreGivesNoEmail%1,              Smith%C.%coreGivesNoEmail%1,              Teod\u00f2sio%A.%coreGivesNoEmail%1,              Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,                Maria%Mostyka%NULL%1,                Alicia%Dillard%NULL%1,                Diana R.%Berman%NULL%1,                Lucy X.%Ma%NULL%1,                Amy%Chadburn%NULL%1,                Rhonda K.%Yantiss%NULL%1,                Jose%Jessurun%NULL%1,                Surya V.%Seshan%NULL%1,                Alain C.%Borczuk%NULL%1,                Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,                Kikkeri N%Naresh%NULL%1,                Candice%Roufosse%NULL%1,                Andrew G%Nicholson%NULL%1,                Justin%Weir%NULL%1,                Graham S%Cooke%NULL%1,                Mark%Thursz%NULL%1,                Pinelopi%Manousou%NULL%1,                Richard%Corbett%NULL%1,                Robert%Goldin%NULL%1,                Safa%Al-Sarraj%NULL%1,                Alireza%Abdolrasouli%NULL%1,                Olivia C%Swann%NULL%1,                Laury%Baillon%NULL%1,                Rebecca%Penn%NULL%1,                Wendy S%Barclay%NULL%1,                Patrizia%Viola%NULL%1,                Michael%Osborn%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3039,7 +3273,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>683</v>
+        <v>761</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -3068,7 +3302,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>684</v>
+        <v>762</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -3097,7 +3331,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>685</v>
+        <v>763</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -3126,7 +3360,7 @@
         <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>686</v>
+        <v>764</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -3155,7 +3389,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>687</v>
+        <v>765</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -3184,7 +3418,7 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>688</v>
+        <v>766</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -3213,7 +3447,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>689</v>
+        <v>767</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
@@ -3242,7 +3476,7 @@
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>690</v>
+        <v>768</v>
       </c>
       <c r="F9" t="s">
         <v>78</v>
@@ -3271,7 +3505,7 @@
         <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>691</v>
+        <v>769</v>
       </c>
       <c r="F10" t="s">
         <v>84</v>
@@ -3300,7 +3534,7 @@
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>692</v>
+        <v>770</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
@@ -3329,7 +3563,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>693</v>
+        <v>771</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -3358,7 +3592,7 @@
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>694</v>
+        <v>772</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
@@ -3387,7 +3621,7 @@
         <v>571</v>
       </c>
       <c r="E14" t="s">
-        <v>695</v>
+        <v>773</v>
       </c>
       <c r="F14" t="s">
         <v>101</v>
@@ -3416,7 +3650,7 @@
         <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>696</v>
+        <v>774</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -3445,7 +3679,7 @@
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>697</v>
+        <v>775</v>
       </c>
       <c r="F16" t="s">
         <v>106</v>
@@ -3474,7 +3708,7 @@
         <v>575</v>
       </c>
       <c r="E17" t="s">
-        <v>698</v>
+        <v>776</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -3503,7 +3737,7 @@
         <v>577</v>
       </c>
       <c r="E18" t="s">
-        <v>699</v>
+        <v>777</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -3532,7 +3766,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>700</v>
+        <v>778</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -3561,7 +3795,7 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>701</v>
+        <v>779</v>
       </c>
       <c r="F20" t="s">
         <v>123</v>
@@ -3590,7 +3824,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>702</v>
+        <v>780</v>
       </c>
       <c r="F21" t="s">
         <v>127</v>
@@ -3619,7 +3853,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>703</v>
+        <v>781</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -3648,7 +3882,7 @@
         <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>704</v>
+        <v>782</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -3677,7 +3911,7 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>705</v>
+        <v>783</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -3706,7 +3940,7 @@
         <v>421</v>
       </c>
       <c r="E25" t="s">
-        <v>706</v>
+        <v>784</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -3735,7 +3969,7 @@
         <v>586</v>
       </c>
       <c r="E26" t="s">
-        <v>707</v>
+        <v>785</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
@@ -3764,7 +3998,7 @@
         <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>708</v>
+        <v>786</v>
       </c>
       <c r="F27" t="s">
         <v>150</v>
@@ -3793,7 +4027,7 @@
         <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>709</v>
+        <v>787</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -3822,7 +4056,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>710</v>
+        <v>788</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -3851,7 +4085,7 @@
         <v>429</v>
       </c>
       <c r="E30" t="s">
-        <v>711</v>
+        <v>789</v>
       </c>
       <c r="F30" t="s">
         <v>32</v>
@@ -3880,7 +4114,7 @@
         <v>592</v>
       </c>
       <c r="E31" t="s">
-        <v>712</v>
+        <v>790</v>
       </c>
       <c r="F31" t="s">
         <v>165</v>
@@ -3909,7 +4143,7 @@
         <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>713</v>
+        <v>791</v>
       </c>
       <c r="F32" t="s">
         <v>170</v>
@@ -3938,7 +4172,7 @@
         <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>714</v>
+        <v>792</v>
       </c>
       <c r="F33" t="s">
         <v>175</v>
@@ -3967,7 +4201,7 @@
         <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>715</v>
+        <v>793</v>
       </c>
       <c r="F34" t="s">
         <v>179</v>
@@ -3996,7 +4230,7 @@
         <v>597</v>
       </c>
       <c r="E35" t="s">
-        <v>716</v>
+        <v>794</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -4025,7 +4259,7 @@
         <v>599</v>
       </c>
       <c r="E36" t="s">
-        <v>717</v>
+        <v>795</v>
       </c>
       <c r="F36" t="s">
         <v>189</v>
@@ -4054,7 +4288,7 @@
         <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>718</v>
+        <v>796</v>
       </c>
       <c r="F37" t="s">
         <v>194</v>
@@ -4083,7 +4317,7 @@
         <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>719</v>
+        <v>797</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -4112,7 +4346,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>720</v>
+        <v>798</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -4141,7 +4375,7 @@
         <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>721</v>
+        <v>799</v>
       </c>
       <c r="F40" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/11.xlsx
+++ b/Covid_19_Dataset_and_References/References/11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4804" uniqueCount="800">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5084" uniqueCount="839">
   <si>
     <t>Doi</t>
   </si>
@@ -2878,6 +2878,123 @@
   </si>
   <si>
     <t>[Brian%Hanley%NULL%1,                Kikkeri N%Naresh%NULL%1,                Candice%Roufosse%NULL%1,                Andrew G%Nicholson%NULL%1,                Justin%Weir%NULL%1,                Graham S%Cooke%NULL%1,                Mark%Thursz%NULL%1,                Pinelopi%Manousou%NULL%1,                Richard%Corbett%NULL%1,                Robert%Goldin%NULL%1,                Safa%Al-Sarraj%NULL%1,                Alireza%Abdolrasouli%NULL%1,                Olivia C%Swann%NULL%1,                Laury%Baillon%NULL%1,                Rebecca%Penn%NULL%1,                Wendy S%Barclay%NULL%1,                Patrizia%Viola%NULL%1,                Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,                 Renata A A%Monteiro%NULL%2,                 Renata A A%Monteiro%NULL%0,                 Luiz F F%da Silva%NULL%1,                 Denise M A C%Malheiros%NULL%1,                 Ellen P%de Oliveira%NULL%1,                 Jair%Theodoro‐Filho%NULL%1,                 João R R%Pinho%NULL%1,                 Michele S%Gomes‐Gouvêa%NULL%1,                 Ana P M%Salles%NULL%1,                 Ilka R S%de Oliveira%NULL%1,                 Thais%Mauad%NULL%1,                 Paulo H N%Saldiva%NULL%1,                 Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,               Burkhardt%Katrin%coreGivesNoEmail%1,               Claus%Rainer%coreGivesNoEmail%1,               Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,               M\u00e4rkl%Bruno%coreGivesNoEmail%1,               Schaller%Tina%coreGivesNoEmail%1,               Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,                 Dwayne A.%Wolf%NULL%1,                 Bihong%Zhao%NULL%1,                 Bindu%Akkanti%NULL%1,                 Michelle%McDonald%NULL%1,                 Laura%Lelenwa%NULL%1,                 Noah%Reilly%NULL%1,                 Giulia%Ottaviani%NULL%1,                 M. Tarek%Elghetany%NULL%1,                 Daniel Ocazionez%Trujillo%NULL%1,                 Gabriel M.%Aisenberg%NULL%1,                 Mohammad%Madjid%NULL%1,                 Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Yan%xref no email%1,           Mahnoor%Mir%xref no email%1,           Paloma%Sanchez%xref no email%1,           Moeezullah%Beg%xref no email%1,           Jay%Peters%xref no email%1,           Omar%Enriquez%xref no email%1,           Andrea%Gilbert%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,                 Erin G.%Brooks%NULL%1,                 Joshua%Akers%NULL%1,                 Danielle%Armstrong%NULL%1,                 Lauren%Decker%NULL%1,                 Adam%Gonzalez%NULL%1,                 William%Humphrey%NULL%1,                 Romana%Mayer%NULL%1,                 Matthew%Miller%NULL%1,                 Catherine%Perez%NULL%1,                 Jose Antonio Ruiz%Arango%NULL%1,                 Lakshmanan%Sathyavagiswaran%NULL%1,                 Wendy%Stroh%NULL%1,                 Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,                 Jan-Peter%Sperhake%NULL%2,                 Marc%Lütgehetmann%NULL%2,                 Stefan%Steurer%NULL%2,                 Carolin%Edler%NULL%1,                 Axel%Heinemann%NULL%2,                 Fabian%Heinrich%NULL%2,                 Herbert%Mushumba%NULL%2,                 Inga%Kniep%NULL%1,                 Ann Sophie%Schröder%NULL%2,                 Christoph%Burdelski%NULL%2,                 Geraldine%de Heer%NULL%2,                 Axel%Nierhaus%NULL%2,                 Daniel%Frings%NULL%2,                 Susanne%Pfefferle%NULL%1,                 Heinrich%Becker%NULL%1,                 Hanns%Bredereke-Wiedling%NULL%1,                 Andreas%de Weerth%NULL%2,                 Hans-Richard%Paschen%NULL%1,                 Sara%Sheikhzadeh-Eggers%NULL%1,                 Axel%Stang%NULL%1,                 Stefan%Schmiedel%NULL%1,                 Carsten%Bokemeyer%NULL%1,                 Marylyn M.%Addo%NULL%1,                 Martin%Aepfelbacher%NULL%2,                 Klaus%Püschel%NULL%2,                 Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,                 Jasmin D%Haslbauer%NULL%4,                 Jasmin D%Haslbauer%NULL%0,                 Ronny%Nienhold%NULL%2,                 Spasenija%Savic%NULL%2,                 Helmut%Hopfer%NULL%2,                 Nikolaus%Deigendesch%NULL%2,                 Stephan%Frank%NULL%2,                 Daniel%Turek%NULL%2,                 Niels%Willi%NULL%2,                 Hans%Pargger%NULL%2,                 Stefano%Bassetti%NULL%2,                 Joerg D%Leuppi%NULL%2,                 Gieri%Cathomas%NULL%2,                 Markus%Tolnay%NULL%2,                 Kirsten D%Mertz%NULL%2,                 Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,                 Jasmin D%Haslbauer%NULL%0,                 Jasmin D%Haslbauer%NULL%0,                 Ronny%Nienhold%NULL%0,                 Spasenija%Savic%NULL%0,                 Helmut%Hopfer%NULL%0,                 Nikolaus%Deigendesch%NULL%0,                 Stephan%Frank%NULL%0,                 Daniel%Turek%NULL%0,                 Niels%Willi%NULL%0,                 Hans%Pargger%NULL%0,                 Stefano%Bassetti%NULL%0,                 Joerg D%Leuppi%NULL%0,                 Gieri%Cathomas%NULL%0,                 Markus%Tolnay%NULL%0,                 Kirsten D%Mertz%NULL%0,                 Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,                 Andreas J%Flammer%NULL%1,                 Peter%Steiger%NULL%1,                 Martina%Haberecker%NULL%1,                 Rea%Andermatt%NULL%1,                 Annelies S%Zinkernagel%NULL%1,                 Mandeep R%Mehra%NULL%1,                 Reto A%Schuepbach%NULL%1,                 Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,                 Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,                 Yong%Xiong%NULL%0,                 Huan%Liu%NULL%3,                 Li%Niu%NULL%1,                 Jianchun%Guo%NULL%1,                 Meiyan%Liao%NULL%1,                 Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,                 Eric J%Duval%NULL%1,                 Edana%Stroberg%NULL%1,                 Subha%Ghosh%NULL%1,                 Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,                 Pilar%Alemany Monraval%NULL%1,                 Carmen%Medina Medina%NULL%1,                 Ana%Jiménez Sánchez%NULL%1,                 Juan Carlos%Andrés Teruel%NULL%1,                 José%Ferrando Marco%NULL%1,                 Víctor%Puglia Santos%NULL%1,                 Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,                 Ann Sophie%Schröder%NULL%0,                 Martin%Aepfelbacher%NULL%0,                 Antonia%Fitzek%NULL%1,                 Axel%Heinemann%NULL%0,                 Fabian%Heinrich%NULL%0,                 Anke%Klein%NULL%1,                 Felicia%Langenwalder%NULL%1,                 Marc%Lütgehetmann%NULL%0,                 Kira%Meißner%NULL%1,                 Klaus%Püschel%NULL%0,                 Julia%Schädler%NULL%1,                 Stefan%Steurer%NULL%0,                 Herbert%Mushumba%NULL%0,                 Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,               Blankenberg%Stefan S%coreGivesNoEmail%1,               Brauninger%Hanna%coreGivesNoEmail%1,               Edler%Caroline%coreGivesNoEmail%1,               Escher%Felicitas%coreGivesNoEmail%1,               Fitzek%Antonia%coreGivesNoEmail%1,               Kirchhof%Paulus%coreGivesNoEmail%1,               Lindner%Diana%coreGivesNoEmail%1,               Meissner%Kira%coreGivesNoEmail%1,               Puschel%Klaus%coreGivesNoEmail%1,               Scherschel%Katharina%coreGivesNoEmail%1,               Schultheiss%Heinz-Peter%coreGivesNoEmail%1,               Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,                 Holly%Harper%NULL%1,                 Behtash G%Nezami%NULL%1,                 Daniel L%Shen%NULL%1,                 Simona Pichler%Sekulic%NULL%1,                 Aaron T%Koeth%NULL%1,                 Clifford V%Harding%NULL%1,                 Hannah%Gilmore%NULL%1,                 Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,                 Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,                 Johannes Alexander%Lobrinus%NULL%2,                 Johannes Alexander%Lobrinus%NULL%0,                 Manuel%Schibler%NULL%1,                 Tony%Fracasso%NULL%1,                 Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,                 Aibek%Akmatbekov%NULL%1,                 Jack L%Harbert%NULL%1,                 Guang%Li%NULL%1,                 J%Quincy Brown%NULL%1,                 Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,                 Behnaz%Jahanbin%NULL%1,                 Masoomeh%Safaei%NULL%1,                 Laya%Amoozadeh%NULL%1,                 Meysam%Khoshavi%NULL%1,                 Vahid%Mehrtash%NULL%1,                 Bita%Jafarzadeh%NULL%1,                 Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,                 Jing%Xie%NULL%2,                 Lei%Zhao%NULL%1,                 Xiaochun%Fei%NULL%1,                 Heng%Zhang%NULL%1,                 Yun%Tan%NULL%1,                 Xiu%Nie%NULL%1,                 Luting%Zhou%NULL%1,                 Zhenhua%Liu%NULL%1,                 Yong%Ren%NULL%1,                 Ling%Yuan%NULL%1,                 Yu%Zhang%NULL%1,                 Jinsheng%Zhang%NULL%1,                 Liwei%Liang%NULL%1,                 Xinwei%Chen%NULL%1,                 Xin%Liu%NULL%1,                 Peng%Wang%NULL%1,                 Xiao%Han%NULL%1,                 Xiangqin%Weng%NULL%1,                 Ying%Chen%NULL%1,                 Ting%Yu%NULL%0,                 Xinxin%Zhang%NULL%0,                 Jun%Cai%caijun@shsmu.edu.cn%1,                 Rong%Chen%crjudy@126.com%2,                 Zhengli%Shi%zlshi@wh.iov.cn%2,                 Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,                 Selina%Traxler%NULL%2,                 Selina%Traxler%NULL%0,                 Michael%Bitzer%NULL%1,                 Helene%Häberle%NULL%1,                 Wolfgang%Raiser%NULL%1,                 Dominik%Nann%NULL%1,                 Leonie%Frauenfeld%NULL%1,                 Antonio%Vogelsberg%NULL%1,                 Karin%Klingel%NULL%1,                 Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,                 Thomas%Ruder%NULL%1,                 Rilana%Baumeister%NULL%1,                 Stephan%Bolliger%NULL%1,                 Michael%Thali%NULL%1,                 Eva%Meixner%NULL%1,                 Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,                 Lei%Shi%NULL%1,                 Yijin%Wang%NULL%1,                 Jiyuan%Zhang%NULL%1,                 Lei%Huang%NULL%2,                 Chao%Zhang%NULL%1,                 Shuhong%Liu%NULL%1,                 Peng%Zhao%NULL%1,                 Hongxia%Liu%NULL%1,                 Li%Zhu%NULL%1,                 Yanhong%Tai%NULL%1,                 Changqing%Bai%NULL%1,                 Tingting%Gao%NULL%1,                 Jinwen%Song%NULL%1,                 Peng%Xia%NULL%1,                 Jinghui%Dong%NULL%1,                 Jingmin%Zhao%NULL%1,                 Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Esther%Youd%xref no email%1,           Luiza%Moore%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,                 Benjamin%Gaborit%NULL%2,                 Benjamin%Gaborit%NULL%0,                 Claire%Toquet%NULL%1,                 Louise%Castain%NULL%1,                 Antonin%Bal%NULL%1,                 Pierre Paul%Arrigoni%NULL%1,                 Raphaël%Lecomte%NULL%1,                 Renaud%Clement%NULL%1,                 Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,                 Radu Lucian%Buzulică%NULL%1,                 Daniel%Pirici%NULL%1,                 Mihail Constantin%Ceauşu%NULL%1,                 Radu Vasile%Iman%NULL%1,                 Ovidiu-Mircea%Gheorghe%NULL%1,                 Simona Daniela%Neamţu%NULL%1,                 Liliana%Stanca%NULL%1,                 Răzvan%Ene%NULL%1,                 Samir%Kumar-Singh%NULL%1,                 Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,                 Alexander%Leunig%NULL%1,                 Sophia%Brambs%NULL%1,                 Rainer%Kaiser%NULL%1,                 Tobias%Weinberger%NULL%1,                 Michael%Weigand%NULL%1,                 Maximilian%Muenchhoff%NULL%1,                 Johannes C.%Hellmuth%NULL%1,                 Stephan%Ledderose%NULL%1,                 Heiko%Schulz%NULL%1,                 Clemens%Scherer%NULL%1,                 Martina%Rudelius%NULL%1,                 Michael%Zoller%NULL%1,                 Dominik%Höchter%NULL%1,                 Oliver%Keppler%NULL%1,                 Daniel%Teupser%NULL%1,                 Bernhard%Zwißler%NULL%1,                 Michael%von Bergwelt-Baildon%NULL%1,                 Stefan%Kääb%NULL%1,                 Steffen%Massberg%NULL%1,                 Kami%Pekayvaz%NULL%1,                 Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,                 Alexandra%Grosse%NULL%1,                 Helmut J.F.%Salzer%NULL%1,                 Martin W.%Dünser%NULL%1,                 Reinhard%Motz%NULL%1,                 Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna Ferl\u00f8v%Schwensen%xref no email%1,           Line Kristine%Borreschmidt%xref no email%1,           Merete%Storgaard%xref no email%1,           S\u00f8ren%Redsted%xref no email%1,           Steffen%Christensen%xref no email%1,           Line Bille%Madsen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,                 Ricardo%De Mendonça%NULL%1,                 Nicky%D’Haene%NULL%1,                 Sarah%De Clercq%NULL%1,                 Camille%Verocq%NULL%1,                 Laetitia%Lebrun%NULL%1,                 Philomène%Lavis%NULL%1,                 Marie-Lucie%Racu%NULL%1,                 Anne-Laure%Trépant%NULL%1,                 Calliope%Maris%NULL%1,                 Sandrine%Rorive%NULL%1,                 Jean-Christophe%Goffard%NULL%1,                 Olivier%De Witte%NULL%1,                 Lorenzo%Peluso%NULL%1,                 Jean-Louis%Vincent%NULL%1,                 Christine%Decaestecker%NULL%1,                 Fabio Silvio%Taccone%NULL%1,                 Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,                 Hiroyuki%Hayashi%NULL%2,                 Hiroyuki%Hayashi%NULL%0,                 Yukihiro%Yoshimura%NULL%1,                 Hiroaki%Sasaki%NULL%1,                 Hiroshi%Horiuchi%NULL%1,                 Nobuyuki%Miyata%NULL%1,                 Natsuo%Tachikawa%NULL%1,                 Yuki%Tsuchiya%NULL%1,                 Hideaki%Mitsui%NULL%1,                 Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,                 Ja-Mun%Chong%NULL%1,                 Noriko%Nakajima%NULL%1,                 Masahiro%Sano%NULL%1,                 Jun%Yamazaki%NULL%1,                 Ippei%Miyamoto%NULL%1,                 Haruka%Nishioka%NULL%1,                 Hidetaka%Akita%NULL%1,                 Yuko%Sato%NULL%1,                 Michiyo%Kataoka%NULL%1,                 Harutaka%Katano%NULL%1,                 Minoru%Tobiume%NULL%1,                 Tsuyoshi%Sekizuka%NULL%1,                 Kentaro%Itokawa%NULL%1,                 Makoto%Kuroda%NULL%1,                 Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,                 Anuradha%Lala%NULL%1,                 Emilia%Bagiella%NULL%1,                 Helena L.%Chang%NULL%1,                 Pedro R.%Moreno%NULL%1,                 Elisabet%Pujadas%NULL%1,                 Varun%Arvind%NULL%1,                 Sonali%Bose%NULL%1,                 Alexander W.%Charney%NULL%1,                 Martin D.%Chen%NULL%1,                 Carlos%Cordon-Cardo%NULL%1,                 Andrew S.%Dunn%NULL%1,                 Michael E.%Farkouh%NULL%1,                 Benjamin S.%Glicksberg%NULL%1,                 Arash%Kia%NULL%1,                 Roopa%Kohli-Seth%NULL%1,                 Matthew A.%Levin%NULL%1,                 Prem%Timsina%NULL%1,                 Shan%Zhao%NULL%1,                 Zahi A.%Fayad%NULL%5,                 Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,                 Kiran T.%Thakur%NULL%2,                 Kiran T.%Thakur%NULL%0,                 Anna S.%Nordvig%NULL%1,                 Morgan L.%Prust%NULL%1,                 William%Roth%NULL%1,                 Angela%Lignelli%NULL%1,                 Anne-Catrin%Uhlemann%NULL%1,                 Emily Happy%Miller%NULL%1,                 Shajo%Kunnath-Velayudhan%NULL%1,                 Armando%Del Portillo%NULL%1,                 Yang%Liu%NULL%1,                 Gunnar%Hargus%NULL%1,                 Andrew F.%Teich%NULL%1,                 Richard A.%Hickman%NULL%1,                 Kurenai%Tanji%NULL%1,                 James E.%Goldman%NULL%1,                 Phyllis L.%Faust%NULL%1,                 Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,                 Lilioara-Alexandra%Muja%NULL%2,                 Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,                 Chen%Shao%NULL%2,                 Chen%Shao%NULL%0,                 Xiao-jie%Huang%NULL%1,                 Lin%Sun%NULL%1,                 Ling-jia%Meng%NULL%1,                 Hui%Liu%NULL%2,                 Shi-jie%Zhang%NULL%1,                 Hong-jun%Li%NULL%1,                 Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,               Ficken%C.%coreGivesNoEmail%1,               Goddard%M.%coreGivesNoEmail%1,               Jensen%M. P.%coreGivesNoEmail%1,               Le%Quesne J.%coreGivesNoEmail%1,               Menon%D.%coreGivesNoEmail%1,               Officer\u2010Jones%L.%coreGivesNoEmail%1,               Smith%C.%coreGivesNoEmail%1,               Teod\u00f2sio%A.%coreGivesNoEmail%1,               Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,                 Maria%Mostyka%NULL%1,                 Alicia%Dillard%NULL%1,                 Diana R.%Berman%NULL%1,                 Lucy X.%Ma%NULL%1,                 Amy%Chadburn%NULL%1,                 Rhonda K.%Yantiss%NULL%1,                 Jose%Jessurun%NULL%1,                 Surya V.%Seshan%NULL%1,                 Alain C.%Borczuk%NULL%1,                 Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,                 Kikkeri N%Naresh%NULL%1,                 Candice%Roufosse%NULL%1,                 Andrew G%Nicholson%NULL%1,                 Justin%Weir%NULL%1,                 Graham S%Cooke%NULL%1,                 Mark%Thursz%NULL%1,                 Pinelopi%Manousou%NULL%1,                 Richard%Corbett%NULL%1,                 Robert%Goldin%NULL%1,                 Safa%Al-Sarraj%NULL%1,                 Alireza%Abdolrasouli%NULL%1,                 Olivia C%Swann%NULL%1,                 Laury%Baillon%NULL%1,                 Rebecca%Penn%NULL%1,                 Wendy S%Barclay%NULL%1,                 Patrizia%Viola%NULL%1,                 Michael%Osborn%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3273,7 +3390,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>761</v>
+        <v>800</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -3302,7 +3419,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>762</v>
+        <v>801</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -3331,7 +3448,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>763</v>
+        <v>802</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -3360,7 +3477,7 @@
         <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>764</v>
+        <v>803</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -3389,7 +3506,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>765</v>
+        <v>804</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -3418,7 +3535,7 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>766</v>
+        <v>805</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -3447,7 +3564,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>767</v>
+        <v>806</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
@@ -3476,7 +3593,7 @@
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>768</v>
+        <v>807</v>
       </c>
       <c r="F9" t="s">
         <v>78</v>
@@ -3505,7 +3622,7 @@
         <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>769</v>
+        <v>808</v>
       </c>
       <c r="F10" t="s">
         <v>84</v>
@@ -3534,7 +3651,7 @@
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>770</v>
+        <v>809</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
@@ -3563,7 +3680,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>771</v>
+        <v>810</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -3592,7 +3709,7 @@
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>772</v>
+        <v>811</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
@@ -3621,7 +3738,7 @@
         <v>571</v>
       </c>
       <c r="E14" t="s">
-        <v>773</v>
+        <v>812</v>
       </c>
       <c r="F14" t="s">
         <v>101</v>
@@ -3650,7 +3767,7 @@
         <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>774</v>
+        <v>813</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -3679,7 +3796,7 @@
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>775</v>
+        <v>814</v>
       </c>
       <c r="F16" t="s">
         <v>106</v>
@@ -3708,7 +3825,7 @@
         <v>575</v>
       </c>
       <c r="E17" t="s">
-        <v>776</v>
+        <v>815</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -3737,7 +3854,7 @@
         <v>577</v>
       </c>
       <c r="E18" t="s">
-        <v>777</v>
+        <v>816</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -3766,7 +3883,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>778</v>
+        <v>817</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -3795,7 +3912,7 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>779</v>
+        <v>818</v>
       </c>
       <c r="F20" t="s">
         <v>123</v>
@@ -3824,7 +3941,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>780</v>
+        <v>819</v>
       </c>
       <c r="F21" t="s">
         <v>127</v>
@@ -3853,7 +3970,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>781</v>
+        <v>820</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -3882,7 +3999,7 @@
         <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>782</v>
+        <v>821</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -3911,7 +4028,7 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>783</v>
+        <v>822</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -3940,7 +4057,7 @@
         <v>421</v>
       </c>
       <c r="E25" t="s">
-        <v>784</v>
+        <v>823</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -3969,7 +4086,7 @@
         <v>586</v>
       </c>
       <c r="E26" t="s">
-        <v>785</v>
+        <v>824</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
@@ -3998,7 +4115,7 @@
         <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>786</v>
+        <v>825</v>
       </c>
       <c r="F27" t="s">
         <v>150</v>
@@ -4027,7 +4144,7 @@
         <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>787</v>
+        <v>826</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -4056,7 +4173,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>788</v>
+        <v>827</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -4085,7 +4202,7 @@
         <v>429</v>
       </c>
       <c r="E30" t="s">
-        <v>789</v>
+        <v>828</v>
       </c>
       <c r="F30" t="s">
         <v>32</v>
@@ -4114,7 +4231,7 @@
         <v>592</v>
       </c>
       <c r="E31" t="s">
-        <v>790</v>
+        <v>829</v>
       </c>
       <c r="F31" t="s">
         <v>165</v>
@@ -4143,7 +4260,7 @@
         <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>791</v>
+        <v>830</v>
       </c>
       <c r="F32" t="s">
         <v>170</v>
@@ -4172,7 +4289,7 @@
         <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>792</v>
+        <v>831</v>
       </c>
       <c r="F33" t="s">
         <v>175</v>
@@ -4201,7 +4318,7 @@
         <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>793</v>
+        <v>832</v>
       </c>
       <c r="F34" t="s">
         <v>179</v>
@@ -4230,7 +4347,7 @@
         <v>597</v>
       </c>
       <c r="E35" t="s">
-        <v>794</v>
+        <v>833</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -4259,7 +4376,7 @@
         <v>599</v>
       </c>
       <c r="E36" t="s">
-        <v>795</v>
+        <v>834</v>
       </c>
       <c r="F36" t="s">
         <v>189</v>
@@ -4288,7 +4405,7 @@
         <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>796</v>
+        <v>835</v>
       </c>
       <c r="F37" t="s">
         <v>194</v>
@@ -4317,7 +4434,7 @@
         <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>797</v>
+        <v>836</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -4346,7 +4463,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>798</v>
+        <v>837</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -4375,7 +4492,7 @@
         <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>799</v>
+        <v>838</v>
       </c>
       <c r="F40" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/11.xlsx
+++ b/Covid_19_Dataset_and_References/References/11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5084" uniqueCount="839">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5364" uniqueCount="883">
   <si>
     <t>Doi</t>
   </si>
@@ -2995,6 +2995,138 @@
   </si>
   <si>
     <t>[Brian%Hanley%NULL%1,                 Kikkeri N%Naresh%NULL%1,                 Candice%Roufosse%NULL%1,                 Andrew G%Nicholson%NULL%1,                 Justin%Weir%NULL%1,                 Graham S%Cooke%NULL%1,                 Mark%Thursz%NULL%1,                 Pinelopi%Manousou%NULL%1,                 Richard%Corbett%NULL%1,                 Robert%Goldin%NULL%1,                 Safa%Al-Sarraj%NULL%1,                 Alireza%Abdolrasouli%NULL%1,                 Olivia C%Swann%NULL%1,                 Laury%Baillon%NULL%1,                 Rebecca%Penn%NULL%1,                 Wendy S%Barclay%NULL%1,                 Patrizia%Viola%NULL%1,                 Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,                  Renata A A%Monteiro%NULL%2,                  Renata A A%Monteiro%NULL%0,                  Luiz F F%da Silva%NULL%1,                  Denise M A C%Malheiros%NULL%1,                  Ellen P%de Oliveira%NULL%1,                  Jair%Theodoro‐Filho%NULL%1,                  João R R%Pinho%NULL%1,                  Michele S%Gomes‐Gouvêa%NULL%1,                  Ana P M%Salles%NULL%1,                  Ilka R S%de Oliveira%NULL%1,                  Thais%Mauad%NULL%1,                  Paulo H N%Saldiva%NULL%1,                  Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>_PMC_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,                Burkhardt%Katrin%coreGivesNoEmail%1,                Claus%Rainer%coreGivesNoEmail%1,                Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,                M\u00e4rkl%Bruno%coreGivesNoEmail%1,                Schaller%Tina%coreGivesNoEmail%1,                Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,                  Dwayne A.%Wolf%NULL%1,                  Bihong%Zhao%NULL%1,                  Bindu%Akkanti%NULL%1,                  Michelle%McDonald%NULL%1,                  Laura%Lelenwa%NULL%1,                  Noah%Reilly%NULL%1,                  Giulia%Ottaviani%NULL%1,                  M. Tarek%Elghetany%NULL%1,                  Daniel Ocazionez%Trujillo%NULL%1,                  Gabriel M.%Aisenberg%NULL%1,                  Mohammad%Madjid%NULL%1,                  Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Lei%Yan%xref no email%1,            Mahnoor%Mir%xref no email%1,            Paloma%Sanchez%xref no email%1,            Moeezullah%Beg%xref no email%1,            Jay%Peters%xref no email%1,            Omar%Enriquez%xref no email%1,            Andrea%Gilbert%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,                  Erin G.%Brooks%NULL%1,                  Joshua%Akers%NULL%1,                  Danielle%Armstrong%NULL%1,                  Lauren%Decker%NULL%1,                  Adam%Gonzalez%NULL%1,                  William%Humphrey%NULL%1,                  Romana%Mayer%NULL%1,                  Matthew%Miller%NULL%1,                  Catherine%Perez%NULL%1,                  Jose Antonio Ruiz%Arango%NULL%1,                  Lakshmanan%Sathyavagiswaran%NULL%1,                  Wendy%Stroh%NULL%1,                  Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,                  Jan-Peter%Sperhake%NULL%2,                  Marc%Lütgehetmann%NULL%2,                  Stefan%Steurer%NULL%2,                  Carolin%Edler%NULL%1,                  Axel%Heinemann%NULL%2,                  Fabian%Heinrich%NULL%2,                  Herbert%Mushumba%NULL%2,                  Inga%Kniep%NULL%1,                  Ann Sophie%Schröder%NULL%2,                  Christoph%Burdelski%NULL%2,                  Geraldine%de Heer%NULL%2,                  Axel%Nierhaus%NULL%2,                  Daniel%Frings%NULL%2,                  Susanne%Pfefferle%NULL%1,                  Heinrich%Becker%NULL%1,                  Hanns%Bredereke-Wiedling%NULL%1,                  Andreas%de Weerth%NULL%2,                  Hans-Richard%Paschen%NULL%1,                  Sara%Sheikhzadeh-Eggers%NULL%1,                  Axel%Stang%NULL%1,                  Stefan%Schmiedel%NULL%1,                  Carsten%Bokemeyer%NULL%1,                  Marylyn M.%Addo%NULL%1,                  Martin%Aepfelbacher%NULL%2,                  Klaus%Püschel%NULL%2,                  Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,                  Jasmin D%Haslbauer%NULL%4,                  Jasmin D%Haslbauer%NULL%0,                  Ronny%Nienhold%NULL%2,                  Spasenija%Savic%NULL%2,                  Helmut%Hopfer%NULL%2,                  Nikolaus%Deigendesch%NULL%2,                  Stephan%Frank%NULL%2,                  Daniel%Turek%NULL%2,                  Niels%Willi%NULL%2,                  Hans%Pargger%NULL%2,                  Stefano%Bassetti%NULL%2,                  Joerg D%Leuppi%NULL%2,                  Gieri%Cathomas%NULL%2,                  Markus%Tolnay%NULL%2,                  Kirsten D%Mertz%NULL%2,                  Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,                  Jasmin D%Haslbauer%NULL%0,                  Jasmin D%Haslbauer%NULL%0,                  Ronny%Nienhold%NULL%0,                  Spasenija%Savic%NULL%0,                  Helmut%Hopfer%NULL%0,                  Nikolaus%Deigendesch%NULL%0,                  Stephan%Frank%NULL%0,                  Daniel%Turek%NULL%0,                  Niels%Willi%NULL%0,                  Hans%Pargger%NULL%0,                  Stefano%Bassetti%NULL%0,                  Joerg D%Leuppi%NULL%0,                  Gieri%Cathomas%NULL%0,                  Markus%Tolnay%NULL%0,                  Kirsten D%Mertz%NULL%0,                  Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,                  Andreas J%Flammer%NULL%1,                  Peter%Steiger%NULL%1,                  Martina%Haberecker%NULL%1,                  Rea%Andermatt%NULL%1,                  Annelies S%Zinkernagel%NULL%1,                  Mandeep R%Mehra%NULL%1,                  Reto A%Schuepbach%NULL%1,                  Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,                  Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,                  Yong%Xiong%NULL%0,                  Huan%Liu%NULL%3,                  Li%Niu%NULL%1,                  Jianchun%Guo%NULL%1,                  Meiyan%Liao%NULL%1,                  Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>_PMC_elsevier_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,                  Eric J%Duval%NULL%1,                  Edana%Stroberg%NULL%1,                  Subha%Ghosh%NULL%1,                  Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,                  Pilar%Alemany Monraval%NULL%1,                  Carmen%Medina Medina%NULL%1,                  Ana%Jiménez Sánchez%NULL%1,                  Juan Carlos%Andrés Teruel%NULL%1,                  José%Ferrando Marco%NULL%1,                  Víctor%Puglia Santos%NULL%1,                  Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,                  Ann Sophie%Schröder%NULL%0,                  Martin%Aepfelbacher%NULL%0,                  Antonia%Fitzek%NULL%1,                  Axel%Heinemann%NULL%0,                  Fabian%Heinrich%NULL%0,                  Anke%Klein%NULL%1,                  Felicia%Langenwalder%NULL%1,                  Marc%Lütgehetmann%NULL%0,                  Kira%Meißner%NULL%1,                  Klaus%Püschel%NULL%0,                  Julia%Schädler%NULL%1,                  Stefan%Steurer%NULL%0,                  Herbert%Mushumba%NULL%0,                  Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>_PMC_Springer_CROSSREF</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,                Blankenberg%Stefan S%coreGivesNoEmail%1,                Brauninger%Hanna%coreGivesNoEmail%1,                Edler%Caroline%coreGivesNoEmail%1,                Escher%Felicitas%coreGivesNoEmail%1,                Fitzek%Antonia%coreGivesNoEmail%1,                Kirchhof%Paulus%coreGivesNoEmail%1,                Lindner%Diana%coreGivesNoEmail%1,                Meissner%Kira%coreGivesNoEmail%1,                Puschel%Klaus%coreGivesNoEmail%1,                Scherschel%Katharina%coreGivesNoEmail%1,                Schultheiss%Heinz-Peter%coreGivesNoEmail%1,                Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,                  Holly%Harper%NULL%1,                  Behtash G%Nezami%NULL%1,                  Daniel L%Shen%NULL%1,                  Simona Pichler%Sekulic%NULL%1,                  Aaron T%Koeth%NULL%1,                  Clifford V%Harding%NULL%1,                  Hannah%Gilmore%NULL%1,                  Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,                  Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,                  Johannes Alexander%Lobrinus%NULL%2,                  Johannes Alexander%Lobrinus%NULL%0,                  Manuel%Schibler%NULL%1,                  Tony%Fracasso%NULL%1,                  Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,                  Aibek%Akmatbekov%NULL%1,                  Jack L%Harbert%NULL%1,                  Guang%Li%NULL%1,                  J%Quincy Brown%NULL%1,                  Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,                  Behnaz%Jahanbin%NULL%1,                  Masoomeh%Safaei%NULL%1,                  Laya%Amoozadeh%NULL%1,                  Meysam%Khoshavi%NULL%1,                  Vahid%Mehrtash%NULL%1,                  Bita%Jafarzadeh%NULL%1,                  Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,                  Jing%Xie%NULL%2,                  Lei%Zhao%NULL%1,                  Xiaochun%Fei%NULL%1,                  Heng%Zhang%NULL%1,                  Yun%Tan%NULL%1,                  Xiu%Nie%NULL%1,                  Luting%Zhou%NULL%1,                  Zhenhua%Liu%NULL%1,                  Yong%Ren%NULL%1,                  Ling%Yuan%NULL%1,                  Yu%Zhang%NULL%1,                  Jinsheng%Zhang%NULL%1,                  Liwei%Liang%NULL%1,                  Xinwei%Chen%NULL%1,                  Xin%Liu%NULL%1,                  Peng%Wang%NULL%1,                  Xiao%Han%NULL%1,                  Xiangqin%Weng%NULL%1,                  Ying%Chen%NULL%1,                  Ting%Yu%NULL%0,                  Xinxin%Zhang%NULL%0,                  Jun%Cai%caijun@shsmu.edu.cn%1,                  Rong%Chen%crjudy@126.com%2,                  Zhengli%Shi%zlshi@wh.iov.cn%2,                  Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,                  Selina%Traxler%NULL%2,                  Selina%Traxler%NULL%0,                  Michael%Bitzer%NULL%1,                  Helene%Häberle%NULL%1,                  Wolfgang%Raiser%NULL%1,                  Dominik%Nann%NULL%1,                  Leonie%Frauenfeld%NULL%1,                  Antonio%Vogelsberg%NULL%1,                  Karin%Klingel%NULL%1,                  Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,                  Thomas%Ruder%NULL%1,                  Rilana%Baumeister%NULL%1,                  Stephan%Bolliger%NULL%1,                  Michael%Thali%NULL%1,                  Eva%Meixner%NULL%1,                  Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%2,                  Lei%Shi%NULL%1,                  Yijin%Wang%NULL%1,                  Jiyuan%Zhang%NULL%1,                  Lei%Huang%NULL%2,                  Chao%Zhang%NULL%1,                  Shuhong%Liu%NULL%1,                  Peng%Zhao%NULL%1,                  Hongxia%Liu%NULL%1,                  Li%Zhu%NULL%1,                  Yanhong%Tai%NULL%1,                  Changqing%Bai%NULL%1,                  Tingting%Gao%NULL%1,                  Jinwen%Song%NULL%1,                  Peng%Xia%NULL%1,                  Jinghui%Dong%NULL%1,                  Jingmin%Zhao%NULL%1,                  Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Esther%Youd%xref no email%1,            Luiza%Moore%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,                  Benjamin%Gaborit%NULL%2,                  Benjamin%Gaborit%NULL%0,                  Claire%Toquet%NULL%1,                  Louise%Castain%NULL%1,                  Antonin%Bal%NULL%1,                  Pierre Paul%Arrigoni%NULL%1,                  Raphaël%Lecomte%NULL%1,                  Renaud%Clement%NULL%1,                  Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,                  Radu Lucian%Buzulică%NULL%1,                  Daniel%Pirici%NULL%1,                  Mihail Constantin%Ceauşu%NULL%1,                  Radu Vasile%Iman%NULL%1,                  Ovidiu-Mircea%Gheorghe%NULL%1,                  Simona Daniela%Neamţu%NULL%1,                  Liliana%Stanca%NULL%1,                  Răzvan%Ene%NULL%1,                  Samir%Kumar-Singh%NULL%1,                  Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,                  Alexander%Leunig%NULL%1,                  Sophia%Brambs%NULL%1,                  Rainer%Kaiser%NULL%1,                  Tobias%Weinberger%NULL%1,                  Michael%Weigand%NULL%1,                  Maximilian%Muenchhoff%NULL%1,                  Johannes C.%Hellmuth%NULL%1,                  Stephan%Ledderose%NULL%1,                  Heiko%Schulz%NULL%1,                  Clemens%Scherer%NULL%1,                  Martina%Rudelius%NULL%1,                  Michael%Zoller%NULL%1,                  Dominik%Höchter%NULL%1,                  Oliver%Keppler%NULL%1,                  Daniel%Teupser%NULL%1,                  Bernhard%Zwißler%NULL%1,                  Michael%von Bergwelt-Baildon%NULL%1,                  Stefan%Kääb%NULL%1,                  Steffen%Massberg%NULL%1,                  Kami%Pekayvaz%NULL%1,                  Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,                  Alexandra%Grosse%NULL%1,                  Helmut J.F.%Salzer%NULL%1,                  Martin W.%Dünser%NULL%1,                  Reinhard%Motz%NULL%1,                  Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna Ferl\u00f8v%Schwensen%xref no email%1,            Line Kristine%Borreschmidt%xref no email%1,            Merete%Storgaard%xref no email%1,            S\u00f8ren%Redsted%xref no email%1,            Steffen%Christensen%xref no email%1,            Line Bille%Madsen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,                  Ricardo%De Mendonça%NULL%1,                  Nicky%D’Haene%NULL%1,                  Sarah%De Clercq%NULL%1,                  Camille%Verocq%NULL%1,                  Laetitia%Lebrun%NULL%1,                  Philomène%Lavis%NULL%1,                  Marie-Lucie%Racu%NULL%1,                  Anne-Laure%Trépant%NULL%1,                  Calliope%Maris%NULL%1,                  Sandrine%Rorive%NULL%1,                  Jean-Christophe%Goffard%NULL%1,                  Olivier%De Witte%NULL%1,                  Lorenzo%Peluso%NULL%1,                  Jean-Louis%Vincent%NULL%1,                  Christine%Decaestecker%NULL%1,                  Fabio Silvio%Taccone%NULL%1,                  Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,                  Hiroyuki%Hayashi%NULL%2,                  Hiroyuki%Hayashi%NULL%0,                  Yukihiro%Yoshimura%NULL%1,                  Hiroaki%Sasaki%NULL%1,                  Hiroshi%Horiuchi%NULL%1,                  Nobuyuki%Miyata%NULL%1,                  Natsuo%Tachikawa%NULL%1,                  Yuki%Tsuchiya%NULL%1,                  Hideaki%Mitsui%NULL%1,                  Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,                  Ja-Mun%Chong%NULL%1,                  Noriko%Nakajima%NULL%1,                  Masahiro%Sano%NULL%1,                  Jun%Yamazaki%NULL%1,                  Ippei%Miyamoto%NULL%1,                  Haruka%Nishioka%NULL%1,                  Hidetaka%Akita%NULL%1,                  Yuko%Sato%NULL%1,                  Michiyo%Kataoka%NULL%1,                  Harutaka%Katano%NULL%1,                  Minoru%Tobiume%NULL%1,                  Tsuyoshi%Sekizuka%NULL%1,                  Kentaro%Itokawa%NULL%1,                  Makoto%Kuroda%NULL%1,                  Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,                  Anuradha%Lala%NULL%1,                  Emilia%Bagiella%NULL%1,                  Helena L.%Chang%NULL%1,                  Pedro R.%Moreno%NULL%1,                  Elisabet%Pujadas%NULL%1,                  Varun%Arvind%NULL%1,                  Sonali%Bose%NULL%1,                  Alexander W.%Charney%NULL%1,                  Martin D.%Chen%NULL%1,                  Carlos%Cordon-Cardo%NULL%1,                  Andrew S.%Dunn%NULL%1,                  Michael E.%Farkouh%NULL%1,                  Benjamin S.%Glicksberg%NULL%1,                  Arash%Kia%NULL%1,                  Roopa%Kohli-Seth%NULL%1,                  Matthew A.%Levin%NULL%1,                  Prem%Timsina%NULL%1,                  Shan%Zhao%NULL%1,                  Zahi A.%Fayad%NULL%5,                  Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,                  Kiran T.%Thakur%NULL%2,                  Kiran T.%Thakur%NULL%0,                  Anna S.%Nordvig%NULL%1,                  Morgan L.%Prust%NULL%1,                  William%Roth%NULL%1,                  Angela%Lignelli%NULL%1,                  Anne-Catrin%Uhlemann%NULL%1,                  Emily Happy%Miller%NULL%1,                  Shajo%Kunnath-Velayudhan%NULL%1,                  Armando%Del Portillo%NULL%1,                  Yang%Liu%NULL%1,                  Gunnar%Hargus%NULL%1,                  Andrew F.%Teich%NULL%1,                  Richard A.%Hickman%NULL%1,                  Kurenai%Tanji%NULL%1,                  James E.%Goldman%NULL%1,                  Phyllis L.%Faust%NULL%1,                  Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,                  Lilioara-Alexandra%Muja%NULL%2,                  Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,                  Chen%Shao%NULL%2,                  Chen%Shao%NULL%0,                  Xiao-jie%Huang%NULL%1,                  Lin%Sun%NULL%1,                  Ling-jia%Meng%NULL%1,                  Hui%Liu%NULL%2,                  Shi-jie%Zhang%NULL%1,                  Hong-jun%Li%NULL%1,                  Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,                Ficken%C.%coreGivesNoEmail%1,                Goddard%M.%coreGivesNoEmail%1,                Jensen%M. P.%coreGivesNoEmail%1,                Le%Quesne J.%coreGivesNoEmail%1,                Menon%D.%coreGivesNoEmail%1,                Officer\u2010Jones%L.%coreGivesNoEmail%1,                Smith%C.%coreGivesNoEmail%1,                Teod\u00f2sio%A.%coreGivesNoEmail%1,                Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,                  Maria%Mostyka%NULL%1,                  Alicia%Dillard%NULL%1,                  Diana R.%Berman%NULL%1,                  Lucy X.%Ma%NULL%1,                  Amy%Chadburn%NULL%1,                  Rhonda K.%Yantiss%NULL%1,                  Jose%Jessurun%NULL%1,                  Surya V.%Seshan%NULL%1,                  Alain C.%Borczuk%NULL%1,                  Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,                  Kikkeri N%Naresh%NULL%1,                  Candice%Roufosse%NULL%1,                  Andrew G%Nicholson%NULL%1,                  Justin%Weir%NULL%1,                  Graham S%Cooke%NULL%1,                  Mark%Thursz%NULL%1,                  Pinelopi%Manousou%NULL%1,                  Richard%Corbett%NULL%1,                  Robert%Goldin%NULL%1,                  Safa%Al-Sarraj%NULL%1,                  Alireza%Abdolrasouli%NULL%1,                  Olivia C%Swann%NULL%1,                  Laury%Baillon%NULL%1,                  Rebecca%Penn%NULL%1,                  Wendy S%Barclay%NULL%1,                  Patrizia%Viola%NULL%1,                  Michael%Osborn%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3390,7 +3522,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>800</v>
+        <v>839</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -3402,7 +3534,7 @@
         <v>59</v>
       </c>
       <c r="I2" t="s">
-        <v>207</v>
+        <v>840</v>
       </c>
     </row>
     <row r="3">
@@ -3419,7 +3551,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>801</v>
+        <v>841</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -3431,7 +3563,7 @@
         <v>60</v>
       </c>
       <c r="I3" t="s">
-        <v>82</v>
+        <v>842</v>
       </c>
     </row>
     <row r="4">
@@ -3448,7 +3580,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>802</v>
+        <v>843</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -3460,7 +3592,7 @@
         <v>65</v>
       </c>
       <c r="I4" t="s">
-        <v>209</v>
+        <v>844</v>
       </c>
     </row>
     <row r="5">
@@ -3477,7 +3609,7 @@
         <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>803</v>
+        <v>845</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -3489,7 +3621,7 @@
         <v>400</v>
       </c>
       <c r="I5" t="s">
-        <v>82</v>
+        <v>842</v>
       </c>
     </row>
     <row r="6">
@@ -3506,7 +3638,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>804</v>
+        <v>846</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -3518,7 +3650,7 @@
         <v>70</v>
       </c>
       <c r="I6" t="s">
-        <v>207</v>
+        <v>840</v>
       </c>
     </row>
     <row r="7">
@@ -3535,7 +3667,7 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>805</v>
+        <v>847</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -3547,7 +3679,7 @@
         <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>207</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8">
@@ -3564,7 +3696,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>806</v>
+        <v>848</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
@@ -3576,7 +3708,7 @@
         <v>79</v>
       </c>
       <c r="I8" t="s">
-        <v>207</v>
+        <v>840</v>
       </c>
     </row>
     <row r="9">
@@ -3593,7 +3725,7 @@
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>807</v>
+        <v>849</v>
       </c>
       <c r="F9" t="s">
         <v>78</v>
@@ -3605,7 +3737,7 @@
         <v>79</v>
       </c>
       <c r="I9" t="s">
-        <v>207</v>
+        <v>840</v>
       </c>
     </row>
     <row r="10">
@@ -3622,7 +3754,7 @@
         <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>808</v>
+        <v>850</v>
       </c>
       <c r="F10" t="s">
         <v>84</v>
@@ -3634,7 +3766,7 @@
         <v>60</v>
       </c>
       <c r="I10" t="s">
-        <v>209</v>
+        <v>844</v>
       </c>
     </row>
     <row r="11">
@@ -3651,7 +3783,7 @@
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>809</v>
+        <v>851</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
@@ -3663,7 +3795,7 @@
         <v>89</v>
       </c>
       <c r="I11" t="s">
-        <v>216</v>
+        <v>852</v>
       </c>
     </row>
     <row r="12">
@@ -3680,7 +3812,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>810</v>
+        <v>853</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -3692,7 +3824,7 @@
         <v>60</v>
       </c>
       <c r="I12" t="s">
-        <v>207</v>
+        <v>840</v>
       </c>
     </row>
     <row r="13">
@@ -3709,7 +3841,7 @@
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>811</v>
+        <v>854</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
@@ -3721,7 +3853,7 @@
         <v>79</v>
       </c>
       <c r="I13" t="s">
-        <v>209</v>
+        <v>844</v>
       </c>
     </row>
     <row r="14">
@@ -3738,7 +3870,7 @@
         <v>571</v>
       </c>
       <c r="E14" t="s">
-        <v>812</v>
+        <v>855</v>
       </c>
       <c r="F14" t="s">
         <v>101</v>
@@ -3750,7 +3882,7 @@
         <v>102</v>
       </c>
       <c r="I14" t="s">
-        <v>220</v>
+        <v>856</v>
       </c>
     </row>
     <row r="15">
@@ -3767,7 +3899,7 @@
         <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>813</v>
+        <v>857</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -3779,7 +3911,7 @@
         <v>60</v>
       </c>
       <c r="I15" t="s">
-        <v>82</v>
+        <v>842</v>
       </c>
     </row>
     <row r="16">
@@ -3796,7 +3928,7 @@
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>814</v>
+        <v>858</v>
       </c>
       <c r="F16" t="s">
         <v>106</v>
@@ -3808,7 +3940,7 @@
         <v>60</v>
       </c>
       <c r="I16" t="s">
-        <v>207</v>
+        <v>840</v>
       </c>
     </row>
     <row r="17">
@@ -3825,7 +3957,7 @@
         <v>575</v>
       </c>
       <c r="E17" t="s">
-        <v>815</v>
+        <v>859</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -3837,7 +3969,7 @@
         <v>111</v>
       </c>
       <c r="I17" t="s">
-        <v>220</v>
+        <v>856</v>
       </c>
     </row>
     <row r="18">
@@ -3854,7 +3986,7 @@
         <v>577</v>
       </c>
       <c r="E18" t="s">
-        <v>816</v>
+        <v>860</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -3866,7 +3998,7 @@
         <v>111</v>
       </c>
       <c r="I18" t="s">
-        <v>220</v>
+        <v>856</v>
       </c>
     </row>
     <row r="19">
@@ -3883,7 +4015,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>817</v>
+        <v>861</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -3895,7 +4027,7 @@
         <v>60</v>
       </c>
       <c r="I19" t="s">
-        <v>209</v>
+        <v>844</v>
       </c>
     </row>
     <row r="20">
@@ -3912,7 +4044,7 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>818</v>
+        <v>862</v>
       </c>
       <c r="F20" t="s">
         <v>123</v>
@@ -3924,7 +4056,7 @@
         <v>60</v>
       </c>
       <c r="I20" t="s">
-        <v>207</v>
+        <v>840</v>
       </c>
     </row>
     <row r="21">
@@ -3941,7 +4073,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>819</v>
+        <v>863</v>
       </c>
       <c r="F21" t="s">
         <v>127</v>
@@ -3953,7 +4085,7 @@
         <v>128</v>
       </c>
       <c r="I21" t="s">
-        <v>209</v>
+        <v>844</v>
       </c>
     </row>
     <row r="22">
@@ -3970,7 +4102,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>820</v>
+        <v>864</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -3982,7 +4114,7 @@
         <v>133</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>856</v>
       </c>
     </row>
     <row r="23">
@@ -3999,7 +4131,7 @@
         <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>821</v>
+        <v>865</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -4011,7 +4143,7 @@
         <v>138</v>
       </c>
       <c r="I23" t="s">
-        <v>209</v>
+        <v>844</v>
       </c>
     </row>
     <row r="24">
@@ -4028,7 +4160,7 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>822</v>
+        <v>866</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -4040,7 +4172,7 @@
         <v>60</v>
       </c>
       <c r="I24" t="s">
-        <v>209</v>
+        <v>844</v>
       </c>
     </row>
     <row r="25">
@@ -4057,7 +4189,7 @@
         <v>421</v>
       </c>
       <c r="E25" t="s">
-        <v>823</v>
+        <v>867</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -4069,7 +4201,7 @@
         <v>423</v>
       </c>
       <c r="I25" t="s">
-        <v>82</v>
+        <v>842</v>
       </c>
     </row>
     <row r="26">
@@ -4086,7 +4218,7 @@
         <v>586</v>
       </c>
       <c r="E26" t="s">
-        <v>824</v>
+        <v>868</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
@@ -4098,7 +4230,7 @@
         <v>146</v>
       </c>
       <c r="I26" t="s">
-        <v>220</v>
+        <v>856</v>
       </c>
     </row>
     <row r="27">
@@ -4115,7 +4247,7 @@
         <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>825</v>
+        <v>869</v>
       </c>
       <c r="F27" t="s">
         <v>150</v>
@@ -4127,7 +4259,7 @@
         <v>151</v>
       </c>
       <c r="I27" t="s">
-        <v>207</v>
+        <v>840</v>
       </c>
     </row>
     <row r="28">
@@ -4144,7 +4276,7 @@
         <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>826</v>
+        <v>870</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -4156,7 +4288,7 @@
         <v>156</v>
       </c>
       <c r="I28" t="s">
-        <v>207</v>
+        <v>840</v>
       </c>
     </row>
     <row r="29">
@@ -4173,7 +4305,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>827</v>
+        <v>871</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -4185,7 +4317,7 @@
         <v>161</v>
       </c>
       <c r="I29" t="s">
-        <v>209</v>
+        <v>844</v>
       </c>
     </row>
     <row r="30">
@@ -4202,7 +4334,7 @@
         <v>429</v>
       </c>
       <c r="E30" t="s">
-        <v>828</v>
+        <v>872</v>
       </c>
       <c r="F30" t="s">
         <v>32</v>
@@ -4214,7 +4346,7 @@
         <v>431</v>
       </c>
       <c r="I30" t="s">
-        <v>82</v>
+        <v>842</v>
       </c>
     </row>
     <row r="31">
@@ -4231,7 +4363,7 @@
         <v>592</v>
       </c>
       <c r="E31" t="s">
-        <v>829</v>
+        <v>873</v>
       </c>
       <c r="F31" t="s">
         <v>165</v>
@@ -4243,7 +4375,7 @@
         <v>166</v>
       </c>
       <c r="I31" t="s">
-        <v>220</v>
+        <v>856</v>
       </c>
     </row>
     <row r="32">
@@ -4260,7 +4392,7 @@
         <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>830</v>
+        <v>874</v>
       </c>
       <c r="F32" t="s">
         <v>170</v>
@@ -4272,7 +4404,7 @@
         <v>171</v>
       </c>
       <c r="I32" t="s">
-        <v>207</v>
+        <v>840</v>
       </c>
     </row>
     <row r="33">
@@ -4289,7 +4421,7 @@
         <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>831</v>
+        <v>875</v>
       </c>
       <c r="F33" t="s">
         <v>175</v>
@@ -4301,7 +4433,7 @@
         <v>60</v>
       </c>
       <c r="I33" t="s">
-        <v>207</v>
+        <v>840</v>
       </c>
     </row>
     <row r="34">
@@ -4318,7 +4450,7 @@
         <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>832</v>
+        <v>876</v>
       </c>
       <c r="F34" t="s">
         <v>179</v>
@@ -4330,7 +4462,7 @@
         <v>180</v>
       </c>
       <c r="I34" t="s">
-        <v>209</v>
+        <v>844</v>
       </c>
     </row>
     <row r="35">
@@ -4347,7 +4479,7 @@
         <v>597</v>
       </c>
       <c r="E35" t="s">
-        <v>833</v>
+        <v>877</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -4359,7 +4491,7 @@
         <v>185</v>
       </c>
       <c r="I35" t="s">
-        <v>220</v>
+        <v>856</v>
       </c>
     </row>
     <row r="36">
@@ -4376,7 +4508,7 @@
         <v>599</v>
       </c>
       <c r="E36" t="s">
-        <v>834</v>
+        <v>878</v>
       </c>
       <c r="F36" t="s">
         <v>189</v>
@@ -4388,7 +4520,7 @@
         <v>190</v>
       </c>
       <c r="I36" t="s">
-        <v>220</v>
+        <v>856</v>
       </c>
     </row>
     <row r="37">
@@ -4405,7 +4537,7 @@
         <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>835</v>
+        <v>879</v>
       </c>
       <c r="F37" t="s">
         <v>194</v>
@@ -4417,7 +4549,7 @@
         <v>195</v>
       </c>
       <c r="I37" t="s">
-        <v>207</v>
+        <v>840</v>
       </c>
     </row>
     <row r="38">
@@ -4434,7 +4566,7 @@
         <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>836</v>
+        <v>880</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -4446,7 +4578,7 @@
         <v>60</v>
       </c>
       <c r="I38" t="s">
-        <v>82</v>
+        <v>842</v>
       </c>
     </row>
     <row r="39">
@@ -4463,7 +4595,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>837</v>
+        <v>881</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -4475,7 +4607,7 @@
         <v>200</v>
       </c>
       <c r="I39" t="s">
-        <v>207</v>
+        <v>840</v>
       </c>
     </row>
     <row r="40">
@@ -4492,7 +4624,7 @@
         <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>838</v>
+        <v>882</v>
       </c>
       <c r="F40" t="s">
         <v>204</v>
@@ -4504,7 +4636,7 @@
         <v>60</v>
       </c>
       <c r="I40" t="s">
-        <v>209</v>
+        <v>844</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/11.xlsx
+++ b/Covid_19_Dataset_and_References/References/11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5364" uniqueCount="883">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5644" uniqueCount="922">
   <si>
     <t>Doi</t>
   </si>
@@ -3127,6 +3127,123 @@
   </si>
   <si>
     <t>[Brian%Hanley%NULL%1,                  Kikkeri N%Naresh%NULL%1,                  Candice%Roufosse%NULL%1,                  Andrew G%Nicholson%NULL%1,                  Justin%Weir%NULL%1,                  Graham S%Cooke%NULL%1,                  Mark%Thursz%NULL%1,                  Pinelopi%Manousou%NULL%1,                  Richard%Corbett%NULL%1,                  Robert%Goldin%NULL%1,                  Safa%Al-Sarraj%NULL%1,                  Alireza%Abdolrasouli%NULL%1,                  Olivia C%Swann%NULL%1,                  Laury%Baillon%NULL%1,                  Rebecca%Penn%NULL%1,                  Wendy S%Barclay%NULL%1,                  Patrizia%Viola%NULL%1,                  Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,                   Renata A A%Monteiro%NULL%2,                   Renata A A%Monteiro%NULL%0,                   Luiz F F%da Silva%NULL%1,                   Denise M A C%Malheiros%NULL%1,                   Ellen P%de Oliveira%NULL%1,                   Jair%Theodoro‐Filho%NULL%1,                   João R R%Pinho%NULL%1,                   Michele S%Gomes‐Gouvêa%NULL%1,                   Ana P M%Salles%NULL%1,                   Ilka R S%de Oliveira%NULL%1,                   Thais%Mauad%NULL%1,                   Paulo H N%Saldiva%NULL%1,                   Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,                 Burkhardt%Katrin%coreGivesNoEmail%1,                 Claus%Rainer%coreGivesNoEmail%1,                 Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,                 M\u00e4rkl%Bruno%coreGivesNoEmail%1,                 Schaller%Tina%coreGivesNoEmail%1,                 Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,                   Dwayne A.%Wolf%NULL%1,                   Bihong%Zhao%NULL%1,                   Bindu%Akkanti%NULL%1,                   Michelle%McDonald%NULL%1,                   Laura%Lelenwa%NULL%1,                   Noah%Reilly%NULL%1,                   Giulia%Ottaviani%NULL%1,                   M. Tarek%Elghetany%NULL%1,                   Daniel Ocazionez%Trujillo%NULL%1,                   Gabriel M.%Aisenberg%NULL%1,                   Mohammad%Madjid%NULL%1,                   Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Yan%xref no email%1,             Mahnoor%Mir%xref no email%1,             Paloma%Sanchez%xref no email%1,             Moeezullah%Beg%xref no email%1,             Jay%Peters%xref no email%1,             Omar%Enriquez%xref no email%1,             Andrea%Gilbert%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,                   Erin G.%Brooks%NULL%1,                   Joshua%Akers%NULL%1,                   Danielle%Armstrong%NULL%1,                   Lauren%Decker%NULL%1,                   Adam%Gonzalez%NULL%1,                   William%Humphrey%NULL%1,                   Romana%Mayer%NULL%1,                   Matthew%Miller%NULL%1,                   Catherine%Perez%NULL%1,                   Jose Antonio Ruiz%Arango%NULL%1,                   Lakshmanan%Sathyavagiswaran%NULL%1,                   Wendy%Stroh%NULL%1,                   Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,                   Jan-Peter%Sperhake%NULL%2,                   Marc%Lütgehetmann%NULL%2,                   Stefan%Steurer%NULL%2,                   Carolin%Edler%NULL%1,                   Axel%Heinemann%NULL%2,                   Fabian%Heinrich%NULL%2,                   Herbert%Mushumba%NULL%2,                   Inga%Kniep%NULL%1,                   Ann Sophie%Schröder%NULL%2,                   Christoph%Burdelski%NULL%2,                   Geraldine%de Heer%NULL%2,                   Axel%Nierhaus%NULL%2,                   Daniel%Frings%NULL%2,                   Susanne%Pfefferle%NULL%1,                   Heinrich%Becker%NULL%1,                   Hanns%Bredereke-Wiedling%NULL%1,                   Andreas%de Weerth%NULL%2,                   Hans-Richard%Paschen%NULL%1,                   Sara%Sheikhzadeh-Eggers%NULL%1,                   Axel%Stang%NULL%1,                   Stefan%Schmiedel%NULL%1,                   Carsten%Bokemeyer%NULL%1,                   Marylyn M.%Addo%NULL%1,                   Martin%Aepfelbacher%NULL%2,                   Klaus%Püschel%NULL%2,                   Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,                   Jasmin D%Haslbauer%NULL%4,                   Jasmin D%Haslbauer%NULL%0,                   Ronny%Nienhold%NULL%2,                   Spasenija%Savic%NULL%2,                   Helmut%Hopfer%NULL%2,                   Nikolaus%Deigendesch%NULL%2,                   Stephan%Frank%NULL%2,                   Daniel%Turek%NULL%2,                   Niels%Willi%NULL%2,                   Hans%Pargger%NULL%2,                   Stefano%Bassetti%NULL%2,                   Joerg D%Leuppi%NULL%2,                   Gieri%Cathomas%NULL%2,                   Markus%Tolnay%NULL%2,                   Kirsten D%Mertz%NULL%2,                   Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,                   Jasmin D%Haslbauer%NULL%0,                   Jasmin D%Haslbauer%NULL%0,                   Ronny%Nienhold%NULL%0,                   Spasenija%Savic%NULL%0,                   Helmut%Hopfer%NULL%0,                   Nikolaus%Deigendesch%NULL%0,                   Stephan%Frank%NULL%0,                   Daniel%Turek%NULL%0,                   Niels%Willi%NULL%0,                   Hans%Pargger%NULL%0,                   Stefano%Bassetti%NULL%0,                   Joerg D%Leuppi%NULL%0,                   Gieri%Cathomas%NULL%0,                   Markus%Tolnay%NULL%0,                   Kirsten D%Mertz%NULL%0,                   Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,                   Andreas J%Flammer%NULL%1,                   Peter%Steiger%NULL%1,                   Martina%Haberecker%NULL%1,                   Rea%Andermatt%NULL%1,                   Annelies S%Zinkernagel%NULL%1,                   Mandeep R%Mehra%NULL%1,                   Reto A%Schuepbach%NULL%1,                   Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,                   Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,                   Yong%Xiong%NULL%0,                   Huan%Liu%NULL%3,                   Li%Niu%NULL%1,                   Jianchun%Guo%NULL%1,                   Meiyan%Liao%NULL%1,                   Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,                   Eric J%Duval%NULL%1,                   Edana%Stroberg%NULL%1,                   Subha%Ghosh%NULL%1,                   Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,                   Pilar%Alemany Monraval%NULL%1,                   Carmen%Medina Medina%NULL%1,                   Ana%Jiménez Sánchez%NULL%1,                   Juan Carlos%Andrés Teruel%NULL%1,                   José%Ferrando Marco%NULL%1,                   Víctor%Puglia Santos%NULL%1,                   Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,                   Ann Sophie%Schröder%NULL%0,                   Martin%Aepfelbacher%NULL%0,                   Antonia%Fitzek%NULL%1,                   Axel%Heinemann%NULL%0,                   Fabian%Heinrich%NULL%0,                   Anke%Klein%NULL%1,                   Felicia%Langenwalder%NULL%1,                   Marc%Lütgehetmann%NULL%0,                   Kira%Meißner%NULL%1,                   Klaus%Püschel%NULL%0,                   Julia%Schädler%NULL%1,                   Stefan%Steurer%NULL%0,                   Herbert%Mushumba%NULL%0,                   Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,                 Blankenberg%Stefan S%coreGivesNoEmail%1,                 Brauninger%Hanna%coreGivesNoEmail%1,                 Edler%Caroline%coreGivesNoEmail%1,                 Escher%Felicitas%coreGivesNoEmail%1,                 Fitzek%Antonia%coreGivesNoEmail%1,                 Kirchhof%Paulus%coreGivesNoEmail%1,                 Lindner%Diana%coreGivesNoEmail%1,                 Meissner%Kira%coreGivesNoEmail%1,                 Puschel%Klaus%coreGivesNoEmail%1,                 Scherschel%Katharina%coreGivesNoEmail%1,                 Schultheiss%Heinz-Peter%coreGivesNoEmail%1,                 Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,                   Holly%Harper%NULL%1,                   Behtash G%Nezami%NULL%1,                   Daniel L%Shen%NULL%1,                   Simona Pichler%Sekulic%NULL%1,                   Aaron T%Koeth%NULL%1,                   Clifford V%Harding%NULL%1,                   Hannah%Gilmore%NULL%1,                   Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,                   Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,                   Johannes Alexander%Lobrinus%NULL%2,                   Johannes Alexander%Lobrinus%NULL%0,                   Manuel%Schibler%NULL%1,                   Tony%Fracasso%NULL%1,                   Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,                   Aibek%Akmatbekov%NULL%1,                   Jack L%Harbert%NULL%1,                   Guang%Li%NULL%1,                   J%Quincy Brown%NULL%1,                   Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,                   Behnaz%Jahanbin%NULL%1,                   Masoomeh%Safaei%NULL%1,                   Laya%Amoozadeh%NULL%1,                   Meysam%Khoshavi%NULL%1,                   Vahid%Mehrtash%NULL%1,                   Bita%Jafarzadeh%NULL%1,                   Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,                   Jing%Xie%NULL%2,                   Lei%Zhao%NULL%1,                   Xiaochun%Fei%NULL%1,                   Heng%Zhang%NULL%1,                   Yun%Tan%NULL%1,                   Xiu%Nie%NULL%1,                   Luting%Zhou%NULL%1,                   Zhenhua%Liu%NULL%1,                   Yong%Ren%NULL%1,                   Ling%Yuan%NULL%1,                   Yu%Zhang%NULL%1,                   Jinsheng%Zhang%NULL%1,                   Liwei%Liang%NULL%1,                   Xinwei%Chen%NULL%1,                   Xin%Liu%NULL%1,                   Peng%Wang%NULL%1,                   Xiao%Han%NULL%1,                   Xiangqin%Weng%NULL%1,                   Ying%Chen%NULL%1,                   Ting%Yu%NULL%0,                   Xinxin%Zhang%NULL%0,                   Jun%Cai%caijun@shsmu.edu.cn%1,                   Rong%Chen%crjudy@126.com%2,                   Zhengli%Shi%zlshi@wh.iov.cn%2,                   Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,                   Selina%Traxler%NULL%2,                   Selina%Traxler%NULL%0,                   Michael%Bitzer%NULL%1,                   Helene%Häberle%NULL%1,                   Wolfgang%Raiser%NULL%1,                   Dominik%Nann%NULL%1,                   Leonie%Frauenfeld%NULL%1,                   Antonio%Vogelsberg%NULL%1,                   Karin%Klingel%NULL%1,                   Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,                   Thomas%Ruder%NULL%1,                   Rilana%Baumeister%NULL%1,                   Stephan%Bolliger%NULL%1,                   Michael%Thali%NULL%1,                   Eva%Meixner%NULL%1,                   Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,                   Lei%Shi%NULL%1,                   Yijin%Wang%NULL%1,                   Jiyuan%Zhang%NULL%1,                   Lei%Huang%NULL%2,                   Chao%Zhang%NULL%1,                   Shuhong%Liu%NULL%1,                   Peng%Zhao%NULL%1,                   Hongxia%Liu%NULL%1,                   Li%Zhu%NULL%1,                   Yanhong%Tai%NULL%1,                   Changqing%Bai%NULL%1,                   Tingting%Gao%NULL%1,                   Jinwen%Song%NULL%1,                   Peng%Xia%NULL%1,                   Jinghui%Dong%NULL%1,                   Jingmin%Zhao%NULL%1,                   Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Esther%Youd%xref no email%1,             Luiza%Moore%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,                   Benjamin%Gaborit%NULL%2,                   Benjamin%Gaborit%NULL%0,                   Claire%Toquet%NULL%1,                   Louise%Castain%NULL%1,                   Antonin%Bal%NULL%1,                   Pierre Paul%Arrigoni%NULL%1,                   Raphaël%Lecomte%NULL%1,                   Renaud%Clement%NULL%1,                   Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,                   Radu Lucian%Buzulică%NULL%1,                   Daniel%Pirici%NULL%1,                   Mihail Constantin%Ceauşu%NULL%1,                   Radu Vasile%Iman%NULL%1,                   Ovidiu-Mircea%Gheorghe%NULL%1,                   Simona Daniela%Neamţu%NULL%1,                   Liliana%Stanca%NULL%1,                   Răzvan%Ene%NULL%1,                   Samir%Kumar-Singh%NULL%1,                   Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,                   Alexander%Leunig%NULL%1,                   Sophia%Brambs%NULL%1,                   Rainer%Kaiser%NULL%1,                   Tobias%Weinberger%NULL%1,                   Michael%Weigand%NULL%1,                   Maximilian%Muenchhoff%NULL%1,                   Johannes C.%Hellmuth%NULL%1,                   Stephan%Ledderose%NULL%1,                   Heiko%Schulz%NULL%1,                   Clemens%Scherer%NULL%1,                   Martina%Rudelius%NULL%1,                   Michael%Zoller%NULL%1,                   Dominik%Höchter%NULL%1,                   Oliver%Keppler%NULL%1,                   Daniel%Teupser%NULL%1,                   Bernhard%Zwißler%NULL%1,                   Michael%von Bergwelt-Baildon%NULL%1,                   Stefan%Kääb%NULL%1,                   Steffen%Massberg%NULL%1,                   Kami%Pekayvaz%NULL%1,                   Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,                   Alexandra%Grosse%NULL%1,                   Helmut J.F.%Salzer%NULL%1,                   Martin W.%Dünser%NULL%1,                   Reinhard%Motz%NULL%1,                   Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna Ferl\u00f8v%Schwensen%xref no email%1,             Line Kristine%Borreschmidt%xref no email%1,             Merete%Storgaard%xref no email%1,             S\u00f8ren%Redsted%xref no email%1,             Steffen%Christensen%xref no email%1,             Line Bille%Madsen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,                   Ricardo%De Mendonça%NULL%1,                   Nicky%D’Haene%NULL%1,                   Sarah%De Clercq%NULL%1,                   Camille%Verocq%NULL%1,                   Laetitia%Lebrun%NULL%1,                   Philomène%Lavis%NULL%1,                   Marie-Lucie%Racu%NULL%1,                   Anne-Laure%Trépant%NULL%1,                   Calliope%Maris%NULL%1,                   Sandrine%Rorive%NULL%1,                   Jean-Christophe%Goffard%NULL%1,                   Olivier%De Witte%NULL%1,                   Lorenzo%Peluso%NULL%1,                   Jean-Louis%Vincent%NULL%1,                   Christine%Decaestecker%NULL%1,                   Fabio Silvio%Taccone%NULL%1,                   Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,                   Hiroyuki%Hayashi%NULL%2,                   Hiroyuki%Hayashi%NULL%0,                   Yukihiro%Yoshimura%NULL%1,                   Hiroaki%Sasaki%NULL%1,                   Hiroshi%Horiuchi%NULL%1,                   Nobuyuki%Miyata%NULL%1,                   Natsuo%Tachikawa%NULL%1,                   Yuki%Tsuchiya%NULL%1,                   Hideaki%Mitsui%NULL%1,                   Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,                   Ja-Mun%Chong%NULL%1,                   Noriko%Nakajima%NULL%1,                   Masahiro%Sano%NULL%1,                   Jun%Yamazaki%NULL%1,                   Ippei%Miyamoto%NULL%1,                   Haruka%Nishioka%NULL%1,                   Hidetaka%Akita%NULL%1,                   Yuko%Sato%NULL%1,                   Michiyo%Kataoka%NULL%1,                   Harutaka%Katano%NULL%1,                   Minoru%Tobiume%NULL%1,                   Tsuyoshi%Sekizuka%NULL%1,                   Kentaro%Itokawa%NULL%1,                   Makoto%Kuroda%NULL%1,                   Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,                   Anuradha%Lala%NULL%1,                   Emilia%Bagiella%NULL%1,                   Helena L.%Chang%NULL%1,                   Pedro R.%Moreno%NULL%1,                   Elisabet%Pujadas%NULL%1,                   Varun%Arvind%NULL%1,                   Sonali%Bose%NULL%1,                   Alexander W.%Charney%NULL%1,                   Martin D.%Chen%NULL%1,                   Carlos%Cordon-Cardo%NULL%1,                   Andrew S.%Dunn%NULL%1,                   Michael E.%Farkouh%NULL%1,                   Benjamin S.%Glicksberg%NULL%1,                   Arash%Kia%NULL%1,                   Roopa%Kohli-Seth%NULL%1,                   Matthew A.%Levin%NULL%1,                   Prem%Timsina%NULL%1,                   Shan%Zhao%NULL%1,                   Zahi A.%Fayad%NULL%5,                   Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,                   Kiran T.%Thakur%NULL%2,                   Kiran T.%Thakur%NULL%0,                   Anna S.%Nordvig%NULL%1,                   Morgan L.%Prust%NULL%1,                   William%Roth%NULL%1,                   Angela%Lignelli%NULL%1,                   Anne-Catrin%Uhlemann%NULL%1,                   Emily Happy%Miller%NULL%1,                   Shajo%Kunnath-Velayudhan%NULL%1,                   Armando%Del Portillo%NULL%1,                   Yang%Liu%NULL%1,                   Gunnar%Hargus%NULL%1,                   Andrew F.%Teich%NULL%1,                   Richard A.%Hickman%NULL%1,                   Kurenai%Tanji%NULL%1,                   James E.%Goldman%NULL%1,                   Phyllis L.%Faust%NULL%1,                   Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,                   Lilioara-Alexandra%Muja%NULL%2,                   Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,                   Chen%Shao%NULL%2,                   Chen%Shao%NULL%0,                   Xiao-jie%Huang%NULL%1,                   Lin%Sun%NULL%1,                   Ling-jia%Meng%NULL%1,                   Hui%Liu%NULL%2,                   Shi-jie%Zhang%NULL%1,                   Hong-jun%Li%NULL%1,                   Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,                 Ficken%C.%coreGivesNoEmail%1,                 Goddard%M.%coreGivesNoEmail%1,                 Jensen%M. P.%coreGivesNoEmail%1,                 Le%Quesne J.%coreGivesNoEmail%1,                 Menon%D.%coreGivesNoEmail%1,                 Officer\u2010Jones%L.%coreGivesNoEmail%1,                 Smith%C.%coreGivesNoEmail%1,                 Teod\u00f2sio%A.%coreGivesNoEmail%1,                 Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,                   Maria%Mostyka%NULL%1,                   Alicia%Dillard%NULL%1,                   Diana R.%Berman%NULL%1,                   Lucy X.%Ma%NULL%1,                   Amy%Chadburn%NULL%1,                   Rhonda K.%Yantiss%NULL%1,                   Jose%Jessurun%NULL%1,                   Surya V.%Seshan%NULL%1,                   Alain C.%Borczuk%NULL%1,                   Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,                   Kikkeri N%Naresh%NULL%1,                   Candice%Roufosse%NULL%1,                   Andrew G%Nicholson%NULL%1,                   Justin%Weir%NULL%1,                   Graham S%Cooke%NULL%1,                   Mark%Thursz%NULL%1,                   Pinelopi%Manousou%NULL%1,                   Richard%Corbett%NULL%1,                   Robert%Goldin%NULL%1,                   Safa%Al-Sarraj%NULL%1,                   Alireza%Abdolrasouli%NULL%1,                   Olivia C%Swann%NULL%1,                   Laury%Baillon%NULL%1,                   Rebecca%Penn%NULL%1,                   Wendy S%Barclay%NULL%1,                   Patrizia%Viola%NULL%1,                   Michael%Osborn%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3522,7 +3639,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>839</v>
+        <v>883</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -3551,7 +3668,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>841</v>
+        <v>884</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -3580,7 +3697,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>843</v>
+        <v>885</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -3609,7 +3726,7 @@
         <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>845</v>
+        <v>886</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -3638,7 +3755,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>846</v>
+        <v>887</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -3667,7 +3784,7 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>847</v>
+        <v>888</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -3696,7 +3813,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>848</v>
+        <v>889</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
@@ -3725,7 +3842,7 @@
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>849</v>
+        <v>890</v>
       </c>
       <c r="F9" t="s">
         <v>78</v>
@@ -3754,7 +3871,7 @@
         <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>850</v>
+        <v>891</v>
       </c>
       <c r="F10" t="s">
         <v>84</v>
@@ -3783,7 +3900,7 @@
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>851</v>
+        <v>892</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
@@ -3812,7 +3929,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>853</v>
+        <v>893</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -3841,7 +3958,7 @@
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>854</v>
+        <v>894</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
@@ -3870,7 +3987,7 @@
         <v>571</v>
       </c>
       <c r="E14" t="s">
-        <v>855</v>
+        <v>895</v>
       </c>
       <c r="F14" t="s">
         <v>101</v>
@@ -3899,7 +4016,7 @@
         <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>857</v>
+        <v>896</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -3928,7 +4045,7 @@
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>858</v>
+        <v>897</v>
       </c>
       <c r="F16" t="s">
         <v>106</v>
@@ -3957,7 +4074,7 @@
         <v>575</v>
       </c>
       <c r="E17" t="s">
-        <v>859</v>
+        <v>898</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -3986,7 +4103,7 @@
         <v>577</v>
       </c>
       <c r="E18" t="s">
-        <v>860</v>
+        <v>899</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -4015,7 +4132,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>861</v>
+        <v>900</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -4044,7 +4161,7 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>862</v>
+        <v>901</v>
       </c>
       <c r="F20" t="s">
         <v>123</v>
@@ -4073,7 +4190,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>863</v>
+        <v>902</v>
       </c>
       <c r="F21" t="s">
         <v>127</v>
@@ -4102,7 +4219,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>864</v>
+        <v>903</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -4131,7 +4248,7 @@
         <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>865</v>
+        <v>904</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -4160,7 +4277,7 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>866</v>
+        <v>905</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -4189,7 +4306,7 @@
         <v>421</v>
       </c>
       <c r="E25" t="s">
-        <v>867</v>
+        <v>906</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -4218,7 +4335,7 @@
         <v>586</v>
       </c>
       <c r="E26" t="s">
-        <v>868</v>
+        <v>907</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
@@ -4247,7 +4364,7 @@
         <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>869</v>
+        <v>908</v>
       </c>
       <c r="F27" t="s">
         <v>150</v>
@@ -4276,7 +4393,7 @@
         <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>870</v>
+        <v>909</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -4305,7 +4422,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>871</v>
+        <v>910</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -4334,7 +4451,7 @@
         <v>429</v>
       </c>
       <c r="E30" t="s">
-        <v>872</v>
+        <v>911</v>
       </c>
       <c r="F30" t="s">
         <v>32</v>
@@ -4363,7 +4480,7 @@
         <v>592</v>
       </c>
       <c r="E31" t="s">
-        <v>873</v>
+        <v>912</v>
       </c>
       <c r="F31" t="s">
         <v>165</v>
@@ -4392,7 +4509,7 @@
         <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>874</v>
+        <v>913</v>
       </c>
       <c r="F32" t="s">
         <v>170</v>
@@ -4421,7 +4538,7 @@
         <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>875</v>
+        <v>914</v>
       </c>
       <c r="F33" t="s">
         <v>175</v>
@@ -4450,7 +4567,7 @@
         <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>876</v>
+        <v>915</v>
       </c>
       <c r="F34" t="s">
         <v>179</v>
@@ -4479,7 +4596,7 @@
         <v>597</v>
       </c>
       <c r="E35" t="s">
-        <v>877</v>
+        <v>916</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -4508,7 +4625,7 @@
         <v>599</v>
       </c>
       <c r="E36" t="s">
-        <v>878</v>
+        <v>917</v>
       </c>
       <c r="F36" t="s">
         <v>189</v>
@@ -4537,7 +4654,7 @@
         <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>879</v>
+        <v>918</v>
       </c>
       <c r="F37" t="s">
         <v>194</v>
@@ -4566,7 +4683,7 @@
         <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>880</v>
+        <v>919</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -4595,7 +4712,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>881</v>
+        <v>920</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -4624,7 +4741,7 @@
         <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>882</v>
+        <v>921</v>
       </c>
       <c r="F40" t="s">
         <v>204</v>

--- a/Covid_19_Dataset_and_References/References/11.xlsx
+++ b/Covid_19_Dataset_and_References/References/11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5644" uniqueCount="922">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7244" uniqueCount="1108">
   <si>
     <t>Doi</t>
   </si>
@@ -3244,6 +3244,564 @@
   </si>
   <si>
     <t>[Brian%Hanley%NULL%1,                   Kikkeri N%Naresh%NULL%1,                   Candice%Roufosse%NULL%1,                   Andrew G%Nicholson%NULL%1,                   Justin%Weir%NULL%1,                   Graham S%Cooke%NULL%1,                   Mark%Thursz%NULL%1,                   Pinelopi%Manousou%NULL%1,                   Richard%Corbett%NULL%1,                   Robert%Goldin%NULL%1,                   Safa%Al-Sarraj%NULL%1,                   Alireza%Abdolrasouli%NULL%1,                   Olivia C%Swann%NULL%1,                   Laury%Baillon%NULL%1,                   Rebecca%Penn%NULL%1,                   Wendy S%Barclay%NULL%1,                   Patrizia%Viola%NULL%1,                   Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>Misc. Data</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,                    Renata A A%Monteiro%NULL%2,                    Renata A A%Monteiro%NULL%0,                    Luiz F F%da Silva%NULL%1,                    Denise M A C%Malheiros%NULL%1,                    Ellen P%de Oliveira%NULL%1,                    Jair%Theodoro‐Filho%NULL%1,                    João R R%Pinho%NULL%1,                    Michele S%Gomes‐Gouvêa%NULL%1,                    Ana P M%Salles%NULL%1,                    Ilka R S%de Oliveira%NULL%1,                    Thais%Mauad%NULL%1,                    Paulo H N%Saldiva%NULL%1,                    Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,                  Burkhardt%Katrin%coreGivesNoEmail%1,                  Claus%Rainer%coreGivesNoEmail%1,                  Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,                  M\u00e4rkl%Bruno%coreGivesNoEmail%1,                  Schaller%Tina%coreGivesNoEmail%1,                  Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,                    Dwayne A.%Wolf%NULL%1,                    Bihong%Zhao%NULL%1,                    Bindu%Akkanti%NULL%1,                    Michelle%McDonald%NULL%1,                    Laura%Lelenwa%NULL%1,                    Noah%Reilly%NULL%1,                    Giulia%Ottaviani%NULL%1,                    M. Tarek%Elghetany%NULL%1,                    Daniel Ocazionez%Trujillo%NULL%1,                    Gabriel M.%Aisenberg%NULL%1,                    Mohammad%Madjid%NULL%1,                    Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lei%Yan%xref no email%0, Mahnoor%Mir%xref no email%1, Paloma%Sanchez%xref no email%1, Moeezullah%Beg%xref no email%1, Jay%Peters%xref no email%1, Omar%Enriquez%xref no email%1, Andrea%Gilbert%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: Archives of Pathology and Laboratory Medicine</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,                    Erin G.%Brooks%NULL%1,                    Joshua%Akers%NULL%1,                    Danielle%Armstrong%NULL%1,                    Lauren%Decker%NULL%1,                    Adam%Gonzalez%NULL%1,                    William%Humphrey%NULL%1,                    Romana%Mayer%NULL%1,                    Matthew%Miller%NULL%1,                    Catherine%Perez%NULL%1,                    Jose Antonio Ruiz%Arango%NULL%1,                    Lakshmanan%Sathyavagiswaran%NULL%1,                    Wendy%Stroh%NULL%1,                    Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,                    Jan-Peter%Sperhake%NULL%2,                    Marc%Lütgehetmann%NULL%2,                    Stefan%Steurer%NULL%2,                    Carolin%Edler%NULL%1,                    Axel%Heinemann%NULL%2,                    Fabian%Heinrich%NULL%2,                    Herbert%Mushumba%NULL%2,                    Inga%Kniep%NULL%1,                    Ann Sophie%Schröder%NULL%2,                    Christoph%Burdelski%NULL%2,                    Geraldine%de Heer%NULL%2,                    Axel%Nierhaus%NULL%2,                    Daniel%Frings%NULL%2,                    Susanne%Pfefferle%NULL%1,                    Heinrich%Becker%NULL%1,                    Hanns%Bredereke-Wiedling%NULL%1,                    Andreas%de Weerth%NULL%2,                    Hans-Richard%Paschen%NULL%1,                    Sara%Sheikhzadeh-Eggers%NULL%1,                    Axel%Stang%NULL%1,                    Stefan%Schmiedel%NULL%1,                    Carsten%Bokemeyer%NULL%1,                    Marylyn M.%Addo%NULL%1,                    Martin%Aepfelbacher%NULL%2,                    Klaus%Püschel%NULL%2,                    Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,                    Jasmin D%Haslbauer%NULL%4,                    Jasmin D%Haslbauer%NULL%0,                    Ronny%Nienhold%NULL%2,                    Spasenija%Savic%NULL%2,                    Helmut%Hopfer%NULL%2,                    Nikolaus%Deigendesch%NULL%2,                    Stephan%Frank%NULL%2,                    Daniel%Turek%NULL%2,                    Niels%Willi%NULL%2,                    Hans%Pargger%NULL%2,                    Stefano%Bassetti%NULL%2,                    Joerg D%Leuppi%NULL%2,                    Gieri%Cathomas%NULL%2,                    Markus%Tolnay%NULL%2,                    Kirsten D%Mertz%NULL%2,                    Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,                    Jasmin D%Haslbauer%NULL%0,                    Jasmin D%Haslbauer%NULL%0,                    Ronny%Nienhold%NULL%0,                    Spasenija%Savic%NULL%0,                    Helmut%Hopfer%NULL%0,                    Nikolaus%Deigendesch%NULL%0,                    Stephan%Frank%NULL%0,                    Daniel%Turek%NULL%0,                    Niels%Willi%NULL%0,                    Hans%Pargger%NULL%0,                    Stefano%Bassetti%NULL%0,                    Joerg D%Leuppi%NULL%0,                    Gieri%Cathomas%NULL%0,                    Markus%Tolnay%NULL%0,                    Kirsten D%Mertz%NULL%0,                    Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,                    Andreas J%Flammer%NULL%1,                    Peter%Steiger%NULL%1,                    Martina%Haberecker%NULL%1,                    Rea%Andermatt%NULL%1,                    Annelies S%Zinkernagel%NULL%1,                    Mandeep R%Mehra%NULL%1,                    Reto A%Schuepbach%NULL%1,                    Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,                    Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,                    Yong%Xiong%NULL%0,                    Huan%Liu%NULL%3,                    Li%Niu%NULL%1,                    Jianchun%Guo%NULL%1,                    Meiyan%Liao%NULL%1,                    Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,                    Eric J%Duval%NULL%1,                    Edana%Stroberg%NULL%1,                    Subha%Ghosh%NULL%1,                    Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,                    Pilar%Alemany Monraval%NULL%1,                    Carmen%Medina Medina%NULL%1,                    Ana%Jiménez Sánchez%NULL%1,                    Juan Carlos%Andrés Teruel%NULL%1,                    José%Ferrando Marco%NULL%1,                    Víctor%Puglia Santos%NULL%1,                    Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,                    Ann Sophie%Schröder%NULL%0,                    Martin%Aepfelbacher%NULL%0,                    Antonia%Fitzek%NULL%1,                    Axel%Heinemann%NULL%0,                    Fabian%Heinrich%NULL%0,                    Anke%Klein%NULL%1,                    Felicia%Langenwalder%NULL%1,                    Marc%Lütgehetmann%NULL%0,                    Kira%Meißner%NULL%1,                    Klaus%Püschel%NULL%0,                    Julia%Schädler%NULL%1,                    Stefan%Steurer%NULL%0,                    Herbert%Mushumba%NULL%0,                    Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,                  Blankenberg%Stefan S%coreGivesNoEmail%1,                  Brauninger%Hanna%coreGivesNoEmail%1,                  Edler%Caroline%coreGivesNoEmail%1,                  Escher%Felicitas%coreGivesNoEmail%1,                  Fitzek%Antonia%coreGivesNoEmail%1,                  Kirchhof%Paulus%coreGivesNoEmail%1,                  Lindner%Diana%coreGivesNoEmail%1,                  Meissner%Kira%coreGivesNoEmail%1,                  Puschel%Klaus%coreGivesNoEmail%1,                  Scherschel%Katharina%coreGivesNoEmail%1,                  Schultheiss%Heinz-Peter%coreGivesNoEmail%1,                  Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,                    Holly%Harper%NULL%1,                    Behtash G%Nezami%NULL%1,                    Daniel L%Shen%NULL%1,                    Simona Pichler%Sekulic%NULL%1,                    Aaron T%Koeth%NULL%1,                    Clifford V%Harding%NULL%1,                    Hannah%Gilmore%NULL%1,                    Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,                    Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,                    Johannes Alexander%Lobrinus%NULL%2,                    Johannes Alexander%Lobrinus%NULL%0,                    Manuel%Schibler%NULL%1,                    Tony%Fracasso%NULL%1,                    Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,                    Aibek%Akmatbekov%NULL%1,                    Jack L%Harbert%NULL%1,                    Guang%Li%NULL%1,                    J%Quincy Brown%NULL%1,                    Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,                    Behnaz%Jahanbin%NULL%1,                    Masoomeh%Safaei%NULL%1,                    Laya%Amoozadeh%NULL%1,                    Meysam%Khoshavi%NULL%1,                    Vahid%Mehrtash%NULL%1,                    Bita%Jafarzadeh%NULL%1,                    Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,                    Jing%Xie%NULL%2,                    Lei%Zhao%NULL%1,                    Xiaochun%Fei%NULL%1,                    Heng%Zhang%NULL%1,                    Yun%Tan%NULL%1,                    Xiu%Nie%NULL%1,                    Luting%Zhou%NULL%1,                    Zhenhua%Liu%NULL%1,                    Yong%Ren%NULL%1,                    Ling%Yuan%NULL%1,                    Yu%Zhang%NULL%1,                    Jinsheng%Zhang%NULL%1,                    Liwei%Liang%NULL%1,                    Xinwei%Chen%NULL%1,                    Xin%Liu%NULL%1,                    Peng%Wang%NULL%1,                    Xiao%Han%NULL%1,                    Xiangqin%Weng%NULL%1,                    Ying%Chen%NULL%1,                    Ting%Yu%NULL%0,                    Xinxin%Zhang%NULL%0,                    Jun%Cai%caijun@shsmu.edu.cn%1,                    Rong%Chen%crjudy@126.com%2,                    Zhengli%Shi%zlshi@wh.iov.cn%2,                    Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,                    Selina%Traxler%NULL%2,                    Selina%Traxler%NULL%0,                    Michael%Bitzer%NULL%1,                    Helene%Häberle%NULL%1,                    Wolfgang%Raiser%NULL%1,                    Dominik%Nann%NULL%1,                    Leonie%Frauenfeld%NULL%1,                    Antonio%Vogelsberg%NULL%1,                    Karin%Klingel%NULL%1,                    Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,                    Thomas%Ruder%NULL%1,                    Rilana%Baumeister%NULL%1,                    Stephan%Bolliger%NULL%1,                    Michael%Thali%NULL%1,                    Eva%Meixner%NULL%1,                    Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,                    Lei%Shi%NULL%1,                    Yijin%Wang%NULL%1,                    Jiyuan%Zhang%NULL%1,                    Lei%Huang%NULL%2,                    Chao%Zhang%NULL%1,                    Shuhong%Liu%NULL%1,                    Peng%Zhao%NULL%1,                    Hongxia%Liu%NULL%1,                    Li%Zhu%NULL%1,                    Yanhong%Tai%NULL%1,                    Changqing%Bai%NULL%1,                    Tingting%Gao%NULL%1,                    Jinwen%Song%NULL%1,                    Peng%Xia%NULL%1,                    Jinghui%Dong%NULL%1,                    Jingmin%Zhao%NULL%1,                    Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Esther%Youd%xref no email%0, Luiza%Moore%xref no email%1]</t>
+  </si>
+  <si>
+    <t>PUBLISHER: BMJ</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,                    Benjamin%Gaborit%NULL%2,                    Benjamin%Gaborit%NULL%0,                    Claire%Toquet%NULL%1,                    Louise%Castain%NULL%1,                    Antonin%Bal%NULL%1,                    Pierre Paul%Arrigoni%NULL%1,                    Raphaël%Lecomte%NULL%1,                    Renaud%Clement%NULL%1,                    Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,                    Radu Lucian%Buzulică%NULL%1,                    Daniel%Pirici%NULL%1,                    Mihail Constantin%Ceauşu%NULL%1,                    Radu Vasile%Iman%NULL%1,                    Ovidiu-Mircea%Gheorghe%NULL%1,                    Simona Daniela%Neamţu%NULL%1,                    Liliana%Stanca%NULL%1,                    Răzvan%Ene%NULL%1,                    Samir%Kumar-Singh%NULL%1,                    Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,                    Alexander%Leunig%NULL%1,                    Sophia%Brambs%NULL%1,                    Rainer%Kaiser%NULL%1,                    Tobias%Weinberger%NULL%1,                    Michael%Weigand%NULL%1,                    Maximilian%Muenchhoff%NULL%1,                    Johannes C.%Hellmuth%NULL%1,                    Stephan%Ledderose%NULL%1,                    Heiko%Schulz%NULL%1,                    Clemens%Scherer%NULL%1,                    Martina%Rudelius%NULL%1,                    Michael%Zoller%NULL%1,                    Dominik%Höchter%NULL%1,                    Oliver%Keppler%NULL%1,                    Daniel%Teupser%NULL%1,                    Bernhard%Zwißler%NULL%1,                    Michael%von Bergwelt-Baildon%NULL%1,                    Stefan%Kääb%NULL%1,                    Steffen%Massberg%NULL%1,                    Kami%Pekayvaz%NULL%1,                    Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,                    Alexandra%Grosse%NULL%1,                    Helmut J.F.%Salzer%NULL%1,                    Martin W.%Dünser%NULL%1,                    Reinhard%Motz%NULL%1,                    Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Hanna Ferl\u00f8v%Schwensen%xref no email%0, Line Kristine%Borreschmidt%xref no email%1, Merete%Storgaard%xref no email%1, S\u00f8ren%Redsted%xref no email%1, Steffen%Christensen%xref no email%1, Line Bille%Madsen%xref no email%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,                    Ricardo%De Mendonça%NULL%1,                    Nicky%D’Haene%NULL%1,                    Sarah%De Clercq%NULL%1,                    Camille%Verocq%NULL%1,                    Laetitia%Lebrun%NULL%1,                    Philomène%Lavis%NULL%1,                    Marie-Lucie%Racu%NULL%1,                    Anne-Laure%Trépant%NULL%1,                    Calliope%Maris%NULL%1,                    Sandrine%Rorive%NULL%1,                    Jean-Christophe%Goffard%NULL%1,                    Olivier%De Witte%NULL%1,                    Lorenzo%Peluso%NULL%1,                    Jean-Louis%Vincent%NULL%1,                    Christine%Decaestecker%NULL%1,                    Fabio Silvio%Taccone%NULL%1,                    Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,                    Hiroyuki%Hayashi%NULL%2,                    Hiroyuki%Hayashi%NULL%0,                    Yukihiro%Yoshimura%NULL%1,                    Hiroaki%Sasaki%NULL%1,                    Hiroshi%Horiuchi%NULL%1,                    Nobuyuki%Miyata%NULL%1,                    Natsuo%Tachikawa%NULL%1,                    Yuki%Tsuchiya%NULL%1,                    Hideaki%Mitsui%NULL%1,                    Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,                    Ja-Mun%Chong%NULL%1,                    Noriko%Nakajima%NULL%1,                    Masahiro%Sano%NULL%1,                    Jun%Yamazaki%NULL%1,                    Ippei%Miyamoto%NULL%1,                    Haruka%Nishioka%NULL%1,                    Hidetaka%Akita%NULL%1,                    Yuko%Sato%NULL%1,                    Michiyo%Kataoka%NULL%1,                    Harutaka%Katano%NULL%1,                    Minoru%Tobiume%NULL%1,                    Tsuyoshi%Sekizuka%NULL%1,                    Kentaro%Itokawa%NULL%1,                    Makoto%Kuroda%NULL%1,                    Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,                    Anuradha%Lala%NULL%1,                    Emilia%Bagiella%NULL%1,                    Helena L.%Chang%NULL%1,                    Pedro R.%Moreno%NULL%1,                    Elisabet%Pujadas%NULL%1,                    Varun%Arvind%NULL%1,                    Sonali%Bose%NULL%1,                    Alexander W.%Charney%NULL%1,                    Martin D.%Chen%NULL%1,                    Carlos%Cordon-Cardo%NULL%1,                    Andrew S.%Dunn%NULL%1,                    Michael E.%Farkouh%NULL%1,                    Benjamin S.%Glicksberg%NULL%1,                    Arash%Kia%NULL%1,                    Roopa%Kohli-Seth%NULL%1,                    Matthew A.%Levin%NULL%1,                    Prem%Timsina%NULL%1,                    Shan%Zhao%NULL%1,                    Zahi A.%Fayad%NULL%5,                    Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,                    Kiran T.%Thakur%NULL%2,                    Kiran T.%Thakur%NULL%0,                    Anna S.%Nordvig%NULL%1,                    Morgan L.%Prust%NULL%1,                    William%Roth%NULL%1,                    Angela%Lignelli%NULL%1,                    Anne-Catrin%Uhlemann%NULL%1,                    Emily Happy%Miller%NULL%1,                    Shajo%Kunnath-Velayudhan%NULL%1,                    Armando%Del Portillo%NULL%1,                    Yang%Liu%NULL%1,                    Gunnar%Hargus%NULL%1,                    Andrew F.%Teich%NULL%1,                    Richard A.%Hickman%NULL%1,                    Kurenai%Tanji%NULL%1,                    James E.%Goldman%NULL%1,                    Phyllis L.%Faust%NULL%1,                    Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,                    Lilioara-Alexandra%Muja%NULL%2,                    Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,                    Chen%Shao%NULL%2,                    Chen%Shao%NULL%0,                    Xiao-jie%Huang%NULL%1,                    Lin%Sun%NULL%1,                    Ling-jia%Meng%NULL%1,                    Hui%Liu%NULL%2,                    Shi-jie%Zhang%NULL%1,                    Hong-jun%Li%NULL%1,                    Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,                  Ficken%C.%coreGivesNoEmail%1,                  Goddard%M.%coreGivesNoEmail%1,                  Jensen%M. P.%coreGivesNoEmail%1,                  Le%Quesne J.%coreGivesNoEmail%1,                  Menon%D.%coreGivesNoEmail%1,                  Officer\u2010Jones%L.%coreGivesNoEmail%1,                  Smith%C.%coreGivesNoEmail%1,                  Teod\u00f2sio%A.%coreGivesNoEmail%1,                  Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,                    Maria%Mostyka%NULL%1,                    Alicia%Dillard%NULL%1,                    Diana R.%Berman%NULL%1,                    Lucy X.%Ma%NULL%1,                    Amy%Chadburn%NULL%1,                    Rhonda K.%Yantiss%NULL%1,                    Jose%Jessurun%NULL%1,                    Surya V.%Seshan%NULL%1,                    Alain C.%Borczuk%NULL%1,                    Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,                    Kikkeri N%Naresh%NULL%1,                    Candice%Roufosse%NULL%1,                    Andrew G%Nicholson%NULL%1,                    Justin%Weir%NULL%1,                    Graham S%Cooke%NULL%1,                    Mark%Thursz%NULL%1,                    Pinelopi%Manousou%NULL%1,                    Richard%Corbett%NULL%1,                    Robert%Goldin%NULL%1,                    Safa%Al-Sarraj%NULL%1,                    Alireza%Abdolrasouli%NULL%1,                    Olivia C%Swann%NULL%1,                    Laury%Baillon%NULL%1,                    Rebecca%Penn%NULL%1,                    Wendy S%Barclay%NULL%1,                    Patrizia%Viola%NULL%1,                    Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,                     Renata A A%Monteiro%NULL%2,                     Renata A A%Monteiro%NULL%0,                     Luiz F F%da Silva%NULL%1,                     Denise M A C%Malheiros%NULL%1,                     Ellen P%de Oliveira%NULL%1,                     Jair%Theodoro‐Filho%NULL%1,                     João R R%Pinho%NULL%1,                     Michele S%Gomes‐Gouvêa%NULL%1,                     Ana P M%Salles%NULL%1,                     Ilka R S%de Oliveira%NULL%1,                     Thais%Mauad%NULL%1,                     Paulo H N%Saldiva%NULL%1,                     Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,                   Burkhardt%Katrin%coreGivesNoEmail%1,                   Claus%Rainer%coreGivesNoEmail%1,                   Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,                   M\u00e4rkl%Bruno%coreGivesNoEmail%1,                   Schaller%Tina%coreGivesNoEmail%1,                   Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,                     Dwayne A.%Wolf%NULL%1,                     Bihong%Zhao%NULL%1,                     Bindu%Akkanti%NULL%1,                     Michelle%McDonald%NULL%1,                     Laura%Lelenwa%NULL%1,                     Noah%Reilly%NULL%1,                     Giulia%Ottaviani%NULL%1,                     M. Tarek%Elghetany%NULL%1,                     Daniel Ocazionez%Trujillo%NULL%1,                     Gabriel M.%Aisenberg%NULL%1,                     Mohammad%Madjid%NULL%1,                     Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,                     Erin G.%Brooks%NULL%1,                     Joshua%Akers%NULL%1,                     Danielle%Armstrong%NULL%1,                     Lauren%Decker%NULL%1,                     Adam%Gonzalez%NULL%1,                     William%Humphrey%NULL%1,                     Romana%Mayer%NULL%1,                     Matthew%Miller%NULL%1,                     Catherine%Perez%NULL%1,                     Jose Antonio Ruiz%Arango%NULL%1,                     Lakshmanan%Sathyavagiswaran%NULL%1,                     Wendy%Stroh%NULL%1,                     Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,                     Jan-Peter%Sperhake%NULL%2,                     Marc%Lütgehetmann%NULL%2,                     Stefan%Steurer%NULL%2,                     Carolin%Edler%NULL%1,                     Axel%Heinemann%NULL%2,                     Fabian%Heinrich%NULL%2,                     Herbert%Mushumba%NULL%2,                     Inga%Kniep%NULL%1,                     Ann Sophie%Schröder%NULL%2,                     Christoph%Burdelski%NULL%2,                     Geraldine%de Heer%NULL%2,                     Axel%Nierhaus%NULL%2,                     Daniel%Frings%NULL%2,                     Susanne%Pfefferle%NULL%1,                     Heinrich%Becker%NULL%1,                     Hanns%Bredereke-Wiedling%NULL%1,                     Andreas%de Weerth%NULL%2,                     Hans-Richard%Paschen%NULL%1,                     Sara%Sheikhzadeh-Eggers%NULL%1,                     Axel%Stang%NULL%1,                     Stefan%Schmiedel%NULL%1,                     Carsten%Bokemeyer%NULL%1,                     Marylyn M.%Addo%NULL%1,                     Martin%Aepfelbacher%NULL%2,                     Klaus%Püschel%NULL%2,                     Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,                     Jasmin D%Haslbauer%NULL%4,                     Jasmin D%Haslbauer%NULL%0,                     Ronny%Nienhold%NULL%2,                     Spasenija%Savic%NULL%2,                     Helmut%Hopfer%NULL%2,                     Nikolaus%Deigendesch%NULL%2,                     Stephan%Frank%NULL%2,                     Daniel%Turek%NULL%2,                     Niels%Willi%NULL%2,                     Hans%Pargger%NULL%2,                     Stefano%Bassetti%NULL%2,                     Joerg D%Leuppi%NULL%2,                     Gieri%Cathomas%NULL%2,                     Markus%Tolnay%NULL%2,                     Kirsten D%Mertz%NULL%2,                     Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,                     Jasmin D%Haslbauer%NULL%0,                     Jasmin D%Haslbauer%NULL%0,                     Ronny%Nienhold%NULL%0,                     Spasenija%Savic%NULL%0,                     Helmut%Hopfer%NULL%0,                     Nikolaus%Deigendesch%NULL%0,                     Stephan%Frank%NULL%0,                     Daniel%Turek%NULL%0,                     Niels%Willi%NULL%0,                     Hans%Pargger%NULL%0,                     Stefano%Bassetti%NULL%0,                     Joerg D%Leuppi%NULL%0,                     Gieri%Cathomas%NULL%0,                     Markus%Tolnay%NULL%0,                     Kirsten D%Mertz%NULL%0,                     Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,                     Andreas J%Flammer%NULL%1,                     Peter%Steiger%NULL%1,                     Martina%Haberecker%NULL%1,                     Rea%Andermatt%NULL%1,                     Annelies S%Zinkernagel%NULL%1,                     Mandeep R%Mehra%NULL%1,                     Reto A%Schuepbach%NULL%1,                     Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,                     Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,                     Yong%Xiong%NULL%0,                     Huan%Liu%NULL%3,                     Li%Niu%NULL%1,                     Jianchun%Guo%NULL%1,                     Meiyan%Liao%NULL%1,                     Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,                     Eric J%Duval%NULL%1,                     Edana%Stroberg%NULL%1,                     Subha%Ghosh%NULL%1,                     Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,                     Pilar%Alemany Monraval%NULL%1,                     Carmen%Medina Medina%NULL%1,                     Ana%Jiménez Sánchez%NULL%1,                     Juan Carlos%Andrés Teruel%NULL%1,                     José%Ferrando Marco%NULL%1,                     Víctor%Puglia Santos%NULL%1,                     Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,                     Ann Sophie%Schröder%NULL%0,                     Martin%Aepfelbacher%NULL%0,                     Antonia%Fitzek%NULL%1,                     Axel%Heinemann%NULL%0,                     Fabian%Heinrich%NULL%0,                     Anke%Klein%NULL%1,                     Felicia%Langenwalder%NULL%1,                     Marc%Lütgehetmann%NULL%0,                     Kira%Meißner%NULL%1,                     Klaus%Püschel%NULL%0,                     Julia%Schädler%NULL%1,                     Stefan%Steurer%NULL%0,                     Herbert%Mushumba%NULL%0,                     Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,                   Blankenberg%Stefan S%coreGivesNoEmail%1,                   Brauninger%Hanna%coreGivesNoEmail%1,                   Edler%Caroline%coreGivesNoEmail%1,                   Escher%Felicitas%coreGivesNoEmail%1,                   Fitzek%Antonia%coreGivesNoEmail%1,                   Kirchhof%Paulus%coreGivesNoEmail%1,                   Lindner%Diana%coreGivesNoEmail%1,                   Meissner%Kira%coreGivesNoEmail%1,                   Puschel%Klaus%coreGivesNoEmail%1,                   Scherschel%Katharina%coreGivesNoEmail%1,                   Schultheiss%Heinz-Peter%coreGivesNoEmail%1,                   Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,                     Holly%Harper%NULL%1,                     Behtash G%Nezami%NULL%1,                     Daniel L%Shen%NULL%1,                     Simona Pichler%Sekulic%NULL%1,                     Aaron T%Koeth%NULL%1,                     Clifford V%Harding%NULL%1,                     Hannah%Gilmore%NULL%1,                     Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,                     Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,                     Johannes Alexander%Lobrinus%NULL%2,                     Johannes Alexander%Lobrinus%NULL%0,                     Manuel%Schibler%NULL%1,                     Tony%Fracasso%NULL%1,                     Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,                     Aibek%Akmatbekov%NULL%1,                     Jack L%Harbert%NULL%1,                     Guang%Li%NULL%1,                     J%Quincy Brown%NULL%1,                     Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,                     Behnaz%Jahanbin%NULL%1,                     Masoomeh%Safaei%NULL%1,                     Laya%Amoozadeh%NULL%1,                     Meysam%Khoshavi%NULL%1,                     Vahid%Mehrtash%NULL%1,                     Bita%Jafarzadeh%NULL%1,                     Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,                     Jing%Xie%NULL%2,                     Lei%Zhao%NULL%1,                     Xiaochun%Fei%NULL%1,                     Heng%Zhang%NULL%1,                     Yun%Tan%NULL%1,                     Xiu%Nie%NULL%1,                     Luting%Zhou%NULL%1,                     Zhenhua%Liu%NULL%1,                     Yong%Ren%NULL%1,                     Ling%Yuan%NULL%1,                     Yu%Zhang%NULL%1,                     Jinsheng%Zhang%NULL%1,                     Liwei%Liang%NULL%1,                     Xinwei%Chen%NULL%1,                     Xin%Liu%NULL%1,                     Peng%Wang%NULL%1,                     Xiao%Han%NULL%1,                     Xiangqin%Weng%NULL%1,                     Ying%Chen%NULL%1,                     Ting%Yu%NULL%0,                     Xinxin%Zhang%NULL%0,                     Jun%Cai%caijun@shsmu.edu.cn%1,                     Rong%Chen%crjudy@126.com%2,                     Zhengli%Shi%zlshi@wh.iov.cn%2,                     Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,                     Selina%Traxler%NULL%2,                     Selina%Traxler%NULL%0,                     Michael%Bitzer%NULL%1,                     Helene%Häberle%NULL%1,                     Wolfgang%Raiser%NULL%1,                     Dominik%Nann%NULL%1,                     Leonie%Frauenfeld%NULL%1,                     Antonio%Vogelsberg%NULL%1,                     Karin%Klingel%NULL%1,                     Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,                     Thomas%Ruder%NULL%1,                     Rilana%Baumeister%NULL%1,                     Stephan%Bolliger%NULL%1,                     Michael%Thali%NULL%1,                     Eva%Meixner%NULL%1,                     Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,                     Lei%Shi%NULL%1,                     Yijin%Wang%NULL%1,                     Jiyuan%Zhang%NULL%1,                     Lei%Huang%NULL%2,                     Chao%Zhang%NULL%1,                     Shuhong%Liu%NULL%1,                     Peng%Zhao%NULL%1,                     Hongxia%Liu%NULL%1,                     Li%Zhu%NULL%1,                     Yanhong%Tai%NULL%1,                     Changqing%Bai%NULL%1,                     Tingting%Gao%NULL%1,                     Jinwen%Song%NULL%1,                     Peng%Xia%NULL%1,                     Jinghui%Dong%NULL%1,                     Jingmin%Zhao%NULL%1,                     Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,                     Benjamin%Gaborit%NULL%2,                     Benjamin%Gaborit%NULL%0,                     Claire%Toquet%NULL%1,                     Louise%Castain%NULL%1,                     Antonin%Bal%NULL%1,                     Pierre Paul%Arrigoni%NULL%1,                     Raphaël%Lecomte%NULL%1,                     Renaud%Clement%NULL%1,                     Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,                     Radu Lucian%Buzulică%NULL%1,                     Daniel%Pirici%NULL%1,                     Mihail Constantin%Ceauşu%NULL%1,                     Radu Vasile%Iman%NULL%1,                     Ovidiu-Mircea%Gheorghe%NULL%1,                     Simona Daniela%Neamţu%NULL%1,                     Liliana%Stanca%NULL%1,                     Răzvan%Ene%NULL%1,                     Samir%Kumar-Singh%NULL%1,                     Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,                     Alexander%Leunig%NULL%1,                     Sophia%Brambs%NULL%1,                     Rainer%Kaiser%NULL%1,                     Tobias%Weinberger%NULL%1,                     Michael%Weigand%NULL%1,                     Maximilian%Muenchhoff%NULL%1,                     Johannes C.%Hellmuth%NULL%1,                     Stephan%Ledderose%NULL%1,                     Heiko%Schulz%NULL%1,                     Clemens%Scherer%NULL%1,                     Martina%Rudelius%NULL%1,                     Michael%Zoller%NULL%1,                     Dominik%Höchter%NULL%1,                     Oliver%Keppler%NULL%1,                     Daniel%Teupser%NULL%1,                     Bernhard%Zwißler%NULL%1,                     Michael%von Bergwelt-Baildon%NULL%1,                     Stefan%Kääb%NULL%1,                     Steffen%Massberg%NULL%1,                     Kami%Pekayvaz%NULL%1,                     Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,                     Alexandra%Grosse%NULL%1,                     Helmut J.F.%Salzer%NULL%1,                     Martin W.%Dünser%NULL%1,                     Reinhard%Motz%NULL%1,                     Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,                     Ricardo%De Mendonça%NULL%1,                     Nicky%D’Haene%NULL%1,                     Sarah%De Clercq%NULL%1,                     Camille%Verocq%NULL%1,                     Laetitia%Lebrun%NULL%1,                     Philomène%Lavis%NULL%1,                     Marie-Lucie%Racu%NULL%1,                     Anne-Laure%Trépant%NULL%1,                     Calliope%Maris%NULL%1,                     Sandrine%Rorive%NULL%1,                     Jean-Christophe%Goffard%NULL%1,                     Olivier%De Witte%NULL%1,                     Lorenzo%Peluso%NULL%1,                     Jean-Louis%Vincent%NULL%1,                     Christine%Decaestecker%NULL%1,                     Fabio Silvio%Taccone%NULL%1,                     Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,                     Hiroyuki%Hayashi%NULL%2,                     Hiroyuki%Hayashi%NULL%0,                     Yukihiro%Yoshimura%NULL%1,                     Hiroaki%Sasaki%NULL%1,                     Hiroshi%Horiuchi%NULL%1,                     Nobuyuki%Miyata%NULL%1,                     Natsuo%Tachikawa%NULL%1,                     Yuki%Tsuchiya%NULL%1,                     Hideaki%Mitsui%NULL%1,                     Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,                     Ja-Mun%Chong%NULL%1,                     Noriko%Nakajima%NULL%1,                     Masahiro%Sano%NULL%1,                     Jun%Yamazaki%NULL%1,                     Ippei%Miyamoto%NULL%1,                     Haruka%Nishioka%NULL%1,                     Hidetaka%Akita%NULL%1,                     Yuko%Sato%NULL%1,                     Michiyo%Kataoka%NULL%1,                     Harutaka%Katano%NULL%1,                     Minoru%Tobiume%NULL%1,                     Tsuyoshi%Sekizuka%NULL%1,                     Kentaro%Itokawa%NULL%1,                     Makoto%Kuroda%NULL%1,                     Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,                     Anuradha%Lala%NULL%1,                     Emilia%Bagiella%NULL%1,                     Helena L.%Chang%NULL%1,                     Pedro R.%Moreno%NULL%1,                     Elisabet%Pujadas%NULL%1,                     Varun%Arvind%NULL%1,                     Sonali%Bose%NULL%1,                     Alexander W.%Charney%NULL%1,                     Martin D.%Chen%NULL%1,                     Carlos%Cordon-Cardo%NULL%1,                     Andrew S.%Dunn%NULL%1,                     Michael E.%Farkouh%NULL%1,                     Benjamin S.%Glicksberg%NULL%1,                     Arash%Kia%NULL%1,                     Roopa%Kohli-Seth%NULL%1,                     Matthew A.%Levin%NULL%1,                     Prem%Timsina%NULL%1,                     Shan%Zhao%NULL%1,                     Zahi A.%Fayad%NULL%5,                     Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,                     Kiran T.%Thakur%NULL%2,                     Kiran T.%Thakur%NULL%0,                     Anna S.%Nordvig%NULL%1,                     Morgan L.%Prust%NULL%1,                     William%Roth%NULL%1,                     Angela%Lignelli%NULL%1,                     Anne-Catrin%Uhlemann%NULL%1,                     Emily Happy%Miller%NULL%1,                     Shajo%Kunnath-Velayudhan%NULL%1,                     Armando%Del Portillo%NULL%1,                     Yang%Liu%NULL%1,                     Gunnar%Hargus%NULL%1,                     Andrew F.%Teich%NULL%1,                     Richard A.%Hickman%NULL%1,                     Kurenai%Tanji%NULL%1,                     James E.%Goldman%NULL%1,                     Phyllis L.%Faust%NULL%1,                     Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,                     Lilioara-Alexandra%Muja%NULL%2,                     Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,                     Chen%Shao%NULL%2,                     Chen%Shao%NULL%0,                     Xiao-jie%Huang%NULL%1,                     Lin%Sun%NULL%1,                     Ling-jia%Meng%NULL%1,                     Hui%Liu%NULL%2,                     Shi-jie%Zhang%NULL%1,                     Hong-jun%Li%NULL%1,                     Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,                   Ficken%C.%coreGivesNoEmail%1,                   Goddard%M.%coreGivesNoEmail%1,                   Jensen%M. P.%coreGivesNoEmail%1,                   Le%Quesne J.%coreGivesNoEmail%1,                   Menon%D.%coreGivesNoEmail%1,                   Officer\u2010Jones%L.%coreGivesNoEmail%1,                   Smith%C.%coreGivesNoEmail%1,                   Teod\u00f2sio%A.%coreGivesNoEmail%1,                   Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,                     Maria%Mostyka%NULL%1,                     Alicia%Dillard%NULL%1,                     Diana R.%Berman%NULL%1,                     Lucy X.%Ma%NULL%1,                     Amy%Chadburn%NULL%1,                     Rhonda K.%Yantiss%NULL%1,                     Jose%Jessurun%NULL%1,                     Surya V.%Seshan%NULL%1,                     Alain C.%Borczuk%NULL%1,                     Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,                     Kikkeri N%Naresh%NULL%1,                     Candice%Roufosse%NULL%1,                     Andrew G%Nicholson%NULL%1,                     Justin%Weir%NULL%1,                     Graham S%Cooke%NULL%1,                     Mark%Thursz%NULL%1,                     Pinelopi%Manousou%NULL%1,                     Richard%Corbett%NULL%1,                     Robert%Goldin%NULL%1,                     Safa%Al-Sarraj%NULL%1,                     Alireza%Abdolrasouli%NULL%1,                     Olivia C%Swann%NULL%1,                     Laury%Baillon%NULL%1,                     Rebecca%Penn%NULL%1,                     Wendy S%Barclay%NULL%1,                     Patrizia%Viola%NULL%1,                     Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,                      Renata A A%Monteiro%NULL%2,                      Renata A A%Monteiro%NULL%0,                      Luiz F F%da Silva%NULL%1,                      Denise M A C%Malheiros%NULL%1,                      Ellen P%de Oliveira%NULL%1,                      Jair%Theodoro‐Filho%NULL%1,                      João R R%Pinho%NULL%1,                      Michele S%Gomes‐Gouvêa%NULL%1,                      Ana P M%Salles%NULL%1,                      Ilka R S%de Oliveira%NULL%1,                      Thais%Mauad%NULL%1,                      Paulo H N%Saldiva%NULL%1,                      Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,                    Burkhardt%Katrin%coreGivesNoEmail%1,                    Claus%Rainer%coreGivesNoEmail%1,                    Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,                    M\u00e4rkl%Bruno%coreGivesNoEmail%1,                    Schaller%Tina%coreGivesNoEmail%1,                    Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,                      Dwayne A.%Wolf%NULL%1,                      Bihong%Zhao%NULL%1,                      Bindu%Akkanti%NULL%1,                      Michelle%McDonald%NULL%1,                      Laura%Lelenwa%NULL%1,                      Noah%Reilly%NULL%1,                      Giulia%Ottaviani%NULL%1,                      M. Tarek%Elghetany%NULL%1,                      Daniel Ocazionez%Trujillo%NULL%1,                      Gabriel M.%Aisenberg%NULL%1,                      Mohammad%Madjid%NULL%1,                      Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,                      Erin G.%Brooks%NULL%1,                      Joshua%Akers%NULL%1,                      Danielle%Armstrong%NULL%1,                      Lauren%Decker%NULL%1,                      Adam%Gonzalez%NULL%1,                      William%Humphrey%NULL%1,                      Romana%Mayer%NULL%1,                      Matthew%Miller%NULL%1,                      Catherine%Perez%NULL%1,                      Jose Antonio Ruiz%Arango%NULL%1,                      Lakshmanan%Sathyavagiswaran%NULL%1,                      Wendy%Stroh%NULL%1,                      Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,                      Jan-Peter%Sperhake%NULL%2,                      Marc%Lütgehetmann%NULL%2,                      Stefan%Steurer%NULL%2,                      Carolin%Edler%NULL%1,                      Axel%Heinemann%NULL%2,                      Fabian%Heinrich%NULL%2,                      Herbert%Mushumba%NULL%2,                      Inga%Kniep%NULL%1,                      Ann Sophie%Schröder%NULL%2,                      Christoph%Burdelski%NULL%2,                      Geraldine%de Heer%NULL%2,                      Axel%Nierhaus%NULL%2,                      Daniel%Frings%NULL%2,                      Susanne%Pfefferle%NULL%1,                      Heinrich%Becker%NULL%1,                      Hanns%Bredereke-Wiedling%NULL%1,                      Andreas%de Weerth%NULL%2,                      Hans-Richard%Paschen%NULL%1,                      Sara%Sheikhzadeh-Eggers%NULL%1,                      Axel%Stang%NULL%1,                      Stefan%Schmiedel%NULL%1,                      Carsten%Bokemeyer%NULL%1,                      Marylyn M.%Addo%NULL%1,                      Martin%Aepfelbacher%NULL%2,                      Klaus%Püschel%NULL%2,                      Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,                      Jasmin D%Haslbauer%NULL%4,                      Jasmin D%Haslbauer%NULL%0,                      Ronny%Nienhold%NULL%2,                      Spasenija%Savic%NULL%2,                      Helmut%Hopfer%NULL%2,                      Nikolaus%Deigendesch%NULL%2,                      Stephan%Frank%NULL%2,                      Daniel%Turek%NULL%2,                      Niels%Willi%NULL%2,                      Hans%Pargger%NULL%2,                      Stefano%Bassetti%NULL%2,                      Joerg D%Leuppi%NULL%2,                      Gieri%Cathomas%NULL%2,                      Markus%Tolnay%NULL%2,                      Kirsten D%Mertz%NULL%2,                      Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,                      Jasmin D%Haslbauer%NULL%0,                      Jasmin D%Haslbauer%NULL%0,                      Ronny%Nienhold%NULL%0,                      Spasenija%Savic%NULL%0,                      Helmut%Hopfer%NULL%0,                      Nikolaus%Deigendesch%NULL%0,                      Stephan%Frank%NULL%0,                      Daniel%Turek%NULL%0,                      Niels%Willi%NULL%0,                      Hans%Pargger%NULL%0,                      Stefano%Bassetti%NULL%0,                      Joerg D%Leuppi%NULL%0,                      Gieri%Cathomas%NULL%0,                      Markus%Tolnay%NULL%0,                      Kirsten D%Mertz%NULL%0,                      Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,                      Andreas J%Flammer%NULL%1,                      Peter%Steiger%NULL%1,                      Martina%Haberecker%NULL%1,                      Rea%Andermatt%NULL%1,                      Annelies S%Zinkernagel%NULL%1,                      Mandeep R%Mehra%NULL%1,                      Reto A%Schuepbach%NULL%1,                      Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,                      Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,                      Yong%Xiong%NULL%0,                      Huan%Liu%NULL%3,                      Li%Niu%NULL%1,                      Jianchun%Guo%NULL%1,                      Meiyan%Liao%NULL%1,                      Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,                      Eric J%Duval%NULL%1,                      Edana%Stroberg%NULL%1,                      Subha%Ghosh%NULL%1,                      Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,                      Pilar%Alemany Monraval%NULL%1,                      Carmen%Medina Medina%NULL%1,                      Ana%Jiménez Sánchez%NULL%1,                      Juan Carlos%Andrés Teruel%NULL%1,                      José%Ferrando Marco%NULL%1,                      Víctor%Puglia Santos%NULL%1,                      Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,                      Ann Sophie%Schröder%NULL%0,                      Martin%Aepfelbacher%NULL%0,                      Antonia%Fitzek%NULL%1,                      Axel%Heinemann%NULL%0,                      Fabian%Heinrich%NULL%0,                      Anke%Klein%NULL%1,                      Felicia%Langenwalder%NULL%1,                      Marc%Lütgehetmann%NULL%0,                      Kira%Meißner%NULL%1,                      Klaus%Püschel%NULL%0,                      Julia%Schädler%NULL%1,                      Stefan%Steurer%NULL%0,                      Herbert%Mushumba%NULL%0,                      Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,                    Blankenberg%Stefan S%coreGivesNoEmail%1,                    Brauninger%Hanna%coreGivesNoEmail%1,                    Edler%Caroline%coreGivesNoEmail%1,                    Escher%Felicitas%coreGivesNoEmail%1,                    Fitzek%Antonia%coreGivesNoEmail%1,                    Kirchhof%Paulus%coreGivesNoEmail%1,                    Lindner%Diana%coreGivesNoEmail%1,                    Meissner%Kira%coreGivesNoEmail%1,                    Puschel%Klaus%coreGivesNoEmail%1,                    Scherschel%Katharina%coreGivesNoEmail%1,                    Schultheiss%Heinz-Peter%coreGivesNoEmail%1,                    Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,                      Holly%Harper%NULL%1,                      Behtash G%Nezami%NULL%1,                      Daniel L%Shen%NULL%1,                      Simona Pichler%Sekulic%NULL%1,                      Aaron T%Koeth%NULL%1,                      Clifford V%Harding%NULL%1,                      Hannah%Gilmore%NULL%1,                      Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,                      Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,                      Johannes Alexander%Lobrinus%NULL%2,                      Johannes Alexander%Lobrinus%NULL%0,                      Manuel%Schibler%NULL%1,                      Tony%Fracasso%NULL%1,                      Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,                      Aibek%Akmatbekov%NULL%1,                      Jack L%Harbert%NULL%1,                      Guang%Li%NULL%1,                      J%Quincy Brown%NULL%1,                      Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,                      Behnaz%Jahanbin%NULL%1,                      Masoomeh%Safaei%NULL%1,                      Laya%Amoozadeh%NULL%1,                      Meysam%Khoshavi%NULL%1,                      Vahid%Mehrtash%NULL%1,                      Bita%Jafarzadeh%NULL%1,                      Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,                      Jing%Xie%NULL%2,                      Lei%Zhao%NULL%1,                      Xiaochun%Fei%NULL%1,                      Heng%Zhang%NULL%1,                      Yun%Tan%NULL%1,                      Xiu%Nie%NULL%1,                      Luting%Zhou%NULL%1,                      Zhenhua%Liu%NULL%1,                      Yong%Ren%NULL%1,                      Ling%Yuan%NULL%1,                      Yu%Zhang%NULL%1,                      Jinsheng%Zhang%NULL%1,                      Liwei%Liang%NULL%1,                      Xinwei%Chen%NULL%1,                      Xin%Liu%NULL%1,                      Peng%Wang%NULL%1,                      Xiao%Han%NULL%1,                      Xiangqin%Weng%NULL%1,                      Ying%Chen%NULL%1,                      Ting%Yu%NULL%0,                      Xinxin%Zhang%NULL%0,                      Jun%Cai%caijun@shsmu.edu.cn%1,                      Rong%Chen%crjudy@126.com%2,                      Zhengli%Shi%zlshi@wh.iov.cn%2,                      Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,                      Selina%Traxler%NULL%2,                      Selina%Traxler%NULL%0,                      Michael%Bitzer%NULL%1,                      Helene%Häberle%NULL%1,                      Wolfgang%Raiser%NULL%1,                      Dominik%Nann%NULL%1,                      Leonie%Frauenfeld%NULL%1,                      Antonio%Vogelsberg%NULL%1,                      Karin%Klingel%NULL%1,                      Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,                      Thomas%Ruder%NULL%1,                      Rilana%Baumeister%NULL%1,                      Stephan%Bolliger%NULL%1,                      Michael%Thali%NULL%1,                      Eva%Meixner%NULL%1,                      Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,                      Lei%Shi%NULL%1,                      Yijin%Wang%NULL%1,                      Jiyuan%Zhang%NULL%1,                      Lei%Huang%NULL%2,                      Chao%Zhang%NULL%1,                      Shuhong%Liu%NULL%1,                      Peng%Zhao%NULL%1,                      Hongxia%Liu%NULL%1,                      Li%Zhu%NULL%1,                      Yanhong%Tai%NULL%1,                      Changqing%Bai%NULL%1,                      Tingting%Gao%NULL%1,                      Jinwen%Song%NULL%1,                      Peng%Xia%NULL%1,                      Jinghui%Dong%NULL%1,                      Jingmin%Zhao%NULL%1,                      Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,                      Benjamin%Gaborit%NULL%2,                      Benjamin%Gaborit%NULL%0,                      Claire%Toquet%NULL%1,                      Louise%Castain%NULL%1,                      Antonin%Bal%NULL%1,                      Pierre Paul%Arrigoni%NULL%1,                      Raphaël%Lecomte%NULL%1,                      Renaud%Clement%NULL%1,                      Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,                      Radu Lucian%Buzulică%NULL%1,                      Daniel%Pirici%NULL%1,                      Mihail Constantin%Ceauşu%NULL%1,                      Radu Vasile%Iman%NULL%1,                      Ovidiu-Mircea%Gheorghe%NULL%1,                      Simona Daniela%Neamţu%NULL%1,                      Liliana%Stanca%NULL%1,                      Răzvan%Ene%NULL%1,                      Samir%Kumar-Singh%NULL%1,                      Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,                      Alexander%Leunig%NULL%1,                      Sophia%Brambs%NULL%1,                      Rainer%Kaiser%NULL%1,                      Tobias%Weinberger%NULL%1,                      Michael%Weigand%NULL%1,                      Maximilian%Muenchhoff%NULL%1,                      Johannes C.%Hellmuth%NULL%1,                      Stephan%Ledderose%NULL%1,                      Heiko%Schulz%NULL%1,                      Clemens%Scherer%NULL%1,                      Martina%Rudelius%NULL%1,                      Michael%Zoller%NULL%1,                      Dominik%Höchter%NULL%1,                      Oliver%Keppler%NULL%1,                      Daniel%Teupser%NULL%1,                      Bernhard%Zwißler%NULL%1,                      Michael%von Bergwelt-Baildon%NULL%1,                      Stefan%Kääb%NULL%1,                      Steffen%Massberg%NULL%1,                      Kami%Pekayvaz%NULL%1,                      Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,                      Alexandra%Grosse%NULL%1,                      Helmut J.F.%Salzer%NULL%1,                      Martin W.%Dünser%NULL%1,                      Reinhard%Motz%NULL%1,                      Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,                      Ricardo%De Mendonça%NULL%1,                      Nicky%D’Haene%NULL%1,                      Sarah%De Clercq%NULL%1,                      Camille%Verocq%NULL%1,                      Laetitia%Lebrun%NULL%1,                      Philomène%Lavis%NULL%1,                      Marie-Lucie%Racu%NULL%1,                      Anne-Laure%Trépant%NULL%1,                      Calliope%Maris%NULL%1,                      Sandrine%Rorive%NULL%1,                      Jean-Christophe%Goffard%NULL%1,                      Olivier%De Witte%NULL%1,                      Lorenzo%Peluso%NULL%1,                      Jean-Louis%Vincent%NULL%1,                      Christine%Decaestecker%NULL%1,                      Fabio Silvio%Taccone%NULL%1,                      Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,                      Hiroyuki%Hayashi%NULL%2,                      Hiroyuki%Hayashi%NULL%0,                      Yukihiro%Yoshimura%NULL%1,                      Hiroaki%Sasaki%NULL%1,                      Hiroshi%Horiuchi%NULL%1,                      Nobuyuki%Miyata%NULL%1,                      Natsuo%Tachikawa%NULL%1,                      Yuki%Tsuchiya%NULL%1,                      Hideaki%Mitsui%NULL%1,                      Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,                      Ja-Mun%Chong%NULL%1,                      Noriko%Nakajima%NULL%1,                      Masahiro%Sano%NULL%1,                      Jun%Yamazaki%NULL%1,                      Ippei%Miyamoto%NULL%1,                      Haruka%Nishioka%NULL%1,                      Hidetaka%Akita%NULL%1,                      Yuko%Sato%NULL%1,                      Michiyo%Kataoka%NULL%1,                      Harutaka%Katano%NULL%1,                      Minoru%Tobiume%NULL%1,                      Tsuyoshi%Sekizuka%NULL%1,                      Kentaro%Itokawa%NULL%1,                      Makoto%Kuroda%NULL%1,                      Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,                      Anuradha%Lala%NULL%1,                      Emilia%Bagiella%NULL%1,                      Helena L.%Chang%NULL%1,                      Pedro R.%Moreno%NULL%1,                      Elisabet%Pujadas%NULL%1,                      Varun%Arvind%NULL%1,                      Sonali%Bose%NULL%1,                      Alexander W.%Charney%NULL%1,                      Martin D.%Chen%NULL%1,                      Carlos%Cordon-Cardo%NULL%1,                      Andrew S.%Dunn%NULL%1,                      Michael E.%Farkouh%NULL%1,                      Benjamin S.%Glicksberg%NULL%1,                      Arash%Kia%NULL%1,                      Roopa%Kohli-Seth%NULL%1,                      Matthew A.%Levin%NULL%1,                      Prem%Timsina%NULL%1,                      Shan%Zhao%NULL%1,                      Zahi A.%Fayad%NULL%5,                      Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,                      Kiran T.%Thakur%NULL%2,                      Kiran T.%Thakur%NULL%0,                      Anna S.%Nordvig%NULL%1,                      Morgan L.%Prust%NULL%1,                      William%Roth%NULL%1,                      Angela%Lignelli%NULL%1,                      Anne-Catrin%Uhlemann%NULL%1,                      Emily Happy%Miller%NULL%1,                      Shajo%Kunnath-Velayudhan%NULL%1,                      Armando%Del Portillo%NULL%1,                      Yang%Liu%NULL%1,                      Gunnar%Hargus%NULL%1,                      Andrew F.%Teich%NULL%1,                      Richard A.%Hickman%NULL%1,                      Kurenai%Tanji%NULL%1,                      James E.%Goldman%NULL%1,                      Phyllis L.%Faust%NULL%1,                      Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,                      Lilioara-Alexandra%Muja%NULL%2,                      Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,                      Chen%Shao%NULL%2,                      Chen%Shao%NULL%0,                      Xiao-jie%Huang%NULL%1,                      Lin%Sun%NULL%1,                      Ling-jia%Meng%NULL%1,                      Hui%Liu%NULL%2,                      Shi-jie%Zhang%NULL%1,                      Hong-jun%Li%NULL%1,                      Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,                    Ficken%C.%coreGivesNoEmail%1,                    Goddard%M.%coreGivesNoEmail%1,                    Jensen%M. P.%coreGivesNoEmail%1,                    Le%Quesne J.%coreGivesNoEmail%1,                    Menon%D.%coreGivesNoEmail%1,                    Officer\u2010Jones%L.%coreGivesNoEmail%1,                    Smith%C.%coreGivesNoEmail%1,                    Teod\u00f2sio%A.%coreGivesNoEmail%1,                    Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,                      Maria%Mostyka%NULL%1,                      Alicia%Dillard%NULL%1,                      Diana R.%Berman%NULL%1,                      Lucy X.%Ma%NULL%1,                      Amy%Chadburn%NULL%1,                      Rhonda K.%Yantiss%NULL%1,                      Jose%Jessurun%NULL%1,                      Surya V.%Seshan%NULL%1,                      Alain C.%Borczuk%NULL%1,                      Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,                      Kikkeri N%Naresh%NULL%1,                      Candice%Roufosse%NULL%1,                      Andrew G%Nicholson%NULL%1,                      Justin%Weir%NULL%1,                      Graham S%Cooke%NULL%1,                      Mark%Thursz%NULL%1,                      Pinelopi%Manousou%NULL%1,                      Richard%Corbett%NULL%1,                      Robert%Goldin%NULL%1,                      Safa%Al-Sarraj%NULL%1,                      Alireza%Abdolrasouli%NULL%1,                      Olivia C%Swann%NULL%1,                      Laury%Baillon%NULL%1,                      Rebecca%Penn%NULL%1,                      Wendy S%Barclay%NULL%1,                      Patrizia%Viola%NULL%1,                      Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,                       Renata A A%Monteiro%NULL%2,                       Renata A A%Monteiro%NULL%0,                       Luiz F F%da Silva%NULL%1,                       Denise M A C%Malheiros%NULL%1,                       Ellen P%de Oliveira%NULL%1,                       Jair%Theodoro‐Filho%NULL%1,                       João R R%Pinho%NULL%1,                       Michele S%Gomes‐Gouvêa%NULL%1,                       Ana P M%Salles%NULL%1,                       Ilka R S%de Oliveira%NULL%1,                       Thais%Mauad%NULL%1,                       Paulo H N%Saldiva%NULL%1,                       Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,                     Burkhardt%Katrin%coreGivesNoEmail%1,                     Claus%Rainer%coreGivesNoEmail%1,                     Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,                     M\u00e4rkl%Bruno%coreGivesNoEmail%1,                     Schaller%Tina%coreGivesNoEmail%1,                     Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,                       Dwayne A.%Wolf%NULL%1,                       Bihong%Zhao%NULL%1,                       Bindu%Akkanti%NULL%1,                       Michelle%McDonald%NULL%1,                       Laura%Lelenwa%NULL%1,                       Noah%Reilly%NULL%1,                       Giulia%Ottaviani%NULL%1,                       M. Tarek%Elghetany%NULL%1,                       Daniel Ocazionez%Trujillo%NULL%1,                       Gabriel M.%Aisenberg%NULL%1,                       Mohammad%Madjid%NULL%1,                       Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,                       Erin G.%Brooks%NULL%1,                       Joshua%Akers%NULL%1,                       Danielle%Armstrong%NULL%1,                       Lauren%Decker%NULL%1,                       Adam%Gonzalez%NULL%1,                       William%Humphrey%NULL%1,                       Romana%Mayer%NULL%1,                       Matthew%Miller%NULL%1,                       Catherine%Perez%NULL%1,                       Jose Antonio Ruiz%Arango%NULL%1,                       Lakshmanan%Sathyavagiswaran%NULL%1,                       Wendy%Stroh%NULL%1,                       Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,                       Jan-Peter%Sperhake%NULL%2,                       Marc%Lütgehetmann%NULL%2,                       Stefan%Steurer%NULL%2,                       Carolin%Edler%NULL%1,                       Axel%Heinemann%NULL%2,                       Fabian%Heinrich%NULL%2,                       Herbert%Mushumba%NULL%2,                       Inga%Kniep%NULL%1,                       Ann Sophie%Schröder%NULL%2,                       Christoph%Burdelski%NULL%2,                       Geraldine%de Heer%NULL%2,                       Axel%Nierhaus%NULL%2,                       Daniel%Frings%NULL%2,                       Susanne%Pfefferle%NULL%1,                       Heinrich%Becker%NULL%1,                       Hanns%Bredereke-Wiedling%NULL%1,                       Andreas%de Weerth%NULL%2,                       Hans-Richard%Paschen%NULL%1,                       Sara%Sheikhzadeh-Eggers%NULL%1,                       Axel%Stang%NULL%1,                       Stefan%Schmiedel%NULL%1,                       Carsten%Bokemeyer%NULL%1,                       Marylyn M.%Addo%NULL%1,                       Martin%Aepfelbacher%NULL%2,                       Klaus%Püschel%NULL%2,                       Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,                       Jasmin D%Haslbauer%NULL%4,                       Jasmin D%Haslbauer%NULL%0,                       Ronny%Nienhold%NULL%2,                       Spasenija%Savic%NULL%2,                       Helmut%Hopfer%NULL%2,                       Nikolaus%Deigendesch%NULL%2,                       Stephan%Frank%NULL%2,                       Daniel%Turek%NULL%2,                       Niels%Willi%NULL%2,                       Hans%Pargger%NULL%2,                       Stefano%Bassetti%NULL%2,                       Joerg D%Leuppi%NULL%2,                       Gieri%Cathomas%NULL%2,                       Markus%Tolnay%NULL%2,                       Kirsten D%Mertz%NULL%2,                       Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,                       Jasmin D%Haslbauer%NULL%0,                       Jasmin D%Haslbauer%NULL%0,                       Ronny%Nienhold%NULL%0,                       Spasenija%Savic%NULL%0,                       Helmut%Hopfer%NULL%0,                       Nikolaus%Deigendesch%NULL%0,                       Stephan%Frank%NULL%0,                       Daniel%Turek%NULL%0,                       Niels%Willi%NULL%0,                       Hans%Pargger%NULL%0,                       Stefano%Bassetti%NULL%0,                       Joerg D%Leuppi%NULL%0,                       Gieri%Cathomas%NULL%0,                       Markus%Tolnay%NULL%0,                       Kirsten D%Mertz%NULL%0,                       Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,                       Andreas J%Flammer%NULL%1,                       Peter%Steiger%NULL%1,                       Martina%Haberecker%NULL%1,                       Rea%Andermatt%NULL%1,                       Annelies S%Zinkernagel%NULL%1,                       Mandeep R%Mehra%NULL%1,                       Reto A%Schuepbach%NULL%1,                       Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,                       Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,                       Yong%Xiong%NULL%0,                       Huan%Liu%NULL%3,                       Li%Niu%NULL%1,                       Jianchun%Guo%NULL%1,                       Meiyan%Liao%NULL%1,                       Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,                       Eric J%Duval%NULL%1,                       Edana%Stroberg%NULL%1,                       Subha%Ghosh%NULL%1,                       Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,                       Pilar%Alemany Monraval%NULL%1,                       Carmen%Medina Medina%NULL%1,                       Ana%Jiménez Sánchez%NULL%1,                       Juan Carlos%Andrés Teruel%NULL%1,                       José%Ferrando Marco%NULL%1,                       Víctor%Puglia Santos%NULL%1,                       Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,                       Ann Sophie%Schröder%NULL%0,                       Martin%Aepfelbacher%NULL%0,                       Antonia%Fitzek%NULL%1,                       Axel%Heinemann%NULL%0,                       Fabian%Heinrich%NULL%0,                       Anke%Klein%NULL%1,                       Felicia%Langenwalder%NULL%1,                       Marc%Lütgehetmann%NULL%0,                       Kira%Meißner%NULL%1,                       Klaus%Püschel%NULL%0,                       Julia%Schädler%NULL%1,                       Stefan%Steurer%NULL%0,                       Herbert%Mushumba%NULL%0,                       Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,                     Blankenberg%Stefan S%coreGivesNoEmail%1,                     Brauninger%Hanna%coreGivesNoEmail%1,                     Edler%Caroline%coreGivesNoEmail%1,                     Escher%Felicitas%coreGivesNoEmail%1,                     Fitzek%Antonia%coreGivesNoEmail%1,                     Kirchhof%Paulus%coreGivesNoEmail%1,                     Lindner%Diana%coreGivesNoEmail%1,                     Meissner%Kira%coreGivesNoEmail%1,                     Puschel%Klaus%coreGivesNoEmail%1,                     Scherschel%Katharina%coreGivesNoEmail%1,                     Schultheiss%Heinz-Peter%coreGivesNoEmail%1,                     Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,                       Holly%Harper%NULL%1,                       Behtash G%Nezami%NULL%1,                       Daniel L%Shen%NULL%1,                       Simona Pichler%Sekulic%NULL%1,                       Aaron T%Koeth%NULL%1,                       Clifford V%Harding%NULL%1,                       Hannah%Gilmore%NULL%1,                       Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,                       Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,                       Johannes Alexander%Lobrinus%NULL%2,                       Johannes Alexander%Lobrinus%NULL%0,                       Manuel%Schibler%NULL%1,                       Tony%Fracasso%NULL%1,                       Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,                       Aibek%Akmatbekov%NULL%1,                       Jack L%Harbert%NULL%1,                       Guang%Li%NULL%1,                       J%Quincy Brown%NULL%1,                       Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,                       Behnaz%Jahanbin%NULL%1,                       Masoomeh%Safaei%NULL%1,                       Laya%Amoozadeh%NULL%1,                       Meysam%Khoshavi%NULL%1,                       Vahid%Mehrtash%NULL%1,                       Bita%Jafarzadeh%NULL%1,                       Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,                       Jing%Xie%NULL%2,                       Lei%Zhao%NULL%1,                       Xiaochun%Fei%NULL%1,                       Heng%Zhang%NULL%1,                       Yun%Tan%NULL%1,                       Xiu%Nie%NULL%1,                       Luting%Zhou%NULL%1,                       Zhenhua%Liu%NULL%1,                       Yong%Ren%NULL%1,                       Ling%Yuan%NULL%1,                       Yu%Zhang%NULL%1,                       Jinsheng%Zhang%NULL%1,                       Liwei%Liang%NULL%1,                       Xinwei%Chen%NULL%1,                       Xin%Liu%NULL%1,                       Peng%Wang%NULL%1,                       Xiao%Han%NULL%1,                       Xiangqin%Weng%NULL%1,                       Ying%Chen%NULL%1,                       Ting%Yu%NULL%0,                       Xinxin%Zhang%NULL%0,                       Jun%Cai%caijun@shsmu.edu.cn%1,                       Rong%Chen%crjudy@126.com%2,                       Zhengli%Shi%zlshi@wh.iov.cn%2,                       Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,                       Selina%Traxler%NULL%2,                       Selina%Traxler%NULL%0,                       Michael%Bitzer%NULL%1,                       Helene%Häberle%NULL%1,                       Wolfgang%Raiser%NULL%1,                       Dominik%Nann%NULL%1,                       Leonie%Frauenfeld%NULL%1,                       Antonio%Vogelsberg%NULL%1,                       Karin%Klingel%NULL%1,                       Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,                       Thomas%Ruder%NULL%1,                       Rilana%Baumeister%NULL%1,                       Stephan%Bolliger%NULL%1,                       Michael%Thali%NULL%1,                       Eva%Meixner%NULL%1,                       Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,                       Lei%Shi%NULL%1,                       Yijin%Wang%NULL%1,                       Jiyuan%Zhang%NULL%1,                       Lei%Huang%NULL%2,                       Chao%Zhang%NULL%1,                       Shuhong%Liu%NULL%1,                       Peng%Zhao%NULL%1,                       Hongxia%Liu%NULL%1,                       Li%Zhu%NULL%1,                       Yanhong%Tai%NULL%1,                       Changqing%Bai%NULL%1,                       Tingting%Gao%NULL%1,                       Jinwen%Song%NULL%1,                       Peng%Xia%NULL%1,                       Jinghui%Dong%NULL%1,                       Jingmin%Zhao%NULL%1,                       Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,                       Benjamin%Gaborit%NULL%2,                       Benjamin%Gaborit%NULL%0,                       Claire%Toquet%NULL%1,                       Louise%Castain%NULL%1,                       Antonin%Bal%NULL%1,                       Pierre Paul%Arrigoni%NULL%1,                       Raphaël%Lecomte%NULL%1,                       Renaud%Clement%NULL%1,                       Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,                       Radu Lucian%Buzulică%NULL%1,                       Daniel%Pirici%NULL%1,                       Mihail Constantin%Ceauşu%NULL%1,                       Radu Vasile%Iman%NULL%1,                       Ovidiu-Mircea%Gheorghe%NULL%1,                       Simona Daniela%Neamţu%NULL%1,                       Liliana%Stanca%NULL%1,                       Răzvan%Ene%NULL%1,                       Samir%Kumar-Singh%NULL%1,                       Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,                       Alexander%Leunig%NULL%1,                       Sophia%Brambs%NULL%1,                       Rainer%Kaiser%NULL%1,                       Tobias%Weinberger%NULL%1,                       Michael%Weigand%NULL%1,                       Maximilian%Muenchhoff%NULL%1,                       Johannes C.%Hellmuth%NULL%1,                       Stephan%Ledderose%NULL%1,                       Heiko%Schulz%NULL%1,                       Clemens%Scherer%NULL%1,                       Martina%Rudelius%NULL%1,                       Michael%Zoller%NULL%1,                       Dominik%Höchter%NULL%1,                       Oliver%Keppler%NULL%1,                       Daniel%Teupser%NULL%1,                       Bernhard%Zwißler%NULL%1,                       Michael%von Bergwelt-Baildon%NULL%1,                       Stefan%Kääb%NULL%1,                       Steffen%Massberg%NULL%1,                       Kami%Pekayvaz%NULL%1,                       Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,                       Alexandra%Grosse%NULL%1,                       Helmut J.F.%Salzer%NULL%1,                       Martin W.%Dünser%NULL%1,                       Reinhard%Motz%NULL%1,                       Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,                       Ricardo%De Mendonça%NULL%1,                       Nicky%D’Haene%NULL%1,                       Sarah%De Clercq%NULL%1,                       Camille%Verocq%NULL%1,                       Laetitia%Lebrun%NULL%1,                       Philomène%Lavis%NULL%1,                       Marie-Lucie%Racu%NULL%1,                       Anne-Laure%Trépant%NULL%1,                       Calliope%Maris%NULL%1,                       Sandrine%Rorive%NULL%1,                       Jean-Christophe%Goffard%NULL%1,                       Olivier%De Witte%NULL%1,                       Lorenzo%Peluso%NULL%1,                       Jean-Louis%Vincent%NULL%1,                       Christine%Decaestecker%NULL%1,                       Fabio Silvio%Taccone%NULL%1,                       Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,                       Hiroyuki%Hayashi%NULL%2,                       Hiroyuki%Hayashi%NULL%0,                       Yukihiro%Yoshimura%NULL%1,                       Hiroaki%Sasaki%NULL%1,                       Hiroshi%Horiuchi%NULL%1,                       Nobuyuki%Miyata%NULL%1,                       Natsuo%Tachikawa%NULL%1,                       Yuki%Tsuchiya%NULL%1,                       Hideaki%Mitsui%NULL%1,                       Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,                       Ja-Mun%Chong%NULL%1,                       Noriko%Nakajima%NULL%1,                       Masahiro%Sano%NULL%1,                       Jun%Yamazaki%NULL%1,                       Ippei%Miyamoto%NULL%1,                       Haruka%Nishioka%NULL%1,                       Hidetaka%Akita%NULL%1,                       Yuko%Sato%NULL%1,                       Michiyo%Kataoka%NULL%1,                       Harutaka%Katano%NULL%1,                       Minoru%Tobiume%NULL%1,                       Tsuyoshi%Sekizuka%NULL%1,                       Kentaro%Itokawa%NULL%1,                       Makoto%Kuroda%NULL%1,                       Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,                       Anuradha%Lala%NULL%1,                       Emilia%Bagiella%NULL%1,                       Helena L.%Chang%NULL%1,                       Pedro R.%Moreno%NULL%1,                       Elisabet%Pujadas%NULL%1,                       Varun%Arvind%NULL%1,                       Sonali%Bose%NULL%1,                       Alexander W.%Charney%NULL%1,                       Martin D.%Chen%NULL%1,                       Carlos%Cordon-Cardo%NULL%1,                       Andrew S.%Dunn%NULL%1,                       Michael E.%Farkouh%NULL%1,                       Benjamin S.%Glicksberg%NULL%1,                       Arash%Kia%NULL%1,                       Roopa%Kohli-Seth%NULL%1,                       Matthew A.%Levin%NULL%1,                       Prem%Timsina%NULL%1,                       Shan%Zhao%NULL%1,                       Zahi A.%Fayad%NULL%5,                       Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,                       Kiran T.%Thakur%NULL%2,                       Kiran T.%Thakur%NULL%0,                       Anna S.%Nordvig%NULL%1,                       Morgan L.%Prust%NULL%1,                       William%Roth%NULL%1,                       Angela%Lignelli%NULL%1,                       Anne-Catrin%Uhlemann%NULL%1,                       Emily Happy%Miller%NULL%1,                       Shajo%Kunnath-Velayudhan%NULL%1,                       Armando%Del Portillo%NULL%1,                       Yang%Liu%NULL%1,                       Gunnar%Hargus%NULL%1,                       Andrew F.%Teich%NULL%1,                       Richard A.%Hickman%NULL%1,                       Kurenai%Tanji%NULL%1,                       James E.%Goldman%NULL%1,                       Phyllis L.%Faust%NULL%1,                       Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,                       Lilioara-Alexandra%Muja%NULL%2,                       Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,                       Chen%Shao%NULL%2,                       Chen%Shao%NULL%0,                       Xiao-jie%Huang%NULL%1,                       Lin%Sun%NULL%1,                       Ling-jia%Meng%NULL%1,                       Hui%Liu%NULL%2,                       Shi-jie%Zhang%NULL%1,                       Hong-jun%Li%NULL%1,                       Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,                     Ficken%C.%coreGivesNoEmail%1,                     Goddard%M.%coreGivesNoEmail%1,                     Jensen%M. P.%coreGivesNoEmail%1,                     Le%Quesne J.%coreGivesNoEmail%1,                     Menon%D.%coreGivesNoEmail%1,                     Officer\u2010Jones%L.%coreGivesNoEmail%1,                     Smith%C.%coreGivesNoEmail%1,                     Teod\u00f2sio%A.%coreGivesNoEmail%1,                     Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,                       Maria%Mostyka%NULL%1,                       Alicia%Dillard%NULL%1,                       Diana R.%Berman%NULL%1,                       Lucy X.%Ma%NULL%1,                       Amy%Chadburn%NULL%1,                       Rhonda K.%Yantiss%NULL%1,                       Jose%Jessurun%NULL%1,                       Surya V.%Seshan%NULL%1,                       Alain C.%Borczuk%NULL%1,                       Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,                       Kikkeri N%Naresh%NULL%1,                       Candice%Roufosse%NULL%1,                       Andrew G%Nicholson%NULL%1,                       Justin%Weir%NULL%1,                       Graham S%Cooke%NULL%1,                       Mark%Thursz%NULL%1,                       Pinelopi%Manousou%NULL%1,                       Richard%Corbett%NULL%1,                       Robert%Goldin%NULL%1,                       Safa%Al-Sarraj%NULL%1,                       Alireza%Abdolrasouli%NULL%1,                       Olivia C%Swann%NULL%1,                       Laury%Baillon%NULL%1,                       Rebecca%Penn%NULL%1,                       Wendy S%Barclay%NULL%1,                       Patrizia%Viola%NULL%1,                       Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,                        Renata A A%Monteiro%NULL%2,                        Renata A A%Monteiro%NULL%0,                        Luiz F F%da Silva%NULL%1,                        Denise M A C%Malheiros%NULL%1,                        Ellen P%de Oliveira%NULL%1,                        Jair%Theodoro‐Filho%NULL%1,                        João R R%Pinho%NULL%1,                        Michele S%Gomes‐Gouvêa%NULL%1,                        Ana P M%Salles%NULL%1,                        Ilka R S%de Oliveira%NULL%1,                        Thais%Mauad%NULL%1,                        Paulo H N%Saldiva%NULL%1,                        Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,                      Burkhardt%Katrin%coreGivesNoEmail%1,                      Claus%Rainer%coreGivesNoEmail%1,                      Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,                      M\u00e4rkl%Bruno%coreGivesNoEmail%1,                      Schaller%Tina%coreGivesNoEmail%1,                      Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,                        Dwayne A.%Wolf%NULL%1,                        Bihong%Zhao%NULL%1,                        Bindu%Akkanti%NULL%1,                        Michelle%McDonald%NULL%1,                        Laura%Lelenwa%NULL%1,                        Noah%Reilly%NULL%1,                        Giulia%Ottaviani%NULL%1,                        M. Tarek%Elghetany%NULL%1,                        Daniel Ocazionez%Trujillo%NULL%1,                        Gabriel M.%Aisenberg%NULL%1,                        Mohammad%Madjid%NULL%1,                        Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,                        Erin G.%Brooks%NULL%1,                        Joshua%Akers%NULL%1,                        Danielle%Armstrong%NULL%1,                        Lauren%Decker%NULL%1,                        Adam%Gonzalez%NULL%1,                        William%Humphrey%NULL%1,                        Romana%Mayer%NULL%1,                        Matthew%Miller%NULL%1,                        Catherine%Perez%NULL%1,                        Jose Antonio Ruiz%Arango%NULL%1,                        Lakshmanan%Sathyavagiswaran%NULL%1,                        Wendy%Stroh%NULL%1,                        Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,                        Jan-Peter%Sperhake%NULL%2,                        Marc%Lütgehetmann%NULL%2,                        Stefan%Steurer%NULL%2,                        Carolin%Edler%NULL%1,                        Axel%Heinemann%NULL%2,                        Fabian%Heinrich%NULL%2,                        Herbert%Mushumba%NULL%2,                        Inga%Kniep%NULL%1,                        Ann Sophie%Schröder%NULL%2,                        Christoph%Burdelski%NULL%2,                        Geraldine%de Heer%NULL%2,                        Axel%Nierhaus%NULL%2,                        Daniel%Frings%NULL%2,                        Susanne%Pfefferle%NULL%1,                        Heinrich%Becker%NULL%1,                        Hanns%Bredereke-Wiedling%NULL%1,                        Andreas%de Weerth%NULL%2,                        Hans-Richard%Paschen%NULL%1,                        Sara%Sheikhzadeh-Eggers%NULL%1,                        Axel%Stang%NULL%1,                        Stefan%Schmiedel%NULL%1,                        Carsten%Bokemeyer%NULL%1,                        Marylyn M.%Addo%NULL%1,                        Martin%Aepfelbacher%NULL%2,                        Klaus%Püschel%NULL%2,                        Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,                        Jasmin D%Haslbauer%NULL%4,                        Jasmin D%Haslbauer%NULL%0,                        Ronny%Nienhold%NULL%2,                        Spasenija%Savic%NULL%2,                        Helmut%Hopfer%NULL%2,                        Nikolaus%Deigendesch%NULL%2,                        Stephan%Frank%NULL%2,                        Daniel%Turek%NULL%2,                        Niels%Willi%NULL%2,                        Hans%Pargger%NULL%2,                        Stefano%Bassetti%NULL%2,                        Joerg D%Leuppi%NULL%2,                        Gieri%Cathomas%NULL%2,                        Markus%Tolnay%NULL%2,                        Kirsten D%Mertz%NULL%2,                        Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,                        Jasmin D%Haslbauer%NULL%0,                        Jasmin D%Haslbauer%NULL%0,                        Ronny%Nienhold%NULL%0,                        Spasenija%Savic%NULL%0,                        Helmut%Hopfer%NULL%0,                        Nikolaus%Deigendesch%NULL%0,                        Stephan%Frank%NULL%0,                        Daniel%Turek%NULL%0,                        Niels%Willi%NULL%0,                        Hans%Pargger%NULL%0,                        Stefano%Bassetti%NULL%0,                        Joerg D%Leuppi%NULL%0,                        Gieri%Cathomas%NULL%0,                        Markus%Tolnay%NULL%0,                        Kirsten D%Mertz%NULL%0,                        Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,                        Andreas J%Flammer%NULL%1,                        Peter%Steiger%NULL%1,                        Martina%Haberecker%NULL%1,                        Rea%Andermatt%NULL%1,                        Annelies S%Zinkernagel%NULL%1,                        Mandeep R%Mehra%NULL%1,                        Reto A%Schuepbach%NULL%1,                        Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,                        Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,                        Yong%Xiong%NULL%0,                        Huan%Liu%NULL%3,                        Li%Niu%NULL%1,                        Jianchun%Guo%NULL%1,                        Meiyan%Liao%NULL%1,                        Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,                        Eric J%Duval%NULL%1,                        Edana%Stroberg%NULL%1,                        Subha%Ghosh%NULL%1,                        Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,                        Pilar%Alemany Monraval%NULL%1,                        Carmen%Medina Medina%NULL%1,                        Ana%Jiménez Sánchez%NULL%1,                        Juan Carlos%Andrés Teruel%NULL%1,                        José%Ferrando Marco%NULL%1,                        Víctor%Puglia Santos%NULL%1,                        Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,                        Ann Sophie%Schröder%NULL%0,                        Martin%Aepfelbacher%NULL%0,                        Antonia%Fitzek%NULL%1,                        Axel%Heinemann%NULL%0,                        Fabian%Heinrich%NULL%0,                        Anke%Klein%NULL%1,                        Felicia%Langenwalder%NULL%1,                        Marc%Lütgehetmann%NULL%0,                        Kira%Meißner%NULL%1,                        Klaus%Püschel%NULL%0,                        Julia%Schädler%NULL%1,                        Stefan%Steurer%NULL%0,                        Herbert%Mushumba%NULL%0,                        Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,                      Blankenberg%Stefan S%coreGivesNoEmail%1,                      Brauninger%Hanna%coreGivesNoEmail%1,                      Edler%Caroline%coreGivesNoEmail%1,                      Escher%Felicitas%coreGivesNoEmail%1,                      Fitzek%Antonia%coreGivesNoEmail%1,                      Kirchhof%Paulus%coreGivesNoEmail%1,                      Lindner%Diana%coreGivesNoEmail%1,                      Meissner%Kira%coreGivesNoEmail%1,                      Puschel%Klaus%coreGivesNoEmail%1,                      Scherschel%Katharina%coreGivesNoEmail%1,                      Schultheiss%Heinz-Peter%coreGivesNoEmail%1,                      Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,                        Holly%Harper%NULL%1,                        Behtash G%Nezami%NULL%1,                        Daniel L%Shen%NULL%1,                        Simona Pichler%Sekulic%NULL%1,                        Aaron T%Koeth%NULL%1,                        Clifford V%Harding%NULL%1,                        Hannah%Gilmore%NULL%1,                        Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,                        Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,                        Johannes Alexander%Lobrinus%NULL%2,                        Johannes Alexander%Lobrinus%NULL%0,                        Manuel%Schibler%NULL%1,                        Tony%Fracasso%NULL%1,                        Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,                        Aibek%Akmatbekov%NULL%1,                        Jack L%Harbert%NULL%1,                        Guang%Li%NULL%1,                        J%Quincy Brown%NULL%1,                        Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,                        Behnaz%Jahanbin%NULL%1,                        Masoomeh%Safaei%NULL%1,                        Laya%Amoozadeh%NULL%1,                        Meysam%Khoshavi%NULL%1,                        Vahid%Mehrtash%NULL%1,                        Bita%Jafarzadeh%NULL%1,                        Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,                        Jing%Xie%NULL%2,                        Lei%Zhao%NULL%1,                        Xiaochun%Fei%NULL%1,                        Heng%Zhang%NULL%1,                        Yun%Tan%NULL%1,                        Xiu%Nie%NULL%1,                        Luting%Zhou%NULL%1,                        Zhenhua%Liu%NULL%1,                        Yong%Ren%NULL%1,                        Ling%Yuan%NULL%1,                        Yu%Zhang%NULL%1,                        Jinsheng%Zhang%NULL%1,                        Liwei%Liang%NULL%1,                        Xinwei%Chen%NULL%1,                        Xin%Liu%NULL%1,                        Peng%Wang%NULL%1,                        Xiao%Han%NULL%1,                        Xiangqin%Weng%NULL%1,                        Ying%Chen%NULL%1,                        Ting%Yu%NULL%0,                        Xinxin%Zhang%NULL%0,                        Jun%Cai%caijun@shsmu.edu.cn%1,                        Rong%Chen%crjudy@126.com%2,                        Zhengli%Shi%zlshi@wh.iov.cn%2,                        Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,                        Selina%Traxler%NULL%2,                        Selina%Traxler%NULL%0,                        Michael%Bitzer%NULL%1,                        Helene%Häberle%NULL%1,                        Wolfgang%Raiser%NULL%1,                        Dominik%Nann%NULL%1,                        Leonie%Frauenfeld%NULL%1,                        Antonio%Vogelsberg%NULL%1,                        Karin%Klingel%NULL%1,                        Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,                        Thomas%Ruder%NULL%1,                        Rilana%Baumeister%NULL%1,                        Stephan%Bolliger%NULL%1,                        Michael%Thali%NULL%1,                        Eva%Meixner%NULL%1,                        Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,                        Lei%Shi%NULL%1,                        Yijin%Wang%NULL%1,                        Jiyuan%Zhang%NULL%1,                        Lei%Huang%NULL%2,                        Chao%Zhang%NULL%1,                        Shuhong%Liu%NULL%1,                        Peng%Zhao%NULL%1,                        Hongxia%Liu%NULL%1,                        Li%Zhu%NULL%1,                        Yanhong%Tai%NULL%1,                        Changqing%Bai%NULL%1,                        Tingting%Gao%NULL%1,                        Jinwen%Song%NULL%1,                        Peng%Xia%NULL%1,                        Jinghui%Dong%NULL%1,                        Jingmin%Zhao%NULL%1,                        Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,                        Benjamin%Gaborit%NULL%2,                        Benjamin%Gaborit%NULL%0,                        Claire%Toquet%NULL%1,                        Louise%Castain%NULL%1,                        Antonin%Bal%NULL%1,                        Pierre Paul%Arrigoni%NULL%1,                        Raphaël%Lecomte%NULL%1,                        Renaud%Clement%NULL%1,                        Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,                        Radu Lucian%Buzulică%NULL%1,                        Daniel%Pirici%NULL%1,                        Mihail Constantin%Ceauşu%NULL%1,                        Radu Vasile%Iman%NULL%1,                        Ovidiu-Mircea%Gheorghe%NULL%1,                        Simona Daniela%Neamţu%NULL%1,                        Liliana%Stanca%NULL%1,                        Răzvan%Ene%NULL%1,                        Samir%Kumar-Singh%NULL%1,                        Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,                        Alexander%Leunig%NULL%1,                        Sophia%Brambs%NULL%1,                        Rainer%Kaiser%NULL%1,                        Tobias%Weinberger%NULL%1,                        Michael%Weigand%NULL%1,                        Maximilian%Muenchhoff%NULL%1,                        Johannes C.%Hellmuth%NULL%1,                        Stephan%Ledderose%NULL%1,                        Heiko%Schulz%NULL%1,                        Clemens%Scherer%NULL%1,                        Martina%Rudelius%NULL%1,                        Michael%Zoller%NULL%1,                        Dominik%Höchter%NULL%1,                        Oliver%Keppler%NULL%1,                        Daniel%Teupser%NULL%1,                        Bernhard%Zwißler%NULL%1,                        Michael%von Bergwelt-Baildon%NULL%1,                        Stefan%Kääb%NULL%1,                        Steffen%Massberg%NULL%1,                        Kami%Pekayvaz%NULL%1,                        Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,                        Alexandra%Grosse%NULL%1,                        Helmut J.F.%Salzer%NULL%1,                        Martin W.%Dünser%NULL%1,                        Reinhard%Motz%NULL%1,                        Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,                        Ricardo%De Mendonça%NULL%1,                        Nicky%D’Haene%NULL%1,                        Sarah%De Clercq%NULL%1,                        Camille%Verocq%NULL%1,                        Laetitia%Lebrun%NULL%1,                        Philomène%Lavis%NULL%1,                        Marie-Lucie%Racu%NULL%1,                        Anne-Laure%Trépant%NULL%1,                        Calliope%Maris%NULL%1,                        Sandrine%Rorive%NULL%1,                        Jean-Christophe%Goffard%NULL%1,                        Olivier%De Witte%NULL%1,                        Lorenzo%Peluso%NULL%1,                        Jean-Louis%Vincent%NULL%1,                        Christine%Decaestecker%NULL%1,                        Fabio Silvio%Taccone%NULL%1,                        Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,                        Hiroyuki%Hayashi%NULL%2,                        Hiroyuki%Hayashi%NULL%0,                        Yukihiro%Yoshimura%NULL%1,                        Hiroaki%Sasaki%NULL%1,                        Hiroshi%Horiuchi%NULL%1,                        Nobuyuki%Miyata%NULL%1,                        Natsuo%Tachikawa%NULL%1,                        Yuki%Tsuchiya%NULL%1,                        Hideaki%Mitsui%NULL%1,                        Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,                        Ja-Mun%Chong%NULL%1,                        Noriko%Nakajima%NULL%1,                        Masahiro%Sano%NULL%1,                        Jun%Yamazaki%NULL%1,                        Ippei%Miyamoto%NULL%1,                        Haruka%Nishioka%NULL%1,                        Hidetaka%Akita%NULL%1,                        Yuko%Sato%NULL%1,                        Michiyo%Kataoka%NULL%1,                        Harutaka%Katano%NULL%1,                        Minoru%Tobiume%NULL%1,                        Tsuyoshi%Sekizuka%NULL%1,                        Kentaro%Itokawa%NULL%1,                        Makoto%Kuroda%NULL%1,                        Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,                        Anuradha%Lala%NULL%1,                        Emilia%Bagiella%NULL%1,                        Helena L.%Chang%NULL%1,                        Pedro R.%Moreno%NULL%1,                        Elisabet%Pujadas%NULL%1,                        Varun%Arvind%NULL%1,                        Sonali%Bose%NULL%1,                        Alexander W.%Charney%NULL%1,                        Martin D.%Chen%NULL%1,                        Carlos%Cordon-Cardo%NULL%1,                        Andrew S.%Dunn%NULL%1,                        Michael E.%Farkouh%NULL%1,                        Benjamin S.%Glicksberg%NULL%1,                        Arash%Kia%NULL%1,                        Roopa%Kohli-Seth%NULL%1,                        Matthew A.%Levin%NULL%1,                        Prem%Timsina%NULL%1,                        Shan%Zhao%NULL%1,                        Zahi A.%Fayad%NULL%5,                        Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,                        Kiran T.%Thakur%NULL%2,                        Kiran T.%Thakur%NULL%0,                        Anna S.%Nordvig%NULL%1,                        Morgan L.%Prust%NULL%1,                        William%Roth%NULL%1,                        Angela%Lignelli%NULL%1,                        Anne-Catrin%Uhlemann%NULL%1,                        Emily Happy%Miller%NULL%1,                        Shajo%Kunnath-Velayudhan%NULL%1,                        Armando%Del Portillo%NULL%1,                        Yang%Liu%NULL%1,                        Gunnar%Hargus%NULL%1,                        Andrew F.%Teich%NULL%1,                        Richard A.%Hickman%NULL%1,                        Kurenai%Tanji%NULL%1,                        James E.%Goldman%NULL%1,                        Phyllis L.%Faust%NULL%1,                        Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,                        Lilioara-Alexandra%Muja%NULL%2,                        Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,                        Chen%Shao%NULL%2,                        Chen%Shao%NULL%0,                        Xiao-jie%Huang%NULL%1,                        Lin%Sun%NULL%1,                        Ling-jia%Meng%NULL%1,                        Hui%Liu%NULL%2,                        Shi-jie%Zhang%NULL%1,                        Hong-jun%Li%NULL%1,                        Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,                      Ficken%C.%coreGivesNoEmail%1,                      Goddard%M.%coreGivesNoEmail%1,                      Jensen%M. P.%coreGivesNoEmail%1,                      Le%Quesne J.%coreGivesNoEmail%1,                      Menon%D.%coreGivesNoEmail%1,                      Officer\u2010Jones%L.%coreGivesNoEmail%1,                      Smith%C.%coreGivesNoEmail%1,                      Teod\u00f2sio%A.%coreGivesNoEmail%1,                      Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,                        Maria%Mostyka%NULL%1,                        Alicia%Dillard%NULL%1,                        Diana R.%Berman%NULL%1,                        Lucy X.%Ma%NULL%1,                        Amy%Chadburn%NULL%1,                        Rhonda K.%Yantiss%NULL%1,                        Jose%Jessurun%NULL%1,                        Surya V.%Seshan%NULL%1,                        Alain C.%Borczuk%NULL%1,                        Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,                        Kikkeri N%Naresh%NULL%1,                        Candice%Roufosse%NULL%1,                        Andrew G%Nicholson%NULL%1,                        Justin%Weir%NULL%1,                        Graham S%Cooke%NULL%1,                        Mark%Thursz%NULL%1,                        Pinelopi%Manousou%NULL%1,                        Richard%Corbett%NULL%1,                        Robert%Goldin%NULL%1,                        Safa%Al-Sarraj%NULL%1,                        Alireza%Abdolrasouli%NULL%1,                        Olivia C%Swann%NULL%1,                        Laury%Baillon%NULL%1,                        Rebecca%Penn%NULL%1,                        Wendy S%Barclay%NULL%1,                        Patrizia%Viola%NULL%1,                        Michael%Osborn%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -3624,6 +4182,9 @@
       <c r="I1" t="s">
         <v>205</v>
       </c>
+      <c r="J1" t="s">
+        <v>922</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
@@ -3639,7 +4200,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>883</v>
+        <v>1072</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -3652,6 +4213,9 @@
       </c>
       <c r="I2" t="s">
         <v>840</v>
+      </c>
+      <c r="J2" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="3">
@@ -3668,7 +4232,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>884</v>
+        <v>1073</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -3681,6 +4245,9 @@
       </c>
       <c r="I3" t="s">
         <v>842</v>
+      </c>
+      <c r="J3" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="4">
@@ -3697,7 +4264,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>885</v>
+        <v>1074</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -3710,6 +4277,9 @@
       </c>
       <c r="I4" t="s">
         <v>844</v>
+      </c>
+      <c r="J4" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="5">
@@ -3726,7 +4296,7 @@
         <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>886</v>
+        <v>562</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -3738,7 +4308,10 @@
         <v>400</v>
       </c>
       <c r="I5" t="s">
-        <v>842</v>
+        <v>82</v>
+      </c>
+      <c r="J5" t="s">
+        <v>927</v>
       </c>
     </row>
     <row r="6">
@@ -3755,7 +4328,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>887</v>
+        <v>1075</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -3768,6 +4341,9 @@
       </c>
       <c r="I6" t="s">
         <v>840</v>
+      </c>
+      <c r="J6" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="7">
@@ -3784,7 +4360,7 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>888</v>
+        <v>1076</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -3797,6 +4373,9 @@
       </c>
       <c r="I7" t="s">
         <v>840</v>
+      </c>
+      <c r="J7" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="8">
@@ -3813,7 +4392,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>889</v>
+        <v>1077</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
@@ -3826,6 +4405,9 @@
       </c>
       <c r="I8" t="s">
         <v>840</v>
+      </c>
+      <c r="J8" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="9">
@@ -3842,7 +4424,7 @@
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>890</v>
+        <v>1078</v>
       </c>
       <c r="F9" t="s">
         <v>78</v>
@@ -3855,6 +4437,9 @@
       </c>
       <c r="I9" t="s">
         <v>840</v>
+      </c>
+      <c r="J9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="10">
@@ -3871,7 +4456,7 @@
         <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>891</v>
+        <v>1079</v>
       </c>
       <c r="F10" t="s">
         <v>84</v>
@@ -3884,6 +4469,9 @@
       </c>
       <c r="I10" t="s">
         <v>844</v>
+      </c>
+      <c r="J10" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="11">
@@ -3900,7 +4488,7 @@
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>892</v>
+        <v>1080</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
@@ -3913,6 +4501,9 @@
       </c>
       <c r="I11" t="s">
         <v>852</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="12">
@@ -3929,7 +4520,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>893</v>
+        <v>1081</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -3942,6 +4533,9 @@
       </c>
       <c r="I12" t="s">
         <v>840</v>
+      </c>
+      <c r="J12" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="13">
@@ -3958,7 +4552,7 @@
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>894</v>
+        <v>1082</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
@@ -3971,6 +4565,9 @@
       </c>
       <c r="I13" t="s">
         <v>844</v>
+      </c>
+      <c r="J13" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="14">
@@ -3987,7 +4584,7 @@
         <v>571</v>
       </c>
       <c r="E14" t="s">
-        <v>895</v>
+        <v>1083</v>
       </c>
       <c r="F14" t="s">
         <v>101</v>
@@ -4000,6 +4597,9 @@
       </c>
       <c r="I14" t="s">
         <v>856</v>
+      </c>
+      <c r="J14" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="15">
@@ -4016,7 +4616,7 @@
         <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>896</v>
+        <v>1084</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -4029,6 +4629,9 @@
       </c>
       <c r="I15" t="s">
         <v>842</v>
+      </c>
+      <c r="J15" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="16">
@@ -4045,7 +4648,7 @@
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>897</v>
+        <v>1085</v>
       </c>
       <c r="F16" t="s">
         <v>106</v>
@@ -4058,6 +4661,9 @@
       </c>
       <c r="I16" t="s">
         <v>840</v>
+      </c>
+      <c r="J16" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="17">
@@ -4074,7 +4680,7 @@
         <v>575</v>
       </c>
       <c r="E17" t="s">
-        <v>898</v>
+        <v>1086</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -4087,6 +4693,9 @@
       </c>
       <c r="I17" t="s">
         <v>856</v>
+      </c>
+      <c r="J17" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="18">
@@ -4103,7 +4712,7 @@
         <v>577</v>
       </c>
       <c r="E18" t="s">
-        <v>899</v>
+        <v>1087</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -4116,6 +4725,9 @@
       </c>
       <c r="I18" t="s">
         <v>856</v>
+      </c>
+      <c r="J18" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="19">
@@ -4132,7 +4744,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>900</v>
+        <v>1088</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -4145,6 +4757,9 @@
       </c>
       <c r="I19" t="s">
         <v>844</v>
+      </c>
+      <c r="J19" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="20">
@@ -4161,7 +4776,7 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>901</v>
+        <v>1089</v>
       </c>
       <c r="F20" t="s">
         <v>123</v>
@@ -4174,6 +4789,9 @@
       </c>
       <c r="I20" t="s">
         <v>840</v>
+      </c>
+      <c r="J20" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="21">
@@ -4190,7 +4808,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>902</v>
+        <v>1090</v>
       </c>
       <c r="F21" t="s">
         <v>127</v>
@@ -4203,6 +4821,9 @@
       </c>
       <c r="I21" t="s">
         <v>844</v>
+      </c>
+      <c r="J21" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="22">
@@ -4219,7 +4840,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>903</v>
+        <v>1091</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -4232,6 +4853,9 @@
       </c>
       <c r="I22" t="s">
         <v>856</v>
+      </c>
+      <c r="J22" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="23">
@@ -4248,7 +4872,7 @@
         <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>904</v>
+        <v>1092</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -4261,6 +4885,9 @@
       </c>
       <c r="I23" t="s">
         <v>844</v>
+      </c>
+      <c r="J23" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="24">
@@ -4277,7 +4904,7 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>905</v>
+        <v>1093</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -4290,6 +4917,9 @@
       </c>
       <c r="I24" t="s">
         <v>844</v>
+      </c>
+      <c r="J24" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="25">
@@ -4306,7 +4936,7 @@
         <v>421</v>
       </c>
       <c r="E25" t="s">
-        <v>906</v>
+        <v>585</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -4318,7 +4948,10 @@
         <v>423</v>
       </c>
       <c r="I25" t="s">
-        <v>842</v>
+        <v>82</v>
+      </c>
+      <c r="J25" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="26">
@@ -4335,7 +4968,7 @@
         <v>586</v>
       </c>
       <c r="E26" t="s">
-        <v>907</v>
+        <v>1094</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
@@ -4348,6 +4981,9 @@
       </c>
       <c r="I26" t="s">
         <v>856</v>
+      </c>
+      <c r="J26" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="27">
@@ -4364,7 +5000,7 @@
         <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>908</v>
+        <v>1095</v>
       </c>
       <c r="F27" t="s">
         <v>150</v>
@@ -4377,6 +5013,9 @@
       </c>
       <c r="I27" t="s">
         <v>840</v>
+      </c>
+      <c r="J27" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="28">
@@ -4393,7 +5032,7 @@
         <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>909</v>
+        <v>1096</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -4406,6 +5045,9 @@
       </c>
       <c r="I28" t="s">
         <v>840</v>
+      </c>
+      <c r="J28" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="29">
@@ -4422,7 +5064,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>910</v>
+        <v>1097</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -4435,6 +5077,9 @@
       </c>
       <c r="I29" t="s">
         <v>844</v>
+      </c>
+      <c r="J29" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="30">
@@ -4451,7 +5096,7 @@
         <v>429</v>
       </c>
       <c r="E30" t="s">
-        <v>911</v>
+        <v>591</v>
       </c>
       <c r="F30" t="s">
         <v>32</v>
@@ -4463,7 +5108,10 @@
         <v>431</v>
       </c>
       <c r="I30" t="s">
-        <v>842</v>
+        <v>82</v>
+      </c>
+      <c r="J30" t="s">
+        <v>948</v>
       </c>
     </row>
     <row r="31">
@@ -4480,7 +5128,7 @@
         <v>592</v>
       </c>
       <c r="E31" t="s">
-        <v>912</v>
+        <v>1098</v>
       </c>
       <c r="F31" t="s">
         <v>165</v>
@@ -4493,6 +5141,9 @@
       </c>
       <c r="I31" t="s">
         <v>856</v>
+      </c>
+      <c r="J31" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="32">
@@ -4509,7 +5160,7 @@
         <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>913</v>
+        <v>1099</v>
       </c>
       <c r="F32" t="s">
         <v>170</v>
@@ -4522,6 +5173,9 @@
       </c>
       <c r="I32" t="s">
         <v>840</v>
+      </c>
+      <c r="J32" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="33">
@@ -4538,7 +5192,7 @@
         <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>914</v>
+        <v>1100</v>
       </c>
       <c r="F33" t="s">
         <v>175</v>
@@ -4551,6 +5205,9 @@
       </c>
       <c r="I33" t="s">
         <v>840</v>
+      </c>
+      <c r="J33" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34">
@@ -4567,7 +5224,7 @@
         <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>915</v>
+        <v>1101</v>
       </c>
       <c r="F34" t="s">
         <v>179</v>
@@ -4580,6 +5237,9 @@
       </c>
       <c r="I34" t="s">
         <v>844</v>
+      </c>
+      <c r="J34" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="35">
@@ -4596,7 +5256,7 @@
         <v>597</v>
       </c>
       <c r="E35" t="s">
-        <v>916</v>
+        <v>1102</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -4609,6 +5269,9 @@
       </c>
       <c r="I35" t="s">
         <v>856</v>
+      </c>
+      <c r="J35" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="36">
@@ -4625,7 +5288,7 @@
         <v>599</v>
       </c>
       <c r="E36" t="s">
-        <v>917</v>
+        <v>1103</v>
       </c>
       <c r="F36" t="s">
         <v>189</v>
@@ -4638,6 +5301,9 @@
       </c>
       <c r="I36" t="s">
         <v>856</v>
+      </c>
+      <c r="J36" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="37">
@@ -4654,7 +5320,7 @@
         <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>918</v>
+        <v>1104</v>
       </c>
       <c r="F37" t="s">
         <v>194</v>
@@ -4667,6 +5333,9 @@
       </c>
       <c r="I37" t="s">
         <v>840</v>
+      </c>
+      <c r="J37" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="38">
@@ -4683,7 +5352,7 @@
         <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>919</v>
+        <v>1105</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -4696,6 +5365,9 @@
       </c>
       <c r="I38" t="s">
         <v>842</v>
+      </c>
+      <c r="J38" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="39">
@@ -4712,7 +5384,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>920</v>
+        <v>1106</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -4725,6 +5397,9 @@
       </c>
       <c r="I39" t="s">
         <v>840</v>
+      </c>
+      <c r="J39" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="40">
@@ -4741,7 +5416,7 @@
         <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>921</v>
+        <v>1107</v>
       </c>
       <c r="F40" t="s">
         <v>204</v>
@@ -4754,6 +5429,9 @@
       </c>
       <c r="I40" t="s">
         <v>844</v>
+      </c>
+      <c r="J40" t="s">
+        <v>82</v>
       </c>
     </row>
   </sheetData>

--- a/Covid_19_Dataset_and_References/References/11.xlsx
+++ b/Covid_19_Dataset_and_References/References/11.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7244" uniqueCount="1108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7884" uniqueCount="1180">
   <si>
     <t>Doi</t>
   </si>
@@ -3802,6 +3802,222 @@
   </si>
   <si>
     <t>[Brian%Hanley%NULL%1,                        Kikkeri N%Naresh%NULL%1,                        Candice%Roufosse%NULL%1,                        Andrew G%Nicholson%NULL%1,                        Justin%Weir%NULL%1,                        Graham S%Cooke%NULL%1,                        Mark%Thursz%NULL%1,                        Pinelopi%Manousou%NULL%1,                        Richard%Corbett%NULL%1,                        Robert%Goldin%NULL%1,                        Safa%Al-Sarraj%NULL%1,                        Alireza%Abdolrasouli%NULL%1,                        Olivia C%Swann%NULL%1,                        Laury%Baillon%NULL%1,                        Rebecca%Penn%NULL%1,                        Wendy S%Barclay%NULL%1,                        Patrizia%Viola%NULL%1,                        Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,                         Renata A A%Monteiro%NULL%2,                         Renata A A%Monteiro%NULL%0,                         Luiz F F%da Silva%NULL%1,                         Denise M A C%Malheiros%NULL%1,                         Ellen P%de Oliveira%NULL%1,                         Jair%Theodoro‐Filho%NULL%1,                         João R R%Pinho%NULL%1,                         Michele S%Gomes‐Gouvêa%NULL%1,                         Ana P M%Salles%NULL%1,                         Ilka R S%de Oliveira%NULL%1,                         Thais%Mauad%NULL%1,                         Paulo H N%Saldiva%NULL%1,                         Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,                       Burkhardt%Katrin%coreGivesNoEmail%1,                       Claus%Rainer%coreGivesNoEmail%1,                       Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,                       M\u00e4rkl%Bruno%coreGivesNoEmail%1,                       Schaller%Tina%coreGivesNoEmail%1,                       Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,                         Dwayne A.%Wolf%NULL%1,                         Bihong%Zhao%NULL%1,                         Bindu%Akkanti%NULL%1,                         Michelle%McDonald%NULL%1,                         Laura%Lelenwa%NULL%1,                         Noah%Reilly%NULL%1,                         Giulia%Ottaviani%NULL%1,                         M. Tarek%Elghetany%NULL%1,                         Daniel Ocazionez%Trujillo%NULL%1,                         Gabriel M.%Aisenberg%NULL%1,                         Mohammad%Madjid%NULL%1,                         Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,                         Erin G.%Brooks%NULL%1,                         Joshua%Akers%NULL%1,                         Danielle%Armstrong%NULL%1,                         Lauren%Decker%NULL%1,                         Adam%Gonzalez%NULL%1,                         William%Humphrey%NULL%1,                         Romana%Mayer%NULL%1,                         Matthew%Miller%NULL%1,                         Catherine%Perez%NULL%1,                         Jose Antonio Ruiz%Arango%NULL%1,                         Lakshmanan%Sathyavagiswaran%NULL%1,                         Wendy%Stroh%NULL%1,                         Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,                         Jan-Peter%Sperhake%NULL%2,                         Marc%Lütgehetmann%NULL%2,                         Stefan%Steurer%NULL%2,                         Carolin%Edler%NULL%1,                         Axel%Heinemann%NULL%2,                         Fabian%Heinrich%NULL%2,                         Herbert%Mushumba%NULL%2,                         Inga%Kniep%NULL%1,                         Ann Sophie%Schröder%NULL%2,                         Christoph%Burdelski%NULL%2,                         Geraldine%de Heer%NULL%2,                         Axel%Nierhaus%NULL%2,                         Daniel%Frings%NULL%2,                         Susanne%Pfefferle%NULL%1,                         Heinrich%Becker%NULL%1,                         Hanns%Bredereke-Wiedling%NULL%1,                         Andreas%de Weerth%NULL%2,                         Hans-Richard%Paschen%NULL%1,                         Sara%Sheikhzadeh-Eggers%NULL%1,                         Axel%Stang%NULL%1,                         Stefan%Schmiedel%NULL%1,                         Carsten%Bokemeyer%NULL%1,                         Marylyn M.%Addo%NULL%1,                         Martin%Aepfelbacher%NULL%2,                         Klaus%Püschel%NULL%2,                         Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,                         Jasmin D%Haslbauer%NULL%4,                         Jasmin D%Haslbauer%NULL%0,                         Ronny%Nienhold%NULL%2,                         Spasenija%Savic%NULL%2,                         Helmut%Hopfer%NULL%2,                         Nikolaus%Deigendesch%NULL%2,                         Stephan%Frank%NULL%2,                         Daniel%Turek%NULL%2,                         Niels%Willi%NULL%2,                         Hans%Pargger%NULL%2,                         Stefano%Bassetti%NULL%2,                         Joerg D%Leuppi%NULL%2,                         Gieri%Cathomas%NULL%2,                         Markus%Tolnay%NULL%2,                         Kirsten D%Mertz%NULL%2,                         Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,                         Jasmin D%Haslbauer%NULL%0,                         Jasmin D%Haslbauer%NULL%0,                         Ronny%Nienhold%NULL%0,                         Spasenija%Savic%NULL%0,                         Helmut%Hopfer%NULL%0,                         Nikolaus%Deigendesch%NULL%0,                         Stephan%Frank%NULL%0,                         Daniel%Turek%NULL%0,                         Niels%Willi%NULL%0,                         Hans%Pargger%NULL%0,                         Stefano%Bassetti%NULL%0,                         Joerg D%Leuppi%NULL%0,                         Gieri%Cathomas%NULL%0,                         Markus%Tolnay%NULL%0,                         Kirsten D%Mertz%NULL%0,                         Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,                         Andreas J%Flammer%NULL%1,                         Peter%Steiger%NULL%1,                         Martina%Haberecker%NULL%1,                         Rea%Andermatt%NULL%1,                         Annelies S%Zinkernagel%NULL%1,                         Mandeep R%Mehra%NULL%1,                         Reto A%Schuepbach%NULL%1,                         Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,                         Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,                         Yong%Xiong%NULL%0,                         Huan%Liu%NULL%3,                         Li%Niu%NULL%1,                         Jianchun%Guo%NULL%1,                         Meiyan%Liao%NULL%1,                         Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,                         Eric J%Duval%NULL%1,                         Edana%Stroberg%NULL%1,                         Subha%Ghosh%NULL%1,                         Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,                         Pilar%Alemany Monraval%NULL%1,                         Carmen%Medina Medina%NULL%1,                         Ana%Jiménez Sánchez%NULL%1,                         Juan Carlos%Andrés Teruel%NULL%1,                         José%Ferrando Marco%NULL%1,                         Víctor%Puglia Santos%NULL%1,                         Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,                         Ann Sophie%Schröder%NULL%0,                         Martin%Aepfelbacher%NULL%0,                         Antonia%Fitzek%NULL%1,                         Axel%Heinemann%NULL%0,                         Fabian%Heinrich%NULL%0,                         Anke%Klein%NULL%1,                         Felicia%Langenwalder%NULL%1,                         Marc%Lütgehetmann%NULL%0,                         Kira%Meißner%NULL%1,                         Klaus%Püschel%NULL%0,                         Julia%Schädler%NULL%1,                         Stefan%Steurer%NULL%0,                         Herbert%Mushumba%NULL%0,                         Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,                       Blankenberg%Stefan S%coreGivesNoEmail%1,                       Brauninger%Hanna%coreGivesNoEmail%1,                       Edler%Caroline%coreGivesNoEmail%1,                       Escher%Felicitas%coreGivesNoEmail%1,                       Fitzek%Antonia%coreGivesNoEmail%1,                       Kirchhof%Paulus%coreGivesNoEmail%1,                       Lindner%Diana%coreGivesNoEmail%1,                       Meissner%Kira%coreGivesNoEmail%1,                       Puschel%Klaus%coreGivesNoEmail%1,                       Scherschel%Katharina%coreGivesNoEmail%1,                       Schultheiss%Heinz-Peter%coreGivesNoEmail%1,                       Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,                         Holly%Harper%NULL%1,                         Behtash G%Nezami%NULL%1,                         Daniel L%Shen%NULL%1,                         Simona Pichler%Sekulic%NULL%1,                         Aaron T%Koeth%NULL%1,                         Clifford V%Harding%NULL%1,                         Hannah%Gilmore%NULL%1,                         Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,                         Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,                         Johannes Alexander%Lobrinus%NULL%2,                         Johannes Alexander%Lobrinus%NULL%0,                         Manuel%Schibler%NULL%1,                         Tony%Fracasso%NULL%1,                         Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,                         Aibek%Akmatbekov%NULL%1,                         Jack L%Harbert%NULL%1,                         Guang%Li%NULL%1,                         J%Quincy Brown%NULL%1,                         Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,                         Behnaz%Jahanbin%NULL%1,                         Masoomeh%Safaei%NULL%1,                         Laya%Amoozadeh%NULL%1,                         Meysam%Khoshavi%NULL%1,                         Vahid%Mehrtash%NULL%1,                         Bita%Jafarzadeh%NULL%1,                         Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,                         Jing%Xie%NULL%2,                         Lei%Zhao%NULL%1,                         Xiaochun%Fei%NULL%1,                         Heng%Zhang%NULL%1,                         Yun%Tan%NULL%1,                         Xiu%Nie%NULL%1,                         Luting%Zhou%NULL%1,                         Zhenhua%Liu%NULL%1,                         Yong%Ren%NULL%1,                         Ling%Yuan%NULL%1,                         Yu%Zhang%NULL%1,                         Jinsheng%Zhang%NULL%1,                         Liwei%Liang%NULL%1,                         Xinwei%Chen%NULL%1,                         Xin%Liu%NULL%1,                         Peng%Wang%NULL%1,                         Xiao%Han%NULL%1,                         Xiangqin%Weng%NULL%1,                         Ying%Chen%NULL%1,                         Ting%Yu%NULL%0,                         Xinxin%Zhang%NULL%0,                         Jun%Cai%caijun@shsmu.edu.cn%1,                         Rong%Chen%crjudy@126.com%2,                         Zhengli%Shi%zlshi@wh.iov.cn%2,                         Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,                         Selina%Traxler%NULL%2,                         Selina%Traxler%NULL%0,                         Michael%Bitzer%NULL%1,                         Helene%Häberle%NULL%1,                         Wolfgang%Raiser%NULL%1,                         Dominik%Nann%NULL%1,                         Leonie%Frauenfeld%NULL%1,                         Antonio%Vogelsberg%NULL%1,                         Karin%Klingel%NULL%1,                         Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,                         Thomas%Ruder%NULL%1,                         Rilana%Baumeister%NULL%1,                         Stephan%Bolliger%NULL%1,                         Michael%Thali%NULL%1,                         Eva%Meixner%NULL%1,                         Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,                         Lei%Shi%NULL%1,                         Yijin%Wang%NULL%1,                         Jiyuan%Zhang%NULL%1,                         Lei%Huang%NULL%2,                         Chao%Zhang%NULL%1,                         Shuhong%Liu%NULL%1,                         Peng%Zhao%NULL%1,                         Hongxia%Liu%NULL%1,                         Li%Zhu%NULL%1,                         Yanhong%Tai%NULL%1,                         Changqing%Bai%NULL%1,                         Tingting%Gao%NULL%1,                         Jinwen%Song%NULL%1,                         Peng%Xia%NULL%1,                         Jinghui%Dong%NULL%1,                         Jingmin%Zhao%NULL%1,                         Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,                         Benjamin%Gaborit%NULL%2,                         Benjamin%Gaborit%NULL%0,                         Claire%Toquet%NULL%1,                         Louise%Castain%NULL%1,                         Antonin%Bal%NULL%1,                         Pierre Paul%Arrigoni%NULL%1,                         Raphaël%Lecomte%NULL%1,                         Renaud%Clement%NULL%1,                         Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,                         Radu Lucian%Buzulică%NULL%1,                         Daniel%Pirici%NULL%1,                         Mihail Constantin%Ceauşu%NULL%1,                         Radu Vasile%Iman%NULL%1,                         Ovidiu-Mircea%Gheorghe%NULL%1,                         Simona Daniela%Neamţu%NULL%1,                         Liliana%Stanca%NULL%1,                         Răzvan%Ene%NULL%1,                         Samir%Kumar-Singh%NULL%1,                         Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,                         Alexander%Leunig%NULL%1,                         Sophia%Brambs%NULL%1,                         Rainer%Kaiser%NULL%1,                         Tobias%Weinberger%NULL%1,                         Michael%Weigand%NULL%1,                         Maximilian%Muenchhoff%NULL%1,                         Johannes C.%Hellmuth%NULL%1,                         Stephan%Ledderose%NULL%1,                         Heiko%Schulz%NULL%1,                         Clemens%Scherer%NULL%1,                         Martina%Rudelius%NULL%1,                         Michael%Zoller%NULL%1,                         Dominik%Höchter%NULL%1,                         Oliver%Keppler%NULL%1,                         Daniel%Teupser%NULL%1,                         Bernhard%Zwißler%NULL%1,                         Michael%von Bergwelt-Baildon%NULL%1,                         Stefan%Kääb%NULL%1,                         Steffen%Massberg%NULL%1,                         Kami%Pekayvaz%NULL%1,                         Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,                         Alexandra%Grosse%NULL%1,                         Helmut J.F.%Salzer%NULL%1,                         Martin W.%Dünser%NULL%1,                         Reinhard%Motz%NULL%1,                         Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,                         Ricardo%De Mendonça%NULL%1,                         Nicky%D’Haene%NULL%1,                         Sarah%De Clercq%NULL%1,                         Camille%Verocq%NULL%1,                         Laetitia%Lebrun%NULL%1,                         Philomène%Lavis%NULL%1,                         Marie-Lucie%Racu%NULL%1,                         Anne-Laure%Trépant%NULL%1,                         Calliope%Maris%NULL%1,                         Sandrine%Rorive%NULL%1,                         Jean-Christophe%Goffard%NULL%1,                         Olivier%De Witte%NULL%1,                         Lorenzo%Peluso%NULL%1,                         Jean-Louis%Vincent%NULL%1,                         Christine%Decaestecker%NULL%1,                         Fabio Silvio%Taccone%NULL%1,                         Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,                         Hiroyuki%Hayashi%NULL%2,                         Hiroyuki%Hayashi%NULL%0,                         Yukihiro%Yoshimura%NULL%1,                         Hiroaki%Sasaki%NULL%1,                         Hiroshi%Horiuchi%NULL%1,                         Nobuyuki%Miyata%NULL%1,                         Natsuo%Tachikawa%NULL%1,                         Yuki%Tsuchiya%NULL%1,                         Hideaki%Mitsui%NULL%1,                         Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,                         Ja-Mun%Chong%NULL%1,                         Noriko%Nakajima%NULL%1,                         Masahiro%Sano%NULL%1,                         Jun%Yamazaki%NULL%1,                         Ippei%Miyamoto%NULL%1,                         Haruka%Nishioka%NULL%1,                         Hidetaka%Akita%NULL%1,                         Yuko%Sato%NULL%1,                         Michiyo%Kataoka%NULL%1,                         Harutaka%Katano%NULL%1,                         Minoru%Tobiume%NULL%1,                         Tsuyoshi%Sekizuka%NULL%1,                         Kentaro%Itokawa%NULL%1,                         Makoto%Kuroda%NULL%1,                         Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,                         Anuradha%Lala%NULL%1,                         Emilia%Bagiella%NULL%1,                         Helena L.%Chang%NULL%1,                         Pedro R.%Moreno%NULL%1,                         Elisabet%Pujadas%NULL%1,                         Varun%Arvind%NULL%1,                         Sonali%Bose%NULL%1,                         Alexander W.%Charney%NULL%1,                         Martin D.%Chen%NULL%1,                         Carlos%Cordon-Cardo%NULL%1,                         Andrew S.%Dunn%NULL%1,                         Michael E.%Farkouh%NULL%1,                         Benjamin S.%Glicksberg%NULL%1,                         Arash%Kia%NULL%1,                         Roopa%Kohli-Seth%NULL%1,                         Matthew A.%Levin%NULL%1,                         Prem%Timsina%NULL%1,                         Shan%Zhao%NULL%1,                         Zahi A.%Fayad%NULL%5,                         Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,                         Kiran T.%Thakur%NULL%2,                         Kiran T.%Thakur%NULL%0,                         Anna S.%Nordvig%NULL%1,                         Morgan L.%Prust%NULL%1,                         William%Roth%NULL%1,                         Angela%Lignelli%NULL%1,                         Anne-Catrin%Uhlemann%NULL%1,                         Emily Happy%Miller%NULL%1,                         Shajo%Kunnath-Velayudhan%NULL%1,                         Armando%Del Portillo%NULL%1,                         Yang%Liu%NULL%1,                         Gunnar%Hargus%NULL%1,                         Andrew F.%Teich%NULL%1,                         Richard A.%Hickman%NULL%1,                         Kurenai%Tanji%NULL%1,                         James E.%Goldman%NULL%1,                         Phyllis L.%Faust%NULL%1,                         Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,                         Lilioara-Alexandra%Muja%NULL%2,                         Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,                         Chen%Shao%NULL%2,                         Chen%Shao%NULL%0,                         Xiao-jie%Huang%NULL%1,                         Lin%Sun%NULL%1,                         Ling-jia%Meng%NULL%1,                         Hui%Liu%NULL%2,                         Shi-jie%Zhang%NULL%1,                         Hong-jun%Li%NULL%1,                         Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,                       Ficken%C.%coreGivesNoEmail%1,                       Goddard%M.%coreGivesNoEmail%1,                       Jensen%M. P.%coreGivesNoEmail%1,                       Le%Quesne J.%coreGivesNoEmail%1,                       Menon%D.%coreGivesNoEmail%1,                       Officer\u2010Jones%L.%coreGivesNoEmail%1,                       Smith%C.%coreGivesNoEmail%1,                       Teod\u00f2sio%A.%coreGivesNoEmail%1,                       Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,                         Maria%Mostyka%NULL%1,                         Alicia%Dillard%NULL%1,                         Diana R.%Berman%NULL%1,                         Lucy X.%Ma%NULL%1,                         Amy%Chadburn%NULL%1,                         Rhonda K.%Yantiss%NULL%1,                         Jose%Jessurun%NULL%1,                         Surya V.%Seshan%NULL%1,                         Alain C.%Borczuk%NULL%1,                         Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,                         Kikkeri N%Naresh%NULL%1,                         Candice%Roufosse%NULL%1,                         Andrew G%Nicholson%NULL%1,                         Justin%Weir%NULL%1,                         Graham S%Cooke%NULL%1,                         Mark%Thursz%NULL%1,                         Pinelopi%Manousou%NULL%1,                         Richard%Corbett%NULL%1,                         Robert%Goldin%NULL%1,                         Safa%Al-Sarraj%NULL%1,                         Alireza%Abdolrasouli%NULL%1,                         Olivia C%Swann%NULL%1,                         Laury%Baillon%NULL%1,                         Rebecca%Penn%NULL%1,                         Wendy S%Barclay%NULL%1,                         Patrizia%Viola%NULL%1,                         Michael%Osborn%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Amaro N%Duarte‐Neto%NULL%1,                          Renata A A%Monteiro%NULL%2,                          Renata A A%Monteiro%NULL%0,                          Luiz F F%da Silva%NULL%1,                          Denise M A C%Malheiros%NULL%1,                          Ellen P%de Oliveira%NULL%1,                          Jair%Theodoro‐Filho%NULL%1,                          João R R%Pinho%NULL%1,                          Michele S%Gomes‐Gouvêa%NULL%1,                          Ana P M%Salles%NULL%1,                          Ilka R S%de Oliveira%NULL%1,                          Thais%Mauad%NULL%1,                          Paulo H N%Saldiva%NULL%1,                          Marisa%Dolhnikoff%maridol@usp.br%1]</t>
+  </si>
+  <si>
+    <t>[Braun%Georg%coreGivesNoEmail%1,                        Burkhardt%Katrin%coreGivesNoEmail%1,                        Claus%Rainer%coreGivesNoEmail%1,                        Hirschb\u00fchl%Klaus%coreGivesNoEmail%1,                        M\u00e4rkl%Bruno%coreGivesNoEmail%1,                        Schaller%Tina%coreGivesNoEmail%1,                        Trepel%Martin%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Louis Maximilian%Buja%l.maximilian.buja@uth.tmc.edu%1,                          Dwayne A.%Wolf%NULL%1,                          Bihong%Zhao%NULL%1,                          Bindu%Akkanti%NULL%1,                          Michelle%McDonald%NULL%1,                          Laura%Lelenwa%NULL%1,                          Noah%Reilly%NULL%1,                          Giulia%Ottaviani%NULL%1,                          M. Tarek%Elghetany%NULL%1,                          Daniel Ocazionez%Trujillo%NULL%1,                          Gabriel M.%Aisenberg%NULL%1,                          Mohammad%Madjid%NULL%1,                          Biswajit%Kar%NULL%1]</t>
+  </si>
+  <si>
+    <t>[J. Matthew%Lacy%NULL%1,                          Erin G.%Brooks%NULL%1,                          Joshua%Akers%NULL%1,                          Danielle%Armstrong%NULL%1,                          Lauren%Decker%NULL%1,                          Adam%Gonzalez%NULL%1,                          William%Humphrey%NULL%1,                          Romana%Mayer%NULL%1,                          Matthew%Miller%NULL%1,                          Catherine%Perez%NULL%1,                          Jose Antonio Ruiz%Arango%NULL%1,                          Lakshmanan%Sathyavagiswaran%NULL%1,                          Wendy%Stroh%NULL%1,                          Suzanne%Utley%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Dominic%Wichmann%NULL%1,                          Jan-Peter%Sperhake%NULL%2,                          Marc%Lütgehetmann%NULL%2,                          Stefan%Steurer%NULL%2,                          Carolin%Edler%NULL%1,                          Axel%Heinemann%NULL%2,                          Fabian%Heinrich%NULL%2,                          Herbert%Mushumba%NULL%2,                          Inga%Kniep%NULL%1,                          Ann Sophie%Schröder%NULL%2,                          Christoph%Burdelski%NULL%2,                          Geraldine%de Heer%NULL%2,                          Axel%Nierhaus%NULL%2,                          Daniel%Frings%NULL%2,                          Susanne%Pfefferle%NULL%1,                          Heinrich%Becker%NULL%1,                          Hanns%Bredereke-Wiedling%NULL%1,                          Andreas%de Weerth%NULL%2,                          Hans-Richard%Paschen%NULL%1,                          Sara%Sheikhzadeh-Eggers%NULL%1,                          Axel%Stang%NULL%1,                          Stefan%Schmiedel%NULL%1,                          Carsten%Bokemeyer%NULL%1,                          Marylyn M.%Addo%NULL%1,                          Martin%Aepfelbacher%NULL%2,                          Klaus%Püschel%NULL%2,                          Stefan%Kluge%NULL%3]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%2,                          Jasmin D%Haslbauer%NULL%4,                          Jasmin D%Haslbauer%NULL%0,                          Ronny%Nienhold%NULL%2,                          Spasenija%Savic%NULL%2,                          Helmut%Hopfer%NULL%2,                          Nikolaus%Deigendesch%NULL%2,                          Stephan%Frank%NULL%2,                          Daniel%Turek%NULL%2,                          Niels%Willi%NULL%2,                          Hans%Pargger%NULL%2,                          Stefano%Bassetti%NULL%2,                          Joerg D%Leuppi%NULL%2,                          Gieri%Cathomas%NULL%2,                          Markus%Tolnay%NULL%2,                          Kirsten D%Mertz%NULL%2,                          Alexandar%Tzankov%alexandar.tzankov@usb.ch%2]</t>
+  </si>
+  <si>
+    <t>[Thomas%Menter%NULL%0,                          Jasmin D%Haslbauer%NULL%0,                          Jasmin D%Haslbauer%NULL%0,                          Ronny%Nienhold%NULL%0,                          Spasenija%Savic%NULL%0,                          Helmut%Hopfer%NULL%0,                          Nikolaus%Deigendesch%NULL%0,                          Stephan%Frank%NULL%0,                          Daniel%Turek%NULL%0,                          Niels%Willi%NULL%0,                          Hans%Pargger%NULL%0,                          Stefano%Bassetti%NULL%0,                          Joerg D%Leuppi%NULL%0,                          Gieri%Cathomas%NULL%0,                          Markus%Tolnay%NULL%0,                          Kirsten D%Mertz%NULL%0,                          Alexandar%Tzankov%alexandar.tzankov@usb.ch%0]</t>
+  </si>
+  <si>
+    <t>[Zsuzsanna%Varga%NULL%1,                          Andreas J%Flammer%NULL%1,                          Peter%Steiger%NULL%1,                          Martina%Haberecker%NULL%1,                          Rea%Andermatt%NULL%1,                          Annelies S%Zinkernagel%NULL%1,                          Mandeep R%Mehra%NULL%1,                          Reto A%Schuepbach%NULL%1,                          Frank%Ruschitzka%frank.ruschitzka@usz.ch%1,                          Holger%Moch%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sufang%Tian%NULL%1,                          Yong%Xiong%NULL%0,                          Huan%Liu%NULL%3,                          Li%Niu%NULL%1,                          Jianchun%Guo%NULL%1,                          Meiyan%Liao%NULL%1,                          Shu-Yuan%Xiao%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Lisa M%Barton%NULL%1,                          Eric J%Duval%NULL%1,                          Edana%Stroberg%NULL%1,                          Subha%Ghosh%NULL%1,                          Sanjay%Mukhopadhyay%mukhops@ccf.org%1]</t>
+  </si>
+  <si>
+    <t>[Pedro%Navarro Conde%navarro_ped@gva.es%1,                          Pilar%Alemany Monraval%NULL%1,                          Carmen%Medina Medina%NULL%1,                          Ana%Jiménez Sánchez%NULL%1,                          Juan Carlos%Andrés Teruel%NULL%1,                          José%Ferrando Marco%NULL%1,                          Víctor%Puglia Santos%NULL%1,                          Empar%Mayordomo Aranda%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Carolin%Edler%NULL%1,                          Ann Sophie%Schröder%NULL%0,                          Martin%Aepfelbacher%NULL%0,                          Antonia%Fitzek%NULL%1,                          Axel%Heinemann%NULL%0,                          Fabian%Heinrich%NULL%0,                          Anke%Klein%NULL%1,                          Felicia%Langenwalder%NULL%1,                          Marc%Lütgehetmann%NULL%0,                          Kira%Meißner%NULL%1,                          Klaus%Püschel%NULL%0,                          Julia%Schädler%NULL%1,                          Stefan%Steurer%NULL%0,                          Herbert%Mushumba%NULL%0,                          Jan-Peter%Sperhake%sperhake@uke.de%0]</t>
+  </si>
+  <si>
+    <t>[Aleshcheva%Ganna%coreGivesNoEmail%1,                        Blankenberg%Stefan S%coreGivesNoEmail%1,                        Brauninger%Hanna%coreGivesNoEmail%1,                        Edler%Caroline%coreGivesNoEmail%1,                        Escher%Felicitas%coreGivesNoEmail%1,                        Fitzek%Antonia%coreGivesNoEmail%1,                        Kirchhof%Paulus%coreGivesNoEmail%1,                        Lindner%Diana%coreGivesNoEmail%1,                        Meissner%Kira%coreGivesNoEmail%1,                        Puschel%Klaus%coreGivesNoEmail%1,                        Scherschel%Katharina%coreGivesNoEmail%1,                        Schultheiss%Heinz-Peter%coreGivesNoEmail%1,                        Westermann%Dirk%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Miroslav%Sekulic%NULL%1,                          Holly%Harper%NULL%1,                          Behtash G%Nezami%NULL%1,                          Daniel L%Shen%NULL%1,                          Simona Pichler%Sekulic%NULL%1,                          Aaron T%Koeth%NULL%1,                          Clifford V%Harding%NULL%1,                          Hannah%Gilmore%NULL%1,                          Navid%Sadri%navid.sadri@uhhospitals.org%1]</t>
+  </si>
+  <si>
+    <t>[Christine%Suess%NULL%1,                          Roland%Hausmann%roland.hausmann@kssg.ch%1]</t>
+  </si>
+  <si>
+    <t>[Diego%Aguiar%diego.aguiar@hcuge.ch%1,                          Johannes Alexander%Lobrinus%NULL%2,                          Johannes Alexander%Lobrinus%NULL%0,                          Manuel%Schibler%NULL%1,                          Tony%Fracasso%NULL%1,                          Christelle%Lardi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Sharon E%Fox%NULL%1,                          Aibek%Akmatbekov%NULL%1,                          Jack L%Harbert%NULL%1,                          Guang%Li%NULL%1,                          J%Quincy Brown%NULL%1,                          Richard S%Vander Heide%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mohammad Taghi%Beigmohammadi%NULL%1,                          Behnaz%Jahanbin%NULL%1,                          Masoomeh%Safaei%NULL%1,                          Laya%Amoozadeh%NULL%1,                          Meysam%Khoshavi%NULL%1,                          Vahid%Mehrtash%NULL%1,                          Bita%Jafarzadeh%NULL%1,                          Alireza%Abdollahi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Chaofu%Wang%wangchaofu@126.com%1,                          Jing%Xie%NULL%2,                          Lei%Zhao%NULL%1,                          Xiaochun%Fei%NULL%1,                          Heng%Zhang%NULL%1,                          Yun%Tan%NULL%1,                          Xiu%Nie%NULL%1,                          Luting%Zhou%NULL%1,                          Zhenhua%Liu%NULL%1,                          Yong%Ren%NULL%1,                          Ling%Yuan%NULL%1,                          Yu%Zhang%NULL%1,                          Jinsheng%Zhang%NULL%1,                          Liwei%Liang%NULL%1,                          Xinwei%Chen%NULL%1,                          Xin%Liu%NULL%1,                          Peng%Wang%NULL%1,                          Xiao%Han%NULL%1,                          Xiangqin%Weng%NULL%1,                          Ying%Chen%NULL%1,                          Ting%Yu%NULL%0,                          Xinxin%Zhang%NULL%0,                          Jun%Cai%caijun@shsmu.edu.cn%1,                          Rong%Chen%crjudy@126.com%2,                          Zhengli%Shi%zlshi@wh.iov.cn%2,                          Xiuwu%Bian%bianxiuwu@263.net%1]</t>
+  </si>
+  <si>
+    <t>[Hans%Bösmüller%hans.boesmueller@med.uni-tuebingen.de%1,                          Selina%Traxler%NULL%2,                          Selina%Traxler%NULL%0,                          Michael%Bitzer%NULL%1,                          Helene%Häberle%NULL%1,                          Wolfgang%Raiser%NULL%1,                          Dominik%Nann%NULL%1,                          Leonie%Frauenfeld%NULL%1,                          Antonio%Vogelsberg%NULL%1,                          Karin%Klingel%NULL%1,                          Falko%Fend%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Wolf%Schweitzer%wolf.schweitzer@irm.uzh.ch%1,                          Thomas%Ruder%NULL%1,                          Rilana%Baumeister%NULL%1,                          Stephan%Bolliger%NULL%1,                          Michael%Thali%NULL%1,                          Eva%Meixner%NULL%1,                          Garyfalia%Ampanozi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Zhe%Xu%NULL%1,                          Lei%Shi%NULL%1,                          Yijin%Wang%NULL%1,                          Jiyuan%Zhang%NULL%1,                          Lei%Huang%NULL%2,                          Chao%Zhang%NULL%1,                          Shuhong%Liu%NULL%1,                          Peng%Zhao%NULL%1,                          Hongxia%Liu%NULL%1,                          Li%Zhu%NULL%1,                          Yanhong%Tai%NULL%1,                          Changqing%Bai%NULL%1,                          Tingting%Gao%NULL%1,                          Jinwen%Song%NULL%1,                          Peng%Xia%NULL%1,                          Jinghui%Dong%NULL%1,                          Jingmin%Zhao%NULL%1,                          Fu-Sheng%Wang%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Mathilde%Ducloyer%Mathilde.ducloyer@chu-nantes.fr%1,                          Benjamin%Gaborit%NULL%2,                          Benjamin%Gaborit%NULL%0,                          Claire%Toquet%NULL%1,                          Louise%Castain%NULL%1,                          Antonin%Bal%NULL%1,                          Pierre Paul%Arrigoni%NULL%1,                          Raphaël%Lecomte%NULL%1,                          Renaud%Clement%NULL%1,                          Christine%Sagan%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Andreea-Elena%Cîrstea%NULL%1,                          Radu Lucian%Buzulică%NULL%1,                          Daniel%Pirici%NULL%1,                          Mihail Constantin%Ceauşu%NULL%1,                          Radu Vasile%Iman%NULL%1,                          Ovidiu-Mircea%Gheorghe%NULL%1,                          Simona Daniela%Neamţu%NULL%1,                          Liliana%Stanca%NULL%1,                          Răzvan%Ene%NULL%1,                          Samir%Kumar-Singh%NULL%1,                          Laurenţiu%Mogoantă%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Leo%Nicolai%NULL%1,                          Alexander%Leunig%NULL%1,                          Sophia%Brambs%NULL%1,                          Rainer%Kaiser%NULL%1,                          Tobias%Weinberger%NULL%1,                          Michael%Weigand%NULL%1,                          Maximilian%Muenchhoff%NULL%1,                          Johannes C.%Hellmuth%NULL%1,                          Stephan%Ledderose%NULL%1,                          Heiko%Schulz%NULL%1,                          Clemens%Scherer%NULL%1,                          Martina%Rudelius%NULL%1,                          Michael%Zoller%NULL%1,                          Dominik%Höchter%NULL%1,                          Oliver%Keppler%NULL%1,                          Daniel%Teupser%NULL%1,                          Bernhard%Zwißler%NULL%1,                          Michael%von Bergwelt-Baildon%NULL%1,                          Stefan%Kääb%NULL%1,                          Steffen%Massberg%NULL%1,                          Kami%Pekayvaz%NULL%1,                          Konstantin%Stark%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Claudia%Grosse%NULL%1,                          Alexandra%Grosse%NULL%1,                          Helmut J.F.%Salzer%NULL%1,                          Martin W.%Dünser%NULL%1,                          Reinhard%Motz%NULL%1,                          Rupert%Langer%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Myriam%Remmelink%NULL%1,                          Ricardo%De Mendonça%NULL%1,                          Nicky%D’Haene%NULL%1,                          Sarah%De Clercq%NULL%1,                          Camille%Verocq%NULL%1,                          Laetitia%Lebrun%NULL%1,                          Philomène%Lavis%NULL%1,                          Marie-Lucie%Racu%NULL%1,                          Anne-Laure%Trépant%NULL%1,                          Calliope%Maris%NULL%1,                          Sandrine%Rorive%NULL%1,                          Jean-Christophe%Goffard%NULL%1,                          Olivier%De Witte%NULL%1,                          Lorenzo%Peluso%NULL%1,                          Jean-Louis%Vincent%NULL%1,                          Christine%Decaestecker%NULL%1,                          Fabio Silvio%Taccone%NULL%1,                          Isabelle%Salmon%Isabelle.Salmon@erasme.ulb.ac.be%1]</t>
+  </si>
+  <si>
+    <t>[Koji%Okudela%kojixok@yokohama.cu.ac.jp%1,                          Hiroyuki%Hayashi%NULL%2,                          Hiroyuki%Hayashi%NULL%0,                          Yukihiro%Yoshimura%NULL%1,                          Hiroaki%Sasaki%NULL%1,                          Hiroshi%Horiuchi%NULL%1,                          Nobuyuki%Miyata%NULL%1,                          Natsuo%Tachikawa%NULL%1,                          Yuki%Tsuchiya%NULL%1,                          Hideaki%Mitsui%NULL%1,                          Kenichi%Ohashi%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Takuya%Adachi%NULL%1,                          Ja-Mun%Chong%NULL%1,                          Noriko%Nakajima%NULL%1,                          Masahiro%Sano%NULL%1,                          Jun%Yamazaki%NULL%1,                          Ippei%Miyamoto%NULL%1,                          Haruka%Nishioka%NULL%1,                          Hidetaka%Akita%NULL%1,                          Yuko%Sato%NULL%1,                          Michiyo%Kataoka%NULL%1,                          Harutaka%Katano%NULL%1,                          Minoru%Tobiume%NULL%1,                          Tsuyoshi%Sekizuka%NULL%1,                          Kentaro%Itokawa%NULL%1,                          Makoto%Kuroda%NULL%1,                          Tadaki%Suzuki%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Girish N.%Nadkarni%NULL%1,                          Anuradha%Lala%NULL%1,                          Emilia%Bagiella%NULL%1,                          Helena L.%Chang%NULL%1,                          Pedro R.%Moreno%NULL%1,                          Elisabet%Pujadas%NULL%1,                          Varun%Arvind%NULL%1,                          Sonali%Bose%NULL%1,                          Alexander W.%Charney%NULL%1,                          Martin D.%Chen%NULL%1,                          Carlos%Cordon-Cardo%NULL%1,                          Andrew S.%Dunn%NULL%1,                          Michael E.%Farkouh%NULL%1,                          Benjamin S.%Glicksberg%NULL%1,                          Arash%Kia%NULL%1,                          Roopa%Kohli-Seth%NULL%1,                          Matthew A.%Levin%NULL%1,                          Prem%Timsina%NULL%1,                          Shan%Zhao%NULL%1,                          Zahi A.%Fayad%NULL%5,                          Valentin%Fuster%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Osama%Al-Dalahmah%oa2298@cumc.columbia.edu%1,                          Kiran T.%Thakur%NULL%2,                          Kiran T.%Thakur%NULL%0,                          Anna S.%Nordvig%NULL%1,                          Morgan L.%Prust%NULL%1,                          William%Roth%NULL%1,                          Angela%Lignelli%NULL%1,                          Anne-Catrin%Uhlemann%NULL%1,                          Emily Happy%Miller%NULL%1,                          Shajo%Kunnath-Velayudhan%NULL%1,                          Armando%Del Portillo%NULL%1,                          Yang%Liu%NULL%1,                          Gunnar%Hargus%NULL%1,                          Andrew F.%Teich%NULL%1,                          Richard A.%Hickman%NULL%1,                          Kurenai%Tanji%NULL%1,                          James E.%Goldman%NULL%1,                          Phyllis L.%Faust%NULL%1,                          Peter%Canoll%NULL%1]</t>
+  </si>
+  <si>
+    <t>[George-Călin%Oprinca%george_oprinca@yahoo.com%1,                          Lilioara-Alexandra%Muja%NULL%2,                          Lilioara-Alexandra%Muja%NULL%0]</t>
+  </si>
+  <si>
+    <t>[Xin-xin%Wang%NULL%1,                          Chen%Shao%NULL%2,                          Chen%Shao%NULL%0,                          Xiao-jie%Huang%NULL%1,                          Lin%Sun%NULL%1,                          Ling-jia%Meng%NULL%1,                          Hui%Liu%NULL%2,                          Shi-jie%Zhang%NULL%1,                          Hong-jun%Li%NULL%1,                          Fu-dong%Lv%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Allinson%K. S. J.%coreGivesNoEmail%1,                        Ficken%C.%coreGivesNoEmail%1,                        Goddard%M.%coreGivesNoEmail%1,                        Jensen%M. P.%coreGivesNoEmail%1,                        Le%Quesne J.%coreGivesNoEmail%1,                        Menon%D.%coreGivesNoEmail%1,                        Officer\u2010Jones%L.%coreGivesNoEmail%1,                        Smith%C.%coreGivesNoEmail%1,                        Teod\u00f2sio%A.%coreGivesNoEmail%1,                        Thaventhiran%J.%coreGivesNoEmail%1]</t>
+  </si>
+  <si>
+    <t>[Sarah S.%Elsoukkary%NULL%1,                          Maria%Mostyka%NULL%1,                          Alicia%Dillard%NULL%1,                          Diana R.%Berman%NULL%1,                          Lucy X.%Ma%NULL%1,                          Amy%Chadburn%NULL%1,                          Rhonda K.%Yantiss%NULL%1,                          Jose%Jessurun%NULL%1,                          Surya V.%Seshan%NULL%1,                          Alain C.%Borczuk%NULL%1,                          Steven P.%Salvatore%NULL%1]</t>
+  </si>
+  <si>
+    <t>[Brian%Hanley%NULL%1,                          Kikkeri N%Naresh%NULL%1,                          Candice%Roufosse%NULL%1,                          Andrew G%Nicholson%NULL%1,                          Justin%Weir%NULL%1,                          Graham S%Cooke%NULL%1,                          Mark%Thursz%NULL%1,                          Pinelopi%Manousou%NULL%1,                          Richard%Corbett%NULL%1,                          Robert%Goldin%NULL%1,                          Safa%Al-Sarraj%NULL%1,                          Alireza%Abdolrasouli%NULL%1,                          Olivia C%Swann%NULL%1,                          Laury%Baillon%NULL%1,                          Rebecca%Penn%NULL%1,                          Wendy S%Barclay%NULL%1,                          Patrizia%Viola%NULL%1,                          Michael%Osborn%NULL%1]</t>
   </si>
 </sst>
 </file>
@@ -4200,7 +4416,7 @@
         <v>55</v>
       </c>
       <c r="E2" t="s">
-        <v>1072</v>
+        <v>1144</v>
       </c>
       <c r="F2" t="s">
         <v>57</v>
@@ -4232,7 +4448,7 @@
         <v>47</v>
       </c>
       <c r="E3" t="s">
-        <v>1073</v>
+        <v>1145</v>
       </c>
       <c r="F3" t="s">
         <v>3</v>
@@ -4264,7 +4480,7 @@
         <v>62</v>
       </c>
       <c r="E4" t="s">
-        <v>1074</v>
+        <v>1146</v>
       </c>
       <c r="F4" t="s">
         <v>64</v>
@@ -4296,7 +4512,7 @@
         <v>397</v>
       </c>
       <c r="E5" t="s">
-        <v>562</v>
+        <v>647</v>
       </c>
       <c r="F5" t="s">
         <v>6</v>
@@ -4328,7 +4544,7 @@
         <v>67</v>
       </c>
       <c r="E6" t="s">
-        <v>1075</v>
+        <v>1147</v>
       </c>
       <c r="F6" t="s">
         <v>69</v>
@@ -4360,7 +4576,7 @@
         <v>72</v>
       </c>
       <c r="E7" t="s">
-        <v>1076</v>
+        <v>1148</v>
       </c>
       <c r="F7" t="s">
         <v>74</v>
@@ -4392,7 +4608,7 @@
         <v>76</v>
       </c>
       <c r="E8" t="s">
-        <v>1077</v>
+        <v>1149</v>
       </c>
       <c r="F8" t="s">
         <v>78</v>
@@ -4424,7 +4640,7 @@
         <v>76</v>
       </c>
       <c r="E9" t="s">
-        <v>1078</v>
+        <v>1150</v>
       </c>
       <c r="F9" t="s">
         <v>78</v>
@@ -4456,7 +4672,7 @@
         <v>82</v>
       </c>
       <c r="E10" t="s">
-        <v>1079</v>
+        <v>1151</v>
       </c>
       <c r="F10" t="s">
         <v>84</v>
@@ -4488,7 +4704,7 @@
         <v>86</v>
       </c>
       <c r="E11" t="s">
-        <v>1080</v>
+        <v>1152</v>
       </c>
       <c r="F11" t="s">
         <v>88</v>
@@ -4520,7 +4736,7 @@
         <v>91</v>
       </c>
       <c r="E12" t="s">
-        <v>1081</v>
+        <v>1153</v>
       </c>
       <c r="F12" t="s">
         <v>93</v>
@@ -4552,7 +4768,7 @@
         <v>95</v>
       </c>
       <c r="E13" t="s">
-        <v>1082</v>
+        <v>1154</v>
       </c>
       <c r="F13" t="s">
         <v>97</v>
@@ -4584,7 +4800,7 @@
         <v>571</v>
       </c>
       <c r="E14" t="s">
-        <v>1083</v>
+        <v>1155</v>
       </c>
       <c r="F14" t="s">
         <v>101</v>
@@ -4616,7 +4832,7 @@
         <v>258</v>
       </c>
       <c r="E15" t="s">
-        <v>1084</v>
+        <v>1156</v>
       </c>
       <c r="F15" t="s">
         <v>16</v>
@@ -4648,7 +4864,7 @@
         <v>104</v>
       </c>
       <c r="E16" t="s">
-        <v>1085</v>
+        <v>1157</v>
       </c>
       <c r="F16" t="s">
         <v>106</v>
@@ -4680,7 +4896,7 @@
         <v>575</v>
       </c>
       <c r="E17" t="s">
-        <v>1086</v>
+        <v>1158</v>
       </c>
       <c r="F17" t="s">
         <v>110</v>
@@ -4712,7 +4928,7 @@
         <v>577</v>
       </c>
       <c r="E18" t="s">
-        <v>1087</v>
+        <v>1159</v>
       </c>
       <c r="F18" t="s">
         <v>115</v>
@@ -4744,7 +4960,7 @@
         <v>117</v>
       </c>
       <c r="E19" t="s">
-        <v>1088</v>
+        <v>1160</v>
       </c>
       <c r="F19" t="s">
         <v>119</v>
@@ -4776,7 +4992,7 @@
         <v>121</v>
       </c>
       <c r="E20" t="s">
-        <v>1089</v>
+        <v>1161</v>
       </c>
       <c r="F20" t="s">
         <v>123</v>
@@ -4808,7 +5024,7 @@
         <v>125</v>
       </c>
       <c r="E21" t="s">
-        <v>1090</v>
+        <v>1162</v>
       </c>
       <c r="F21" t="s">
         <v>127</v>
@@ -4840,7 +5056,7 @@
         <v>130</v>
       </c>
       <c r="E22" t="s">
-        <v>1091</v>
+        <v>1163</v>
       </c>
       <c r="F22" t="s">
         <v>132</v>
@@ -4872,7 +5088,7 @@
         <v>135</v>
       </c>
       <c r="E23" t="s">
-        <v>1092</v>
+        <v>1164</v>
       </c>
       <c r="F23" t="s">
         <v>137</v>
@@ -4904,7 +5120,7 @@
         <v>82</v>
       </c>
       <c r="E24" t="s">
-        <v>1093</v>
+        <v>1165</v>
       </c>
       <c r="F24" t="s">
         <v>141</v>
@@ -4936,7 +5152,7 @@
         <v>421</v>
       </c>
       <c r="E25" t="s">
-        <v>585</v>
+        <v>667</v>
       </c>
       <c r="F25" t="s">
         <v>26</v>
@@ -4968,7 +5184,7 @@
         <v>586</v>
       </c>
       <c r="E26" t="s">
-        <v>1094</v>
+        <v>1166</v>
       </c>
       <c r="F26" t="s">
         <v>145</v>
@@ -5000,7 +5216,7 @@
         <v>148</v>
       </c>
       <c r="E27" t="s">
-        <v>1095</v>
+        <v>1167</v>
       </c>
       <c r="F27" t="s">
         <v>150</v>
@@ -5032,7 +5248,7 @@
         <v>153</v>
       </c>
       <c r="E28" t="s">
-        <v>1096</v>
+        <v>1168</v>
       </c>
       <c r="F28" t="s">
         <v>155</v>
@@ -5064,7 +5280,7 @@
         <v>158</v>
       </c>
       <c r="E29" t="s">
-        <v>1097</v>
+        <v>1169</v>
       </c>
       <c r="F29" t="s">
         <v>160</v>
@@ -5096,7 +5312,7 @@
         <v>429</v>
       </c>
       <c r="E30" t="s">
-        <v>591</v>
+        <v>672</v>
       </c>
       <c r="F30" t="s">
         <v>32</v>
@@ -5128,7 +5344,7 @@
         <v>592</v>
       </c>
       <c r="E31" t="s">
-        <v>1098</v>
+        <v>1170</v>
       </c>
       <c r="F31" t="s">
         <v>165</v>
@@ -5160,7 +5376,7 @@
         <v>168</v>
       </c>
       <c r="E32" t="s">
-        <v>1099</v>
+        <v>1171</v>
       </c>
       <c r="F32" t="s">
         <v>170</v>
@@ -5192,7 +5408,7 @@
         <v>173</v>
       </c>
       <c r="E33" t="s">
-        <v>1100</v>
+        <v>1172</v>
       </c>
       <c r="F33" t="s">
         <v>175</v>
@@ -5224,7 +5440,7 @@
         <v>177</v>
       </c>
       <c r="E34" t="s">
-        <v>1101</v>
+        <v>1173</v>
       </c>
       <c r="F34" t="s">
         <v>179</v>
@@ -5256,7 +5472,7 @@
         <v>597</v>
       </c>
       <c r="E35" t="s">
-        <v>1102</v>
+        <v>1174</v>
       </c>
       <c r="F35" t="s">
         <v>184</v>
@@ -5288,7 +5504,7 @@
         <v>599</v>
       </c>
       <c r="E36" t="s">
-        <v>1103</v>
+        <v>1175</v>
       </c>
       <c r="F36" t="s">
         <v>189</v>
@@ -5320,7 +5536,7 @@
         <v>192</v>
       </c>
       <c r="E37" t="s">
-        <v>1104</v>
+        <v>1176</v>
       </c>
       <c r="F37" t="s">
         <v>194</v>
@@ -5352,7 +5568,7 @@
         <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>1105</v>
+        <v>1177</v>
       </c>
       <c r="F38" t="s">
         <v>40</v>
@@ -5384,7 +5600,7 @@
         <v>197</v>
       </c>
       <c r="E39" t="s">
-        <v>1106</v>
+        <v>1178</v>
       </c>
       <c r="F39" t="s">
         <v>199</v>
@@ -5416,7 +5632,7 @@
         <v>202</v>
       </c>
       <c r="E40" t="s">
-        <v>1107</v>
+        <v>1179</v>
       </c>
       <c r="F40" t="s">
         <v>204</v>
